--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B6050D6E-A6D2-4B44-B27A-9A695AF93A93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8850" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8850" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,9 @@
     <sheet name="Registration Processor" sheetId="4" r:id="rId4"/>
     <sheet name="ID-Authentication " sheetId="5" r:id="rId5"/>
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
+    <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="299">
   <si>
     <r>
       <rPr>
@@ -1120,11 +1120,101 @@
   <si>
     <t xml:space="preserve">Set up  Authentication Quality Single and Composite Threshold for IRIS </t>
   </si>
+  <si>
+    <t>Configurations: Global</t>
+  </si>
+  <si>
+    <t>OTP Length</t>
+  </si>
+  <si>
+    <t>RID Length</t>
+  </si>
+  <si>
+    <t>Machine ID Length</t>
+  </si>
+  <si>
+    <t>RID Sequence Length</t>
+  </si>
+  <si>
+    <t>RID Timestamp Length</t>
+  </si>
+  <si>
+    <t>Country Specific Country Code</t>
+  </si>
+  <si>
+    <t>Mobile Number Maximum Length</t>
+  </si>
+  <si>
+    <t>Mobile Number Minimum length</t>
+  </si>
+  <si>
+    <t>Mobile Number Special Character Allwoed</t>
+  </si>
+  <si>
+    <t>Email Max Length</t>
+  </si>
+  <si>
+    <t>Email Min Length</t>
+  </si>
+  <si>
+    <t>Email Special Character Allowed</t>
+  </si>
+  <si>
+    <t>Email Domain Extension min legth</t>
+  </si>
+  <si>
+    <t>Email Domain max length</t>
+  </si>
+  <si>
+    <t>Email Domain Special Character</t>
+  </si>
+  <si>
+    <t>Blacklisted Words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of UIN to generate - Number of UIN to be pre-generated </t>
+  </si>
+  <si>
+    <t>Minimum Unused Threshold - Minimum UIN remaining in the pool to trigger UIN pre-generation</t>
+  </si>
+  <si>
+    <t>Email Vendor Host</t>
+  </si>
+  <si>
+    <t>Email Vendor Username</t>
+  </si>
+  <si>
+    <t>Email Vendor Password</t>
+  </si>
+  <si>
+    <t>Email Vendor Port</t>
+  </si>
+  <si>
+    <t>Email Vendor Attatchment</t>
+  </si>
+  <si>
+    <t>Email Vendor Attatchment Size</t>
+  </si>
+  <si>
+    <t>SMS Vendor API Link (Vendor Specific)</t>
+  </si>
+  <si>
+    <t>Auth Key (Vendor Specific)</t>
+  </si>
+  <si>
+    <t>Sender Name (Vendor Specific)</t>
+  </si>
+  <si>
+    <t>SMS Route (Vendor Specific)</t>
+  </si>
+  <si>
+    <t>Phone Number Length</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1438,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1647,15 +1737,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1680,15 +1761,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color rgb="FF9DC3E6"/>
+          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
@@ -1714,7 +1810,17 @@
           <bgColor rgb="FFC55A11"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1756,6 +1862,37 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9DC3E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF993300"/>
+          <bgColor rgb="FFC55A11"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1839,60 +1976,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B2:F9" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B2:F16" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="B2:F16"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Configuration Feature"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type of Config"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Default Value"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Other Values"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mindtree Comments"/>
+    <tableColumn id="1" name="Configuration Feature"/>
+    <tableColumn id="2" name="Type of Config"/>
+    <tableColumn id="3" name="Default Value"/>
+    <tableColumn id="4" name="Other Values"/>
+    <tableColumn id="5" name="Mindtree Comments"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A2:G27" totalsRowShown="0">
-  <autoFilter ref="A2:G27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table22" displayName="Table22" ref="A2:G27" totalsRowShown="0">
+  <autoFilter ref="A2:G27"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Config"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default Value"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="All Values"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Mindtree Comments"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Customer Comments"/>
+    <tableColumn id="1" name="S.No"/>
+    <tableColumn id="2" name="Configuration Feature"/>
+    <tableColumn id="3" name="Type of Config"/>
+    <tableColumn id="4" name="Default Value"/>
+    <tableColumn id="5" name="All Values"/>
+    <tableColumn id="6" name="Mindtree Comments"/>
+    <tableColumn id="7" name="Customer Comments"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A2:E39" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+  <autoFilter ref="A2:E39"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type of Config"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default Value"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Other Values"/>
+    <tableColumn id="1" name="S.No"/>
+    <tableColumn id="2" name="Configuration Feature"/>
+    <tableColumn id="3" name="Type of Config"/>
+    <tableColumn id="4" name="Default Value"/>
+    <tableColumn id="5" name="Other Values"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table2245" displayName="Table2245" ref="A2:G30" totalsRowShown="0">
-  <autoFilter ref="A2:G30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2245" displayName="Table2245" ref="A2:G30" totalsRowShown="0">
+  <autoFilter ref="A2:G30"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="S.No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Configuration Feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Type of Config"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Default Value"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Other Values"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Mindtree Comments"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Customer Comments"/>
+    <tableColumn id="1" name="S.No"/>
+    <tableColumn id="2" name="Configuration Feature"/>
+    <tableColumn id="3" name="Type of Config"/>
+    <tableColumn id="4" name="Default Value"/>
+    <tableColumn id="5" name="Other Values"/>
+    <tableColumn id="6" name="Mindtree Comments"/>
+    <tableColumn id="7" name="Customer Comments"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="B2:F13" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="B2:F13"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Configuration Feature"/>
+    <tableColumn id="2" name="Type of Config"/>
+    <tableColumn id="3" name="Default Value"/>
+    <tableColumn id="4" name="Other Values"/>
+    <tableColumn id="5" name="Mindtree Comments"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2194,41 +2345,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2252,7 +2403,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2288,24 +2439,21 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
+      <c r="B4" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2326,24 +2474,21 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
+        <f t="shared" ref="A5:A17" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2364,24 +2509,21 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="8"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2402,24 +2544,21 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2440,24 +2579,21 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2478,24 +2614,21 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10">
-        <v>14</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2516,154 +2649,270 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12"/>
+      <c r="B10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12"/>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12">
-        <v>36</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="12">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="51">
-        <v>5</v>
-      </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2678,7 +2927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2686,30 +2935,30 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="16" customWidth="1"/>
     <col min="2" max="2" width="72" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="17" customWidth="1"/>
     <col min="5" max="5" width="16" style="17" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" style="18" customWidth="1"/>
     <col min="7" max="7" width="39" style="18" customWidth="1"/>
-    <col min="8" max="1025" width="9.28515625" style="17" customWidth="1"/>
+    <col min="8" max="1025" width="9.26953125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -2732,7 +2981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -2753,7 +3002,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="22" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -2772,7 +3021,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -2793,7 +3042,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -2814,7 +3063,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -2835,7 +3084,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -2856,7 +3105,7 @@
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="22" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -2875,7 +3124,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -2892,7 +3141,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -2909,7 +3158,7 @@
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -2926,7 +3175,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -2943,7 +3192,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -2960,7 +3209,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -2977,7 +3226,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -2994,7 +3243,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -3011,7 +3260,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -3028,7 +3277,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -3049,7 +3298,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -3066,7 +3315,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -3083,7 +3332,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -3102,7 +3351,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -3121,7 +3370,7 @@
       </c>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -3138,7 +3387,7 @@
       </c>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -3157,7 +3406,7 @@
       </c>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A26" s="57">
         <v>24</v>
       </c>
@@ -3176,7 +3425,7 @@
       </c>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -3197,7 +3446,7 @@
       </c>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -3216,7 +3465,7 @@
       </c>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>66</v>
       </c>
@@ -3235,7 +3484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK57"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3243,30 +3492,30 @@
       <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="60.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" style="17" customWidth="1"/>
-    <col min="8" max="1025" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="60.54296875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="44.54296875" style="17" customWidth="1"/>
+    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -3289,7 +3538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3310,7 +3559,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3331,7 +3580,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3348,7 +3597,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3365,7 +3614,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3386,7 +3635,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3407,7 +3656,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3428,7 +3677,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3449,7 +3698,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3470,7 +3719,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3491,7 +3740,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3512,7 +3761,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -3533,7 +3782,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3554,7 +3803,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -3571,7 +3820,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -3588,7 +3837,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -3605,7 +3854,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -3622,7 +3871,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="63">
         <v>18</v>
       </c>
@@ -3639,7 +3888,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="63">
         <v>19</v>
       </c>
@@ -3656,7 +3905,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -3673,7 +3922,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -3690,7 +3939,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="63">
         <v>22</v>
       </c>
@@ -3707,7 +3956,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="63">
         <v>23</v>
       </c>
@@ -3724,7 +3973,7 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -3741,7 +3990,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -3758,7 +4007,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -3775,7 +4024,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -3792,7 +4041,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -3809,7 +4058,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -3828,7 +4077,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -3849,7 +4098,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -3868,7 +4117,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -3887,7 +4136,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -3908,7 +4157,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -3929,7 +4178,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -3950,7 +4199,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -3967,7 +4216,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -3984,7 +4233,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
       <c r="A40" s="35">
         <v>38</v>
       </c>
@@ -4005,7 +4254,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
       <c r="A41" s="35">
         <v>39</v>
       </c>
@@ -4026,7 +4275,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A42" s="35">
         <v>40</v>
       </c>
@@ -5065,7 +5314,7 @@
       <c r="AMJ42" s="17"/>
       <c r="AMK42" s="17"/>
     </row>
-    <row r="43" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A43" s="35">
         <v>41</v>
       </c>
@@ -6102,7 +6351,7 @@
       <c r="AMJ43" s="17"/>
       <c r="AMK43" s="17"/>
     </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A44" s="35">
         <v>42</v>
       </c>
@@ -6119,7 +6368,7 @@
       <c r="F44" s="67"/>
       <c r="G44" s="66"/>
     </row>
-    <row r="45" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A45" s="35">
         <v>43</v>
       </c>
@@ -6136,7 +6385,7 @@
       <c r="F45" s="67"/>
       <c r="G45" s="66"/>
     </row>
-    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="35">
         <v>44</v>
       </c>
@@ -6153,7 +6402,7 @@
       <c r="F46" s="67"/>
       <c r="G46" s="66"/>
     </row>
-    <row r="47" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A47" s="35">
         <v>45</v>
       </c>
@@ -6170,7 +6419,7 @@
       <c r="F47" s="67"/>
       <c r="G47" s="66"/>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A48" s="35">
         <v>46</v>
       </c>
@@ -6187,7 +6436,7 @@
       <c r="F48" s="67"/>
       <c r="G48" s="66"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="35">
         <v>47</v>
       </c>
@@ -6204,7 +6453,7 @@
       <c r="F49" s="67"/>
       <c r="G49" s="66"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="35">
         <v>48</v>
       </c>
@@ -6221,7 +6470,7 @@
       <c r="F50" s="67"/>
       <c r="G50" s="66"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="35">
         <v>49</v>
       </c>
@@ -6238,7 +6487,7 @@
       <c r="F51" s="67"/>
       <c r="G51" s="66"/>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A52" s="35">
         <v>50</v>
       </c>
@@ -6255,7 +6504,7 @@
       <c r="F52" s="67"/>
       <c r="G52" s="66"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A53" s="35">
         <v>51</v>
       </c>
@@ -6272,7 +6521,7 @@
       <c r="F53" s="67"/>
       <c r="G53" s="66"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="35">
         <v>52</v>
       </c>
@@ -6289,7 +6538,7 @@
       <c r="F54" s="67"/>
       <c r="G54" s="66"/>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="35">
         <v>53</v>
       </c>
@@ -6306,7 +6555,7 @@
       <c r="F55" s="67"/>
       <c r="G55" s="66"/>
     </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A56" s="35">
         <v>54</v>
       </c>
@@ -6321,7 +6570,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
     </row>
-    <row r="57" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <v>55</v>
       </c>
@@ -6351,7 +6600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6361,30 +6610,30 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="31" customWidth="1"/>
-    <col min="8" max="1025" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.54296875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="39.453125" style="31" customWidth="1"/>
+    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -6407,7 +6656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="35">
         <v>1</v>
       </c>
@@ -6426,7 +6675,7 @@
       </c>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="35">
         <v>2</v>
       </c>
@@ -6447,7 +6696,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
         <v>3</v>
       </c>
@@ -6468,7 +6717,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
         <v>4</v>
       </c>
@@ -6489,7 +6738,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>5</v>
       </c>
@@ -6510,7 +6759,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -6531,7 +6780,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="35">
         <v>7</v>
       </c>
@@ -6552,7 +6801,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="35">
         <v>8</v>
       </c>
@@ -6573,7 +6822,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
         <v>9</v>
       </c>
@@ -6594,7 +6843,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>10</v>
       </c>
@@ -6615,7 +6864,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>11</v>
       </c>
@@ -6636,7 +6885,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>12</v>
       </c>
@@ -6653,7 +6902,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
         <v>13</v>
       </c>
@@ -6670,7 +6919,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>14</v>
       </c>
@@ -6689,7 +6938,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>15</v>
       </c>
@@ -6706,7 +6955,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
         <v>16</v>
       </c>
@@ -6723,7 +6972,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
         <v>17</v>
       </c>
@@ -6742,7 +6991,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>18</v>
       </c>
@@ -6761,7 +7010,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>19</v>
       </c>
@@ -6780,7 +7029,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>20</v>
       </c>
@@ -6799,7 +7048,7 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
         <v>21</v>
       </c>
@@ -6814,7 +7063,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="35">
         <v>22</v>
       </c>
@@ -6829,7 +7078,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
         <v>23</v>
       </c>
@@ -6844,7 +7093,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="35">
         <v>24</v>
       </c>
@@ -6859,7 +7108,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="35">
         <v>25</v>
       </c>
@@ -6874,7 +7123,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="35">
         <v>26</v>
       </c>
@@ -6889,7 +7138,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="35">
         <v>27</v>
       </c>
@@ -6904,7 +7153,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="35">
         <v>28</v>
       </c>
@@ -6932,40 +7181,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="72" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="3" customWidth="1"/>
-    <col min="8" max="1025" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" style="3" customWidth="1"/>
+    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="1:7" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -6988,7 +7237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="273" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -7009,7 +7258,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -7030,125 +7279,125 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="75" t="s">
+      <c r="C5" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="74" t="s">
         <v>264</v>
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="75" t="s">
+      <c r="C8" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="76" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -7165,7 +7414,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -7182,7 +7431,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -7199,7 +7448,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>12</v>
       </c>
@@ -7216,7 +7465,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -7237,7 +7486,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>14</v>
       </c>
@@ -7258,7 +7507,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -7279,7 +7528,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>16</v>
       </c>
@@ -7300,7 +7549,7 @@
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>17</v>
       </c>
@@ -7317,7 +7566,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>18</v>
       </c>
@@ -7334,28 +7583,28 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+    <row r="21" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A21" s="75">
         <v>19</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="75" t="s">
+      <c r="C21" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="74" t="s">
         <v>265</v>
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>20</v>
       </c>
@@ -7376,7 +7625,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>21</v>
       </c>
@@ -7397,7 +7646,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -7418,7 +7667,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>23</v>
       </c>
@@ -7433,7 +7682,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>24</v>
       </c>
@@ -7448,20 +7697,20 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="80" t="s">
+      <c r="C27" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="80" t="s">
+      <c r="E27" s="77" t="s">
         <v>220</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -7479,36 +7728,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="29.5703125" style="3" customWidth="1"/>
-    <col min="8" max="1025" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="29.54296875" style="3" customWidth="1"/>
+    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="1:7" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -7531,7 +7780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -7546,7 +7795,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -7561,7 +7810,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -7576,7 +7825,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -7591,7 +7840,7 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -7606,7 +7855,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -7621,7 +7870,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -7636,7 +7885,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -7656,4 +7905,819 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A32" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="82">
+        <v>29</v>
+      </c>
+      <c r="E10" s="81"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="81">
+        <v>5</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="81">
+        <v>5</v>
+      </c>
+      <c r="D12" s="82"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="81">
+        <v>14</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="51">
+        <v>36</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="51">
+        <v>4</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="51">
+        <v>5</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="51">
+        <v>9</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{033E8A85-BC1F-4C90-B1C3-6C37158762F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8850" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
     <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="300">
   <si>
     <r>
       <rPr>
@@ -1210,12 +1211,15 @@
   <si>
     <t>Phone Number Length</t>
   </si>
+  <si>
+    <t>Impact if Updated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1332,6 +1336,12 @@
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Bookman Old Style"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1528,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1761,6 +1771,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1770,27 +1786,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1800,26 +1812,236 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF993300"/>
-          <bgColor rgb="FFC55A11"/>
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1893,6 +2115,47 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF993300"/>
+          <bgColor rgb="FFC55A11"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1976,74 +2239,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B2:F16" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="B2:F16"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Configuration Feature"/>
-    <tableColumn id="2" name="Type of Config"/>
-    <tableColumn id="3" name="Default Value"/>
-    <tableColumn id="4" name="Other Values"/>
-    <tableColumn id="5" name="Mindtree Comments"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B2:H16" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
+  <autoFilter ref="B2:H16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Configuration Feature"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type of Config"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Default Value"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Other Values"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mindtree Comments"/>
+    <tableColumn id="6" xr3:uid="{31039DF2-86CE-4235-869C-3E6D6581C3DD}" name="Customer Comments" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{08BE7D83-CAB0-4BA9-ADCA-4ECB38291B54}" name="Impact if Updated" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table22" displayName="Table22" ref="A2:G27" totalsRowShown="0">
-  <autoFilter ref="A2:G27"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="S.No"/>
-    <tableColumn id="2" name="Configuration Feature"/>
-    <tableColumn id="3" name="Type of Config"/>
-    <tableColumn id="4" name="Default Value"/>
-    <tableColumn id="5" name="All Values"/>
-    <tableColumn id="6" name="Mindtree Comments"/>
-    <tableColumn id="7" name="Customer Comments"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A2:H27" totalsRowShown="0">
+  <autoFilter ref="A2:H27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Config"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default Value"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="All Values"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Mindtree Comments"/>
+    <tableColumn id="8" xr3:uid="{C0B00C85-358B-4A59-B293-066805E0FA10}" name="Customer Comments" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Impact if Updated"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
-  <autoFilter ref="A2:E39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
+  <autoFilter ref="A2:E39" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="S.No"/>
-    <tableColumn id="2" name="Configuration Feature"/>
-    <tableColumn id="3" name="Type of Config"/>
-    <tableColumn id="4" name="Default Value"/>
-    <tableColumn id="5" name="Other Values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type of Config"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default Value"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Other Values"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2245" displayName="Table2245" ref="A2:G30" totalsRowShown="0">
-  <autoFilter ref="A2:G30"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="S.No"/>
-    <tableColumn id="2" name="Configuration Feature"/>
-    <tableColumn id="3" name="Type of Config"/>
-    <tableColumn id="4" name="Default Value"/>
-    <tableColumn id="5" name="Other Values"/>
-    <tableColumn id="6" name="Mindtree Comments"/>
-    <tableColumn id="7" name="Customer Comments"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table2245" displayName="Table2245" ref="A2:H30" totalsRowShown="0">
+  <autoFilter ref="A2:H30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="S.No"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Configuration Feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Type of Config"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Default Value"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Other Values"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Mindtree Comments"/>
+    <tableColumn id="8" xr3:uid="{AD99D358-FDF2-48E8-A4F6-8FE2A7C2AAF8}" name="Customer Comments" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Impact if Updated"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="B2:F13" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="B2:F13"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Configuration Feature"/>
-    <tableColumn id="2" name="Type of Config"/>
-    <tableColumn id="3" name="Default Value"/>
-    <tableColumn id="4" name="Other Values"/>
-    <tableColumn id="5" name="Mindtree Comments"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="B2:H13" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
+  <autoFilter ref="B2:H13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Configuration Feature"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type of Config"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default Value"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Other Values"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Mindtree Comments"/>
+    <tableColumn id="6" xr3:uid="{B5D63AD7-19F9-4F97-8B11-0853C2141635}" name="Customer Comments" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{ADCEF8B8-6018-4250-ABEF-F51690EE305B}" name="Impact if Updated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2345,41 +2614,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AML17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" style="3" customWidth="1"/>
+    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2401,9 +2672,12 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="H2" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2418,9 +2692,9 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2438,8 +2712,9 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -2450,12 +2725,12 @@
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2473,8 +2748,9 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A17" si="0">A4+1</f>
         <v>3</v>
@@ -2485,12 +2761,12 @@
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2508,8 +2784,9 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2520,12 +2797,12 @@
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2543,8 +2820,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2555,12 +2833,12 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2578,8 +2856,9 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2590,12 +2869,12 @@
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2613,8 +2892,9 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2625,12 +2905,12 @@
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -2648,8 +2928,9 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2660,12 +2941,12 @@
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2683,8 +2964,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2695,12 +2977,12 @@
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2718,8 +3000,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2730,12 +3013,12 @@
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2753,8 +3036,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2765,12 +3049,12 @@
       <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2788,8 +3072,9 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2800,12 +3085,12 @@
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2823,8 +3108,9 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2835,12 +3121,12 @@
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2858,8 +3144,9 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2870,12 +3157,12 @@
       <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2893,8 +3180,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2913,10 +3201,11 @@
         <v>12</v>
       </c>
       <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2927,38 +3216,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AML29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="16" customWidth="1"/>
     <col min="2" max="2" width="72" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="17" customWidth="1"/>
     <col min="5" max="5" width="16" style="17" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="39" style="18" customWidth="1"/>
-    <col min="8" max="1025" width="9.26953125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" style="18" customWidth="1"/>
+    <col min="9" max="1026" width="9.28515625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -2980,8 +3271,11 @@
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="H2" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -3001,8 +3295,9 @@
         <v>12</v>
       </c>
       <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -3020,8 +3315,9 @@
         <v>12</v>
       </c>
       <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -3041,8 +3337,9 @@
         <v>12</v>
       </c>
       <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -3062,8 +3359,9 @@
         <v>12</v>
       </c>
       <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -3083,8 +3381,9 @@
         <v>12</v>
       </c>
       <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -3104,8 +3403,9 @@
         <v>12</v>
       </c>
       <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -3123,8 +3423,9 @@
         <v>12</v>
       </c>
       <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -3140,8 +3441,9 @@
         <v>12</v>
       </c>
       <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -3157,8 +3459,9 @@
         <v>12</v>
       </c>
       <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -3174,8 +3477,9 @@
         <v>12</v>
       </c>
       <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -3191,8 +3495,9 @@
         <v>12</v>
       </c>
       <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -3208,8 +3513,9 @@
         <v>12</v>
       </c>
       <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -3225,8 +3531,9 @@
         <v>12</v>
       </c>
       <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -3242,8 +3549,9 @@
         <v>12</v>
       </c>
       <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -3259,8 +3567,9 @@
         <v>12</v>
       </c>
       <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -3276,8 +3585,9 @@
         <v>12</v>
       </c>
       <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -3297,8 +3607,9 @@
         <v>12</v>
       </c>
       <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -3314,8 +3625,9 @@
         <v>12</v>
       </c>
       <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -3331,8 +3643,9 @@
         <v>12</v>
       </c>
       <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -3350,8 +3663,9 @@
         <v>12</v>
       </c>
       <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -3369,8 +3683,9 @@
         <v>12</v>
       </c>
       <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -3386,8 +3701,9 @@
         <v>12</v>
       </c>
       <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -3405,8 +3721,9 @@
         <v>12</v>
       </c>
       <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
         <v>24</v>
       </c>
@@ -3423,9 +3740,10 @@
       <c r="F26" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="58"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -3444,9 +3762,10 @@
       <c r="F27" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="56"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="84"/>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -3464,8 +3783,9 @@
         <v>12</v>
       </c>
       <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>66</v>
       </c>
@@ -3473,7 +3793,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3484,38 +3804,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AML57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="60.54296875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.54296875" style="17" customWidth="1"/>
-    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" style="17" customWidth="1"/>
+    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -3537,8 +3859,11 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+      <c r="H2" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3557,9 +3882,10 @@
       <c r="F3" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="G3" s="54"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3579,8 +3905,9 @@
         <v>12</v>
       </c>
       <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3595,9 +3922,10 @@
       <c r="F5" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+      <c r="G5" s="55"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3613,8 +3941,9 @@
         <v>76</v>
       </c>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3634,8 +3963,9 @@
         <v>212</v>
       </c>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3655,8 +3985,9 @@
         <v>81</v>
       </c>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3676,8 +4007,9 @@
         <v>12</v>
       </c>
       <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3697,8 +4029,9 @@
         <v>12</v>
       </c>
       <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3718,8 +4051,9 @@
         <v>12</v>
       </c>
       <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3739,8 +4073,9 @@
         <v>12</v>
       </c>
       <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3759,9 +4094,10 @@
       <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -3781,8 +4117,9 @@
         <v>208</v>
       </c>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3802,8 +4139,9 @@
         <v>12</v>
       </c>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -3819,8 +4157,9 @@
         <v>12</v>
       </c>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -3836,8 +4175,9 @@
         <v>12</v>
       </c>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -3853,8 +4193,9 @@
         <v>12</v>
       </c>
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -3870,8 +4211,9 @@
         <v>12</v>
       </c>
       <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="63">
         <v>18</v>
       </c>
@@ -3886,9 +4228,10 @@
       <c r="F20" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="64"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="63">
         <v>19</v>
       </c>
@@ -3903,9 +4246,10 @@
       <c r="F21" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="64"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -3921,8 +4265,9 @@
         <v>12</v>
       </c>
       <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -3938,8 +4283,9 @@
         <v>12</v>
       </c>
       <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="63">
         <v>22</v>
       </c>
@@ -3954,9 +4300,10 @@
       <c r="F24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="64"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="63">
         <v>23</v>
       </c>
@@ -3971,9 +4318,10 @@
       <c r="F25" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="64"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -3989,8 +4337,9 @@
         <v>12</v>
       </c>
       <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -4006,8 +4355,9 @@
         <v>12</v>
       </c>
       <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -4023,8 +4373,9 @@
         <v>12</v>
       </c>
       <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -4040,8 +4391,9 @@
         <v>12</v>
       </c>
       <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -4057,8 +4409,9 @@
         <v>12</v>
       </c>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -4076,8 +4429,9 @@
         <v>12</v>
       </c>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -4097,8 +4451,9 @@
         <v>12</v>
       </c>
       <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -4116,8 +4471,9 @@
         <v>12</v>
       </c>
       <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -4135,8 +4491,9 @@
         <v>12</v>
       </c>
       <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:1026" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -4156,8 +4513,9 @@
         <v>12</v>
       </c>
       <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -4177,8 +4535,9 @@
         <v>12</v>
       </c>
       <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -4198,8 +4557,9 @@
         <v>12</v>
       </c>
       <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:1026" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -4215,8 +4575,9 @@
         <v>12</v>
       </c>
       <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -4232,8 +4593,9 @@
         <v>12</v>
       </c>
       <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:1026" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <v>38</v>
       </c>
@@ -4253,8 +4615,9 @@
         <v>12</v>
       </c>
       <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:1026" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>39</v>
       </c>
@@ -4274,8 +4637,9 @@
         <v>12</v>
       </c>
       <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <v>40</v>
       </c>
@@ -4294,8 +4658,8 @@
       <c r="F42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="59"/>
-      <c r="H42" s="17"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
@@ -5313,8 +5677,9 @@
       <c r="AMI42" s="17"/>
       <c r="AMJ42" s="17"/>
       <c r="AMK42" s="17"/>
-    </row>
-    <row r="43" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="AML42" s="17"/>
+    </row>
+    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>41</v>
       </c>
@@ -5332,7 +5697,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="17"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -6350,8 +6715,9 @@
       <c r="AMI43" s="17"/>
       <c r="AMJ43" s="17"/>
       <c r="AMK43" s="17"/>
-    </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="AML43" s="17"/>
+    </row>
+    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>42</v>
       </c>
@@ -6366,9 +6732,10 @@
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="67"/>
-      <c r="G44" s="66"/>
-    </row>
-    <row r="45" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+      <c r="G44" s="67"/>
+      <c r="H44" s="66"/>
+    </row>
+    <row r="45" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>43</v>
       </c>
@@ -6383,9 +6750,10 @@
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="67"/>
-      <c r="G45" s="66"/>
-    </row>
-    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+      <c r="G45" s="67"/>
+      <c r="H45" s="66"/>
+    </row>
+    <row r="46" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>44</v>
       </c>
@@ -6400,9 +6768,10 @@
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="67"/>
-      <c r="G46" s="66"/>
-    </row>
-    <row r="47" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="G46" s="67"/>
+      <c r="H46" s="66"/>
+    </row>
+    <row r="47" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>45</v>
       </c>
@@ -6417,9 +6786,10 @@
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="67"/>
-      <c r="G47" s="66"/>
-    </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="G47" s="67"/>
+      <c r="H47" s="66"/>
+    </row>
+    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>46</v>
       </c>
@@ -6434,9 +6804,10 @@
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="67"/>
-      <c r="G48" s="66"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G48" s="67"/>
+      <c r="H48" s="66"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>47</v>
       </c>
@@ -6451,9 +6822,10 @@
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="67"/>
-      <c r="G49" s="66"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="67"/>
+      <c r="H49" s="66"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>48</v>
       </c>
@@ -6468,9 +6840,10 @@
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="67"/>
-      <c r="G50" s="66"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="67"/>
+      <c r="H50" s="66"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>49</v>
       </c>
@@ -6485,9 +6858,10 @@
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="67"/>
-      <c r="G51" s="66"/>
-    </row>
-    <row r="52" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G51" s="67"/>
+      <c r="H51" s="66"/>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>50</v>
       </c>
@@ -6502,9 +6876,10 @@
       </c>
       <c r="E52" s="46"/>
       <c r="F52" s="67"/>
-      <c r="G52" s="66"/>
-    </row>
-    <row r="53" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G52" s="67"/>
+      <c r="H52" s="66"/>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>51</v>
       </c>
@@ -6519,9 +6894,10 @@
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="67"/>
-      <c r="G53" s="66"/>
-    </row>
-    <row r="54" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G53" s="67"/>
+      <c r="H53" s="66"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>52</v>
       </c>
@@ -6536,9 +6912,10 @@
       </c>
       <c r="E54" s="46"/>
       <c r="F54" s="67"/>
-      <c r="G54" s="66"/>
-    </row>
-    <row r="55" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G54" s="67"/>
+      <c r="H54" s="66"/>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>53</v>
       </c>
@@ -6553,9 +6930,10 @@
       </c>
       <c r="E55" s="46"/>
       <c r="F55" s="67"/>
-      <c r="G55" s="66"/>
-    </row>
-    <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="G55" s="67"/>
+      <c r="H55" s="66"/>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>54</v>
       </c>
@@ -6569,8 +6947,9 @@
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
-    </row>
-    <row r="57" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>55</v>
       </c>
@@ -6586,10 +6965,11 @@
       <c r="E57" s="51"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6600,40 +6980,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AML30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.54296875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="39.453125" style="31" customWidth="1"/>
-    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" style="31" customWidth="1"/>
+    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -6655,8 +7037,11 @@
       <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="H2" s="36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>1</v>
       </c>
@@ -6673,9 +7058,10 @@
       <c r="F3" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="G3" s="85"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>2</v>
       </c>
@@ -6694,9 +7080,10 @@
       <c r="F4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G4" s="33"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>3</v>
       </c>
@@ -6715,9 +7102,10 @@
       <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="33"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>4</v>
       </c>
@@ -6736,9 +7124,10 @@
       <c r="F6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="33"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>5</v>
       </c>
@@ -6757,9 +7146,10 @@
       <c r="F7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="33"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -6778,9 +7168,10 @@
       <c r="F8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="33"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>7</v>
       </c>
@@ -6799,9 +7190,10 @@
       <c r="F9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="33"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>8</v>
       </c>
@@ -6820,9 +7212,10 @@
       <c r="F10" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="33"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>9</v>
       </c>
@@ -6841,9 +7234,10 @@
       <c r="F11" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="33"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>10</v>
       </c>
@@ -6862,9 +7256,10 @@
       <c r="F12" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="10"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>11</v>
       </c>
@@ -6883,9 +7278,10 @@
       <c r="F13" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="10"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>12</v>
       </c>
@@ -6900,9 +7296,10 @@
       <c r="F14" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="33"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>13</v>
       </c>
@@ -6917,9 +7314,10 @@
       <c r="F15" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="33"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>14</v>
       </c>
@@ -6936,9 +7334,10 @@
       <c r="F16" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="33"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>15</v>
       </c>
@@ -6953,9 +7352,10 @@
       <c r="F17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="33"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>16</v>
       </c>
@@ -6970,9 +7370,10 @@
       <c r="F18" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="33"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>17</v>
       </c>
@@ -6989,9 +7390,10 @@
       <c r="F19" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="33"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>18</v>
       </c>
@@ -7008,9 +7410,10 @@
       <c r="F20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="33"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>19</v>
       </c>
@@ -7027,9 +7430,10 @@
       <c r="F21" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="33"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>20</v>
       </c>
@@ -7046,9 +7450,10 @@
       <c r="F22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G22" s="33"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>21</v>
       </c>
@@ -7061,9 +7466,10 @@
       <c r="F23" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G23" s="33"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>22</v>
       </c>
@@ -7076,9 +7482,10 @@
       <c r="F24" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G24" s="33"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>23</v>
       </c>
@@ -7091,9 +7498,10 @@
       <c r="F25" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G25" s="33"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>24</v>
       </c>
@@ -7106,9 +7514,10 @@
       <c r="F26" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G26" s="33"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>25</v>
       </c>
@@ -7121,9 +7530,10 @@
       <c r="F27" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G27" s="33"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>26</v>
       </c>
@@ -7136,9 +7546,10 @@
       <c r="F28" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G28" s="33"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>27</v>
       </c>
@@ -7151,9 +7562,10 @@
       <c r="F29" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G29" s="33"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>28</v>
       </c>
@@ -7166,11 +7578,12 @@
       <c r="F30" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="23"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7181,40 +7594,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AML27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="72" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.26953125" style="3" customWidth="1"/>
-    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="40" customWidth="1"/>
+    <col min="6" max="7" width="27.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="3" customWidth="1"/>
+    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="1:7" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -7236,8 +7650,11 @@
       <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="273" x14ac:dyDescent="0.35">
+      <c r="H2" s="44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -7256,9 +7673,10 @@
       <c r="F3" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="G3" s="46"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -7277,9 +7695,10 @@
       <c r="F4" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="G4" s="46"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -7298,9 +7717,10 @@
       <c r="F5" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="74"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -7317,9 +7737,10 @@
       <c r="F6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="70"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -7336,9 +7757,10 @@
       <c r="F7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G7" s="70"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -7357,9 +7779,10 @@
       <c r="F8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="70"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -7376,9 +7799,10 @@
       <c r="F9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="70"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -7395,9 +7819,10 @@
       <c r="F10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="70"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -7412,9 +7837,10 @@
       <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="46"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -7429,9 +7855,10 @@
       <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="46"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -7446,9 +7873,10 @@
       <c r="F13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="46"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>12</v>
       </c>
@@ -7463,9 +7891,10 @@
       <c r="F14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="46"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -7484,9 +7913,10 @@
       <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="46"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>14</v>
       </c>
@@ -7505,9 +7935,10 @@
       <c r="F16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="46"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -7526,9 +7957,10 @@
       <c r="F17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="46"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>16</v>
       </c>
@@ -7547,9 +7979,10 @@
       <c r="F18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="46"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>17</v>
       </c>
@@ -7564,9 +7997,10 @@
       <c r="F19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="46"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>18</v>
       </c>
@@ -7581,9 +8015,10 @@
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="G20" s="46"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="75">
         <v>19</v>
       </c>
@@ -7602,9 +8037,10 @@
       <c r="F21" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="G21" s="74"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>20</v>
       </c>
@@ -7623,9 +8059,10 @@
       <c r="F22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G22" s="46"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>21</v>
       </c>
@@ -7644,9 +8081,10 @@
       <c r="F23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G23" s="46"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -7665,9 +8103,10 @@
       <c r="F24" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="46"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>23</v>
       </c>
@@ -7680,9 +8119,10 @@
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="46"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>24</v>
       </c>
@@ -7695,9 +8135,10 @@
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+      <c r="G26" s="46"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>25</v>
       </c>
@@ -7716,11 +8157,12 @@
       <c r="F27" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7728,36 +8170,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AML10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="29.54296875" style="3" customWidth="1"/>
-    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="6" max="8" width="29.5703125" style="3" customWidth="1"/>
+    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="1:7" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -7779,8 +8222,11 @@
       <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="H2" s="44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -7793,9 +8239,10 @@
       <c r="F3" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="G3" s="51"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -7808,9 +8255,10 @@
       <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="51"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -7823,9 +8271,10 @@
       <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="51"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -7838,9 +8287,10 @@
       <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="51"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -7853,9 +8303,10 @@
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="51"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -7868,9 +8319,10 @@
       <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="51"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -7883,9 +8335,10 @@
       <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="51"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -7896,11 +8349,12 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7908,38 +8362,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AML32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="9.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7958,12 +8414,15 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="H2" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -7981,8 +8440,8 @@
         <v>12</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -8000,8 +8459,9 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -8020,8 +8480,8 @@
         <v>12</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -8039,8 +8499,9 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A32" si="0">A4+1</f>
         <v>3</v>
@@ -8059,8 +8520,8 @@
         <v>12</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -8078,8 +8539,9 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8096,8 +8558,8 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -8115,8 +8577,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8135,8 +8598,8 @@
         <v>12</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -8154,8 +8617,9 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8174,8 +8638,8 @@
         <v>12</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -8193,8 +8657,9 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8213,8 +8678,8 @@
         <v>12</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -8232,8 +8697,9 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8241,17 +8707,17 @@
       <c r="B10" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="82">
+      <c r="C10" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="79">
         <v>29</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -8269,8 +8735,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8278,15 +8745,15 @@
       <c r="B11" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="78">
         <v>5</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="81"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -8304,8 +8771,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8313,15 +8781,15 @@
       <c r="B12" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="78">
         <v>5</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -8339,8 +8807,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8348,15 +8817,15 @@
       <c r="B13" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="78">
         <v>14</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="81"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -8374,8 +8843,9 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8392,9 +8862,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="51"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="H14" s="51"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8411,9 +8882,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="51"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="H15" s="51"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8432,9 +8904,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="7"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8453,8 +8926,9 @@
         <v>12</v>
       </c>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8473,8 +8947,9 @@
         <v>12</v>
       </c>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8493,8 +8968,9 @@
         <v>12</v>
       </c>
       <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8513,8 +8989,9 @@
         <v>26</v>
       </c>
       <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="51"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8529,8 +9006,9 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="51"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8545,8 +9023,9 @@
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="51"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8561,8 +9040,9 @@
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="51"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8577,8 +9057,9 @@
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8593,8 +9074,9 @@
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8609,8 +9091,9 @@
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="51"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8625,8 +9108,9 @@
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="51"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8641,8 +9125,9 @@
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="51"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8657,8 +9142,9 @@
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8673,8 +9159,9 @@
       <c r="E30" s="51"/>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8689,8 +9176,9 @@
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
-    </row>
-    <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8708,11 +9196,12 @@
       <c r="F32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{033E8A85-BC1F-4C90-B1C3-6C37158762F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8850" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
     <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="306">
   <si>
     <r>
       <rPr>
@@ -1214,11 +1213,29 @@
   <si>
     <t>Impact if Updated</t>
   </si>
+  <si>
+    <t>List of MOSIP supported Languages</t>
+  </si>
+  <si>
+    <t>eng, ara, fra</t>
+  </si>
+  <si>
+    <t>Primary language</t>
+  </si>
+  <si>
+    <t>Secondary Langauge</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1342,6 +1359,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1777,6 +1795,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,15 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1883,6 +1901,47 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF993300"/>
+          <bgColor rgb="FFC55A11"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1923,6 +1982,37 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9DC3E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF993300"/>
+          <bgColor rgb="FFC55A11"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2085,78 +2175,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9DC3E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF993300"/>
-          <bgColor rgb="FFC55A11"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF993300"/>
-          <bgColor rgb="FFC55A11"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2239,80 +2257,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B2:H16" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
-  <autoFilter ref="B2:H16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B2:H16" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
+  <autoFilter ref="B2:H16"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Configuration Feature"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type of Config"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Default Value"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Other Values"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mindtree Comments"/>
-    <tableColumn id="6" xr3:uid="{31039DF2-86CE-4235-869C-3E6D6581C3DD}" name="Customer Comments" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{08BE7D83-CAB0-4BA9-ADCA-4ECB38291B54}" name="Impact if Updated" dataDxfId="4"/>
+    <tableColumn id="1" name="Configuration Feature"/>
+    <tableColumn id="2" name="Type of Config"/>
+    <tableColumn id="3" name="Default Value"/>
+    <tableColumn id="4" name="Other Values"/>
+    <tableColumn id="5" name="Mindtree Comments"/>
+    <tableColumn id="6" name="Customer Comments" dataDxfId="9"/>
+    <tableColumn id="7" name="Impact if Updated" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A2:H27" totalsRowShown="0">
-  <autoFilter ref="A2:H27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table22" displayName="Table22" ref="A2:H27" totalsRowShown="0">
+  <autoFilter ref="A2:H27"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Config"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default Value"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="All Values"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Mindtree Comments"/>
-    <tableColumn id="8" xr3:uid="{C0B00C85-358B-4A59-B293-066805E0FA10}" name="Customer Comments" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Impact if Updated"/>
+    <tableColumn id="1" name="S.No"/>
+    <tableColumn id="2" name="Configuration Feature"/>
+    <tableColumn id="3" name="Type of Config"/>
+    <tableColumn id="4" name="Default Value"/>
+    <tableColumn id="5" name="All Values"/>
+    <tableColumn id="6" name="Mindtree Comments"/>
+    <tableColumn id="8" name="Customer Comments" dataDxfId="7"/>
+    <tableColumn id="7" name="Impact if Updated"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
-  <autoFilter ref="A2:E39" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:E39"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type of Config"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default Value"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Other Values"/>
+    <tableColumn id="1" name="S.No"/>
+    <tableColumn id="2" name="Configuration Feature"/>
+    <tableColumn id="3" name="Type of Config"/>
+    <tableColumn id="4" name="Default Value"/>
+    <tableColumn id="5" name="Other Values"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table2245" displayName="Table2245" ref="A2:H30" totalsRowShown="0">
-  <autoFilter ref="A2:H30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2245" displayName="Table2245" ref="A2:H30" totalsRowShown="0">
+  <autoFilter ref="A2:H30"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="S.No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Configuration Feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Type of Config"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Default Value"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Other Values"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Mindtree Comments"/>
-    <tableColumn id="8" xr3:uid="{AD99D358-FDF2-48E8-A4F6-8FE2A7C2AAF8}" name="Customer Comments" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Impact if Updated"/>
+    <tableColumn id="1" name="S.No"/>
+    <tableColumn id="2" name="Configuration Feature"/>
+    <tableColumn id="3" name="Type of Config"/>
+    <tableColumn id="4" name="Default Value"/>
+    <tableColumn id="5" name="Other Values"/>
+    <tableColumn id="6" name="Mindtree Comments"/>
+    <tableColumn id="8" name="Customer Comments" dataDxfId="4"/>
+    <tableColumn id="7" name="Impact if Updated"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="B2:H13" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
-  <autoFilter ref="B2:H13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="B2:H13" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="B2:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Configuration Feature"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type of Config"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default Value"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Other Values"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Mindtree Comments"/>
-    <tableColumn id="6" xr3:uid="{B5D63AD7-19F9-4F97-8B11-0853C2141635}" name="Customer Comments" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{ADCEF8B8-6018-4250-ABEF-F51690EE305B}" name="Impact if Updated" dataDxfId="0"/>
+    <tableColumn id="1" name="Configuration Feature"/>
+    <tableColumn id="2" name="Type of Config"/>
+    <tableColumn id="3" name="Default Value"/>
+    <tableColumn id="4" name="Other Values"/>
+    <tableColumn id="5" name="Mindtree Comments"/>
+    <tableColumn id="6" name="Customer Comments" dataDxfId="1"/>
+    <tableColumn id="7" name="Impact if Updated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2614,43 +2632,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
       <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" style="3" customWidth="1"/>
-    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" style="3" customWidth="1"/>
+    <col min="9" max="1026" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2672,12 +2690,12 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="80" t="s">
         <v>299</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2714,7 +2732,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -2750,7 +2768,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A17" si="0">A4+1</f>
         <v>3</v>
@@ -2786,7 +2804,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2822,7 +2840,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2858,7 +2876,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2894,7 +2912,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2930,7 +2948,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2966,7 +2984,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3002,7 +3020,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3038,7 +3056,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3074,7 +3092,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3110,7 +3128,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3146,7 +3164,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3182,7 +3200,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3216,7 +3234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3224,32 +3242,32 @@
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="16" customWidth="1"/>
     <col min="2" max="2" width="72" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="17" customWidth="1"/>
     <col min="5" max="5" width="16" style="17" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="18" customWidth="1"/>
-    <col min="9" max="1026" width="9.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="33.7265625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="35.26953125" style="18" customWidth="1"/>
+    <col min="9" max="1026" width="9.26953125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -3275,7 +3293,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -3297,7 +3315,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -3317,7 +3335,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -3339,7 +3357,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -3361,7 +3379,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -3383,7 +3401,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -3405,7 +3423,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -3425,7 +3443,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -3443,7 +3461,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -3461,7 +3479,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -3479,7 +3497,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -3497,7 +3515,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -3515,7 +3533,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -3533,7 +3551,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -3551,7 +3569,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -3569,7 +3587,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -3587,7 +3605,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -3609,7 +3627,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -3627,7 +3645,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -3645,7 +3663,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -3665,7 +3683,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -3685,7 +3703,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -3703,7 +3721,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -3723,7 +3741,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A26" s="57">
         <v>24</v>
       </c>
@@ -3743,7 +3761,7 @@
       <c r="G26" s="58"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -3762,10 +3780,10 @@
       <c r="F27" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="84"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -3785,7 +3803,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>66</v>
       </c>
@@ -3804,7 +3822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3812,32 +3830,32 @@
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" style="17" customWidth="1"/>
-    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" style="17" customWidth="1"/>
+    <col min="9" max="1026" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -3863,7 +3881,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="169" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3885,7 +3903,7 @@
       <c r="G3" s="54"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3907,7 +3925,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="260" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3925,7 +3943,7 @@
       <c r="G5" s="55"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3943,7 +3961,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3965,7 +3983,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3987,7 +4005,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4009,7 +4027,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -4031,7 +4049,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4053,7 +4071,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4075,7 +4093,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4097,7 +4115,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4119,7 +4137,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -4141,7 +4159,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -4159,7 +4177,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -4177,7 +4195,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -4195,7 +4213,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -4213,7 +4231,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="63">
         <v>18</v>
       </c>
@@ -4231,7 +4249,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="63">
         <v>19</v>
       </c>
@@ -4249,7 +4267,7 @@
       <c r="G21" s="64"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -4267,7 +4285,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -4285,7 +4303,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="63">
         <v>22</v>
       </c>
@@ -4303,7 +4321,7 @@
       <c r="G24" s="64"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="63">
         <v>23</v>
       </c>
@@ -4321,7 +4339,7 @@
       <c r="G25" s="64"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -4339,7 +4357,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -4357,7 +4375,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -4375,7 +4393,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -4393,7 +4411,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="130" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -4411,7 +4429,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -4431,7 +4449,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -4453,7 +4471,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -4473,7 +4491,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -4493,7 +4511,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:1026" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1026" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -4515,7 +4533,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -4537,7 +4555,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1026" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -4559,7 +4577,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:1026" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1026" ht="39" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -4577,7 +4595,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1026" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -4595,7 +4613,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:1026" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
       <c r="A40" s="35">
         <v>38</v>
       </c>
@@ -4617,7 +4635,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:1026" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
       <c r="A41" s="35">
         <v>39</v>
       </c>
@@ -4639,7 +4657,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
       <c r="A42" s="35">
         <v>40</v>
       </c>
@@ -5679,7 +5697,7 @@
       <c r="AMK42" s="17"/>
       <c r="AML42" s="17"/>
     </row>
-    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1026" x14ac:dyDescent="0.35">
       <c r="A43" s="35">
         <v>41</v>
       </c>
@@ -6717,7 +6735,7 @@
       <c r="AMK43" s="17"/>
       <c r="AML43" s="17"/>
     </row>
-    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1026" x14ac:dyDescent="0.35">
       <c r="A44" s="35">
         <v>42</v>
       </c>
@@ -6735,7 +6753,7 @@
       <c r="G44" s="67"/>
       <c r="H44" s="66"/>
     </row>
-    <row r="45" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
       <c r="A45" s="35">
         <v>43</v>
       </c>
@@ -6753,7 +6771,7 @@
       <c r="G45" s="67"/>
       <c r="H45" s="66"/>
     </row>
-    <row r="46" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="35">
         <v>44</v>
       </c>
@@ -6771,7 +6789,7 @@
       <c r="G46" s="67"/>
       <c r="H46" s="66"/>
     </row>
-    <row r="47" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1026" x14ac:dyDescent="0.35">
       <c r="A47" s="35">
         <v>45</v>
       </c>
@@ -6789,7 +6807,7 @@
       <c r="G47" s="67"/>
       <c r="H47" s="66"/>
     </row>
-    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1026" x14ac:dyDescent="0.35">
       <c r="A48" s="35">
         <v>46</v>
       </c>
@@ -6807,7 +6825,7 @@
       <c r="G48" s="67"/>
       <c r="H48" s="66"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="35">
         <v>47</v>
       </c>
@@ -6825,7 +6843,7 @@
       <c r="G49" s="67"/>
       <c r="H49" s="66"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="35">
         <v>48</v>
       </c>
@@ -6843,7 +6861,7 @@
       <c r="G50" s="67"/>
       <c r="H50" s="66"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="35">
         <v>49</v>
       </c>
@@ -6861,7 +6879,7 @@
       <c r="G51" s="67"/>
       <c r="H51" s="66"/>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A52" s="35">
         <v>50</v>
       </c>
@@ -6879,7 +6897,7 @@
       <c r="G52" s="67"/>
       <c r="H52" s="66"/>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A53" s="35">
         <v>51</v>
       </c>
@@ -6897,7 +6915,7 @@
       <c r="G53" s="67"/>
       <c r="H53" s="66"/>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="35">
         <v>52</v>
       </c>
@@ -6915,7 +6933,7 @@
       <c r="G54" s="67"/>
       <c r="H54" s="66"/>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="35">
         <v>53</v>
       </c>
@@ -6933,7 +6951,7 @@
       <c r="G55" s="67"/>
       <c r="H55" s="66"/>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A56" s="35">
         <v>54</v>
       </c>
@@ -6949,7 +6967,7 @@
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
     </row>
-    <row r="57" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="130" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <v>55</v>
       </c>
@@ -6980,7 +6998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6990,32 +7008,32 @@
       <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" style="31" customWidth="1"/>
-    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.54296875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="39.453125" style="31" customWidth="1"/>
+    <col min="9" max="1026" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -7041,7 +7059,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="35">
         <v>1</v>
       </c>
@@ -7058,10 +7076,10 @@
       <c r="F3" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="85"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="35">
         <v>2</v>
       </c>
@@ -7083,7 +7101,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
         <v>3</v>
       </c>
@@ -7105,7 +7123,7 @@
       <c r="G5" s="33"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
         <v>4</v>
       </c>
@@ -7127,7 +7145,7 @@
       <c r="G6" s="33"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>5</v>
       </c>
@@ -7149,7 +7167,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -7171,7 +7189,7 @@
       <c r="G8" s="33"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="35">
         <v>7</v>
       </c>
@@ -7193,7 +7211,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="35">
         <v>8</v>
       </c>
@@ -7215,7 +7233,7 @@
       <c r="G10" s="33"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
         <v>9</v>
       </c>
@@ -7237,7 +7255,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>10</v>
       </c>
@@ -7259,7 +7277,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>11</v>
       </c>
@@ -7281,7 +7299,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>12</v>
       </c>
@@ -7299,7 +7317,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
         <v>13</v>
       </c>
@@ -7317,7 +7335,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>14</v>
       </c>
@@ -7337,7 +7355,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>15</v>
       </c>
@@ -7355,7 +7373,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
         <v>16</v>
       </c>
@@ -7373,7 +7391,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
         <v>17</v>
       </c>
@@ -7393,7 +7411,7 @@
       <c r="G19" s="33"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>18</v>
       </c>
@@ -7413,7 +7431,7 @@
       <c r="G20" s="33"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>19</v>
       </c>
@@ -7433,7 +7451,7 @@
       <c r="G21" s="33"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>20</v>
       </c>
@@ -7453,7 +7471,7 @@
       <c r="G22" s="33"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
         <v>21</v>
       </c>
@@ -7469,7 +7487,7 @@
       <c r="G23" s="33"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="35">
         <v>22</v>
       </c>
@@ -7485,7 +7503,7 @@
       <c r="G24" s="33"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
         <v>23</v>
       </c>
@@ -7501,7 +7519,7 @@
       <c r="G25" s="33"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="35">
         <v>24</v>
       </c>
@@ -7517,7 +7535,7 @@
       <c r="G26" s="33"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="35">
         <v>25</v>
       </c>
@@ -7533,7 +7551,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="35">
         <v>26</v>
       </c>
@@ -7549,7 +7567,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="35">
         <v>27</v>
       </c>
@@ -7565,7 +7583,7 @@
       <c r="G29" s="33"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="35">
         <v>28</v>
       </c>
@@ -7594,7 +7612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7604,31 +7622,31 @@
       <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="72" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="40" customWidth="1"/>
-    <col min="6" max="7" width="27.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="3" customWidth="1"/>
-    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="40" customWidth="1"/>
+    <col min="6" max="7" width="27.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" style="3" customWidth="1"/>
+    <col min="9" max="1026" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-    </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -7654,7 +7672,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="273" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -7676,7 +7694,7 @@
       <c r="G3" s="46"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -7698,7 +7716,7 @@
       <c r="G4" s="46"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -7720,7 +7738,7 @@
       <c r="G5" s="74"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -7740,7 +7758,7 @@
       <c r="G6" s="70"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -7760,7 +7778,7 @@
       <c r="G7" s="70"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -7782,7 +7800,7 @@
       <c r="G8" s="70"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -7802,7 +7820,7 @@
       <c r="G9" s="70"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -7822,7 +7840,7 @@
       <c r="G10" s="70"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -7840,7 +7858,7 @@
       <c r="G11" s="46"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -7858,7 +7876,7 @@
       <c r="G12" s="46"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -7876,7 +7894,7 @@
       <c r="G13" s="46"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>12</v>
       </c>
@@ -7894,7 +7912,7 @@
       <c r="G14" s="46"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -7916,7 +7934,7 @@
       <c r="G15" s="46"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>14</v>
       </c>
@@ -7938,7 +7956,7 @@
       <c r="G16" s="46"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -7960,7 +7978,7 @@
       <c r="G17" s="46"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>16</v>
       </c>
@@ -7982,7 +8000,7 @@
       <c r="G18" s="46"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>17</v>
       </c>
@@ -8000,7 +8018,7 @@
       <c r="G19" s="46"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>18</v>
       </c>
@@ -8018,7 +8036,7 @@
       <c r="G20" s="46"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="75">
         <v>19</v>
       </c>
@@ -8040,7 +8058,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>20</v>
       </c>
@@ -8062,7 +8080,7 @@
       <c r="G22" s="46"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>21</v>
       </c>
@@ -8084,7 +8102,7 @@
       <c r="G23" s="46"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -8106,7 +8124,7 @@
       <c r="G24" s="46"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>23</v>
       </c>
@@ -8122,7 +8140,7 @@
       <c r="G25" s="46"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>24</v>
       </c>
@@ -8138,7 +8156,7 @@
       <c r="G26" s="46"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>25</v>
       </c>
@@ -8170,37 +8188,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
-    <col min="6" max="8" width="29.5703125" style="3" customWidth="1"/>
-    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="29.54296875" style="3" customWidth="1"/>
+    <col min="9" max="1026" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-    </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -8226,7 +8244,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -8242,7 +8260,7 @@
       <c r="G3" s="51"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -8258,7 +8276,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -8274,7 +8292,7 @@
       <c r="G5" s="51"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -8290,7 +8308,7 @@
       <c r="G6" s="51"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -8306,7 +8324,7 @@
       <c r="G7" s="51"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -8322,7 +8340,7 @@
       <c r="G8" s="51"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -8338,7 +8356,7 @@
       <c r="G9" s="51"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -8362,40 +8380,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AML32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="1026" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="1026" width="9.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8414,15 +8432,15 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="80" t="s">
         <v>299</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -8461,7 +8479,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -8501,7 +8519,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A32" si="0">A4+1</f>
         <v>3</v>
@@ -8541,7 +8559,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8579,7 +8597,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8619,7 +8637,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8659,7 +8677,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8699,7 +8717,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8737,7 +8755,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8773,7 +8791,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8809,7 +8827,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8845,7 +8863,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8865,7 +8883,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8885,7 +8903,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8907,7 +8925,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8928,7 +8946,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8949,7 +8967,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8970,7 +8988,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8991,7 +9009,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9008,7 +9026,7 @@
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9025,7 +9043,7 @@
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9042,7 +9060,7 @@
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9059,7 +9077,7 @@
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9076,7 +9094,7 @@
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9093,7 +9111,7 @@
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9110,7 +9128,7 @@
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9127,7 +9145,7 @@
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9144,7 +9162,7 @@
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -9161,7 +9179,7 @@
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -9178,7 +9196,7 @@
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -9198,6 +9216,60 @@
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>32</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>33</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1036862\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AB020B-6B87-4411-AB29-89CE3189992C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E964C68-B00F-454A-9A1D-B843D4BD6207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,19 @@
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
     <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="643">
   <si>
     <r>
       <rPr>
@@ -787,9 +794,6 @@
   </si>
   <si>
     <t>Fields that can be updated through the UIN Update feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documents to be uploaded: Mapping of Applicant Type  Adult/Child + Gender + Foreigner/Local to Document Category + Document Type </t>
   </si>
   <si>
     <r>
@@ -2754,10 +2758,6 @@
 On change: The new value is used for validation.</t>
   </si>
   <si>
-    <t>New registrations and UIN updates (to be confirmed) will require the client to read the configuration, match with demographic data entered and accordingly display the document categories and document types for the documents to be uploaded.
-On change: The new mapping is used to determine applicable documents.</t>
-  </si>
-  <si>
     <t>The selected attributes will be available for UIN update. 
 On change: Allow updates to the newly configured attributes only. UIN update packets created earlier will not be impacted.</t>
   </si>
@@ -3239,6 +3239,36 @@
     <t>This config paramter has to be greater than or equal to 'Number of days to be shown in availability'
 preregistration.availability.sync &gt;=
 preregistration.availability.noOfDays</t>
+  </si>
+  <si>
+    <t>New registrations and UIN updates will require the client to read the configuration, match with demographic data entered and accordingly display the document categories and document types for the documents to be uploaded.
+On change: The new mapping is used to determine applicable documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents to be uploaded: Mapping of Process (New/UIN Update) + Adult/Child + Gender + Foreigner/Local + Field being updated in case of UIN Update to Document Category + Document Type </t>
+  </si>
+  <si>
+    <t>UIN Update - Mode of authentication of individual through Registration Client</t>
+  </si>
+  <si>
+    <t>Biometric</t>
+  </si>
+  <si>
+    <t>Determines whether the individual will be authenticated through biometric or OTP during UIN Update.</t>
+  </si>
+  <si>
+    <t>Email notification template - Lost UIN</t>
+  </si>
+  <si>
+    <t>SMS notification template - Lost UIN</t>
+  </si>
+  <si>
+    <t>Retrieve lost UIN acknowledgement email will be sent using this template.
+On change: Notifications already queued up when the old template was in force will use the old template. Others will use the updated template.</t>
+  </si>
+  <si>
+    <t>Retrieve lost UIN acknowledgement SMS will be sent using this template.
+On change: Notifications already queued up when the old template was in force will use the old template. Others will use the updated template.</t>
   </si>
 </sst>
 </file>
@@ -3965,7 +3995,19 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3977,313 +4019,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFCC"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFCC"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4665,6 +4405,296 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4926,29 +4956,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table22" displayName="Table22" ref="A2:I29" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table22" displayName="Table22" ref="A2:I29" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A2:I29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type of Config" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default Value" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="All Values" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Mindtree Comments" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Customer Comments" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Config in Config Server" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="System Bahavior - On Setup and Change" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type of Config" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default Value" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="All Values" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Mindtree Comments" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Customer Comments" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Config in Config Server" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="System Bahavior - On Setup and Change" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:E39" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Config"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default Value"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Other Values"/>
@@ -4967,8 +4997,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Default Value"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Other Values"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Mindtree Comments"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Customer Comments" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Config in Config Server" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Customer Comments" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Config in Config Server" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="System Bahavior - On Setup and Change"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4976,17 +5006,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="B2:I17" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="B2:I17" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="B2:I17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Configuration Feature" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type of Config" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default Value" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Other Values" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Mindtree Comments" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Customer Comments" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Config in Config Server" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="System Bahavior - On Setup and Change" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Configuration Feature" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type of Config" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default Value" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Other Values" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Mindtree Comments" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Customer Comments" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Config in Config Server" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="System Bahavior - On Setup and Change" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5298,35 +5328,35 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5349,14 +5379,14 @@
         <v>7</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5394,28 +5424,28 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
@@ -5437,28 +5467,28 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
@@ -5480,28 +5510,28 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
@@ -5523,13 +5553,13 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
@@ -5541,10 +5571,10 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
@@ -5566,13 +5596,13 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -5584,10 +5614,10 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
@@ -5609,28 +5639,28 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
@@ -5652,28 +5682,28 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I10" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
@@ -5695,28 +5725,28 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
@@ -5738,28 +5768,28 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
@@ -5781,13 +5811,13 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
@@ -5799,10 +5829,10 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
@@ -5824,7 +5854,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5881,39 +5911,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.26953125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.26953125" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.21875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.21875" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.21875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5936,13 +5966,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="121" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="I2" s="116" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5963,13 +5993,13 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -5988,24 +6018,24 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -6015,13 +6045,13 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6032,7 +6062,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>32</v>
@@ -6042,13 +6072,13 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6059,7 +6089,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -6069,18 +6099,18 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -6096,159 +6126,159 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="101" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="122">
+      <c r="D10" s="117">
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="119" t="s">
-        <v>385</v>
+      <c r="H10" s="115" t="s">
+        <v>384</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="122">
+      <c r="D11" s="117">
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="119" t="s">
-        <v>384</v>
+      <c r="H11" s="115" t="s">
+        <v>383</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="117">
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="119" t="s">
-        <v>627</v>
+      <c r="H12" s="115" t="s">
+        <v>625</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>32</v>
@@ -6256,24 +6286,24 @@
       <c r="F14" s="50"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -6281,11 +6311,11 @@
       <c r="F15" s="50"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -6300,13 +6330,13 @@
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -6319,13 +6349,13 @@
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
       <c r="F17" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -6338,13 +6368,13 @@
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -6357,13 +6387,13 @@
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -6376,13 +6406,13 @@
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
       <c r="F20" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -6395,13 +6425,13 @@
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
       <c r="F21" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -6414,13 +6444,13 @@
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -6433,13 +6463,13 @@
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -6452,13 +6482,13 @@
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -6475,13 +6505,13 @@
         <v>44</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -6494,13 +6524,13 @@
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -6513,13 +6543,13 @@
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
       <c r="F27" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -6534,13 +6564,13 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="62"/>
     </row>
-    <row r="29" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -6555,7 +6585,7 @@
       </c>
       <c r="E29" s="66"/>
       <c r="F29" s="65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -6575,27 +6605,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AML72"/>
+  <dimension ref="A1:AML75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.54296875" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.5546875" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
         <v>53</v>
       </c>
@@ -6607,7 +6637,7 @@
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6627,13 +6657,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="143" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6647,19 +6677,19 @@
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>166</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="208" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6680,13 +6710,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="221" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6703,13 +6733,13 @@
         <v>156</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6726,13 +6756,13 @@
         <v>61</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6753,13 +6783,13 @@
         <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6780,13 +6810,13 @@
         <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6807,13 +6837,13 @@
         <v>11</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6834,13 +6864,13 @@
         <v>11</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6861,13 +6891,13 @@
         <v>11</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6888,13 +6918,13 @@
         <v>11</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6909,19 +6939,19 @@
         <v>55</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6936,19 +6966,19 @@
         <v>55</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="52" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6965,13 +6995,13 @@
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="52" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6988,13 +7018,13 @@
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7011,13 +7041,13 @@
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7034,13 +7064,13 @@
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7058,10 +7088,10 @@
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7079,10 +7109,10 @@
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7099,13 +7129,13 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7122,13 +7152,13 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7146,10 +7176,10 @@
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7167,10 +7197,10 @@
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="234" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7182,43 +7212,43 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7230,20 +7260,20 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7255,20 +7285,20 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7287,19 +7317,19 @@
         <v>11</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="195" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="198" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>9</v>
@@ -7308,25 +7338,25 @@
         <v>85</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>9</v>
@@ -7335,19 +7365,19 @@
         <v>85</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7362,19 +7392,19 @@
         <v>87</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7389,19 +7419,19 @@
         <v>100</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7422,13 +7452,13 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7449,13 +7479,13 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="156" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1026" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7476,13 +7506,13 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7500,35 +7530,35 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>449</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>450</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7547,13 +7577,13 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7568,19 +7598,19 @@
         <v>55</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7595,19 +7625,19 @@
         <v>55</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7628,10 +7658,10 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -8652,7 +8682,7 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1026" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8671,10 +8701,10 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -9695,7 +9725,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9712,19 +9742,19 @@
       <c r="E44" s="36"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>9</v>
@@ -9738,10 +9768,10 @@
         <v>142</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9758,13 +9788,13 @@
       <c r="E46" s="36"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="143" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1026" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9781,13 +9811,13 @@
       <c r="E47" s="36"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9802,17 +9832,17 @@
         <v>180</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9827,17 +9857,17 @@
         <v>180</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9852,17 +9882,17 @@
         <v>180</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F50" s="50"/>
       <c r="G50" s="50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9877,17 +9907,17 @@
         <v>100</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9904,13 +9934,13 @@
       <c r="E52" s="36"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -9927,13 +9957,13 @@
       <c r="E53" s="36"/>
       <c r="F53" s="50"/>
       <c r="G53" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -9950,19 +9980,19 @@
       <c r="E54" s="36"/>
       <c r="F54" s="50"/>
       <c r="G54" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>9</v>
@@ -9973,19 +10003,19 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>190</v>
+        <v>635</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>9</v>
@@ -9994,13 +10024,13 @@
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>582</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="348" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10012,24 +10042,24 @@
         <v>9</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="49"/>
       <c r="G57" s="50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="130" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>9</v>
@@ -10038,23 +10068,23 @@
         <v>180</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F58" s="50"/>
       <c r="G58" s="50" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="143" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>9</v>
@@ -10063,188 +10093,188 @@
         <v>180</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F59" s="50"/>
       <c r="G59" s="50" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="E60" s="36" t="s">
         <v>468</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>469</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="39" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="E61" s="36" t="s">
         <v>468</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>469</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="E63" s="36" t="s">
         <v>468</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>469</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="E64" s="36" t="s">
         <v>468</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>469</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="E65" s="36" t="s">
         <v>468</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>469</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="E66" s="36" t="s">
         <v>468</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>469</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>9</v>
@@ -10255,18 +10285,18 @@
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>9</v>
@@ -10277,89 +10307,148 @@
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H72" s="36"/>
+    </row>
+    <row r="73" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>637</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <f t="shared" ref="A75" si="1">A74+1</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>642</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10381,34 +10470,34 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.54296875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.26953125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.81640625" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.77734375" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10431,34 +10520,34 @@
         <v>7</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>387</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>388</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="10"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>390</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10466,104 +10555,104 @@
         <v>98</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10571,7 +10660,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>100</v>
@@ -10580,182 +10669,182 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>401</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>402</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="I10" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="I10" s="103" t="s">
-        <v>404</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="I11" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="I11" s="45" t="s">
-        <v>409</v>
-      </c>
     </row>
-    <row r="12" spans="1:9" ht="156" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="I12" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>412</v>
-      </c>
     </row>
-    <row r="13" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="I13" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>415</v>
-      </c>
     </row>
-    <row r="14" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="I14" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="I14" s="45" t="s">
-        <v>418</v>
-      </c>
     </row>
-    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="I15" s="45" t="s">
         <v>420</v>
       </c>
-      <c r="I15" s="45" t="s">
-        <v>421</v>
-      </c>
     </row>
-    <row r="16" spans="1:9" ht="130" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="I16" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="I16" s="45" t="s">
-        <v>425</v>
-      </c>
     </row>
-    <row r="17" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I17" s="45" t="s">
         <v>427</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -10781,34 +10870,34 @@
       <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.54296875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -10831,13 +10920,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -10854,7 +10943,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
@@ -11878,7 +11967,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -11895,7 +11984,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
@@ -12919,7 +13008,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1027" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -12936,13 +13025,13 @@
         <v>110</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -12963,7 +13052,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -12984,7 +13073,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13007,7 +13096,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13028,7 +13117,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13049,7 +13138,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14086,7 +14175,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15123,7 +15212,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16160,7 +16249,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -16173,7 +16262,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -17197,7 +17286,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1027" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17218,18 +17307,18 @@
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>2</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>9</v>
@@ -17245,18 +17334,18 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="195" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1027" ht="224.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>3</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>9</v>
@@ -17272,13 +17361,13 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17299,13 +17388,13 @@
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18342,7 +18431,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19379,7 +19468,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -19394,7 +19483,7 @@
         <v>125</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G21" s="91"/>
       <c r="H21" s="91"/>
@@ -20418,12 +20507,12 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A22" s="87">
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>9</v>
@@ -20432,70 +20521,70 @@
         <v>131</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="87">
         <v>6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="87">
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1027" ht="138" x14ac:dyDescent="0.3">
       <c r="A25" s="111">
         <v>19</v>
       </c>
@@ -20516,13 +20605,13 @@
       </c>
       <c r="G25" s="112"/>
       <c r="H25" s="112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I25" s="112" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20543,13 +20632,13 @@
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>138</v>
@@ -20560,13 +20649,13 @@
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="87"/>
       <c r="B28" s="88" t="s">
         <v>139</v>
@@ -20577,13 +20666,13 @@
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:1027" ht="78" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1027" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
         <v>162</v>
@@ -20598,24 +20687,24 @@
         <v>164</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A30" s="87">
         <v>9</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>5</v>
@@ -20623,18 +20712,18 @@
       <c r="F30" s="88"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="87">
         <v>10</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>9</v>
@@ -20643,29 +20732,29 @@
         <v>22</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F31" s="88"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="99" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1027" s="99" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="87">
         <v>11</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>5</v>
@@ -20673,10 +20762,10 @@
       <c r="F32" s="36"/>
       <c r="G32" s="97"/>
       <c r="H32" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="98"/>
@@ -21714,33 +21803,33 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.54296875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5546875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -21763,13 +21852,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -21786,7 +21875,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -21803,7 +21892,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -21820,7 +21909,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -21837,7 +21926,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -21854,7 +21943,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -21871,7 +21960,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -21888,7 +21977,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -21920,34 +22009,34 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.26953125" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.21875" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="117" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -21970,13 +22059,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -21987,7 +22076,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
@@ -21995,10 +22084,10 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -22018,7 +22107,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22038,10 +22127,10 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -22061,7 +22150,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22073,7 +22162,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -22081,10 +22170,10 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -22104,13 +22193,13 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
@@ -22122,10 +22211,10 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -22145,7 +22234,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22165,10 +22254,10 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -22188,13 +22277,13 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -22206,10 +22295,10 @@
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
       <c r="H8" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>310</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>311</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -22229,13 +22318,13 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
@@ -22247,10 +22336,10 @@
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -22270,7 +22359,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22282,7 +22371,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="8" t="s">
@@ -22290,13 +22379,13 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>315</v>
-      </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22316,10 +22405,10 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -22339,7 +22428,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22359,10 +22448,10 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -22382,13 +22471,13 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
@@ -22400,10 +22489,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -22423,7 +22512,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
@@ -22443,10 +22532,10 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -22466,13 +22555,13 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>9</v>
@@ -22484,10 +22573,10 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -22507,13 +22596,13 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>9</v>
@@ -22525,10 +22614,10 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -22548,13 +22637,13 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>9</v>
@@ -22566,10 +22655,10 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -22589,7 +22678,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23625,7 +23714,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24661,7 +24750,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24681,13 +24770,13 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="104" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24707,13 +24796,13 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -25751,7 +25840,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25771,19 +25860,19 @@
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -25795,19 +25884,19 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -25819,19 +25908,19 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -25843,43 +25932,43 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -25891,19 +25980,19 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>9</v>
@@ -25915,43 +26004,43 @@
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>9</v>
@@ -25963,19 +26052,19 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>9</v>
@@ -25987,43 +26076,43 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" s="73" t="s">
         <v>9</v>
@@ -27051,85 +27140,85 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="156" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1025" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="130" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="78" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>9</v>
@@ -27141,41 +27230,41 @@
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>9</v>
@@ -27187,42 +27276,42 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="105" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>39</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>9</v>
@@ -27234,18 +27323,18 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>40</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>9</v>
@@ -27257,87 +27346,87 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>41</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>42</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="105" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>43</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>44</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>9</v>
@@ -27349,13 +27438,13 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="104" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27372,11 +27461,11 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27393,11 +27482,11 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27414,39 +27503,39 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>48</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>49</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>9</v>
@@ -27458,10 +27547,10 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="104" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E964C68-B00F-454A-9A1D-B843D4BD6207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C1B3F6-9D8D-4523-8BDB-DDF8A3670405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,19 +937,6 @@
   </si>
   <si>
     <t>Frequency of virus scan of registration packets</t>
-  </si>
-  <si>
-    <t>Name
-Age/DoB
-Gender
-Foreigner/National
-Address
-Contact details
-CNIE/EC/Residence Card Number
-Parent/Guardian details
-Biometrics-Exception
-Biometrics-Fingerprint
-Biometrics-Iris</t>
   </si>
   <si>
     <t>Config in Config Server</t>
@@ -3269,6 +3256,18 @@
   <si>
     <t>Retrieve lost UIN acknowledgement SMS will be sent using this template.
 On change: Notifications already queued up when the old template was in force will use the old template. Others will use the updated template.</t>
+  </si>
+  <si>
+    <t>Name
+Age/DoB
+Gender
+Foreigner/National
+Address
+Phone
+Email
+CNIE/EC/Residence Card Number
+Parent/Guardian details
+Biometrics</t>
   </si>
 </sst>
 </file>
@@ -5379,10 +5378,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -5436,16 +5435,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
@@ -5479,16 +5478,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
@@ -5522,16 +5521,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
@@ -5571,10 +5570,10 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
@@ -5614,10 +5613,10 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
@@ -5651,16 +5650,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
@@ -5694,16 +5693,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I10" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
@@ -5737,16 +5736,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
@@ -5780,16 +5779,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
@@ -5829,10 +5828,10 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
@@ -5966,10 +5965,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="20" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -5993,10 +5992,10 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -6018,10 +6017,10 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -6029,13 +6028,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -6045,10 +6044,10 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -6062,7 +6061,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>32</v>
@@ -6072,10 +6071,10 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
@@ -6089,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -6099,10 +6098,10 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
@@ -6110,7 +6109,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -6126,10 +6125,10 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="101" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -6137,26 +6136,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.3">
@@ -6164,7 +6163,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
@@ -6176,14 +6175,14 @@
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.3">
@@ -6191,7 +6190,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -6203,14 +6202,14 @@
         <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="115" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.3">
@@ -6218,7 +6217,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
@@ -6230,14 +6229,14 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="115" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
@@ -6245,26 +6244,26 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
@@ -6272,13 +6271,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>32</v>
@@ -6286,10 +6285,10 @@
       <c r="F14" s="50"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -6297,13 +6296,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -6311,7 +6310,7 @@
       <c r="F15" s="50"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I15" s="19"/>
     </row>
@@ -6330,7 +6329,7 @@
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6349,7 +6348,7 @@
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
       <c r="F17" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -6368,7 +6367,7 @@
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -6387,7 +6386,7 @@
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6406,7 +6405,7 @@
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
       <c r="F20" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6425,7 +6424,7 @@
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
       <c r="F21" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -6444,7 +6443,7 @@
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6463,7 +6462,7 @@
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -6482,7 +6481,7 @@
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -6505,7 +6504,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -6524,7 +6523,7 @@
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -6543,7 +6542,7 @@
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
       <c r="F27" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -6564,7 +6563,7 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -6585,7 +6584,7 @@
       </c>
       <c r="E29" s="66"/>
       <c r="F29" s="65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -6608,7 +6607,7 @@
   <dimension ref="A1:AML75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
@@ -6657,10 +6656,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
@@ -6677,16 +6676,16 @@
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>166</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
@@ -6710,10 +6709,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
@@ -6733,10 +6732,10 @@
         <v>156</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
@@ -6756,10 +6755,10 @@
         <v>61</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -6783,10 +6782,10 @@
         <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -6810,10 +6809,10 @@
         <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
@@ -6837,10 +6836,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -6864,10 +6863,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
@@ -6891,10 +6890,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
@@ -6918,10 +6917,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -6939,16 +6938,16 @@
         <v>55</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
@@ -6966,16 +6965,16 @@
         <v>55</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -6995,10 +6994,10 @@
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -7018,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -7041,10 +7040,10 @@
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -7064,10 +7063,10 @@
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
@@ -7088,7 +7087,7 @@
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
@@ -7109,7 +7108,7 @@
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -7129,10 +7128,10 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -7152,10 +7151,10 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -7176,7 +7175,7 @@
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -7197,7 +7196,7 @@
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
@@ -7212,17 +7211,17 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -7231,21 +7230,21 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -7260,17 +7259,17 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -7285,17 +7284,17 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
@@ -7317,10 +7316,10 @@
         <v>11</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="198" x14ac:dyDescent="0.3">
@@ -7329,7 +7328,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>9</v>
@@ -7338,16 +7337,16 @@
         <v>85</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="132" x14ac:dyDescent="0.3">
@@ -7356,7 +7355,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>9</v>
@@ -7365,16 +7364,16 @@
         <v>85</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
@@ -7392,16 +7391,16 @@
         <v>87</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
@@ -7419,16 +7418,16 @@
         <v>100</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
@@ -7452,10 +7451,10 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
@@ -7479,10 +7478,10 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:1026" ht="171.6" x14ac:dyDescent="0.3">
@@ -7506,10 +7505,10 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
@@ -7530,7 +7529,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
@@ -7539,23 +7538,23 @@
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>448</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>449</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
@@ -7577,10 +7576,10 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
@@ -7598,16 +7597,16 @@
         <v>55</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
@@ -7625,16 +7624,16 @@
         <v>55</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
@@ -7658,10 +7657,10 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -8701,10 +8700,10 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -9742,10 +9741,10 @@
       <c r="E44" s="36"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
@@ -9754,7 +9753,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>9</v>
@@ -9768,7 +9767,7 @@
         <v>142</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
@@ -9788,10 +9787,10 @@
       <c r="E46" s="36"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:1026" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -9811,10 +9810,10 @@
       <c r="E47" s="36"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
@@ -9832,14 +9831,14 @@
         <v>180</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -9857,14 +9856,14 @@
         <v>180</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -9882,14 +9881,14 @@
         <v>180</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F50" s="50"/>
       <c r="G50" s="50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="132" x14ac:dyDescent="0.3">
@@ -9907,14 +9906,14 @@
         <v>100</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -9934,10 +9933,10 @@
       <c r="E52" s="36"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -9957,10 +9956,10 @@
       <c r="E53" s="36"/>
       <c r="F53" s="50"/>
       <c r="G53" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -9980,10 +9979,10 @@
       <c r="E54" s="36"/>
       <c r="F54" s="50"/>
       <c r="G54" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -9992,7 +9991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>9</v>
@@ -10003,10 +10002,10 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
@@ -10015,7 +10014,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>9</v>
@@ -10024,10 +10023,10 @@
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
@@ -10042,15 +10041,15 @@
         <v>9</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>231</v>
+        <v>642</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="49"/>
       <c r="G57" s="50" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="132" x14ac:dyDescent="0.3">
@@ -10068,14 +10067,14 @@
         <v>180</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F58" s="50"/>
       <c r="G58" s="50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -10093,14 +10092,14 @@
         <v>180</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F59" s="50"/>
       <c r="G59" s="50" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
@@ -10108,23 +10107,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E60" s="36" t="s">
         <v>467</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>468</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
@@ -10132,23 +10131,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E61" s="36" t="s">
         <v>467</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>468</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
@@ -10156,21 +10155,21 @@
         <v>61</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
@@ -10178,23 +10177,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E63" s="36" t="s">
         <v>467</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>468</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
@@ -10202,23 +10201,23 @@
         <v>63</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E64" s="36" t="s">
         <v>467</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>468</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
@@ -10226,23 +10225,23 @@
         <v>64</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E65" s="36" t="s">
         <v>467</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>468</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
@@ -10250,23 +10249,23 @@
         <v>65</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E66" s="36" t="s">
         <v>467</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>468</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -10274,7 +10273,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>9</v>
@@ -10285,10 +10284,10 @@
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -10296,7 +10295,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>9</v>
@@ -10307,7 +10306,7 @@
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H68" s="36"/>
     </row>
@@ -10316,18 +10315,18 @@
         <v>68</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H69" s="36"/>
     </row>
@@ -10336,18 +10335,18 @@
         <v>69</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H70" s="36"/>
     </row>
@@ -10356,18 +10355,18 @@
         <v>70</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H71" s="36"/>
     </row>
@@ -10376,18 +10375,18 @@
         <v>71</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H72" s="36"/>
     </row>
@@ -10396,21 +10395,21 @@
         <v>72</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -10418,7 +10417,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>9</v>
@@ -10428,7 +10427,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -10437,7 +10436,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>9</v>
@@ -10447,7 +10446,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -10520,10 +10519,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
@@ -10531,20 +10530,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>386</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>387</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="10"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" s="45" t="s">
         <v>388</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
@@ -10555,17 +10554,17 @@
         <v>98</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
@@ -10573,20 +10572,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
@@ -10594,20 +10593,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
@@ -10615,20 +10614,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10636,20 +10635,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -10660,7 +10659,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>100</v>
@@ -10669,10 +10668,10 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -10680,22 +10679,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>400</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>401</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="102" t="s">
+        <v>401</v>
+      </c>
+      <c r="I10" s="103" t="s">
         <v>402</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
@@ -10703,20 +10702,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I11" s="45" t="s">
         <v>407</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
@@ -10724,20 +10723,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="I12" s="45" t="s">
         <v>410</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -10745,20 +10744,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="I13" s="45" t="s">
         <v>413</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -10766,20 +10765,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="I14" s="45" t="s">
         <v>416</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -10787,20 +10786,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I15" s="45" t="s">
         <v>419</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.3">
@@ -10808,22 +10807,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="I16" s="45" t="s">
         <v>423</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
@@ -10831,20 +10830,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="I17" s="45" t="s">
         <v>426</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -10920,10 +10919,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:1027" s="84" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
@@ -10943,7 +10942,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
@@ -11984,7 +11983,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
@@ -16262,7 +16261,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -17307,10 +17306,10 @@
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17334,10 +17333,10 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:1027" ht="224.4" x14ac:dyDescent="0.3">
@@ -17361,10 +17360,10 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -17388,10 +17387,10 @@
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -19483,7 +19482,7 @@
         <v>125</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G21" s="91"/>
       <c r="H21" s="91"/>
@@ -20512,7 +20511,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>9</v>
@@ -20521,17 +20520,17 @@
         <v>131</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -20539,24 +20538,24 @@
         <v>6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>607</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>608</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -20564,24 +20563,24 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>611</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>612</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:1027" ht="138" x14ac:dyDescent="0.3">
@@ -20605,10 +20604,10 @@
       </c>
       <c r="G25" s="112"/>
       <c r="H25" s="112" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I25" s="112" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
@@ -20632,10 +20631,10 @@
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
@@ -20649,7 +20648,7 @@
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
@@ -20666,7 +20665,7 @@
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
@@ -20698,13 +20697,13 @@
         <v>9</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>5</v>
@@ -20712,10 +20711,10 @@
       <c r="F30" s="88"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -20723,7 +20722,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>9</v>
@@ -20732,15 +20731,15 @@
         <v>22</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F31" s="88"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:1027" s="99" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -20748,13 +20747,13 @@
         <v>11</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="96" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>5</v>
@@ -20762,10 +20761,10 @@
       <c r="F32" s="36"/>
       <c r="G32" s="97"/>
       <c r="H32" s="97" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="98"/>
@@ -21852,10 +21851,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
@@ -22059,10 +22058,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22076,7 +22075,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
@@ -22084,10 +22083,10 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -22127,10 +22126,10 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -22162,7 +22161,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -22170,10 +22169,10 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -22211,10 +22210,10 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -22254,10 +22253,10 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -22295,10 +22294,10 @@
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
       <c r="H8" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>309</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>310</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -22336,10 +22335,10 @@
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -22371,7 +22370,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="8" t="s">
@@ -22379,10 +22378,10 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>313</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -22405,10 +22404,10 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -22448,10 +22447,10 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -22489,10 +22488,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -22532,10 +22531,10 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -22573,10 +22572,10 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -22614,10 +22613,10 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -22655,10 +22654,10 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -24770,10 +24769,10 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
@@ -24796,10 +24795,10 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:1025" s="75" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -25860,10 +25859,10 @@
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
@@ -25884,10 +25883,10 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
@@ -25908,10 +25907,10 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
@@ -25932,10 +25931,10 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -25950,16 +25949,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
@@ -25980,10 +25979,10 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -26004,10 +26003,10 @@
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -26022,16 +26021,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -26052,10 +26051,10 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -26076,10 +26075,10 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -26094,16 +26093,16 @@
         <v>9</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -27158,10 +27157,10 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
@@ -27182,10 +27181,10 @@
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
@@ -27206,10 +27205,10 @@
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
@@ -27218,7 +27217,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>9</v>
@@ -27230,10 +27229,10 @@
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
@@ -27242,19 +27241,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I39" s="41"/>
     </row>
@@ -27264,7 +27263,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>9</v>
@@ -27276,10 +27275,10 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
@@ -27288,22 +27287,22 @@
         <v>38</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="105" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
@@ -27311,7 +27310,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>9</v>
@@ -27323,10 +27322,10 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
@@ -27334,7 +27333,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>9</v>
@@ -27346,10 +27345,10 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
@@ -27357,22 +27356,22 @@
         <v>41</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
@@ -27380,22 +27379,22 @@
         <v>42</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -27403,22 +27402,22 @@
         <v>43</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
@@ -27426,7 +27425,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>9</v>
@@ -27438,10 +27437,10 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="104" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
@@ -27461,7 +27460,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="104" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I48" s="36"/>
     </row>
@@ -27482,7 +27481,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="104" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I49" s="36"/>
     </row>
@@ -27503,7 +27502,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="104" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I50" s="36"/>
     </row>
@@ -27512,22 +27511,22 @@
         <v>48</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="104" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="66" x14ac:dyDescent="0.3">
@@ -27535,7 +27534,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>9</v>
@@ -27547,10 +27546,10 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="104" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C1B3F6-9D8D-4523-8BDB-DDF8A3670405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70C4B283-822D-42B8-827D-A72E1AD9618B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,7 @@
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
     <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -3050,19 +3043,6 @@
     <t>static.token.enable</t>
   </si>
   <si>
-    <t xml:space="preserve">  
-Single:fgrmin.threshold
-Composite: fgrmin.composite.threshold
-</t>
-  </si>
-  <si>
-    <t>Single: irisimg.threshold
-Composite: irisimg.composite.threshold</t>
-  </si>
-  <si>
-    <t>allowed.auth.types</t>
-  </si>
-  <si>
     <t>Configure authentications permissable for e-KYC for a country</t>
   </si>
   <si>
@@ -3268,6 +3248,19 @@
 CNIE/EC/Residence Card Number
 Parent/Guardian details
 Biometrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+Single:fgrmin.single.threshold
+Composite: fgrmin.composite.threshold
+</t>
+  </si>
+  <si>
+    <t>Single: irisimg.single.threshold
+Composite: irisimg.composite.threshold</t>
+  </si>
+  <si>
+    <t>auth.types.allowed</t>
   </si>
 </sst>
 </file>
@@ -5327,21 +5320,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
@@ -5355,7 +5348,7 @@
       <c r="I1" s="118"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5385,7 +5378,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5423,7 +5416,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
@@ -5466,7 +5459,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5509,7 +5502,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5552,7 +5545,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5595,7 +5588,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5638,7 +5631,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5681,7 +5674,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5724,7 +5717,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5767,7 +5760,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5810,7 +5803,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5853,7 +5846,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5915,21 +5908,21 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.21875" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>26</v>
       </c>
@@ -5942,7 +5935,7 @@
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5971,7 +5964,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5992,13 +5985,13 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -6017,18 +6010,18 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
@@ -6050,7 +6043,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6071,13 +6064,13 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6098,13 +6091,13 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -6125,40 +6118,40 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="101" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>625</v>
-      </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -6185,7 +6178,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -6212,7 +6205,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -6233,13 +6226,13 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="115" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -6256,7 +6249,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
@@ -6266,7 +6259,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -6291,18 +6284,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -6310,11 +6303,11 @@
       <c r="F15" s="50"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -6335,7 +6328,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -6354,7 +6347,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -6373,7 +6366,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -6392,7 +6385,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -6411,7 +6404,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -6430,7 +6423,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -6449,7 +6442,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -6468,7 +6461,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -6487,7 +6480,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -6510,7 +6503,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -6529,7 +6522,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -6548,7 +6541,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -6569,7 +6562,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="62"/>
     </row>
-    <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -6606,25 +6599,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AML75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.5546875" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="s">
         <v>53</v>
       </c>
@@ -6636,7 +6629,7 @@
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6662,7 +6655,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6688,7 +6681,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6715,7 +6708,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6738,7 +6731,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6761,7 +6754,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6788,7 +6781,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6815,7 +6808,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6842,7 +6835,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6869,7 +6862,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6896,7 +6889,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6923,7 +6916,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6950,7 +6943,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6977,7 +6970,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7000,7 +6993,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7023,7 +7016,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7046,7 +7039,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7069,7 +7062,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7090,7 +7083,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7111,7 +7104,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7134,7 +7127,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7157,7 +7150,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7178,7 +7171,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7199,7 +7192,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7224,7 +7217,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7247,7 +7240,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7272,7 +7265,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7297,7 +7290,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7322,7 +7315,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="198" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7349,7 +7342,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7376,7 +7369,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7403,7 +7396,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7430,7 +7423,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7457,7 +7450,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7484,7 +7477,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1026" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7511,7 +7504,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7532,7 +7525,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7557,7 +7550,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7582,7 +7575,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7609,7 +7602,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7636,7 +7629,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8681,7 +8674,7 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1026" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9724,7 +9717,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9747,7 +9740,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9770,7 +9763,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9793,7 +9786,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1026" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9816,7 +9809,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9841,7 +9834,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9866,7 +9859,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9891,7 +9884,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9916,7 +9909,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9939,7 +9932,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -9962,7 +9955,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -9985,7 +9978,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -10008,13 +10001,13 @@
         <v>579</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>9</v>
@@ -10026,10 +10019,10 @@
         <v>461</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10041,7 +10034,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="49"/>
@@ -10052,7 +10045,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -10077,7 +10070,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10102,7 +10095,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -10126,7 +10119,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -10150,7 +10143,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -10172,7 +10165,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -10196,7 +10189,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -10220,7 +10213,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -10244,7 +10237,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -10268,7 +10261,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -10290,7 +10283,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -10310,7 +10303,7 @@
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -10330,7 +10323,7 @@
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -10350,7 +10343,7 @@
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -10370,7 +10363,7 @@
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -10390,18 +10383,18 @@
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E73" s="36" t="s">
         <v>591</v>
@@ -10409,15 +10402,15 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>9</v>
@@ -10427,16 +10420,16 @@
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f t="shared" ref="A75" si="1">A74+1</f>
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>9</v>
@@ -10446,7 +10439,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -10469,21 +10462,21 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.77734375" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.7109375" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
         <v>155</v>
       </c>
@@ -10496,7 +10489,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10525,7 +10518,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -10546,7 +10539,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10567,7 +10560,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -10588,7 +10581,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -10609,7 +10602,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -10630,7 +10623,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -10651,7 +10644,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10674,7 +10667,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -10697,7 +10690,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -10718,7 +10711,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -10739,7 +10732,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -10760,7 +10753,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -10781,7 +10774,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -10802,7 +10795,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -10825,7 +10818,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -10862,28 +10855,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMM32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
         <v>101</v>
       </c>
@@ -10896,7 +10889,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -10925,7 +10918,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -11966,7 +11959,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -13007,7 +13000,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13030,7 +13023,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13051,7 +13044,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13072,7 +13065,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13095,7 +13088,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13116,7 +13109,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13137,7 +13130,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14174,7 +14167,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15211,7 +15204,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16248,7 +16241,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -17285,7 +17278,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17312,7 +17305,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -17333,13 +17326,13 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="224.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -17360,13 +17353,13 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17393,7 +17386,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18430,7 +18423,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19467,7 +19460,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -20506,12 +20499,12 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>9</v>
@@ -20527,63 +20520,63 @@
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="87">
         <v>6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="87">
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="138" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A25" s="111">
         <v>19</v>
       </c>
@@ -20607,10 +20600,10 @@
         <v>347</v>
       </c>
       <c r="I25" s="112" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20637,7 +20630,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>138</v>
@@ -20654,7 +20647,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="87"/>
       <c r="B28" s="88" t="s">
         <v>139</v>
@@ -20671,7 +20664,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:1027" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1027" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
         <v>162</v>
@@ -20692,7 +20685,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1027" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="87">
         <v>9</v>
       </c>
@@ -20711,13 +20704,13 @@
       <c r="F30" s="88"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I30" s="36" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="87">
         <v>10</v>
       </c>
@@ -20742,7 +20735,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="99" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1027" s="99" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="87">
         <v>11</v>
       </c>
@@ -21802,20 +21795,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.5546875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5703125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
         <v>140</v>
       </c>
@@ -21828,7 +21821,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -21857,7 +21850,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -21874,7 +21867,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -21891,7 +21884,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -21908,7 +21901,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -21925,7 +21918,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -21942,7 +21935,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -21959,7 +21952,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -21976,7 +21969,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -22008,21 +22001,21 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.21875" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.28515625" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
         <v>194</v>
       </c>
@@ -22035,7 +22028,7 @@
       <c r="H1" s="122"/>
       <c r="I1" s="122"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22064,7 +22057,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -22106,7 +22099,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22149,7 +22142,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22192,7 +22185,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -22233,7 +22226,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22276,7 +22269,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
@@ -22317,7 +22310,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -22358,7 +22351,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22384,7 +22377,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22427,7 +22420,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22470,7 +22463,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
@@ -22511,7 +22504,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
@@ -22554,7 +22547,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
@@ -22595,7 +22588,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -22636,7 +22629,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -22677,7 +22670,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23713,7 +23706,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24749,7 +24742,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24775,7 +24768,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24801,7 +24794,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -25839,7 +25832,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25865,7 +25858,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -25889,7 +25882,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -25913,7 +25906,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -25937,7 +25930,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -25961,7 +25954,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -25985,7 +25978,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -26009,7 +26002,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -26033,7 +26026,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -26057,7 +26050,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -26081,7 +26074,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -26105,7 +26098,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -27139,7 +27132,7 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1025" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -27163,7 +27156,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1025" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -27187,7 +27180,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -27211,7 +27204,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -27235,7 +27228,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -27257,7 +27250,7 @@
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -27281,7 +27274,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -27305,7 +27298,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -27328,7 +27321,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -27351,7 +27344,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -27374,7 +27367,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -27397,7 +27390,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -27420,7 +27413,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -27443,7 +27436,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27464,7 +27457,7 @@
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27485,7 +27478,7 @@
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27506,7 +27499,7 @@
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>48</v>
       </c>
@@ -27529,7 +27522,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>49</v>
       </c>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1036862\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70C4B283-822D-42B8-827D-A72E1AD9618B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09D6569F-EFA1-4959-88D0-2C2521162A82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="652">
   <si>
     <r>
       <rPr>
@@ -3262,6 +3262,33 @@
   <si>
     <t>auth.types.allowed</t>
   </si>
+  <si>
+    <t xml:space="preserve">Allowed Document extentions for Pre-Registrations </t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>preregistration.document.extention</t>
+  </si>
+  <si>
+    <t>Time before which the Auto Logout alert message should be displayed</t>
+  </si>
+  <si>
+    <t>60 secs</t>
+  </si>
+  <si>
+    <t>preregistration.auto.logout.alert</t>
+  </si>
+  <si>
+    <t>The System should auto logout the individual after the specified mins in the confi</t>
+  </si>
+  <si>
+    <t>The system should provide alert message before the auto logout</t>
+  </si>
+  <si>
+    <t>The system should allow the file type extensions to be uploaded</t>
+  </si>
 </sst>
 </file>
 
@@ -3270,7 +3297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3456,6 +3483,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3651,7 +3683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3996,6 +4028,9 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4030,8 +4065,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4068,8 +4101,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4108,8 +4139,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4292,8 +4321,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4334,8 +4361,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4430,8 +4455,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4476,8 +4499,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4700,8 +4721,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4742,8 +4761,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4782,8 +4799,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4948,32 +4963,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table22" displayName="Table22" ref="A2:I29" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A2:I29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A2:I31" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A2:I31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type of Config" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default Value" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="All Values" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Mindtree Comments" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Customer Comments" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Config in Config Server" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="System Bahavior - On Setup and Change" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Config" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default Value" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="All Values" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Mindtree Comments" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Customer Comments" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Config in Config Server" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="System Bahavior - On Setup and Change" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A2:E39" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:E39" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Config"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default Value"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Other Values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type of Config"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default Value"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Other Values"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5320,35 +5335,35 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5378,7 +5393,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5416,7 +5431,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
@@ -5459,7 +5474,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5502,7 +5517,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5545,7 +5560,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5588,7 +5603,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5631,7 +5646,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5674,7 +5689,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5717,7 +5732,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5760,7 +5775,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5803,7 +5818,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5846,7 +5861,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5900,42 +5915,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.26953125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.26953125" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.26953125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5964,7 +5979,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5991,7 +6006,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -6016,7 +6031,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -6043,7 +6058,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6070,7 +6085,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6097,7 +6112,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -6124,7 +6139,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -6151,7 +6166,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -6178,7 +6193,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -6205,7 +6220,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -6232,7 +6247,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -6259,7 +6274,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -6284,7 +6299,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -6305,73 +6320,87 @@
       <c r="H15" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="I15" s="19"/>
+      <c r="I15" s="19" t="s">
+        <v>649</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>14</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118" t="s">
+        <v>648</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118" t="s">
+        <v>645</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="46" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>15</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="46" t="s">
+        <v>150</v>
+      </c>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>9</v>
@@ -6379,18 +6408,18 @@
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>9</v>
@@ -6404,12 +6433,12 @@
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>9</v>
@@ -6423,12 +6452,12 @@
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>9</v>
@@ -6442,12 +6471,12 @@
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>9</v>
@@ -6461,12 +6490,12 @@
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>9</v>
@@ -6480,35 +6509,31 @@
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>44</v>
-      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>9</v>
@@ -6516,72 +6541,114 @@
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="46" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>44</v>
+      </c>
       <c r="F27" s="46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>48</v>
-      </c>
+      <c r="D28" s="47"/>
       <c r="E28" s="47"/>
       <c r="F28" s="46" t="s">
         <v>265</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="62"/>
+      <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
+        <v>26</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+      <c r="A30" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B30" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="62"/>
+    </row>
+    <row r="31" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
+        <v>28</v>
+      </c>
+      <c r="B31" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C31" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D31" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="65" t="s">
+      <c r="E31" s="66"/>
+      <c r="F31" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="23"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6596,7 +6663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AML75"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6604,20 +6671,20 @@
       <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.54296875" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="109" t="s">
         <v>53</v>
       </c>
@@ -6629,7 +6696,7 @@
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6655,7 +6722,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="143" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6681,7 +6748,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="208" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6708,7 +6775,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="221" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6731,7 +6798,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6754,7 +6821,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6781,7 +6848,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6808,7 +6875,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6835,7 +6902,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6862,7 +6929,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6889,7 +6956,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6916,7 +6983,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6943,7 +7010,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6970,7 +7037,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6993,7 +7060,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7016,7 +7083,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7039,7 +7106,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7062,7 +7129,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7083,7 +7150,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7104,7 +7171,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7127,7 +7194,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7150,7 +7217,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7171,7 +7238,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7192,7 +7259,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="234" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7217,7 +7284,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7240,7 +7307,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7265,7 +7332,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7290,7 +7357,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7315,7 +7382,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="195" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7342,7 +7409,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7369,7 +7436,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7396,7 +7463,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7423,7 +7490,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7450,7 +7517,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7477,7 +7544,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1026" ht="156" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7504,7 +7571,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7525,7 +7592,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7550,7 +7617,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7575,7 +7642,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7602,7 +7669,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7629,7 +7696,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8674,7 +8741,7 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9717,7 +9784,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9740,7 +9807,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9763,7 +9830,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9786,7 +9853,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1026" ht="143" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9809,7 +9876,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9834,7 +9901,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9859,7 +9926,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9884,7 +9951,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9909,7 +9976,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9932,7 +9999,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -9955,7 +10022,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -9978,7 +10045,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -10001,7 +10068,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -10022,7 +10089,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="348" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10045,7 +10112,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="130" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -10070,7 +10137,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="143" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10095,7 +10162,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -10119,7 +10186,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -10143,7 +10210,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -10165,7 +10232,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -10189,7 +10256,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -10213,7 +10280,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -10237,7 +10304,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -10261,7 +10328,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -10283,7 +10350,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -10303,7 +10370,7 @@
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -10323,7 +10390,7 @@
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -10343,7 +10410,7 @@
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -10363,7 +10430,7 @@
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -10383,7 +10450,7 @@
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -10405,7 +10472,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -10423,7 +10490,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <f t="shared" ref="A75" si="1">A74+1</f>
         <v>74</v>
@@ -10462,34 +10529,34 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.7109375" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.54296875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.26953125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.7265625" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10518,7 +10585,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -10539,7 +10606,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10560,7 +10627,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -10581,7 +10648,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -10602,7 +10669,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -10623,7 +10690,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -10644,7 +10711,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10667,7 +10734,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -10690,7 +10757,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -10711,7 +10778,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="156" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -10732,7 +10799,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="143" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -10753,7 +10820,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -10774,7 +10841,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -10795,7 +10862,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -10818,7 +10885,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -10855,41 +10922,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.54296875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -10918,7 +10985,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="273" x14ac:dyDescent="0.3">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -11959,7 +12026,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -13000,7 +13067,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1027" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13023,7 +13090,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13044,7 +13111,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13065,7 +13132,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13088,7 +13155,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13109,7 +13176,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13130,7 +13197,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14167,7 +14234,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15204,7 +15271,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16241,7 +16308,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -17278,7 +17345,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17305,7 +17372,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -17332,7 +17399,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1027" ht="195" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -17359,7 +17426,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17386,7 +17453,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18423,7 +18490,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19460,7 +19527,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -20499,7 +20566,7 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
       <c r="A22" s="87">
         <v>5</v>
       </c>
@@ -20526,7 +20593,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A23" s="87">
         <v>6</v>
       </c>
@@ -20551,7 +20618,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A24" s="87">
         <v>7</v>
       </c>
@@ -20576,7 +20643,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
       <c r="A25" s="111">
         <v>19</v>
       </c>
@@ -20603,7 +20670,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20630,7 +20697,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>138</v>
@@ -20647,7 +20714,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="87"/>
       <c r="B28" s="88" t="s">
         <v>139</v>
@@ -20664,7 +20731,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:1027" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1027" ht="78" x14ac:dyDescent="0.35">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
         <v>162</v>
@@ -20685,7 +20752,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="195" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
       <c r="A30" s="87">
         <v>9</v>
       </c>
@@ -20710,7 +20777,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A31" s="87">
         <v>10</v>
       </c>
@@ -20735,7 +20802,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="99" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1027" s="99" customFormat="1" ht="143" x14ac:dyDescent="0.35">
       <c r="A32" s="87">
         <v>11</v>
       </c>
@@ -21795,33 +21862,33 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.5703125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.54296875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -21850,7 +21917,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -21867,7 +21934,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -21884,7 +21951,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -21901,7 +21968,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -21918,7 +21985,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -21935,7 +22002,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -21952,7 +22019,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -21969,7 +22036,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -22001,34 +22068,34 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.26953125" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22057,7 +22124,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -22099,7 +22166,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22142,7 +22209,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22185,7 +22252,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -22226,7 +22293,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22269,7 +22336,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
@@ -22310,7 +22377,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -22351,7 +22418,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="52" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22377,7 +22444,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22420,7 +22487,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22463,7 +22530,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
@@ -22504,7 +22571,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
@@ -22547,7 +22614,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
@@ -22588,7 +22655,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -22629,7 +22696,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -22670,7 +22737,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23706,7 +23773,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24742,7 +24809,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24768,7 +24835,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1025" ht="104" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24794,7 +24861,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -25832,7 +25899,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25858,7 +25925,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -25882,7 +25949,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -25906,7 +25973,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -25930,7 +25997,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -25954,7 +26021,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -25978,7 +26045,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -26002,7 +26069,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -26026,7 +26093,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -26050,7 +26117,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -26074,7 +26141,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -26098,7 +26165,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -27132,7 +27199,7 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="210" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" ht="156" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -27156,7 +27223,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" ht="130" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -27180,7 +27247,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1025" ht="78" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -27204,7 +27271,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -27228,7 +27295,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -27250,7 +27317,7 @@
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -27274,7 +27341,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -27298,7 +27365,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -27321,7 +27388,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -27344,7 +27411,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -27367,7 +27434,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -27390,7 +27457,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -27413,7 +27480,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -27436,7 +27503,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27457,7 +27524,7 @@
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27478,7 +27545,7 @@
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27499,7 +27566,7 @@
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <v>48</v>
       </c>
@@ -27522,7 +27589,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>49</v>
       </c>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1036862\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09D6569F-EFA1-4959-88D0-2C2521162A82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B9293D92-711F-4B94-A2AA-C8114B7D80A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="657">
   <si>
     <r>
       <rPr>
@@ -557,9 +557,6 @@
   </si>
   <si>
     <t>OK - Aadhaar has 24hrs as the defined threshold</t>
-  </si>
-  <si>
-    <t>Setup PDF template for limited e-KYC</t>
   </si>
   <si>
     <t>Setup PDF template for Full e-KYC</t>
@@ -3289,6 +3286,49 @@
   <si>
     <t>The system should allow the file type extensions to be uploaded</t>
   </si>
+  <si>
+    <t>Setup PDF template for e-KYC</t>
+  </si>
+  <si>
+    <t>Configure the idtype to be supported for Authentication</t>
+  </si>
+  <si>
+    <t>UIN/VIN</t>
+  </si>
+  <si>
+    <t>UIN and VIN</t>
+  </si>
+  <si>
+    <t>To be added</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The authentication,eKYC and OTP requests will be supported for the id Types configured.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+On change:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> he authentication,eKYC and OTP requests will be supported for the id Type Changed
+In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3297,7 +3337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3488,6 +3528,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3683,7 +3735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4046,6 +4098,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5335,21 +5403,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5431,7 @@
       <c r="I1" s="119"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5386,14 +5454,14 @@
         <v>7</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5431,28 +5499,28 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
@@ -5474,28 +5542,28 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
@@ -5517,28 +5585,28 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
@@ -5560,13 +5628,13 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
@@ -5578,10 +5646,10 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
@@ -5603,13 +5671,13 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -5621,10 +5689,10 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
@@ -5646,28 +5714,28 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
@@ -5689,28 +5757,28 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I10" s="69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
@@ -5732,28 +5800,28 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
@@ -5775,28 +5843,28 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
@@ -5818,13 +5886,13 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
@@ -5836,10 +5904,10 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
@@ -5861,7 +5929,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5918,26 +5986,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.26953125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.26953125" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
         <v>26</v>
       </c>
@@ -5950,7 +6018,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5973,13 +6041,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -6000,18 +6068,18 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
@@ -6025,24 +6093,24 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -6052,13 +6120,13 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6069,7 +6137,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>32</v>
@@ -6079,13 +6147,13 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6096,7 +6164,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -6106,18 +6174,18 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -6133,45 +6201,45 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="101" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="130" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
@@ -6183,22 +6251,22 @@
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="115" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -6210,22 +6278,22 @@
         <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
@@ -6237,55 +6305,55 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="115" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>32</v>
@@ -6293,24 +6361,24 @@
       <c r="F14" s="50"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -6318,24 +6386,24 @@
       <c r="F15" s="50"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>32</v>
@@ -6343,24 +6411,24 @@
       <c r="F16" s="50"/>
       <c r="G16" s="118"/>
       <c r="H16" s="118" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>32</v>
@@ -6368,13 +6436,13 @@
       <c r="F17" s="50"/>
       <c r="G17" s="118"/>
       <c r="H17" s="118" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -6385,17 +6453,17 @@
         <v>9</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -6408,13 +6476,13 @@
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -6427,13 +6495,13 @@
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
       <c r="F20" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -6446,13 +6514,13 @@
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
       <c r="F21" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -6465,13 +6533,13 @@
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -6484,13 +6552,13 @@
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -6503,13 +6571,13 @@
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -6522,13 +6590,13 @@
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
       <c r="F25" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -6541,13 +6609,13 @@
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -6564,13 +6632,13 @@
         <v>44</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -6583,13 +6651,13 @@
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
       <c r="F28" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -6602,13 +6670,13 @@
       <c r="D29" s="47"/>
       <c r="E29" s="47"/>
       <c r="F29" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -6623,13 +6691,13 @@
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -6640,11 +6708,11 @@
         <v>9</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="66"/>
       <c r="F31" s="65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -6671,20 +6739,20 @@
       <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.54296875" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="s">
         <v>53</v>
       </c>
@@ -6696,7 +6764,7 @@
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6716,13 +6784,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="143" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6736,19 +6804,19 @@
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="208" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6769,13 +6837,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="221" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6789,16 +6857,16 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6815,13 +6883,13 @@
         <v>61</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6839,16 +6907,16 @@
         <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6869,13 +6937,13 @@
         <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6896,13 +6964,13 @@
         <v>11</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6923,13 +6991,13 @@
         <v>11</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6950,13 +7018,13 @@
         <v>11</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6977,13 +7045,13 @@
         <v>11</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6998,25 +7066,25 @@
         <v>55</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>9</v>
@@ -7025,19 +7093,19 @@
         <v>55</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="52" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7054,13 +7122,13 @@
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="52" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7077,13 +7145,13 @@
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7100,13 +7168,13 @@
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7123,13 +7191,13 @@
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7147,10 +7215,10 @@
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7168,10 +7236,10 @@
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7188,13 +7256,13 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7211,13 +7279,13 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7235,10 +7303,10 @@
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7256,10 +7324,10 @@
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="234" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7271,43 +7339,43 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7319,20 +7387,20 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7344,51 +7412,51 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="195" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>9</v>
@@ -7397,25 +7465,25 @@
         <v>85</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>9</v>
@@ -7424,19 +7492,19 @@
         <v>85</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7451,19 +7519,19 @@
         <v>87</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7478,19 +7546,19 @@
         <v>100</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7502,22 +7570,22 @@
         <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7538,13 +7606,13 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="156" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1026" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7565,19 +7633,19 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>9</v>
@@ -7589,35 +7657,35 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>447</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>448</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7636,19 +7704,19 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>9</v>
@@ -7657,25 +7725,25 @@
         <v>55</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>9</v>
@@ -7684,25 +7752,25 @@
         <v>55</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>9</v>
@@ -7711,16 +7779,16 @@
         <v>43466</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -8741,29 +8809,29 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1026" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -9784,36 +9852,36 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" s="36"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>9</v>
@@ -9824,140 +9892,140 @@
       <c r="E45" s="36"/>
       <c r="F45" s="50"/>
       <c r="G45" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="143" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1026" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F50" s="50"/>
       <c r="G50" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>9</v>
@@ -9966,23 +10034,23 @@
         <v>100</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>9</v>
@@ -9993,19 +10061,19 @@
       <c r="E52" s="36"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>9</v>
@@ -10016,19 +10084,19 @@
       <c r="E53" s="36"/>
       <c r="F53" s="50"/>
       <c r="G53" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>9</v>
@@ -10039,19 +10107,19 @@
       <c r="E54" s="36"/>
       <c r="F54" s="50"/>
       <c r="G54" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>9</v>
@@ -10062,19 +10130,19 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>9</v>
@@ -10083,257 +10151,257 @@
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="348" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="49"/>
       <c r="G57" s="50" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="130" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F58" s="50"/>
       <c r="G58" s="50" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="143" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F59" s="50"/>
       <c r="G59" s="50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E60" s="36" t="s">
         <v>466</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>467</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="39" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E61" s="36" t="s">
         <v>466</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>467</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E63" s="36" t="s">
         <v>466</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>467</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E64" s="36" t="s">
         <v>466</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>467</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E65" s="36" t="s">
         <v>466</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>467</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E66" s="36" t="s">
         <v>466</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>467</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>9</v>
@@ -10344,18 +10412,18 @@
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>9</v>
@@ -10366,118 +10434,118 @@
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="39" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>9</v>
@@ -10487,16 +10555,16 @@
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f t="shared" ref="A75" si="1">A74+1</f>
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>9</v>
@@ -10506,7 +10574,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -10529,23 +10597,23 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.54296875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.26953125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.7265625" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.7109375" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -10556,7 +10624,7 @@
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10579,34 +10647,34 @@
         <v>7</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>385</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>386</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="10"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>388</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10614,104 +10682,104 @@
         <v>98</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10719,7 +10787,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>100</v>
@@ -10728,182 +10796,182 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>399</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>400</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="102" t="s">
+        <v>400</v>
+      </c>
+      <c r="I10" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="I10" s="103" t="s">
-        <v>402</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="I11" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="I11" s="45" t="s">
-        <v>407</v>
-      </c>
     </row>
-    <row r="12" spans="1:9" ht="156" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="I12" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>410</v>
-      </c>
     </row>
-    <row r="13" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="I13" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>413</v>
-      </c>
     </row>
-    <row r="14" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="I14" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I14" s="45" t="s">
-        <v>416</v>
-      </c>
     </row>
-    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="I15" s="45" t="s">
         <v>418</v>
       </c>
-      <c r="I15" s="45" t="s">
-        <v>419</v>
-      </c>
     </row>
-    <row r="16" spans="1:9" ht="130" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="I16" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="I16" s="45" t="s">
-        <v>423</v>
-      </c>
     </row>
-    <row r="17" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="I17" s="45" t="s">
         <v>425</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -10920,30 +10988,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMM32"/>
+  <dimension ref="A1:AMM33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.54296875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
         <v>101</v>
       </c>
@@ -10956,7 +11024,7 @@
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -10979,13 +11047,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -11002,7 +11070,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
@@ -12026,7 +12094,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -12043,7 +12111,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
@@ -13067,7 +13135,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13084,13 +13152,13 @@
         <v>110</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13111,7 +13179,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13132,7 +13200,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13155,7 +13223,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13176,7 +13244,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13197,7 +13265,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14234,7 +14302,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15271,7 +15339,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16308,7 +16376,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -16321,7 +16389,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -17345,7 +17413,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1027" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17366,18 +17434,18 @@
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>9</v>
@@ -17393,18 +17461,18 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="195" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>9</v>
@@ -17420,13 +17488,13 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17447,13 +17515,13 @@
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18490,7 +18558,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19527,7 +19595,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -19542,7 +19610,7 @@
         <v>125</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G21" s="91"/>
       <c r="H21" s="91"/>
@@ -20566,12 +20634,12 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1027" ht="210" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>9</v>
@@ -20580,70 +20648,70 @@
         <v>131</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="87">
         <v>6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>603</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>604</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="87">
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>607</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>608</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A25" s="111">
         <v>19</v>
       </c>
@@ -20664,13 +20732,13 @@
       </c>
       <c r="G25" s="112"/>
       <c r="H25" s="112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I25" s="112" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20691,16 +20759,16 @@
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1027" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
-        <v>138</v>
+        <v>651</v>
       </c>
       <c r="C27" s="89" t="s">
         <v>9</v>
@@ -20708,62 +20776,1080 @@
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="89" t="s">
+    <row r="28" spans="1:1027" s="129" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="125"/>
+      <c r="B28" s="126" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="41"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="126" t="s">
+        <v>348</v>
+      </c>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="128"/>
+      <c r="AK28" s="128"/>
+      <c r="AL28" s="128"/>
+      <c r="AM28" s="128"/>
+      <c r="AN28" s="128"/>
+      <c r="AO28" s="128"/>
+      <c r="AP28" s="128"/>
+      <c r="AQ28" s="128"/>
+      <c r="AR28" s="128"/>
+      <c r="AS28" s="128"/>
+      <c r="AT28" s="128"/>
+      <c r="AU28" s="128"/>
+      <c r="AV28" s="128"/>
+      <c r="AW28" s="128"/>
+      <c r="AX28" s="128"/>
+      <c r="AY28" s="128"/>
+      <c r="AZ28" s="128"/>
+      <c r="BA28" s="128"/>
+      <c r="BB28" s="128"/>
+      <c r="BC28" s="128"/>
+      <c r="BD28" s="128"/>
+      <c r="BE28" s="128"/>
+      <c r="BF28" s="128"/>
+      <c r="BG28" s="128"/>
+      <c r="BH28" s="128"/>
+      <c r="BI28" s="128"/>
+      <c r="BJ28" s="128"/>
+      <c r="BK28" s="128"/>
+      <c r="BL28" s="128"/>
+      <c r="BM28" s="128"/>
+      <c r="BN28" s="128"/>
+      <c r="BO28" s="128"/>
+      <c r="BP28" s="128"/>
+      <c r="BQ28" s="128"/>
+      <c r="BR28" s="128"/>
+      <c r="BS28" s="128"/>
+      <c r="BT28" s="128"/>
+      <c r="BU28" s="128"/>
+      <c r="BV28" s="128"/>
+      <c r="BW28" s="128"/>
+      <c r="BX28" s="128"/>
+      <c r="BY28" s="128"/>
+      <c r="BZ28" s="128"/>
+      <c r="CA28" s="128"/>
+      <c r="CB28" s="128"/>
+      <c r="CC28" s="128"/>
+      <c r="CD28" s="128"/>
+      <c r="CE28" s="128"/>
+      <c r="CF28" s="128"/>
+      <c r="CG28" s="128"/>
+      <c r="CH28" s="128"/>
+      <c r="CI28" s="128"/>
+      <c r="CJ28" s="128"/>
+      <c r="CK28" s="128"/>
+      <c r="CL28" s="128"/>
+      <c r="CM28" s="128"/>
+      <c r="CN28" s="128"/>
+      <c r="CO28" s="128"/>
+      <c r="CP28" s="128"/>
+      <c r="CQ28" s="128"/>
+      <c r="CR28" s="128"/>
+      <c r="CS28" s="128"/>
+      <c r="CT28" s="128"/>
+      <c r="CU28" s="128"/>
+      <c r="CV28" s="128"/>
+      <c r="CW28" s="128"/>
+      <c r="CX28" s="128"/>
+      <c r="CY28" s="128"/>
+      <c r="CZ28" s="128"/>
+      <c r="DA28" s="128"/>
+      <c r="DB28" s="128"/>
+      <c r="DC28" s="128"/>
+      <c r="DD28" s="128"/>
+      <c r="DE28" s="128"/>
+      <c r="DF28" s="128"/>
+      <c r="DG28" s="128"/>
+      <c r="DH28" s="128"/>
+      <c r="DI28" s="128"/>
+      <c r="DJ28" s="128"/>
+      <c r="DK28" s="128"/>
+      <c r="DL28" s="128"/>
+      <c r="DM28" s="128"/>
+      <c r="DN28" s="128"/>
+      <c r="DO28" s="128"/>
+      <c r="DP28" s="128"/>
+      <c r="DQ28" s="128"/>
+      <c r="DR28" s="128"/>
+      <c r="DS28" s="128"/>
+      <c r="DT28" s="128"/>
+      <c r="DU28" s="128"/>
+      <c r="DV28" s="128"/>
+      <c r="DW28" s="128"/>
+      <c r="DX28" s="128"/>
+      <c r="DY28" s="128"/>
+      <c r="DZ28" s="128"/>
+      <c r="EA28" s="128"/>
+      <c r="EB28" s="128"/>
+      <c r="EC28" s="128"/>
+      <c r="ED28" s="128"/>
+      <c r="EE28" s="128"/>
+      <c r="EF28" s="128"/>
+      <c r="EG28" s="128"/>
+      <c r="EH28" s="128"/>
+      <c r="EI28" s="128"/>
+      <c r="EJ28" s="128"/>
+      <c r="EK28" s="128"/>
+      <c r="EL28" s="128"/>
+      <c r="EM28" s="128"/>
+      <c r="EN28" s="128"/>
+      <c r="EO28" s="128"/>
+      <c r="EP28" s="128"/>
+      <c r="EQ28" s="128"/>
+      <c r="ER28" s="128"/>
+      <c r="ES28" s="128"/>
+      <c r="ET28" s="128"/>
+      <c r="EU28" s="128"/>
+      <c r="EV28" s="128"/>
+      <c r="EW28" s="128"/>
+      <c r="EX28" s="128"/>
+      <c r="EY28" s="128"/>
+      <c r="EZ28" s="128"/>
+      <c r="FA28" s="128"/>
+      <c r="FB28" s="128"/>
+      <c r="FC28" s="128"/>
+      <c r="FD28" s="128"/>
+      <c r="FE28" s="128"/>
+      <c r="FF28" s="128"/>
+      <c r="FG28" s="128"/>
+      <c r="FH28" s="128"/>
+      <c r="FI28" s="128"/>
+      <c r="FJ28" s="128"/>
+      <c r="FK28" s="128"/>
+      <c r="FL28" s="128"/>
+      <c r="FM28" s="128"/>
+      <c r="FN28" s="128"/>
+      <c r="FO28" s="128"/>
+      <c r="FP28" s="128"/>
+      <c r="FQ28" s="128"/>
+      <c r="FR28" s="128"/>
+      <c r="FS28" s="128"/>
+      <c r="FT28" s="128"/>
+      <c r="FU28" s="128"/>
+      <c r="FV28" s="128"/>
+      <c r="FW28" s="128"/>
+      <c r="FX28" s="128"/>
+      <c r="FY28" s="128"/>
+      <c r="FZ28" s="128"/>
+      <c r="GA28" s="128"/>
+      <c r="GB28" s="128"/>
+      <c r="GC28" s="128"/>
+      <c r="GD28" s="128"/>
+      <c r="GE28" s="128"/>
+      <c r="GF28" s="128"/>
+      <c r="GG28" s="128"/>
+      <c r="GH28" s="128"/>
+      <c r="GI28" s="128"/>
+      <c r="GJ28" s="128"/>
+      <c r="GK28" s="128"/>
+      <c r="GL28" s="128"/>
+      <c r="GM28" s="128"/>
+      <c r="GN28" s="128"/>
+      <c r="GO28" s="128"/>
+      <c r="GP28" s="128"/>
+      <c r="GQ28" s="128"/>
+      <c r="GR28" s="128"/>
+      <c r="GS28" s="128"/>
+      <c r="GT28" s="128"/>
+      <c r="GU28" s="128"/>
+      <c r="GV28" s="128"/>
+      <c r="GW28" s="128"/>
+      <c r="GX28" s="128"/>
+      <c r="GY28" s="128"/>
+      <c r="GZ28" s="128"/>
+      <c r="HA28" s="128"/>
+      <c r="HB28" s="128"/>
+      <c r="HC28" s="128"/>
+      <c r="HD28" s="128"/>
+      <c r="HE28" s="128"/>
+      <c r="HF28" s="128"/>
+      <c r="HG28" s="128"/>
+      <c r="HH28" s="128"/>
+      <c r="HI28" s="128"/>
+      <c r="HJ28" s="128"/>
+      <c r="HK28" s="128"/>
+      <c r="HL28" s="128"/>
+      <c r="HM28" s="128"/>
+      <c r="HN28" s="128"/>
+      <c r="HO28" s="128"/>
+      <c r="HP28" s="128"/>
+      <c r="HQ28" s="128"/>
+      <c r="HR28" s="128"/>
+      <c r="HS28" s="128"/>
+      <c r="HT28" s="128"/>
+      <c r="HU28" s="128"/>
+      <c r="HV28" s="128"/>
+      <c r="HW28" s="128"/>
+      <c r="HX28" s="128"/>
+      <c r="HY28" s="128"/>
+      <c r="HZ28" s="128"/>
+      <c r="IA28" s="128"/>
+      <c r="IB28" s="128"/>
+      <c r="IC28" s="128"/>
+      <c r="ID28" s="128"/>
+      <c r="IE28" s="128"/>
+      <c r="IF28" s="128"/>
+      <c r="IG28" s="128"/>
+      <c r="IH28" s="128"/>
+      <c r="II28" s="128"/>
+      <c r="IJ28" s="128"/>
+      <c r="IK28" s="128"/>
+      <c r="IL28" s="128"/>
+      <c r="IM28" s="128"/>
+      <c r="IN28" s="128"/>
+      <c r="IO28" s="128"/>
+      <c r="IP28" s="128"/>
+      <c r="IQ28" s="128"/>
+      <c r="IR28" s="128"/>
+      <c r="IS28" s="128"/>
+      <c r="IT28" s="128"/>
+      <c r="IU28" s="128"/>
+      <c r="IV28" s="128"/>
+      <c r="IW28" s="128"/>
+      <c r="IX28" s="128"/>
+      <c r="IY28" s="128"/>
+      <c r="IZ28" s="128"/>
+      <c r="JA28" s="128"/>
+      <c r="JB28" s="128"/>
+      <c r="JC28" s="128"/>
+      <c r="JD28" s="128"/>
+      <c r="JE28" s="128"/>
+      <c r="JF28" s="128"/>
+      <c r="JG28" s="128"/>
+      <c r="JH28" s="128"/>
+      <c r="JI28" s="128"/>
+      <c r="JJ28" s="128"/>
+      <c r="JK28" s="128"/>
+      <c r="JL28" s="128"/>
+      <c r="JM28" s="128"/>
+      <c r="JN28" s="128"/>
+      <c r="JO28" s="128"/>
+      <c r="JP28" s="128"/>
+      <c r="JQ28" s="128"/>
+      <c r="JR28" s="128"/>
+      <c r="JS28" s="128"/>
+      <c r="JT28" s="128"/>
+      <c r="JU28" s="128"/>
+      <c r="JV28" s="128"/>
+      <c r="JW28" s="128"/>
+      <c r="JX28" s="128"/>
+      <c r="JY28" s="128"/>
+      <c r="JZ28" s="128"/>
+      <c r="KA28" s="128"/>
+      <c r="KB28" s="128"/>
+      <c r="KC28" s="128"/>
+      <c r="KD28" s="128"/>
+      <c r="KE28" s="128"/>
+      <c r="KF28" s="128"/>
+      <c r="KG28" s="128"/>
+      <c r="KH28" s="128"/>
+      <c r="KI28" s="128"/>
+      <c r="KJ28" s="128"/>
+      <c r="KK28" s="128"/>
+      <c r="KL28" s="128"/>
+      <c r="KM28" s="128"/>
+      <c r="KN28" s="128"/>
+      <c r="KO28" s="128"/>
+      <c r="KP28" s="128"/>
+      <c r="KQ28" s="128"/>
+      <c r="KR28" s="128"/>
+      <c r="KS28" s="128"/>
+      <c r="KT28" s="128"/>
+      <c r="KU28" s="128"/>
+      <c r="KV28" s="128"/>
+      <c r="KW28" s="128"/>
+      <c r="KX28" s="128"/>
+      <c r="KY28" s="128"/>
+      <c r="KZ28" s="128"/>
+      <c r="LA28" s="128"/>
+      <c r="LB28" s="128"/>
+      <c r="LC28" s="128"/>
+      <c r="LD28" s="128"/>
+      <c r="LE28" s="128"/>
+      <c r="LF28" s="128"/>
+      <c r="LG28" s="128"/>
+      <c r="LH28" s="128"/>
+      <c r="LI28" s="128"/>
+      <c r="LJ28" s="128"/>
+      <c r="LK28" s="128"/>
+      <c r="LL28" s="128"/>
+      <c r="LM28" s="128"/>
+      <c r="LN28" s="128"/>
+      <c r="LO28" s="128"/>
+      <c r="LP28" s="128"/>
+      <c r="LQ28" s="128"/>
+      <c r="LR28" s="128"/>
+      <c r="LS28" s="128"/>
+      <c r="LT28" s="128"/>
+      <c r="LU28" s="128"/>
+      <c r="LV28" s="128"/>
+      <c r="LW28" s="128"/>
+      <c r="LX28" s="128"/>
+      <c r="LY28" s="128"/>
+      <c r="LZ28" s="128"/>
+      <c r="MA28" s="128"/>
+      <c r="MB28" s="128"/>
+      <c r="MC28" s="128"/>
+      <c r="MD28" s="128"/>
+      <c r="ME28" s="128"/>
+      <c r="MF28" s="128"/>
+      <c r="MG28" s="128"/>
+      <c r="MH28" s="128"/>
+      <c r="MI28" s="128"/>
+      <c r="MJ28" s="128"/>
+      <c r="MK28" s="128"/>
+      <c r="ML28" s="128"/>
+      <c r="MM28" s="128"/>
+      <c r="MN28" s="128"/>
+      <c r="MO28" s="128"/>
+      <c r="MP28" s="128"/>
+      <c r="MQ28" s="128"/>
+      <c r="MR28" s="128"/>
+      <c r="MS28" s="128"/>
+      <c r="MT28" s="128"/>
+      <c r="MU28" s="128"/>
+      <c r="MV28" s="128"/>
+      <c r="MW28" s="128"/>
+      <c r="MX28" s="128"/>
+      <c r="MY28" s="128"/>
+      <c r="MZ28" s="128"/>
+      <c r="NA28" s="128"/>
+      <c r="NB28" s="128"/>
+      <c r="NC28" s="128"/>
+      <c r="ND28" s="128"/>
+      <c r="NE28" s="128"/>
+      <c r="NF28" s="128"/>
+      <c r="NG28" s="128"/>
+      <c r="NH28" s="128"/>
+      <c r="NI28" s="128"/>
+      <c r="NJ28" s="128"/>
+      <c r="NK28" s="128"/>
+      <c r="NL28" s="128"/>
+      <c r="NM28" s="128"/>
+      <c r="NN28" s="128"/>
+      <c r="NO28" s="128"/>
+      <c r="NP28" s="128"/>
+      <c r="NQ28" s="128"/>
+      <c r="NR28" s="128"/>
+      <c r="NS28" s="128"/>
+      <c r="NT28" s="128"/>
+      <c r="NU28" s="128"/>
+      <c r="NV28" s="128"/>
+      <c r="NW28" s="128"/>
+      <c r="NX28" s="128"/>
+      <c r="NY28" s="128"/>
+      <c r="NZ28" s="128"/>
+      <c r="OA28" s="128"/>
+      <c r="OB28" s="128"/>
+      <c r="OC28" s="128"/>
+      <c r="OD28" s="128"/>
+      <c r="OE28" s="128"/>
+      <c r="OF28" s="128"/>
+      <c r="OG28" s="128"/>
+      <c r="OH28" s="128"/>
+      <c r="OI28" s="128"/>
+      <c r="OJ28" s="128"/>
+      <c r="OK28" s="128"/>
+      <c r="OL28" s="128"/>
+      <c r="OM28" s="128"/>
+      <c r="ON28" s="128"/>
+      <c r="OO28" s="128"/>
+      <c r="OP28" s="128"/>
+      <c r="OQ28" s="128"/>
+      <c r="OR28" s="128"/>
+      <c r="OS28" s="128"/>
+      <c r="OT28" s="128"/>
+      <c r="OU28" s="128"/>
+      <c r="OV28" s="128"/>
+      <c r="OW28" s="128"/>
+      <c r="OX28" s="128"/>
+      <c r="OY28" s="128"/>
+      <c r="OZ28" s="128"/>
+      <c r="PA28" s="128"/>
+      <c r="PB28" s="128"/>
+      <c r="PC28" s="128"/>
+      <c r="PD28" s="128"/>
+      <c r="PE28" s="128"/>
+      <c r="PF28" s="128"/>
+      <c r="PG28" s="128"/>
+      <c r="PH28" s="128"/>
+      <c r="PI28" s="128"/>
+      <c r="PJ28" s="128"/>
+      <c r="PK28" s="128"/>
+      <c r="PL28" s="128"/>
+      <c r="PM28" s="128"/>
+      <c r="PN28" s="128"/>
+      <c r="PO28" s="128"/>
+      <c r="PP28" s="128"/>
+      <c r="PQ28" s="128"/>
+      <c r="PR28" s="128"/>
+      <c r="PS28" s="128"/>
+      <c r="PT28" s="128"/>
+      <c r="PU28" s="128"/>
+      <c r="PV28" s="128"/>
+      <c r="PW28" s="128"/>
+      <c r="PX28" s="128"/>
+      <c r="PY28" s="128"/>
+      <c r="PZ28" s="128"/>
+      <c r="QA28" s="128"/>
+      <c r="QB28" s="128"/>
+      <c r="QC28" s="128"/>
+      <c r="QD28" s="128"/>
+      <c r="QE28" s="128"/>
+      <c r="QF28" s="128"/>
+      <c r="QG28" s="128"/>
+      <c r="QH28" s="128"/>
+      <c r="QI28" s="128"/>
+      <c r="QJ28" s="128"/>
+      <c r="QK28" s="128"/>
+      <c r="QL28" s="128"/>
+      <c r="QM28" s="128"/>
+      <c r="QN28" s="128"/>
+      <c r="QO28" s="128"/>
+      <c r="QP28" s="128"/>
+      <c r="QQ28" s="128"/>
+      <c r="QR28" s="128"/>
+      <c r="QS28" s="128"/>
+      <c r="QT28" s="128"/>
+      <c r="QU28" s="128"/>
+      <c r="QV28" s="128"/>
+      <c r="QW28" s="128"/>
+      <c r="QX28" s="128"/>
+      <c r="QY28" s="128"/>
+      <c r="QZ28" s="128"/>
+      <c r="RA28" s="128"/>
+      <c r="RB28" s="128"/>
+      <c r="RC28" s="128"/>
+      <c r="RD28" s="128"/>
+      <c r="RE28" s="128"/>
+      <c r="RF28" s="128"/>
+      <c r="RG28" s="128"/>
+      <c r="RH28" s="128"/>
+      <c r="RI28" s="128"/>
+      <c r="RJ28" s="128"/>
+      <c r="RK28" s="128"/>
+      <c r="RL28" s="128"/>
+      <c r="RM28" s="128"/>
+      <c r="RN28" s="128"/>
+      <c r="RO28" s="128"/>
+      <c r="RP28" s="128"/>
+      <c r="RQ28" s="128"/>
+      <c r="RR28" s="128"/>
+      <c r="RS28" s="128"/>
+      <c r="RT28" s="128"/>
+      <c r="RU28" s="128"/>
+      <c r="RV28" s="128"/>
+      <c r="RW28" s="128"/>
+      <c r="RX28" s="128"/>
+      <c r="RY28" s="128"/>
+      <c r="RZ28" s="128"/>
+      <c r="SA28" s="128"/>
+      <c r="SB28" s="128"/>
+      <c r="SC28" s="128"/>
+      <c r="SD28" s="128"/>
+      <c r="SE28" s="128"/>
+      <c r="SF28" s="128"/>
+      <c r="SG28" s="128"/>
+      <c r="SH28" s="128"/>
+      <c r="SI28" s="128"/>
+      <c r="SJ28" s="128"/>
+      <c r="SK28" s="128"/>
+      <c r="SL28" s="128"/>
+      <c r="SM28" s="128"/>
+      <c r="SN28" s="128"/>
+      <c r="SO28" s="128"/>
+      <c r="SP28" s="128"/>
+      <c r="SQ28" s="128"/>
+      <c r="SR28" s="128"/>
+      <c r="SS28" s="128"/>
+      <c r="ST28" s="128"/>
+      <c r="SU28" s="128"/>
+      <c r="SV28" s="128"/>
+      <c r="SW28" s="128"/>
+      <c r="SX28" s="128"/>
+      <c r="SY28" s="128"/>
+      <c r="SZ28" s="128"/>
+      <c r="TA28" s="128"/>
+      <c r="TB28" s="128"/>
+      <c r="TC28" s="128"/>
+      <c r="TD28" s="128"/>
+      <c r="TE28" s="128"/>
+      <c r="TF28" s="128"/>
+      <c r="TG28" s="128"/>
+      <c r="TH28" s="128"/>
+      <c r="TI28" s="128"/>
+      <c r="TJ28" s="128"/>
+      <c r="TK28" s="128"/>
+      <c r="TL28" s="128"/>
+      <c r="TM28" s="128"/>
+      <c r="TN28" s="128"/>
+      <c r="TO28" s="128"/>
+      <c r="TP28" s="128"/>
+      <c r="TQ28" s="128"/>
+      <c r="TR28" s="128"/>
+      <c r="TS28" s="128"/>
+      <c r="TT28" s="128"/>
+      <c r="TU28" s="128"/>
+      <c r="TV28" s="128"/>
+      <c r="TW28" s="128"/>
+      <c r="TX28" s="128"/>
+      <c r="TY28" s="128"/>
+      <c r="TZ28" s="128"/>
+      <c r="UA28" s="128"/>
+      <c r="UB28" s="128"/>
+      <c r="UC28" s="128"/>
+      <c r="UD28" s="128"/>
+      <c r="UE28" s="128"/>
+      <c r="UF28" s="128"/>
+      <c r="UG28" s="128"/>
+      <c r="UH28" s="128"/>
+      <c r="UI28" s="128"/>
+      <c r="UJ28" s="128"/>
+      <c r="UK28" s="128"/>
+      <c r="UL28" s="128"/>
+      <c r="UM28" s="128"/>
+      <c r="UN28" s="128"/>
+      <c r="UO28" s="128"/>
+      <c r="UP28" s="128"/>
+      <c r="UQ28" s="128"/>
+      <c r="UR28" s="128"/>
+      <c r="US28" s="128"/>
+      <c r="UT28" s="128"/>
+      <c r="UU28" s="128"/>
+      <c r="UV28" s="128"/>
+      <c r="UW28" s="128"/>
+      <c r="UX28" s="128"/>
+      <c r="UY28" s="128"/>
+      <c r="UZ28" s="128"/>
+      <c r="VA28" s="128"/>
+      <c r="VB28" s="128"/>
+      <c r="VC28" s="128"/>
+      <c r="VD28" s="128"/>
+      <c r="VE28" s="128"/>
+      <c r="VF28" s="128"/>
+      <c r="VG28" s="128"/>
+      <c r="VH28" s="128"/>
+      <c r="VI28" s="128"/>
+      <c r="VJ28" s="128"/>
+      <c r="VK28" s="128"/>
+      <c r="VL28" s="128"/>
+      <c r="VM28" s="128"/>
+      <c r="VN28" s="128"/>
+      <c r="VO28" s="128"/>
+      <c r="VP28" s="128"/>
+      <c r="VQ28" s="128"/>
+      <c r="VR28" s="128"/>
+      <c r="VS28" s="128"/>
+      <c r="VT28" s="128"/>
+      <c r="VU28" s="128"/>
+      <c r="VV28" s="128"/>
+      <c r="VW28" s="128"/>
+      <c r="VX28" s="128"/>
+      <c r="VY28" s="128"/>
+      <c r="VZ28" s="128"/>
+      <c r="WA28" s="128"/>
+      <c r="WB28" s="128"/>
+      <c r="WC28" s="128"/>
+      <c r="WD28" s="128"/>
+      <c r="WE28" s="128"/>
+      <c r="WF28" s="128"/>
+      <c r="WG28" s="128"/>
+      <c r="WH28" s="128"/>
+      <c r="WI28" s="128"/>
+      <c r="WJ28" s="128"/>
+      <c r="WK28" s="128"/>
+      <c r="WL28" s="128"/>
+      <c r="WM28" s="128"/>
+      <c r="WN28" s="128"/>
+      <c r="WO28" s="128"/>
+      <c r="WP28" s="128"/>
+      <c r="WQ28" s="128"/>
+      <c r="WR28" s="128"/>
+      <c r="WS28" s="128"/>
+      <c r="WT28" s="128"/>
+      <c r="WU28" s="128"/>
+      <c r="WV28" s="128"/>
+      <c r="WW28" s="128"/>
+      <c r="WX28" s="128"/>
+      <c r="WY28" s="128"/>
+      <c r="WZ28" s="128"/>
+      <c r="XA28" s="128"/>
+      <c r="XB28" s="128"/>
+      <c r="XC28" s="128"/>
+      <c r="XD28" s="128"/>
+      <c r="XE28" s="128"/>
+      <c r="XF28" s="128"/>
+      <c r="XG28" s="128"/>
+      <c r="XH28" s="128"/>
+      <c r="XI28" s="128"/>
+      <c r="XJ28" s="128"/>
+      <c r="XK28" s="128"/>
+      <c r="XL28" s="128"/>
+      <c r="XM28" s="128"/>
+      <c r="XN28" s="128"/>
+      <c r="XO28" s="128"/>
+      <c r="XP28" s="128"/>
+      <c r="XQ28" s="128"/>
+      <c r="XR28" s="128"/>
+      <c r="XS28" s="128"/>
+      <c r="XT28" s="128"/>
+      <c r="XU28" s="128"/>
+      <c r="XV28" s="128"/>
+      <c r="XW28" s="128"/>
+      <c r="XX28" s="128"/>
+      <c r="XY28" s="128"/>
+      <c r="XZ28" s="128"/>
+      <c r="YA28" s="128"/>
+      <c r="YB28" s="128"/>
+      <c r="YC28" s="128"/>
+      <c r="YD28" s="128"/>
+      <c r="YE28" s="128"/>
+      <c r="YF28" s="128"/>
+      <c r="YG28" s="128"/>
+      <c r="YH28" s="128"/>
+      <c r="YI28" s="128"/>
+      <c r="YJ28" s="128"/>
+      <c r="YK28" s="128"/>
+      <c r="YL28" s="128"/>
+      <c r="YM28" s="128"/>
+      <c r="YN28" s="128"/>
+      <c r="YO28" s="128"/>
+      <c r="YP28" s="128"/>
+      <c r="YQ28" s="128"/>
+      <c r="YR28" s="128"/>
+      <c r="YS28" s="128"/>
+      <c r="YT28" s="128"/>
+      <c r="YU28" s="128"/>
+      <c r="YV28" s="128"/>
+      <c r="YW28" s="128"/>
+      <c r="YX28" s="128"/>
+      <c r="YY28" s="128"/>
+      <c r="YZ28" s="128"/>
+      <c r="ZA28" s="128"/>
+      <c r="ZB28" s="128"/>
+      <c r="ZC28" s="128"/>
+      <c r="ZD28" s="128"/>
+      <c r="ZE28" s="128"/>
+      <c r="ZF28" s="128"/>
+      <c r="ZG28" s="128"/>
+      <c r="ZH28" s="128"/>
+      <c r="ZI28" s="128"/>
+      <c r="ZJ28" s="128"/>
+      <c r="ZK28" s="128"/>
+      <c r="ZL28" s="128"/>
+      <c r="ZM28" s="128"/>
+      <c r="ZN28" s="128"/>
+      <c r="ZO28" s="128"/>
+      <c r="ZP28" s="128"/>
+      <c r="ZQ28" s="128"/>
+      <c r="ZR28" s="128"/>
+      <c r="ZS28" s="128"/>
+      <c r="ZT28" s="128"/>
+      <c r="ZU28" s="128"/>
+      <c r="ZV28" s="128"/>
+      <c r="ZW28" s="128"/>
+      <c r="ZX28" s="128"/>
+      <c r="ZY28" s="128"/>
+      <c r="ZZ28" s="128"/>
+      <c r="AAA28" s="128"/>
+      <c r="AAB28" s="128"/>
+      <c r="AAC28" s="128"/>
+      <c r="AAD28" s="128"/>
+      <c r="AAE28" s="128"/>
+      <c r="AAF28" s="128"/>
+      <c r="AAG28" s="128"/>
+      <c r="AAH28" s="128"/>
+      <c r="AAI28" s="128"/>
+      <c r="AAJ28" s="128"/>
+      <c r="AAK28" s="128"/>
+      <c r="AAL28" s="128"/>
+      <c r="AAM28" s="128"/>
+      <c r="AAN28" s="128"/>
+      <c r="AAO28" s="128"/>
+      <c r="AAP28" s="128"/>
+      <c r="AAQ28" s="128"/>
+      <c r="AAR28" s="128"/>
+      <c r="AAS28" s="128"/>
+      <c r="AAT28" s="128"/>
+      <c r="AAU28" s="128"/>
+      <c r="AAV28" s="128"/>
+      <c r="AAW28" s="128"/>
+      <c r="AAX28" s="128"/>
+      <c r="AAY28" s="128"/>
+      <c r="AAZ28" s="128"/>
+      <c r="ABA28" s="128"/>
+      <c r="ABB28" s="128"/>
+      <c r="ABC28" s="128"/>
+      <c r="ABD28" s="128"/>
+      <c r="ABE28" s="128"/>
+      <c r="ABF28" s="128"/>
+      <c r="ABG28" s="128"/>
+      <c r="ABH28" s="128"/>
+      <c r="ABI28" s="128"/>
+      <c r="ABJ28" s="128"/>
+      <c r="ABK28" s="128"/>
+      <c r="ABL28" s="128"/>
+      <c r="ABM28" s="128"/>
+      <c r="ABN28" s="128"/>
+      <c r="ABO28" s="128"/>
+      <c r="ABP28" s="128"/>
+      <c r="ABQ28" s="128"/>
+      <c r="ABR28" s="128"/>
+      <c r="ABS28" s="128"/>
+      <c r="ABT28" s="128"/>
+      <c r="ABU28" s="128"/>
+      <c r="ABV28" s="128"/>
+      <c r="ABW28" s="128"/>
+      <c r="ABX28" s="128"/>
+      <c r="ABY28" s="128"/>
+      <c r="ABZ28" s="128"/>
+      <c r="ACA28" s="128"/>
+      <c r="ACB28" s="128"/>
+      <c r="ACC28" s="128"/>
+      <c r="ACD28" s="128"/>
+      <c r="ACE28" s="128"/>
+      <c r="ACF28" s="128"/>
+      <c r="ACG28" s="128"/>
+      <c r="ACH28" s="128"/>
+      <c r="ACI28" s="128"/>
+      <c r="ACJ28" s="128"/>
+      <c r="ACK28" s="128"/>
+      <c r="ACL28" s="128"/>
+      <c r="ACM28" s="128"/>
+      <c r="ACN28" s="128"/>
+      <c r="ACO28" s="128"/>
+      <c r="ACP28" s="128"/>
+      <c r="ACQ28" s="128"/>
+      <c r="ACR28" s="128"/>
+      <c r="ACS28" s="128"/>
+      <c r="ACT28" s="128"/>
+      <c r="ACU28" s="128"/>
+      <c r="ACV28" s="128"/>
+      <c r="ACW28" s="128"/>
+      <c r="ACX28" s="128"/>
+      <c r="ACY28" s="128"/>
+      <c r="ACZ28" s="128"/>
+      <c r="ADA28" s="128"/>
+      <c r="ADB28" s="128"/>
+      <c r="ADC28" s="128"/>
+      <c r="ADD28" s="128"/>
+      <c r="ADE28" s="128"/>
+      <c r="ADF28" s="128"/>
+      <c r="ADG28" s="128"/>
+      <c r="ADH28" s="128"/>
+      <c r="ADI28" s="128"/>
+      <c r="ADJ28" s="128"/>
+      <c r="ADK28" s="128"/>
+      <c r="ADL28" s="128"/>
+      <c r="ADM28" s="128"/>
+      <c r="ADN28" s="128"/>
+      <c r="ADO28" s="128"/>
+      <c r="ADP28" s="128"/>
+      <c r="ADQ28" s="128"/>
+      <c r="ADR28" s="128"/>
+      <c r="ADS28" s="128"/>
+      <c r="ADT28" s="128"/>
+      <c r="ADU28" s="128"/>
+      <c r="ADV28" s="128"/>
+      <c r="ADW28" s="128"/>
+      <c r="ADX28" s="128"/>
+      <c r="ADY28" s="128"/>
+      <c r="ADZ28" s="128"/>
+      <c r="AEA28" s="128"/>
+      <c r="AEB28" s="128"/>
+      <c r="AEC28" s="128"/>
+      <c r="AED28" s="128"/>
+      <c r="AEE28" s="128"/>
+      <c r="AEF28" s="128"/>
+      <c r="AEG28" s="128"/>
+      <c r="AEH28" s="128"/>
+      <c r="AEI28" s="128"/>
+      <c r="AEJ28" s="128"/>
+      <c r="AEK28" s="128"/>
+      <c r="AEL28" s="128"/>
+      <c r="AEM28" s="128"/>
+      <c r="AEN28" s="128"/>
+      <c r="AEO28" s="128"/>
+      <c r="AEP28" s="128"/>
+      <c r="AEQ28" s="128"/>
+      <c r="AER28" s="128"/>
+      <c r="AES28" s="128"/>
+      <c r="AET28" s="128"/>
+      <c r="AEU28" s="128"/>
+      <c r="AEV28" s="128"/>
+      <c r="AEW28" s="128"/>
+      <c r="AEX28" s="128"/>
+      <c r="AEY28" s="128"/>
+      <c r="AEZ28" s="128"/>
+      <c r="AFA28" s="128"/>
+      <c r="AFB28" s="128"/>
+      <c r="AFC28" s="128"/>
+      <c r="AFD28" s="128"/>
+      <c r="AFE28" s="128"/>
+      <c r="AFF28" s="128"/>
+      <c r="AFG28" s="128"/>
+      <c r="AFH28" s="128"/>
+      <c r="AFI28" s="128"/>
+      <c r="AFJ28" s="128"/>
+      <c r="AFK28" s="128"/>
+      <c r="AFL28" s="128"/>
+      <c r="AFM28" s="128"/>
+      <c r="AFN28" s="128"/>
+      <c r="AFO28" s="128"/>
+      <c r="AFP28" s="128"/>
+      <c r="AFQ28" s="128"/>
+      <c r="AFR28" s="128"/>
+      <c r="AFS28" s="128"/>
+      <c r="AFT28" s="128"/>
+      <c r="AFU28" s="128"/>
+      <c r="AFV28" s="128"/>
+      <c r="AFW28" s="128"/>
+      <c r="AFX28" s="128"/>
+      <c r="AFY28" s="128"/>
+      <c r="AFZ28" s="128"/>
+      <c r="AGA28" s="128"/>
+      <c r="AGB28" s="128"/>
+      <c r="AGC28" s="128"/>
+      <c r="AGD28" s="128"/>
+      <c r="AGE28" s="128"/>
+      <c r="AGF28" s="128"/>
+      <c r="AGG28" s="128"/>
+      <c r="AGH28" s="128"/>
+      <c r="AGI28" s="128"/>
+      <c r="AGJ28" s="128"/>
+      <c r="AGK28" s="128"/>
+      <c r="AGL28" s="128"/>
+      <c r="AGM28" s="128"/>
+      <c r="AGN28" s="128"/>
+      <c r="AGO28" s="128"/>
+      <c r="AGP28" s="128"/>
+      <c r="AGQ28" s="128"/>
+      <c r="AGR28" s="128"/>
+      <c r="AGS28" s="128"/>
+      <c r="AGT28" s="128"/>
+      <c r="AGU28" s="128"/>
+      <c r="AGV28" s="128"/>
+      <c r="AGW28" s="128"/>
+      <c r="AGX28" s="128"/>
+      <c r="AGY28" s="128"/>
+      <c r="AGZ28" s="128"/>
+      <c r="AHA28" s="128"/>
+      <c r="AHB28" s="128"/>
+      <c r="AHC28" s="128"/>
+      <c r="AHD28" s="128"/>
+      <c r="AHE28" s="128"/>
+      <c r="AHF28" s="128"/>
+      <c r="AHG28" s="128"/>
+      <c r="AHH28" s="128"/>
+      <c r="AHI28" s="128"/>
+      <c r="AHJ28" s="128"/>
+      <c r="AHK28" s="128"/>
+      <c r="AHL28" s="128"/>
+      <c r="AHM28" s="128"/>
+      <c r="AHN28" s="128"/>
+      <c r="AHO28" s="128"/>
+      <c r="AHP28" s="128"/>
+      <c r="AHQ28" s="128"/>
+      <c r="AHR28" s="128"/>
+      <c r="AHS28" s="128"/>
+      <c r="AHT28" s="128"/>
+      <c r="AHU28" s="128"/>
+      <c r="AHV28" s="128"/>
+      <c r="AHW28" s="128"/>
+      <c r="AHX28" s="128"/>
+      <c r="AHY28" s="128"/>
+      <c r="AHZ28" s="128"/>
+      <c r="AIA28" s="128"/>
+      <c r="AIB28" s="128"/>
+      <c r="AIC28" s="128"/>
+      <c r="AID28" s="128"/>
+      <c r="AIE28" s="128"/>
+      <c r="AIF28" s="128"/>
+      <c r="AIG28" s="128"/>
+      <c r="AIH28" s="128"/>
+      <c r="AII28" s="128"/>
+      <c r="AIJ28" s="128"/>
+      <c r="AIK28" s="128"/>
+      <c r="AIL28" s="128"/>
+      <c r="AIM28" s="128"/>
+      <c r="AIN28" s="128"/>
+      <c r="AIO28" s="128"/>
+      <c r="AIP28" s="128"/>
+      <c r="AIQ28" s="128"/>
+      <c r="AIR28" s="128"/>
+      <c r="AIS28" s="128"/>
+      <c r="AIT28" s="128"/>
+      <c r="AIU28" s="128"/>
+      <c r="AIV28" s="128"/>
+      <c r="AIW28" s="128"/>
+      <c r="AIX28" s="128"/>
+      <c r="AIY28" s="128"/>
+      <c r="AIZ28" s="128"/>
+      <c r="AJA28" s="128"/>
+      <c r="AJB28" s="128"/>
+      <c r="AJC28" s="128"/>
+      <c r="AJD28" s="128"/>
+      <c r="AJE28" s="128"/>
+      <c r="AJF28" s="128"/>
+      <c r="AJG28" s="128"/>
+      <c r="AJH28" s="128"/>
+      <c r="AJI28" s="128"/>
+      <c r="AJJ28" s="128"/>
+      <c r="AJK28" s="128"/>
+      <c r="AJL28" s="128"/>
+      <c r="AJM28" s="128"/>
+      <c r="AJN28" s="128"/>
+      <c r="AJO28" s="128"/>
+      <c r="AJP28" s="128"/>
+      <c r="AJQ28" s="128"/>
+      <c r="AJR28" s="128"/>
+      <c r="AJS28" s="128"/>
+      <c r="AJT28" s="128"/>
+      <c r="AJU28" s="128"/>
+      <c r="AJV28" s="128"/>
+      <c r="AJW28" s="128"/>
+      <c r="AJX28" s="128"/>
+      <c r="AJY28" s="128"/>
+      <c r="AJZ28" s="128"/>
+      <c r="AKA28" s="128"/>
+      <c r="AKB28" s="128"/>
+      <c r="AKC28" s="128"/>
+      <c r="AKD28" s="128"/>
+      <c r="AKE28" s="128"/>
+      <c r="AKF28" s="128"/>
+      <c r="AKG28" s="128"/>
+      <c r="AKH28" s="128"/>
+      <c r="AKI28" s="128"/>
+      <c r="AKJ28" s="128"/>
+      <c r="AKK28" s="128"/>
+      <c r="AKL28" s="128"/>
+      <c r="AKM28" s="128"/>
+      <c r="AKN28" s="128"/>
+      <c r="AKO28" s="128"/>
+      <c r="AKP28" s="128"/>
+      <c r="AKQ28" s="128"/>
+      <c r="AKR28" s="128"/>
+      <c r="AKS28" s="128"/>
+      <c r="AKT28" s="128"/>
+      <c r="AKU28" s="128"/>
+      <c r="AKV28" s="128"/>
+      <c r="AKW28" s="128"/>
+      <c r="AKX28" s="128"/>
+      <c r="AKY28" s="128"/>
+      <c r="AKZ28" s="128"/>
+      <c r="ALA28" s="128"/>
+      <c r="ALB28" s="128"/>
+      <c r="ALC28" s="128"/>
+      <c r="ALD28" s="128"/>
+      <c r="ALE28" s="128"/>
+      <c r="ALF28" s="128"/>
+      <c r="ALG28" s="128"/>
+      <c r="ALH28" s="128"/>
+      <c r="ALI28" s="128"/>
+      <c r="ALJ28" s="128"/>
+      <c r="ALK28" s="128"/>
+      <c r="ALL28" s="128"/>
+      <c r="ALM28" s="128"/>
+      <c r="ALN28" s="128"/>
+      <c r="ALO28" s="128"/>
+      <c r="ALP28" s="128"/>
+      <c r="ALQ28" s="128"/>
+      <c r="ALR28" s="128"/>
+      <c r="ALS28" s="128"/>
+      <c r="ALT28" s="128"/>
+      <c r="ALU28" s="128"/>
+      <c r="ALV28" s="128"/>
+      <c r="ALW28" s="128"/>
+      <c r="ALX28" s="128"/>
+      <c r="ALY28" s="128"/>
+      <c r="ALZ28" s="128"/>
+      <c r="AMA28" s="128"/>
+      <c r="AMB28" s="128"/>
+      <c r="AMC28" s="128"/>
+      <c r="AMD28" s="128"/>
+      <c r="AME28" s="128"/>
+      <c r="AMF28" s="128"/>
+      <c r="AMG28" s="128"/>
+      <c r="AMH28" s="128"/>
+      <c r="AMI28" s="128"/>
+      <c r="AMJ28" s="128"/>
+      <c r="AMK28" s="128"/>
+      <c r="AML28" s="128"/>
+      <c r="AMM28" s="128"/>
     </row>
-    <row r="29" spans="1:1027" ht="78" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1027" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="95" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="88" t="s">
-        <v>164</v>
-      </c>
       <c r="F29" s="88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1027" ht="195" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87">
         <v>9</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>5</v>
@@ -20771,18 +21857,18 @@
       <c r="F30" s="88"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1027" ht="180" x14ac:dyDescent="0.25">
       <c r="A31" s="87">
         <v>10</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>9</v>
@@ -20791,29 +21877,29 @@
         <v>22</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F31" s="88"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="99" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1027" s="99" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="87">
         <v>11</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="96" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>5</v>
@@ -20821,10 +21907,10 @@
       <c r="F32" s="36"/>
       <c r="G32" s="97"/>
       <c r="H32" s="97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="98"/>
@@ -21845,6 +22931,1049 @@
       <c r="AML32" s="98"/>
       <c r="AMM32" s="98"/>
     </row>
+    <row r="33" spans="1:1027" s="99" customFormat="1" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="87">
+        <v>12</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>654</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97" t="s">
+        <v>655</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="98"/>
+      <c r="AQ33" s="98"/>
+      <c r="AR33" s="98"/>
+      <c r="AS33" s="98"/>
+      <c r="AT33" s="98"/>
+      <c r="AU33" s="98"/>
+      <c r="AV33" s="98"/>
+      <c r="AW33" s="98"/>
+      <c r="AX33" s="98"/>
+      <c r="AY33" s="98"/>
+      <c r="AZ33" s="98"/>
+      <c r="BA33" s="98"/>
+      <c r="BB33" s="98"/>
+      <c r="BC33" s="98"/>
+      <c r="BD33" s="98"/>
+      <c r="BE33" s="98"/>
+      <c r="BF33" s="98"/>
+      <c r="BG33" s="98"/>
+      <c r="BH33" s="98"/>
+      <c r="BI33" s="98"/>
+      <c r="BJ33" s="98"/>
+      <c r="BK33" s="98"/>
+      <c r="BL33" s="98"/>
+      <c r="BM33" s="98"/>
+      <c r="BN33" s="98"/>
+      <c r="BO33" s="98"/>
+      <c r="BP33" s="98"/>
+      <c r="BQ33" s="98"/>
+      <c r="BR33" s="98"/>
+      <c r="BS33" s="98"/>
+      <c r="BT33" s="98"/>
+      <c r="BU33" s="98"/>
+      <c r="BV33" s="98"/>
+      <c r="BW33" s="98"/>
+      <c r="BX33" s="98"/>
+      <c r="BY33" s="98"/>
+      <c r="BZ33" s="98"/>
+      <c r="CA33" s="98"/>
+      <c r="CB33" s="98"/>
+      <c r="CC33" s="98"/>
+      <c r="CD33" s="98"/>
+      <c r="CE33" s="98"/>
+      <c r="CF33" s="98"/>
+      <c r="CG33" s="98"/>
+      <c r="CH33" s="98"/>
+      <c r="CI33" s="98"/>
+      <c r="CJ33" s="98"/>
+      <c r="CK33" s="98"/>
+      <c r="CL33" s="98"/>
+      <c r="CM33" s="98"/>
+      <c r="CN33" s="98"/>
+      <c r="CO33" s="98"/>
+      <c r="CP33" s="98"/>
+      <c r="CQ33" s="98"/>
+      <c r="CR33" s="98"/>
+      <c r="CS33" s="98"/>
+      <c r="CT33" s="98"/>
+      <c r="CU33" s="98"/>
+      <c r="CV33" s="98"/>
+      <c r="CW33" s="98"/>
+      <c r="CX33" s="98"/>
+      <c r="CY33" s="98"/>
+      <c r="CZ33" s="98"/>
+      <c r="DA33" s="98"/>
+      <c r="DB33" s="98"/>
+      <c r="DC33" s="98"/>
+      <c r="DD33" s="98"/>
+      <c r="DE33" s="98"/>
+      <c r="DF33" s="98"/>
+      <c r="DG33" s="98"/>
+      <c r="DH33" s="98"/>
+      <c r="DI33" s="98"/>
+      <c r="DJ33" s="98"/>
+      <c r="DK33" s="98"/>
+      <c r="DL33" s="98"/>
+      <c r="DM33" s="98"/>
+      <c r="DN33" s="98"/>
+      <c r="DO33" s="98"/>
+      <c r="DP33" s="98"/>
+      <c r="DQ33" s="98"/>
+      <c r="DR33" s="98"/>
+      <c r="DS33" s="98"/>
+      <c r="DT33" s="98"/>
+      <c r="DU33" s="98"/>
+      <c r="DV33" s="98"/>
+      <c r="DW33" s="98"/>
+      <c r="DX33" s="98"/>
+      <c r="DY33" s="98"/>
+      <c r="DZ33" s="98"/>
+      <c r="EA33" s="98"/>
+      <c r="EB33" s="98"/>
+      <c r="EC33" s="98"/>
+      <c r="ED33" s="98"/>
+      <c r="EE33" s="98"/>
+      <c r="EF33" s="98"/>
+      <c r="EG33" s="98"/>
+      <c r="EH33" s="98"/>
+      <c r="EI33" s="98"/>
+      <c r="EJ33" s="98"/>
+      <c r="EK33" s="98"/>
+      <c r="EL33" s="98"/>
+      <c r="EM33" s="98"/>
+      <c r="EN33" s="98"/>
+      <c r="EO33" s="98"/>
+      <c r="EP33" s="98"/>
+      <c r="EQ33" s="98"/>
+      <c r="ER33" s="98"/>
+      <c r="ES33" s="98"/>
+      <c r="ET33" s="98"/>
+      <c r="EU33" s="98"/>
+      <c r="EV33" s="98"/>
+      <c r="EW33" s="98"/>
+      <c r="EX33" s="98"/>
+      <c r="EY33" s="98"/>
+      <c r="EZ33" s="98"/>
+      <c r="FA33" s="98"/>
+      <c r="FB33" s="98"/>
+      <c r="FC33" s="98"/>
+      <c r="FD33" s="98"/>
+      <c r="FE33" s="98"/>
+      <c r="FF33" s="98"/>
+      <c r="FG33" s="98"/>
+      <c r="FH33" s="98"/>
+      <c r="FI33" s="98"/>
+      <c r="FJ33" s="98"/>
+      <c r="FK33" s="98"/>
+      <c r="FL33" s="98"/>
+      <c r="FM33" s="98"/>
+      <c r="FN33" s="98"/>
+      <c r="FO33" s="98"/>
+      <c r="FP33" s="98"/>
+      <c r="FQ33" s="98"/>
+      <c r="FR33" s="98"/>
+      <c r="FS33" s="98"/>
+      <c r="FT33" s="98"/>
+      <c r="FU33" s="98"/>
+      <c r="FV33" s="98"/>
+      <c r="FW33" s="98"/>
+      <c r="FX33" s="98"/>
+      <c r="FY33" s="98"/>
+      <c r="FZ33" s="98"/>
+      <c r="GA33" s="98"/>
+      <c r="GB33" s="98"/>
+      <c r="GC33" s="98"/>
+      <c r="GD33" s="98"/>
+      <c r="GE33" s="98"/>
+      <c r="GF33" s="98"/>
+      <c r="GG33" s="98"/>
+      <c r="GH33" s="98"/>
+      <c r="GI33" s="98"/>
+      <c r="GJ33" s="98"/>
+      <c r="GK33" s="98"/>
+      <c r="GL33" s="98"/>
+      <c r="GM33" s="98"/>
+      <c r="GN33" s="98"/>
+      <c r="GO33" s="98"/>
+      <c r="GP33" s="98"/>
+      <c r="GQ33" s="98"/>
+      <c r="GR33" s="98"/>
+      <c r="GS33" s="98"/>
+      <c r="GT33" s="98"/>
+      <c r="GU33" s="98"/>
+      <c r="GV33" s="98"/>
+      <c r="GW33" s="98"/>
+      <c r="GX33" s="98"/>
+      <c r="GY33" s="98"/>
+      <c r="GZ33" s="98"/>
+      <c r="HA33" s="98"/>
+      <c r="HB33" s="98"/>
+      <c r="HC33" s="98"/>
+      <c r="HD33" s="98"/>
+      <c r="HE33" s="98"/>
+      <c r="HF33" s="98"/>
+      <c r="HG33" s="98"/>
+      <c r="HH33" s="98"/>
+      <c r="HI33" s="98"/>
+      <c r="HJ33" s="98"/>
+      <c r="HK33" s="98"/>
+      <c r="HL33" s="98"/>
+      <c r="HM33" s="98"/>
+      <c r="HN33" s="98"/>
+      <c r="HO33" s="98"/>
+      <c r="HP33" s="98"/>
+      <c r="HQ33" s="98"/>
+      <c r="HR33" s="98"/>
+      <c r="HS33" s="98"/>
+      <c r="HT33" s="98"/>
+      <c r="HU33" s="98"/>
+      <c r="HV33" s="98"/>
+      <c r="HW33" s="98"/>
+      <c r="HX33" s="98"/>
+      <c r="HY33" s="98"/>
+      <c r="HZ33" s="98"/>
+      <c r="IA33" s="98"/>
+      <c r="IB33" s="98"/>
+      <c r="IC33" s="98"/>
+      <c r="ID33" s="98"/>
+      <c r="IE33" s="98"/>
+      <c r="IF33" s="98"/>
+      <c r="IG33" s="98"/>
+      <c r="IH33" s="98"/>
+      <c r="II33" s="98"/>
+      <c r="IJ33" s="98"/>
+      <c r="IK33" s="98"/>
+      <c r="IL33" s="98"/>
+      <c r="IM33" s="98"/>
+      <c r="IN33" s="98"/>
+      <c r="IO33" s="98"/>
+      <c r="IP33" s="98"/>
+      <c r="IQ33" s="98"/>
+      <c r="IR33" s="98"/>
+      <c r="IS33" s="98"/>
+      <c r="IT33" s="98"/>
+      <c r="IU33" s="98"/>
+      <c r="IV33" s="98"/>
+      <c r="IW33" s="98"/>
+      <c r="IX33" s="98"/>
+      <c r="IY33" s="98"/>
+      <c r="IZ33" s="98"/>
+      <c r="JA33" s="98"/>
+      <c r="JB33" s="98"/>
+      <c r="JC33" s="98"/>
+      <c r="JD33" s="98"/>
+      <c r="JE33" s="98"/>
+      <c r="JF33" s="98"/>
+      <c r="JG33" s="98"/>
+      <c r="JH33" s="98"/>
+      <c r="JI33" s="98"/>
+      <c r="JJ33" s="98"/>
+      <c r="JK33" s="98"/>
+      <c r="JL33" s="98"/>
+      <c r="JM33" s="98"/>
+      <c r="JN33" s="98"/>
+      <c r="JO33" s="98"/>
+      <c r="JP33" s="98"/>
+      <c r="JQ33" s="98"/>
+      <c r="JR33" s="98"/>
+      <c r="JS33" s="98"/>
+      <c r="JT33" s="98"/>
+      <c r="JU33" s="98"/>
+      <c r="JV33" s="98"/>
+      <c r="JW33" s="98"/>
+      <c r="JX33" s="98"/>
+      <c r="JY33" s="98"/>
+      <c r="JZ33" s="98"/>
+      <c r="KA33" s="98"/>
+      <c r="KB33" s="98"/>
+      <c r="KC33" s="98"/>
+      <c r="KD33" s="98"/>
+      <c r="KE33" s="98"/>
+      <c r="KF33" s="98"/>
+      <c r="KG33" s="98"/>
+      <c r="KH33" s="98"/>
+      <c r="KI33" s="98"/>
+      <c r="KJ33" s="98"/>
+      <c r="KK33" s="98"/>
+      <c r="KL33" s="98"/>
+      <c r="KM33" s="98"/>
+      <c r="KN33" s="98"/>
+      <c r="KO33" s="98"/>
+      <c r="KP33" s="98"/>
+      <c r="KQ33" s="98"/>
+      <c r="KR33" s="98"/>
+      <c r="KS33" s="98"/>
+      <c r="KT33" s="98"/>
+      <c r="KU33" s="98"/>
+      <c r="KV33" s="98"/>
+      <c r="KW33" s="98"/>
+      <c r="KX33" s="98"/>
+      <c r="KY33" s="98"/>
+      <c r="KZ33" s="98"/>
+      <c r="LA33" s="98"/>
+      <c r="LB33" s="98"/>
+      <c r="LC33" s="98"/>
+      <c r="LD33" s="98"/>
+      <c r="LE33" s="98"/>
+      <c r="LF33" s="98"/>
+      <c r="LG33" s="98"/>
+      <c r="LH33" s="98"/>
+      <c r="LI33" s="98"/>
+      <c r="LJ33" s="98"/>
+      <c r="LK33" s="98"/>
+      <c r="LL33" s="98"/>
+      <c r="LM33" s="98"/>
+      <c r="LN33" s="98"/>
+      <c r="LO33" s="98"/>
+      <c r="LP33" s="98"/>
+      <c r="LQ33" s="98"/>
+      <c r="LR33" s="98"/>
+      <c r="LS33" s="98"/>
+      <c r="LT33" s="98"/>
+      <c r="LU33" s="98"/>
+      <c r="LV33" s="98"/>
+      <c r="LW33" s="98"/>
+      <c r="LX33" s="98"/>
+      <c r="LY33" s="98"/>
+      <c r="LZ33" s="98"/>
+      <c r="MA33" s="98"/>
+      <c r="MB33" s="98"/>
+      <c r="MC33" s="98"/>
+      <c r="MD33" s="98"/>
+      <c r="ME33" s="98"/>
+      <c r="MF33" s="98"/>
+      <c r="MG33" s="98"/>
+      <c r="MH33" s="98"/>
+      <c r="MI33" s="98"/>
+      <c r="MJ33" s="98"/>
+      <c r="MK33" s="98"/>
+      <c r="ML33" s="98"/>
+      <c r="MM33" s="98"/>
+      <c r="MN33" s="98"/>
+      <c r="MO33" s="98"/>
+      <c r="MP33" s="98"/>
+      <c r="MQ33" s="98"/>
+      <c r="MR33" s="98"/>
+      <c r="MS33" s="98"/>
+      <c r="MT33" s="98"/>
+      <c r="MU33" s="98"/>
+      <c r="MV33" s="98"/>
+      <c r="MW33" s="98"/>
+      <c r="MX33" s="98"/>
+      <c r="MY33" s="98"/>
+      <c r="MZ33" s="98"/>
+      <c r="NA33" s="98"/>
+      <c r="NB33" s="98"/>
+      <c r="NC33" s="98"/>
+      <c r="ND33" s="98"/>
+      <c r="NE33" s="98"/>
+      <c r="NF33" s="98"/>
+      <c r="NG33" s="98"/>
+      <c r="NH33" s="98"/>
+      <c r="NI33" s="98"/>
+      <c r="NJ33" s="98"/>
+      <c r="NK33" s="98"/>
+      <c r="NL33" s="98"/>
+      <c r="NM33" s="98"/>
+      <c r="NN33" s="98"/>
+      <c r="NO33" s="98"/>
+      <c r="NP33" s="98"/>
+      <c r="NQ33" s="98"/>
+      <c r="NR33" s="98"/>
+      <c r="NS33" s="98"/>
+      <c r="NT33" s="98"/>
+      <c r="NU33" s="98"/>
+      <c r="NV33" s="98"/>
+      <c r="NW33" s="98"/>
+      <c r="NX33" s="98"/>
+      <c r="NY33" s="98"/>
+      <c r="NZ33" s="98"/>
+      <c r="OA33" s="98"/>
+      <c r="OB33" s="98"/>
+      <c r="OC33" s="98"/>
+      <c r="OD33" s="98"/>
+      <c r="OE33" s="98"/>
+      <c r="OF33" s="98"/>
+      <c r="OG33" s="98"/>
+      <c r="OH33" s="98"/>
+      <c r="OI33" s="98"/>
+      <c r="OJ33" s="98"/>
+      <c r="OK33" s="98"/>
+      <c r="OL33" s="98"/>
+      <c r="OM33" s="98"/>
+      <c r="ON33" s="98"/>
+      <c r="OO33" s="98"/>
+      <c r="OP33" s="98"/>
+      <c r="OQ33" s="98"/>
+      <c r="OR33" s="98"/>
+      <c r="OS33" s="98"/>
+      <c r="OT33" s="98"/>
+      <c r="OU33" s="98"/>
+      <c r="OV33" s="98"/>
+      <c r="OW33" s="98"/>
+      <c r="OX33" s="98"/>
+      <c r="OY33" s="98"/>
+      <c r="OZ33" s="98"/>
+      <c r="PA33" s="98"/>
+      <c r="PB33" s="98"/>
+      <c r="PC33" s="98"/>
+      <c r="PD33" s="98"/>
+      <c r="PE33" s="98"/>
+      <c r="PF33" s="98"/>
+      <c r="PG33" s="98"/>
+      <c r="PH33" s="98"/>
+      <c r="PI33" s="98"/>
+      <c r="PJ33" s="98"/>
+      <c r="PK33" s="98"/>
+      <c r="PL33" s="98"/>
+      <c r="PM33" s="98"/>
+      <c r="PN33" s="98"/>
+      <c r="PO33" s="98"/>
+      <c r="PP33" s="98"/>
+      <c r="PQ33" s="98"/>
+      <c r="PR33" s="98"/>
+      <c r="PS33" s="98"/>
+      <c r="PT33" s="98"/>
+      <c r="PU33" s="98"/>
+      <c r="PV33" s="98"/>
+      <c r="PW33" s="98"/>
+      <c r="PX33" s="98"/>
+      <c r="PY33" s="98"/>
+      <c r="PZ33" s="98"/>
+      <c r="QA33" s="98"/>
+      <c r="QB33" s="98"/>
+      <c r="QC33" s="98"/>
+      <c r="QD33" s="98"/>
+      <c r="QE33" s="98"/>
+      <c r="QF33" s="98"/>
+      <c r="QG33" s="98"/>
+      <c r="QH33" s="98"/>
+      <c r="QI33" s="98"/>
+      <c r="QJ33" s="98"/>
+      <c r="QK33" s="98"/>
+      <c r="QL33" s="98"/>
+      <c r="QM33" s="98"/>
+      <c r="QN33" s="98"/>
+      <c r="QO33" s="98"/>
+      <c r="QP33" s="98"/>
+      <c r="QQ33" s="98"/>
+      <c r="QR33" s="98"/>
+      <c r="QS33" s="98"/>
+      <c r="QT33" s="98"/>
+      <c r="QU33" s="98"/>
+      <c r="QV33" s="98"/>
+      <c r="QW33" s="98"/>
+      <c r="QX33" s="98"/>
+      <c r="QY33" s="98"/>
+      <c r="QZ33" s="98"/>
+      <c r="RA33" s="98"/>
+      <c r="RB33" s="98"/>
+      <c r="RC33" s="98"/>
+      <c r="RD33" s="98"/>
+      <c r="RE33" s="98"/>
+      <c r="RF33" s="98"/>
+      <c r="RG33" s="98"/>
+      <c r="RH33" s="98"/>
+      <c r="RI33" s="98"/>
+      <c r="RJ33" s="98"/>
+      <c r="RK33" s="98"/>
+      <c r="RL33" s="98"/>
+      <c r="RM33" s="98"/>
+      <c r="RN33" s="98"/>
+      <c r="RO33" s="98"/>
+      <c r="RP33" s="98"/>
+      <c r="RQ33" s="98"/>
+      <c r="RR33" s="98"/>
+      <c r="RS33" s="98"/>
+      <c r="RT33" s="98"/>
+      <c r="RU33" s="98"/>
+      <c r="RV33" s="98"/>
+      <c r="RW33" s="98"/>
+      <c r="RX33" s="98"/>
+      <c r="RY33" s="98"/>
+      <c r="RZ33" s="98"/>
+      <c r="SA33" s="98"/>
+      <c r="SB33" s="98"/>
+      <c r="SC33" s="98"/>
+      <c r="SD33" s="98"/>
+      <c r="SE33" s="98"/>
+      <c r="SF33" s="98"/>
+      <c r="SG33" s="98"/>
+      <c r="SH33" s="98"/>
+      <c r="SI33" s="98"/>
+      <c r="SJ33" s="98"/>
+      <c r="SK33" s="98"/>
+      <c r="SL33" s="98"/>
+      <c r="SM33" s="98"/>
+      <c r="SN33" s="98"/>
+      <c r="SO33" s="98"/>
+      <c r="SP33" s="98"/>
+      <c r="SQ33" s="98"/>
+      <c r="SR33" s="98"/>
+      <c r="SS33" s="98"/>
+      <c r="ST33" s="98"/>
+      <c r="SU33" s="98"/>
+      <c r="SV33" s="98"/>
+      <c r="SW33" s="98"/>
+      <c r="SX33" s="98"/>
+      <c r="SY33" s="98"/>
+      <c r="SZ33" s="98"/>
+      <c r="TA33" s="98"/>
+      <c r="TB33" s="98"/>
+      <c r="TC33" s="98"/>
+      <c r="TD33" s="98"/>
+      <c r="TE33" s="98"/>
+      <c r="TF33" s="98"/>
+      <c r="TG33" s="98"/>
+      <c r="TH33" s="98"/>
+      <c r="TI33" s="98"/>
+      <c r="TJ33" s="98"/>
+      <c r="TK33" s="98"/>
+      <c r="TL33" s="98"/>
+      <c r="TM33" s="98"/>
+      <c r="TN33" s="98"/>
+      <c r="TO33" s="98"/>
+      <c r="TP33" s="98"/>
+      <c r="TQ33" s="98"/>
+      <c r="TR33" s="98"/>
+      <c r="TS33" s="98"/>
+      <c r="TT33" s="98"/>
+      <c r="TU33" s="98"/>
+      <c r="TV33" s="98"/>
+      <c r="TW33" s="98"/>
+      <c r="TX33" s="98"/>
+      <c r="TY33" s="98"/>
+      <c r="TZ33" s="98"/>
+      <c r="UA33" s="98"/>
+      <c r="UB33" s="98"/>
+      <c r="UC33" s="98"/>
+      <c r="UD33" s="98"/>
+      <c r="UE33" s="98"/>
+      <c r="UF33" s="98"/>
+      <c r="UG33" s="98"/>
+      <c r="UH33" s="98"/>
+      <c r="UI33" s="98"/>
+      <c r="UJ33" s="98"/>
+      <c r="UK33" s="98"/>
+      <c r="UL33" s="98"/>
+      <c r="UM33" s="98"/>
+      <c r="UN33" s="98"/>
+      <c r="UO33" s="98"/>
+      <c r="UP33" s="98"/>
+      <c r="UQ33" s="98"/>
+      <c r="UR33" s="98"/>
+      <c r="US33" s="98"/>
+      <c r="UT33" s="98"/>
+      <c r="UU33" s="98"/>
+      <c r="UV33" s="98"/>
+      <c r="UW33" s="98"/>
+      <c r="UX33" s="98"/>
+      <c r="UY33" s="98"/>
+      <c r="UZ33" s="98"/>
+      <c r="VA33" s="98"/>
+      <c r="VB33" s="98"/>
+      <c r="VC33" s="98"/>
+      <c r="VD33" s="98"/>
+      <c r="VE33" s="98"/>
+      <c r="VF33" s="98"/>
+      <c r="VG33" s="98"/>
+      <c r="VH33" s="98"/>
+      <c r="VI33" s="98"/>
+      <c r="VJ33" s="98"/>
+      <c r="VK33" s="98"/>
+      <c r="VL33" s="98"/>
+      <c r="VM33" s="98"/>
+      <c r="VN33" s="98"/>
+      <c r="VO33" s="98"/>
+      <c r="VP33" s="98"/>
+      <c r="VQ33" s="98"/>
+      <c r="VR33" s="98"/>
+      <c r="VS33" s="98"/>
+      <c r="VT33" s="98"/>
+      <c r="VU33" s="98"/>
+      <c r="VV33" s="98"/>
+      <c r="VW33" s="98"/>
+      <c r="VX33" s="98"/>
+      <c r="VY33" s="98"/>
+      <c r="VZ33" s="98"/>
+      <c r="WA33" s="98"/>
+      <c r="WB33" s="98"/>
+      <c r="WC33" s="98"/>
+      <c r="WD33" s="98"/>
+      <c r="WE33" s="98"/>
+      <c r="WF33" s="98"/>
+      <c r="WG33" s="98"/>
+      <c r="WH33" s="98"/>
+      <c r="WI33" s="98"/>
+      <c r="WJ33" s="98"/>
+      <c r="WK33" s="98"/>
+      <c r="WL33" s="98"/>
+      <c r="WM33" s="98"/>
+      <c r="WN33" s="98"/>
+      <c r="WO33" s="98"/>
+      <c r="WP33" s="98"/>
+      <c r="WQ33" s="98"/>
+      <c r="WR33" s="98"/>
+      <c r="WS33" s="98"/>
+      <c r="WT33" s="98"/>
+      <c r="WU33" s="98"/>
+      <c r="WV33" s="98"/>
+      <c r="WW33" s="98"/>
+      <c r="WX33" s="98"/>
+      <c r="WY33" s="98"/>
+      <c r="WZ33" s="98"/>
+      <c r="XA33" s="98"/>
+      <c r="XB33" s="98"/>
+      <c r="XC33" s="98"/>
+      <c r="XD33" s="98"/>
+      <c r="XE33" s="98"/>
+      <c r="XF33" s="98"/>
+      <c r="XG33" s="98"/>
+      <c r="XH33" s="98"/>
+      <c r="XI33" s="98"/>
+      <c r="XJ33" s="98"/>
+      <c r="XK33" s="98"/>
+      <c r="XL33" s="98"/>
+      <c r="XM33" s="98"/>
+      <c r="XN33" s="98"/>
+      <c r="XO33" s="98"/>
+      <c r="XP33" s="98"/>
+      <c r="XQ33" s="98"/>
+      <c r="XR33" s="98"/>
+      <c r="XS33" s="98"/>
+      <c r="XT33" s="98"/>
+      <c r="XU33" s="98"/>
+      <c r="XV33" s="98"/>
+      <c r="XW33" s="98"/>
+      <c r="XX33" s="98"/>
+      <c r="XY33" s="98"/>
+      <c r="XZ33" s="98"/>
+      <c r="YA33" s="98"/>
+      <c r="YB33" s="98"/>
+      <c r="YC33" s="98"/>
+      <c r="YD33" s="98"/>
+      <c r="YE33" s="98"/>
+      <c r="YF33" s="98"/>
+      <c r="YG33" s="98"/>
+      <c r="YH33" s="98"/>
+      <c r="YI33" s="98"/>
+      <c r="YJ33" s="98"/>
+      <c r="YK33" s="98"/>
+      <c r="YL33" s="98"/>
+      <c r="YM33" s="98"/>
+      <c r="YN33" s="98"/>
+      <c r="YO33" s="98"/>
+      <c r="YP33" s="98"/>
+      <c r="YQ33" s="98"/>
+      <c r="YR33" s="98"/>
+      <c r="YS33" s="98"/>
+      <c r="YT33" s="98"/>
+      <c r="YU33" s="98"/>
+      <c r="YV33" s="98"/>
+      <c r="YW33" s="98"/>
+      <c r="YX33" s="98"/>
+      <c r="YY33" s="98"/>
+      <c r="YZ33" s="98"/>
+      <c r="ZA33" s="98"/>
+      <c r="ZB33" s="98"/>
+      <c r="ZC33" s="98"/>
+      <c r="ZD33" s="98"/>
+      <c r="ZE33" s="98"/>
+      <c r="ZF33" s="98"/>
+      <c r="ZG33" s="98"/>
+      <c r="ZH33" s="98"/>
+      <c r="ZI33" s="98"/>
+      <c r="ZJ33" s="98"/>
+      <c r="ZK33" s="98"/>
+      <c r="ZL33" s="98"/>
+      <c r="ZM33" s="98"/>
+      <c r="ZN33" s="98"/>
+      <c r="ZO33" s="98"/>
+      <c r="ZP33" s="98"/>
+      <c r="ZQ33" s="98"/>
+      <c r="ZR33" s="98"/>
+      <c r="ZS33" s="98"/>
+      <c r="ZT33" s="98"/>
+      <c r="ZU33" s="98"/>
+      <c r="ZV33" s="98"/>
+      <c r="ZW33" s="98"/>
+      <c r="ZX33" s="98"/>
+      <c r="ZY33" s="98"/>
+      <c r="ZZ33" s="98"/>
+      <c r="AAA33" s="98"/>
+      <c r="AAB33" s="98"/>
+      <c r="AAC33" s="98"/>
+      <c r="AAD33" s="98"/>
+      <c r="AAE33" s="98"/>
+      <c r="AAF33" s="98"/>
+      <c r="AAG33" s="98"/>
+      <c r="AAH33" s="98"/>
+      <c r="AAI33" s="98"/>
+      <c r="AAJ33" s="98"/>
+      <c r="AAK33" s="98"/>
+      <c r="AAL33" s="98"/>
+      <c r="AAM33" s="98"/>
+      <c r="AAN33" s="98"/>
+      <c r="AAO33" s="98"/>
+      <c r="AAP33" s="98"/>
+      <c r="AAQ33" s="98"/>
+      <c r="AAR33" s="98"/>
+      <c r="AAS33" s="98"/>
+      <c r="AAT33" s="98"/>
+      <c r="AAU33" s="98"/>
+      <c r="AAV33" s="98"/>
+      <c r="AAW33" s="98"/>
+      <c r="AAX33" s="98"/>
+      <c r="AAY33" s="98"/>
+      <c r="AAZ33" s="98"/>
+      <c r="ABA33" s="98"/>
+      <c r="ABB33" s="98"/>
+      <c r="ABC33" s="98"/>
+      <c r="ABD33" s="98"/>
+      <c r="ABE33" s="98"/>
+      <c r="ABF33" s="98"/>
+      <c r="ABG33" s="98"/>
+      <c r="ABH33" s="98"/>
+      <c r="ABI33" s="98"/>
+      <c r="ABJ33" s="98"/>
+      <c r="ABK33" s="98"/>
+      <c r="ABL33" s="98"/>
+      <c r="ABM33" s="98"/>
+      <c r="ABN33" s="98"/>
+      <c r="ABO33" s="98"/>
+      <c r="ABP33" s="98"/>
+      <c r="ABQ33" s="98"/>
+      <c r="ABR33" s="98"/>
+      <c r="ABS33" s="98"/>
+      <c r="ABT33" s="98"/>
+      <c r="ABU33" s="98"/>
+      <c r="ABV33" s="98"/>
+      <c r="ABW33" s="98"/>
+      <c r="ABX33" s="98"/>
+      <c r="ABY33" s="98"/>
+      <c r="ABZ33" s="98"/>
+      <c r="ACA33" s="98"/>
+      <c r="ACB33" s="98"/>
+      <c r="ACC33" s="98"/>
+      <c r="ACD33" s="98"/>
+      <c r="ACE33" s="98"/>
+      <c r="ACF33" s="98"/>
+      <c r="ACG33" s="98"/>
+      <c r="ACH33" s="98"/>
+      <c r="ACI33" s="98"/>
+      <c r="ACJ33" s="98"/>
+      <c r="ACK33" s="98"/>
+      <c r="ACL33" s="98"/>
+      <c r="ACM33" s="98"/>
+      <c r="ACN33" s="98"/>
+      <c r="ACO33" s="98"/>
+      <c r="ACP33" s="98"/>
+      <c r="ACQ33" s="98"/>
+      <c r="ACR33" s="98"/>
+      <c r="ACS33" s="98"/>
+      <c r="ACT33" s="98"/>
+      <c r="ACU33" s="98"/>
+      <c r="ACV33" s="98"/>
+      <c r="ACW33" s="98"/>
+      <c r="ACX33" s="98"/>
+      <c r="ACY33" s="98"/>
+      <c r="ACZ33" s="98"/>
+      <c r="ADA33" s="98"/>
+      <c r="ADB33" s="98"/>
+      <c r="ADC33" s="98"/>
+      <c r="ADD33" s="98"/>
+      <c r="ADE33" s="98"/>
+      <c r="ADF33" s="98"/>
+      <c r="ADG33" s="98"/>
+      <c r="ADH33" s="98"/>
+      <c r="ADI33" s="98"/>
+      <c r="ADJ33" s="98"/>
+      <c r="ADK33" s="98"/>
+      <c r="ADL33" s="98"/>
+      <c r="ADM33" s="98"/>
+      <c r="ADN33" s="98"/>
+      <c r="ADO33" s="98"/>
+      <c r="ADP33" s="98"/>
+      <c r="ADQ33" s="98"/>
+      <c r="ADR33" s="98"/>
+      <c r="ADS33" s="98"/>
+      <c r="ADT33" s="98"/>
+      <c r="ADU33" s="98"/>
+      <c r="ADV33" s="98"/>
+      <c r="ADW33" s="98"/>
+      <c r="ADX33" s="98"/>
+      <c r="ADY33" s="98"/>
+      <c r="ADZ33" s="98"/>
+      <c r="AEA33" s="98"/>
+      <c r="AEB33" s="98"/>
+      <c r="AEC33" s="98"/>
+      <c r="AED33" s="98"/>
+      <c r="AEE33" s="98"/>
+      <c r="AEF33" s="98"/>
+      <c r="AEG33" s="98"/>
+      <c r="AEH33" s="98"/>
+      <c r="AEI33" s="98"/>
+      <c r="AEJ33" s="98"/>
+      <c r="AEK33" s="98"/>
+      <c r="AEL33" s="98"/>
+      <c r="AEM33" s="98"/>
+      <c r="AEN33" s="98"/>
+      <c r="AEO33" s="98"/>
+      <c r="AEP33" s="98"/>
+      <c r="AEQ33" s="98"/>
+      <c r="AER33" s="98"/>
+      <c r="AES33" s="98"/>
+      <c r="AET33" s="98"/>
+      <c r="AEU33" s="98"/>
+      <c r="AEV33" s="98"/>
+      <c r="AEW33" s="98"/>
+      <c r="AEX33" s="98"/>
+      <c r="AEY33" s="98"/>
+      <c r="AEZ33" s="98"/>
+      <c r="AFA33" s="98"/>
+      <c r="AFB33" s="98"/>
+      <c r="AFC33" s="98"/>
+      <c r="AFD33" s="98"/>
+      <c r="AFE33" s="98"/>
+      <c r="AFF33" s="98"/>
+      <c r="AFG33" s="98"/>
+      <c r="AFH33" s="98"/>
+      <c r="AFI33" s="98"/>
+      <c r="AFJ33" s="98"/>
+      <c r="AFK33" s="98"/>
+      <c r="AFL33" s="98"/>
+      <c r="AFM33" s="98"/>
+      <c r="AFN33" s="98"/>
+      <c r="AFO33" s="98"/>
+      <c r="AFP33" s="98"/>
+      <c r="AFQ33" s="98"/>
+      <c r="AFR33" s="98"/>
+      <c r="AFS33" s="98"/>
+      <c r="AFT33" s="98"/>
+      <c r="AFU33" s="98"/>
+      <c r="AFV33" s="98"/>
+      <c r="AFW33" s="98"/>
+      <c r="AFX33" s="98"/>
+      <c r="AFY33" s="98"/>
+      <c r="AFZ33" s="98"/>
+      <c r="AGA33" s="98"/>
+      <c r="AGB33" s="98"/>
+      <c r="AGC33" s="98"/>
+      <c r="AGD33" s="98"/>
+      <c r="AGE33" s="98"/>
+      <c r="AGF33" s="98"/>
+      <c r="AGG33" s="98"/>
+      <c r="AGH33" s="98"/>
+      <c r="AGI33" s="98"/>
+      <c r="AGJ33" s="98"/>
+      <c r="AGK33" s="98"/>
+      <c r="AGL33" s="98"/>
+      <c r="AGM33" s="98"/>
+      <c r="AGN33" s="98"/>
+      <c r="AGO33" s="98"/>
+      <c r="AGP33" s="98"/>
+      <c r="AGQ33" s="98"/>
+      <c r="AGR33" s="98"/>
+      <c r="AGS33" s="98"/>
+      <c r="AGT33" s="98"/>
+      <c r="AGU33" s="98"/>
+      <c r="AGV33" s="98"/>
+      <c r="AGW33" s="98"/>
+      <c r="AGX33" s="98"/>
+      <c r="AGY33" s="98"/>
+      <c r="AGZ33" s="98"/>
+      <c r="AHA33" s="98"/>
+      <c r="AHB33" s="98"/>
+      <c r="AHC33" s="98"/>
+      <c r="AHD33" s="98"/>
+      <c r="AHE33" s="98"/>
+      <c r="AHF33" s="98"/>
+      <c r="AHG33" s="98"/>
+      <c r="AHH33" s="98"/>
+      <c r="AHI33" s="98"/>
+      <c r="AHJ33" s="98"/>
+      <c r="AHK33" s="98"/>
+      <c r="AHL33" s="98"/>
+      <c r="AHM33" s="98"/>
+      <c r="AHN33" s="98"/>
+      <c r="AHO33" s="98"/>
+      <c r="AHP33" s="98"/>
+      <c r="AHQ33" s="98"/>
+      <c r="AHR33" s="98"/>
+      <c r="AHS33" s="98"/>
+      <c r="AHT33" s="98"/>
+      <c r="AHU33" s="98"/>
+      <c r="AHV33" s="98"/>
+      <c r="AHW33" s="98"/>
+      <c r="AHX33" s="98"/>
+      <c r="AHY33" s="98"/>
+      <c r="AHZ33" s="98"/>
+      <c r="AIA33" s="98"/>
+      <c r="AIB33" s="98"/>
+      <c r="AIC33" s="98"/>
+      <c r="AID33" s="98"/>
+      <c r="AIE33" s="98"/>
+      <c r="AIF33" s="98"/>
+      <c r="AIG33" s="98"/>
+      <c r="AIH33" s="98"/>
+      <c r="AII33" s="98"/>
+      <c r="AIJ33" s="98"/>
+      <c r="AIK33" s="98"/>
+      <c r="AIL33" s="98"/>
+      <c r="AIM33" s="98"/>
+      <c r="AIN33" s="98"/>
+      <c r="AIO33" s="98"/>
+      <c r="AIP33" s="98"/>
+      <c r="AIQ33" s="98"/>
+      <c r="AIR33" s="98"/>
+      <c r="AIS33" s="98"/>
+      <c r="AIT33" s="98"/>
+      <c r="AIU33" s="98"/>
+      <c r="AIV33" s="98"/>
+      <c r="AIW33" s="98"/>
+      <c r="AIX33" s="98"/>
+      <c r="AIY33" s="98"/>
+      <c r="AIZ33" s="98"/>
+      <c r="AJA33" s="98"/>
+      <c r="AJB33" s="98"/>
+      <c r="AJC33" s="98"/>
+      <c r="AJD33" s="98"/>
+      <c r="AJE33" s="98"/>
+      <c r="AJF33" s="98"/>
+      <c r="AJG33" s="98"/>
+      <c r="AJH33" s="98"/>
+      <c r="AJI33" s="98"/>
+      <c r="AJJ33" s="98"/>
+      <c r="AJK33" s="98"/>
+      <c r="AJL33" s="98"/>
+      <c r="AJM33" s="98"/>
+      <c r="AJN33" s="98"/>
+      <c r="AJO33" s="98"/>
+      <c r="AJP33" s="98"/>
+      <c r="AJQ33" s="98"/>
+      <c r="AJR33" s="98"/>
+      <c r="AJS33" s="98"/>
+      <c r="AJT33" s="98"/>
+      <c r="AJU33" s="98"/>
+      <c r="AJV33" s="98"/>
+      <c r="AJW33" s="98"/>
+      <c r="AJX33" s="98"/>
+      <c r="AJY33" s="98"/>
+      <c r="AJZ33" s="98"/>
+      <c r="AKA33" s="98"/>
+      <c r="AKB33" s="98"/>
+      <c r="AKC33" s="98"/>
+      <c r="AKD33" s="98"/>
+      <c r="AKE33" s="98"/>
+      <c r="AKF33" s="98"/>
+      <c r="AKG33" s="98"/>
+      <c r="AKH33" s="98"/>
+      <c r="AKI33" s="98"/>
+      <c r="AKJ33" s="98"/>
+      <c r="AKK33" s="98"/>
+      <c r="AKL33" s="98"/>
+      <c r="AKM33" s="98"/>
+      <c r="AKN33" s="98"/>
+      <c r="AKO33" s="98"/>
+      <c r="AKP33" s="98"/>
+      <c r="AKQ33" s="98"/>
+      <c r="AKR33" s="98"/>
+      <c r="AKS33" s="98"/>
+      <c r="AKT33" s="98"/>
+      <c r="AKU33" s="98"/>
+      <c r="AKV33" s="98"/>
+      <c r="AKW33" s="98"/>
+      <c r="AKX33" s="98"/>
+      <c r="AKY33" s="98"/>
+      <c r="AKZ33" s="98"/>
+      <c r="ALA33" s="98"/>
+      <c r="ALB33" s="98"/>
+      <c r="ALC33" s="98"/>
+      <c r="ALD33" s="98"/>
+      <c r="ALE33" s="98"/>
+      <c r="ALF33" s="98"/>
+      <c r="ALG33" s="98"/>
+      <c r="ALH33" s="98"/>
+      <c r="ALI33" s="98"/>
+      <c r="ALJ33" s="98"/>
+      <c r="ALK33" s="98"/>
+      <c r="ALL33" s="98"/>
+      <c r="ALM33" s="98"/>
+      <c r="ALN33" s="98"/>
+      <c r="ALO33" s="98"/>
+      <c r="ALP33" s="98"/>
+      <c r="ALQ33" s="98"/>
+      <c r="ALR33" s="98"/>
+      <c r="ALS33" s="98"/>
+      <c r="ALT33" s="98"/>
+      <c r="ALU33" s="98"/>
+      <c r="ALV33" s="98"/>
+      <c r="ALW33" s="98"/>
+      <c r="ALX33" s="98"/>
+      <c r="ALY33" s="98"/>
+      <c r="ALZ33" s="98"/>
+      <c r="AMA33" s="98"/>
+      <c r="AMB33" s="98"/>
+      <c r="AMC33" s="98"/>
+      <c r="AMD33" s="98"/>
+      <c r="AME33" s="98"/>
+      <c r="AMF33" s="98"/>
+      <c r="AMG33" s="98"/>
+      <c r="AMH33" s="98"/>
+      <c r="AMI33" s="98"/>
+      <c r="AMJ33" s="98"/>
+      <c r="AMK33" s="98"/>
+      <c r="AML33" s="98"/>
+      <c r="AMM33" s="98"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -21862,22 +23991,22 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.54296875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5703125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -21888,7 +24017,7 @@
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -21911,35 +24040,35 @@
         <v>7</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="12"/>
@@ -21951,12 +24080,12 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="12"/>
@@ -21968,12 +24097,12 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="12"/>
@@ -21985,12 +24114,12 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="12"/>
@@ -22002,12 +24131,12 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="12"/>
@@ -22019,12 +24148,12 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="12"/>
@@ -22036,12 +24165,12 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="12"/>
@@ -22068,23 +24197,23 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.26953125" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.28515625" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -22095,7 +24224,7 @@
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22118,13 +24247,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -22135,7 +24264,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
@@ -22143,10 +24272,10 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -22166,7 +24295,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22186,10 +24315,10 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -22209,7 +24338,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22221,7 +24350,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -22229,10 +24358,10 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -22252,13 +24381,13 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
@@ -22270,10 +24399,10 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -22293,7 +24422,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22313,10 +24442,10 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -22336,13 +24465,13 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -22354,10 +24483,10 @@
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
       <c r="H8" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>308</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>309</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -22377,13 +24506,13 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
@@ -22395,10 +24524,10 @@
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -22418,7 +24547,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22430,7 +24559,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="8" t="s">
@@ -22438,13 +24567,13 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>313</v>
-      </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22464,10 +24593,10 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -22487,7 +24616,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22507,10 +24636,10 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -22530,13 +24659,13 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
@@ -22548,10 +24677,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -22571,13 +24700,13 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>9</v>
@@ -22591,10 +24720,10 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -22614,13 +24743,13 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>9</v>
@@ -22632,10 +24761,10 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -22655,13 +24784,13 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>9</v>
@@ -22673,10 +24802,10 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -22696,13 +24825,13 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>9</v>
@@ -22714,10 +24843,10 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -22737,7 +24866,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23773,7 +25902,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24809,7 +26938,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24829,13 +26958,13 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="104" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24855,13 +26984,13 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -25899,7 +28028,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25919,19 +28048,19 @@
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -25943,19 +28072,19 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -25967,19 +28096,19 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -25991,43 +28120,43 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -26039,19 +28168,19 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>9</v>
@@ -26063,43 +28192,43 @@
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>9</v>
@@ -26111,19 +28240,19 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>9</v>
@@ -26135,43 +28264,43 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C34" s="73" t="s">
         <v>9</v>
@@ -27199,85 +29328,85 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="156" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1025" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="130" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1025" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="78" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>9</v>
@@ -27289,41 +29418,41 @@
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>9</v>
@@ -27335,65 +29464,65 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="105" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>39</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>40</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>9</v>
@@ -27405,87 +29534,87 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>41</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>42</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>43</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>44</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>9</v>
@@ -27497,13 +29626,13 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="104" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27520,11 +29649,11 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="104" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27541,11 +29670,11 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="104" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27562,54 +29691,54 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="104" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>48</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="104" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>49</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="104" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B9293D92-711F-4B94-A2AA-C8114B7D80A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4ED499F-DB12-4D3D-85F5-6A7D379F82A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3290,9 +3290,6 @@
     <t>Setup PDF template for e-KYC</t>
   </si>
   <si>
-    <t>Configure the idtype to be supported for Authentication</t>
-  </si>
-  <si>
     <t>UIN/VIN</t>
   </si>
   <si>
@@ -3300,6 +3297,9 @@
   </si>
   <si>
     <t>To be added</t>
+  </si>
+  <si>
+    <t>Configure the idtype to be supported for Authentication/KYC/OTP Request</t>
   </si>
   <si>
     <r>
@@ -3325,7 +3325,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> he authentication,eKYC and OTP requests will be supported for the id Type Changed
+      <t xml:space="preserve"> The authentication,eKYC and OTP requests will be supported for the id Type Changed
 In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
     </r>
   </si>
@@ -3528,6 +3528,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <strike/>
@@ -4083,21 +4084,6 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4114,6 +4100,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5418,17 +5419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -6006,17 +6007,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10612,17 +10613,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -10991,10 +10992,10 @@
   <dimension ref="A1:AMM33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11012,17 +11013,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -20782,1040 +20783,1040 @@
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" s="129" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
-      <c r="B28" s="126" t="s">
+    <row r="28" spans="1:1027" s="124" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="120"/>
+      <c r="B28" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="126" t="s">
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="121" t="s">
         <v>348</v>
       </c>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="128"/>
-      <c r="AJ28" s="128"/>
-      <c r="AK28" s="128"/>
-      <c r="AL28" s="128"/>
-      <c r="AM28" s="128"/>
-      <c r="AN28" s="128"/>
-      <c r="AO28" s="128"/>
-      <c r="AP28" s="128"/>
-      <c r="AQ28" s="128"/>
-      <c r="AR28" s="128"/>
-      <c r="AS28" s="128"/>
-      <c r="AT28" s="128"/>
-      <c r="AU28" s="128"/>
-      <c r="AV28" s="128"/>
-      <c r="AW28" s="128"/>
-      <c r="AX28" s="128"/>
-      <c r="AY28" s="128"/>
-      <c r="AZ28" s="128"/>
-      <c r="BA28" s="128"/>
-      <c r="BB28" s="128"/>
-      <c r="BC28" s="128"/>
-      <c r="BD28" s="128"/>
-      <c r="BE28" s="128"/>
-      <c r="BF28" s="128"/>
-      <c r="BG28" s="128"/>
-      <c r="BH28" s="128"/>
-      <c r="BI28" s="128"/>
-      <c r="BJ28" s="128"/>
-      <c r="BK28" s="128"/>
-      <c r="BL28" s="128"/>
-      <c r="BM28" s="128"/>
-      <c r="BN28" s="128"/>
-      <c r="BO28" s="128"/>
-      <c r="BP28" s="128"/>
-      <c r="BQ28" s="128"/>
-      <c r="BR28" s="128"/>
-      <c r="BS28" s="128"/>
-      <c r="BT28" s="128"/>
-      <c r="BU28" s="128"/>
-      <c r="BV28" s="128"/>
-      <c r="BW28" s="128"/>
-      <c r="BX28" s="128"/>
-      <c r="BY28" s="128"/>
-      <c r="BZ28" s="128"/>
-      <c r="CA28" s="128"/>
-      <c r="CB28" s="128"/>
-      <c r="CC28" s="128"/>
-      <c r="CD28" s="128"/>
-      <c r="CE28" s="128"/>
-      <c r="CF28" s="128"/>
-      <c r="CG28" s="128"/>
-      <c r="CH28" s="128"/>
-      <c r="CI28" s="128"/>
-      <c r="CJ28" s="128"/>
-      <c r="CK28" s="128"/>
-      <c r="CL28" s="128"/>
-      <c r="CM28" s="128"/>
-      <c r="CN28" s="128"/>
-      <c r="CO28" s="128"/>
-      <c r="CP28" s="128"/>
-      <c r="CQ28" s="128"/>
-      <c r="CR28" s="128"/>
-      <c r="CS28" s="128"/>
-      <c r="CT28" s="128"/>
-      <c r="CU28" s="128"/>
-      <c r="CV28" s="128"/>
-      <c r="CW28" s="128"/>
-      <c r="CX28" s="128"/>
-      <c r="CY28" s="128"/>
-      <c r="CZ28" s="128"/>
-      <c r="DA28" s="128"/>
-      <c r="DB28" s="128"/>
-      <c r="DC28" s="128"/>
-      <c r="DD28" s="128"/>
-      <c r="DE28" s="128"/>
-      <c r="DF28" s="128"/>
-      <c r="DG28" s="128"/>
-      <c r="DH28" s="128"/>
-      <c r="DI28" s="128"/>
-      <c r="DJ28" s="128"/>
-      <c r="DK28" s="128"/>
-      <c r="DL28" s="128"/>
-      <c r="DM28" s="128"/>
-      <c r="DN28" s="128"/>
-      <c r="DO28" s="128"/>
-      <c r="DP28" s="128"/>
-      <c r="DQ28" s="128"/>
-      <c r="DR28" s="128"/>
-      <c r="DS28" s="128"/>
-      <c r="DT28" s="128"/>
-      <c r="DU28" s="128"/>
-      <c r="DV28" s="128"/>
-      <c r="DW28" s="128"/>
-      <c r="DX28" s="128"/>
-      <c r="DY28" s="128"/>
-      <c r="DZ28" s="128"/>
-      <c r="EA28" s="128"/>
-      <c r="EB28" s="128"/>
-      <c r="EC28" s="128"/>
-      <c r="ED28" s="128"/>
-      <c r="EE28" s="128"/>
-      <c r="EF28" s="128"/>
-      <c r="EG28" s="128"/>
-      <c r="EH28" s="128"/>
-      <c r="EI28" s="128"/>
-      <c r="EJ28" s="128"/>
-      <c r="EK28" s="128"/>
-      <c r="EL28" s="128"/>
-      <c r="EM28" s="128"/>
-      <c r="EN28" s="128"/>
-      <c r="EO28" s="128"/>
-      <c r="EP28" s="128"/>
-      <c r="EQ28" s="128"/>
-      <c r="ER28" s="128"/>
-      <c r="ES28" s="128"/>
-      <c r="ET28" s="128"/>
-      <c r="EU28" s="128"/>
-      <c r="EV28" s="128"/>
-      <c r="EW28" s="128"/>
-      <c r="EX28" s="128"/>
-      <c r="EY28" s="128"/>
-      <c r="EZ28" s="128"/>
-      <c r="FA28" s="128"/>
-      <c r="FB28" s="128"/>
-      <c r="FC28" s="128"/>
-      <c r="FD28" s="128"/>
-      <c r="FE28" s="128"/>
-      <c r="FF28" s="128"/>
-      <c r="FG28" s="128"/>
-      <c r="FH28" s="128"/>
-      <c r="FI28" s="128"/>
-      <c r="FJ28" s="128"/>
-      <c r="FK28" s="128"/>
-      <c r="FL28" s="128"/>
-      <c r="FM28" s="128"/>
-      <c r="FN28" s="128"/>
-      <c r="FO28" s="128"/>
-      <c r="FP28" s="128"/>
-      <c r="FQ28" s="128"/>
-      <c r="FR28" s="128"/>
-      <c r="FS28" s="128"/>
-      <c r="FT28" s="128"/>
-      <c r="FU28" s="128"/>
-      <c r="FV28" s="128"/>
-      <c r="FW28" s="128"/>
-      <c r="FX28" s="128"/>
-      <c r="FY28" s="128"/>
-      <c r="FZ28" s="128"/>
-      <c r="GA28" s="128"/>
-      <c r="GB28" s="128"/>
-      <c r="GC28" s="128"/>
-      <c r="GD28" s="128"/>
-      <c r="GE28" s="128"/>
-      <c r="GF28" s="128"/>
-      <c r="GG28" s="128"/>
-      <c r="GH28" s="128"/>
-      <c r="GI28" s="128"/>
-      <c r="GJ28" s="128"/>
-      <c r="GK28" s="128"/>
-      <c r="GL28" s="128"/>
-      <c r="GM28" s="128"/>
-      <c r="GN28" s="128"/>
-      <c r="GO28" s="128"/>
-      <c r="GP28" s="128"/>
-      <c r="GQ28" s="128"/>
-      <c r="GR28" s="128"/>
-      <c r="GS28" s="128"/>
-      <c r="GT28" s="128"/>
-      <c r="GU28" s="128"/>
-      <c r="GV28" s="128"/>
-      <c r="GW28" s="128"/>
-      <c r="GX28" s="128"/>
-      <c r="GY28" s="128"/>
-      <c r="GZ28" s="128"/>
-      <c r="HA28" s="128"/>
-      <c r="HB28" s="128"/>
-      <c r="HC28" s="128"/>
-      <c r="HD28" s="128"/>
-      <c r="HE28" s="128"/>
-      <c r="HF28" s="128"/>
-      <c r="HG28" s="128"/>
-      <c r="HH28" s="128"/>
-      <c r="HI28" s="128"/>
-      <c r="HJ28" s="128"/>
-      <c r="HK28" s="128"/>
-      <c r="HL28" s="128"/>
-      <c r="HM28" s="128"/>
-      <c r="HN28" s="128"/>
-      <c r="HO28" s="128"/>
-      <c r="HP28" s="128"/>
-      <c r="HQ28" s="128"/>
-      <c r="HR28" s="128"/>
-      <c r="HS28" s="128"/>
-      <c r="HT28" s="128"/>
-      <c r="HU28" s="128"/>
-      <c r="HV28" s="128"/>
-      <c r="HW28" s="128"/>
-      <c r="HX28" s="128"/>
-      <c r="HY28" s="128"/>
-      <c r="HZ28" s="128"/>
-      <c r="IA28" s="128"/>
-      <c r="IB28" s="128"/>
-      <c r="IC28" s="128"/>
-      <c r="ID28" s="128"/>
-      <c r="IE28" s="128"/>
-      <c r="IF28" s="128"/>
-      <c r="IG28" s="128"/>
-      <c r="IH28" s="128"/>
-      <c r="II28" s="128"/>
-      <c r="IJ28" s="128"/>
-      <c r="IK28" s="128"/>
-      <c r="IL28" s="128"/>
-      <c r="IM28" s="128"/>
-      <c r="IN28" s="128"/>
-      <c r="IO28" s="128"/>
-      <c r="IP28" s="128"/>
-      <c r="IQ28" s="128"/>
-      <c r="IR28" s="128"/>
-      <c r="IS28" s="128"/>
-      <c r="IT28" s="128"/>
-      <c r="IU28" s="128"/>
-      <c r="IV28" s="128"/>
-      <c r="IW28" s="128"/>
-      <c r="IX28" s="128"/>
-      <c r="IY28" s="128"/>
-      <c r="IZ28" s="128"/>
-      <c r="JA28" s="128"/>
-      <c r="JB28" s="128"/>
-      <c r="JC28" s="128"/>
-      <c r="JD28" s="128"/>
-      <c r="JE28" s="128"/>
-      <c r="JF28" s="128"/>
-      <c r="JG28" s="128"/>
-      <c r="JH28" s="128"/>
-      <c r="JI28" s="128"/>
-      <c r="JJ28" s="128"/>
-      <c r="JK28" s="128"/>
-      <c r="JL28" s="128"/>
-      <c r="JM28" s="128"/>
-      <c r="JN28" s="128"/>
-      <c r="JO28" s="128"/>
-      <c r="JP28" s="128"/>
-      <c r="JQ28" s="128"/>
-      <c r="JR28" s="128"/>
-      <c r="JS28" s="128"/>
-      <c r="JT28" s="128"/>
-      <c r="JU28" s="128"/>
-      <c r="JV28" s="128"/>
-      <c r="JW28" s="128"/>
-      <c r="JX28" s="128"/>
-      <c r="JY28" s="128"/>
-      <c r="JZ28" s="128"/>
-      <c r="KA28" s="128"/>
-      <c r="KB28" s="128"/>
-      <c r="KC28" s="128"/>
-      <c r="KD28" s="128"/>
-      <c r="KE28" s="128"/>
-      <c r="KF28" s="128"/>
-      <c r="KG28" s="128"/>
-      <c r="KH28" s="128"/>
-      <c r="KI28" s="128"/>
-      <c r="KJ28" s="128"/>
-      <c r="KK28" s="128"/>
-      <c r="KL28" s="128"/>
-      <c r="KM28" s="128"/>
-      <c r="KN28" s="128"/>
-      <c r="KO28" s="128"/>
-      <c r="KP28" s="128"/>
-      <c r="KQ28" s="128"/>
-      <c r="KR28" s="128"/>
-      <c r="KS28" s="128"/>
-      <c r="KT28" s="128"/>
-      <c r="KU28" s="128"/>
-      <c r="KV28" s="128"/>
-      <c r="KW28" s="128"/>
-      <c r="KX28" s="128"/>
-      <c r="KY28" s="128"/>
-      <c r="KZ28" s="128"/>
-      <c r="LA28" s="128"/>
-      <c r="LB28" s="128"/>
-      <c r="LC28" s="128"/>
-      <c r="LD28" s="128"/>
-      <c r="LE28" s="128"/>
-      <c r="LF28" s="128"/>
-      <c r="LG28" s="128"/>
-      <c r="LH28" s="128"/>
-      <c r="LI28" s="128"/>
-      <c r="LJ28" s="128"/>
-      <c r="LK28" s="128"/>
-      <c r="LL28" s="128"/>
-      <c r="LM28" s="128"/>
-      <c r="LN28" s="128"/>
-      <c r="LO28" s="128"/>
-      <c r="LP28" s="128"/>
-      <c r="LQ28" s="128"/>
-      <c r="LR28" s="128"/>
-      <c r="LS28" s="128"/>
-      <c r="LT28" s="128"/>
-      <c r="LU28" s="128"/>
-      <c r="LV28" s="128"/>
-      <c r="LW28" s="128"/>
-      <c r="LX28" s="128"/>
-      <c r="LY28" s="128"/>
-      <c r="LZ28" s="128"/>
-      <c r="MA28" s="128"/>
-      <c r="MB28" s="128"/>
-      <c r="MC28" s="128"/>
-      <c r="MD28" s="128"/>
-      <c r="ME28" s="128"/>
-      <c r="MF28" s="128"/>
-      <c r="MG28" s="128"/>
-      <c r="MH28" s="128"/>
-      <c r="MI28" s="128"/>
-      <c r="MJ28" s="128"/>
-      <c r="MK28" s="128"/>
-      <c r="ML28" s="128"/>
-      <c r="MM28" s="128"/>
-      <c r="MN28" s="128"/>
-      <c r="MO28" s="128"/>
-      <c r="MP28" s="128"/>
-      <c r="MQ28" s="128"/>
-      <c r="MR28" s="128"/>
-      <c r="MS28" s="128"/>
-      <c r="MT28" s="128"/>
-      <c r="MU28" s="128"/>
-      <c r="MV28" s="128"/>
-      <c r="MW28" s="128"/>
-      <c r="MX28" s="128"/>
-      <c r="MY28" s="128"/>
-      <c r="MZ28" s="128"/>
-      <c r="NA28" s="128"/>
-      <c r="NB28" s="128"/>
-      <c r="NC28" s="128"/>
-      <c r="ND28" s="128"/>
-      <c r="NE28" s="128"/>
-      <c r="NF28" s="128"/>
-      <c r="NG28" s="128"/>
-      <c r="NH28" s="128"/>
-      <c r="NI28" s="128"/>
-      <c r="NJ28" s="128"/>
-      <c r="NK28" s="128"/>
-      <c r="NL28" s="128"/>
-      <c r="NM28" s="128"/>
-      <c r="NN28" s="128"/>
-      <c r="NO28" s="128"/>
-      <c r="NP28" s="128"/>
-      <c r="NQ28" s="128"/>
-      <c r="NR28" s="128"/>
-      <c r="NS28" s="128"/>
-      <c r="NT28" s="128"/>
-      <c r="NU28" s="128"/>
-      <c r="NV28" s="128"/>
-      <c r="NW28" s="128"/>
-      <c r="NX28" s="128"/>
-      <c r="NY28" s="128"/>
-      <c r="NZ28" s="128"/>
-      <c r="OA28" s="128"/>
-      <c r="OB28" s="128"/>
-      <c r="OC28" s="128"/>
-      <c r="OD28" s="128"/>
-      <c r="OE28" s="128"/>
-      <c r="OF28" s="128"/>
-      <c r="OG28" s="128"/>
-      <c r="OH28" s="128"/>
-      <c r="OI28" s="128"/>
-      <c r="OJ28" s="128"/>
-      <c r="OK28" s="128"/>
-      <c r="OL28" s="128"/>
-      <c r="OM28" s="128"/>
-      <c r="ON28" s="128"/>
-      <c r="OO28" s="128"/>
-      <c r="OP28" s="128"/>
-      <c r="OQ28" s="128"/>
-      <c r="OR28" s="128"/>
-      <c r="OS28" s="128"/>
-      <c r="OT28" s="128"/>
-      <c r="OU28" s="128"/>
-      <c r="OV28" s="128"/>
-      <c r="OW28" s="128"/>
-      <c r="OX28" s="128"/>
-      <c r="OY28" s="128"/>
-      <c r="OZ28" s="128"/>
-      <c r="PA28" s="128"/>
-      <c r="PB28" s="128"/>
-      <c r="PC28" s="128"/>
-      <c r="PD28" s="128"/>
-      <c r="PE28" s="128"/>
-      <c r="PF28" s="128"/>
-      <c r="PG28" s="128"/>
-      <c r="PH28" s="128"/>
-      <c r="PI28" s="128"/>
-      <c r="PJ28" s="128"/>
-      <c r="PK28" s="128"/>
-      <c r="PL28" s="128"/>
-      <c r="PM28" s="128"/>
-      <c r="PN28" s="128"/>
-      <c r="PO28" s="128"/>
-      <c r="PP28" s="128"/>
-      <c r="PQ28" s="128"/>
-      <c r="PR28" s="128"/>
-      <c r="PS28" s="128"/>
-      <c r="PT28" s="128"/>
-      <c r="PU28" s="128"/>
-      <c r="PV28" s="128"/>
-      <c r="PW28" s="128"/>
-      <c r="PX28" s="128"/>
-      <c r="PY28" s="128"/>
-      <c r="PZ28" s="128"/>
-      <c r="QA28" s="128"/>
-      <c r="QB28" s="128"/>
-      <c r="QC28" s="128"/>
-      <c r="QD28" s="128"/>
-      <c r="QE28" s="128"/>
-      <c r="QF28" s="128"/>
-      <c r="QG28" s="128"/>
-      <c r="QH28" s="128"/>
-      <c r="QI28" s="128"/>
-      <c r="QJ28" s="128"/>
-      <c r="QK28" s="128"/>
-      <c r="QL28" s="128"/>
-      <c r="QM28" s="128"/>
-      <c r="QN28" s="128"/>
-      <c r="QO28" s="128"/>
-      <c r="QP28" s="128"/>
-      <c r="QQ28" s="128"/>
-      <c r="QR28" s="128"/>
-      <c r="QS28" s="128"/>
-      <c r="QT28" s="128"/>
-      <c r="QU28" s="128"/>
-      <c r="QV28" s="128"/>
-      <c r="QW28" s="128"/>
-      <c r="QX28" s="128"/>
-      <c r="QY28" s="128"/>
-      <c r="QZ28" s="128"/>
-      <c r="RA28" s="128"/>
-      <c r="RB28" s="128"/>
-      <c r="RC28" s="128"/>
-      <c r="RD28" s="128"/>
-      <c r="RE28" s="128"/>
-      <c r="RF28" s="128"/>
-      <c r="RG28" s="128"/>
-      <c r="RH28" s="128"/>
-      <c r="RI28" s="128"/>
-      <c r="RJ28" s="128"/>
-      <c r="RK28" s="128"/>
-      <c r="RL28" s="128"/>
-      <c r="RM28" s="128"/>
-      <c r="RN28" s="128"/>
-      <c r="RO28" s="128"/>
-      <c r="RP28" s="128"/>
-      <c r="RQ28" s="128"/>
-      <c r="RR28" s="128"/>
-      <c r="RS28" s="128"/>
-      <c r="RT28" s="128"/>
-      <c r="RU28" s="128"/>
-      <c r="RV28" s="128"/>
-      <c r="RW28" s="128"/>
-      <c r="RX28" s="128"/>
-      <c r="RY28" s="128"/>
-      <c r="RZ28" s="128"/>
-      <c r="SA28" s="128"/>
-      <c r="SB28" s="128"/>
-      <c r="SC28" s="128"/>
-      <c r="SD28" s="128"/>
-      <c r="SE28" s="128"/>
-      <c r="SF28" s="128"/>
-      <c r="SG28" s="128"/>
-      <c r="SH28" s="128"/>
-      <c r="SI28" s="128"/>
-      <c r="SJ28" s="128"/>
-      <c r="SK28" s="128"/>
-      <c r="SL28" s="128"/>
-      <c r="SM28" s="128"/>
-      <c r="SN28" s="128"/>
-      <c r="SO28" s="128"/>
-      <c r="SP28" s="128"/>
-      <c r="SQ28" s="128"/>
-      <c r="SR28" s="128"/>
-      <c r="SS28" s="128"/>
-      <c r="ST28" s="128"/>
-      <c r="SU28" s="128"/>
-      <c r="SV28" s="128"/>
-      <c r="SW28" s="128"/>
-      <c r="SX28" s="128"/>
-      <c r="SY28" s="128"/>
-      <c r="SZ28" s="128"/>
-      <c r="TA28" s="128"/>
-      <c r="TB28" s="128"/>
-      <c r="TC28" s="128"/>
-      <c r="TD28" s="128"/>
-      <c r="TE28" s="128"/>
-      <c r="TF28" s="128"/>
-      <c r="TG28" s="128"/>
-      <c r="TH28" s="128"/>
-      <c r="TI28" s="128"/>
-      <c r="TJ28" s="128"/>
-      <c r="TK28" s="128"/>
-      <c r="TL28" s="128"/>
-      <c r="TM28" s="128"/>
-      <c r="TN28" s="128"/>
-      <c r="TO28" s="128"/>
-      <c r="TP28" s="128"/>
-      <c r="TQ28" s="128"/>
-      <c r="TR28" s="128"/>
-      <c r="TS28" s="128"/>
-      <c r="TT28" s="128"/>
-      <c r="TU28" s="128"/>
-      <c r="TV28" s="128"/>
-      <c r="TW28" s="128"/>
-      <c r="TX28" s="128"/>
-      <c r="TY28" s="128"/>
-      <c r="TZ28" s="128"/>
-      <c r="UA28" s="128"/>
-      <c r="UB28" s="128"/>
-      <c r="UC28" s="128"/>
-      <c r="UD28" s="128"/>
-      <c r="UE28" s="128"/>
-      <c r="UF28" s="128"/>
-      <c r="UG28" s="128"/>
-      <c r="UH28" s="128"/>
-      <c r="UI28" s="128"/>
-      <c r="UJ28" s="128"/>
-      <c r="UK28" s="128"/>
-      <c r="UL28" s="128"/>
-      <c r="UM28" s="128"/>
-      <c r="UN28" s="128"/>
-      <c r="UO28" s="128"/>
-      <c r="UP28" s="128"/>
-      <c r="UQ28" s="128"/>
-      <c r="UR28" s="128"/>
-      <c r="US28" s="128"/>
-      <c r="UT28" s="128"/>
-      <c r="UU28" s="128"/>
-      <c r="UV28" s="128"/>
-      <c r="UW28" s="128"/>
-      <c r="UX28" s="128"/>
-      <c r="UY28" s="128"/>
-      <c r="UZ28" s="128"/>
-      <c r="VA28" s="128"/>
-      <c r="VB28" s="128"/>
-      <c r="VC28" s="128"/>
-      <c r="VD28" s="128"/>
-      <c r="VE28" s="128"/>
-      <c r="VF28" s="128"/>
-      <c r="VG28" s="128"/>
-      <c r="VH28" s="128"/>
-      <c r="VI28" s="128"/>
-      <c r="VJ28" s="128"/>
-      <c r="VK28" s="128"/>
-      <c r="VL28" s="128"/>
-      <c r="VM28" s="128"/>
-      <c r="VN28" s="128"/>
-      <c r="VO28" s="128"/>
-      <c r="VP28" s="128"/>
-      <c r="VQ28" s="128"/>
-      <c r="VR28" s="128"/>
-      <c r="VS28" s="128"/>
-      <c r="VT28" s="128"/>
-      <c r="VU28" s="128"/>
-      <c r="VV28" s="128"/>
-      <c r="VW28" s="128"/>
-      <c r="VX28" s="128"/>
-      <c r="VY28" s="128"/>
-      <c r="VZ28" s="128"/>
-      <c r="WA28" s="128"/>
-      <c r="WB28" s="128"/>
-      <c r="WC28" s="128"/>
-      <c r="WD28" s="128"/>
-      <c r="WE28" s="128"/>
-      <c r="WF28" s="128"/>
-      <c r="WG28" s="128"/>
-      <c r="WH28" s="128"/>
-      <c r="WI28" s="128"/>
-      <c r="WJ28" s="128"/>
-      <c r="WK28" s="128"/>
-      <c r="WL28" s="128"/>
-      <c r="WM28" s="128"/>
-      <c r="WN28" s="128"/>
-      <c r="WO28" s="128"/>
-      <c r="WP28" s="128"/>
-      <c r="WQ28" s="128"/>
-      <c r="WR28" s="128"/>
-      <c r="WS28" s="128"/>
-      <c r="WT28" s="128"/>
-      <c r="WU28" s="128"/>
-      <c r="WV28" s="128"/>
-      <c r="WW28" s="128"/>
-      <c r="WX28" s="128"/>
-      <c r="WY28" s="128"/>
-      <c r="WZ28" s="128"/>
-      <c r="XA28" s="128"/>
-      <c r="XB28" s="128"/>
-      <c r="XC28" s="128"/>
-      <c r="XD28" s="128"/>
-      <c r="XE28" s="128"/>
-      <c r="XF28" s="128"/>
-      <c r="XG28" s="128"/>
-      <c r="XH28" s="128"/>
-      <c r="XI28" s="128"/>
-      <c r="XJ28" s="128"/>
-      <c r="XK28" s="128"/>
-      <c r="XL28" s="128"/>
-      <c r="XM28" s="128"/>
-      <c r="XN28" s="128"/>
-      <c r="XO28" s="128"/>
-      <c r="XP28" s="128"/>
-      <c r="XQ28" s="128"/>
-      <c r="XR28" s="128"/>
-      <c r="XS28" s="128"/>
-      <c r="XT28" s="128"/>
-      <c r="XU28" s="128"/>
-      <c r="XV28" s="128"/>
-      <c r="XW28" s="128"/>
-      <c r="XX28" s="128"/>
-      <c r="XY28" s="128"/>
-      <c r="XZ28" s="128"/>
-      <c r="YA28" s="128"/>
-      <c r="YB28" s="128"/>
-      <c r="YC28" s="128"/>
-      <c r="YD28" s="128"/>
-      <c r="YE28" s="128"/>
-      <c r="YF28" s="128"/>
-      <c r="YG28" s="128"/>
-      <c r="YH28" s="128"/>
-      <c r="YI28" s="128"/>
-      <c r="YJ28" s="128"/>
-      <c r="YK28" s="128"/>
-      <c r="YL28" s="128"/>
-      <c r="YM28" s="128"/>
-      <c r="YN28" s="128"/>
-      <c r="YO28" s="128"/>
-      <c r="YP28" s="128"/>
-      <c r="YQ28" s="128"/>
-      <c r="YR28" s="128"/>
-      <c r="YS28" s="128"/>
-      <c r="YT28" s="128"/>
-      <c r="YU28" s="128"/>
-      <c r="YV28" s="128"/>
-      <c r="YW28" s="128"/>
-      <c r="YX28" s="128"/>
-      <c r="YY28" s="128"/>
-      <c r="YZ28" s="128"/>
-      <c r="ZA28" s="128"/>
-      <c r="ZB28" s="128"/>
-      <c r="ZC28" s="128"/>
-      <c r="ZD28" s="128"/>
-      <c r="ZE28" s="128"/>
-      <c r="ZF28" s="128"/>
-      <c r="ZG28" s="128"/>
-      <c r="ZH28" s="128"/>
-      <c r="ZI28" s="128"/>
-      <c r="ZJ28" s="128"/>
-      <c r="ZK28" s="128"/>
-      <c r="ZL28" s="128"/>
-      <c r="ZM28" s="128"/>
-      <c r="ZN28" s="128"/>
-      <c r="ZO28" s="128"/>
-      <c r="ZP28" s="128"/>
-      <c r="ZQ28" s="128"/>
-      <c r="ZR28" s="128"/>
-      <c r="ZS28" s="128"/>
-      <c r="ZT28" s="128"/>
-      <c r="ZU28" s="128"/>
-      <c r="ZV28" s="128"/>
-      <c r="ZW28" s="128"/>
-      <c r="ZX28" s="128"/>
-      <c r="ZY28" s="128"/>
-      <c r="ZZ28" s="128"/>
-      <c r="AAA28" s="128"/>
-      <c r="AAB28" s="128"/>
-      <c r="AAC28" s="128"/>
-      <c r="AAD28" s="128"/>
-      <c r="AAE28" s="128"/>
-      <c r="AAF28" s="128"/>
-      <c r="AAG28" s="128"/>
-      <c r="AAH28" s="128"/>
-      <c r="AAI28" s="128"/>
-      <c r="AAJ28" s="128"/>
-      <c r="AAK28" s="128"/>
-      <c r="AAL28" s="128"/>
-      <c r="AAM28" s="128"/>
-      <c r="AAN28" s="128"/>
-      <c r="AAO28" s="128"/>
-      <c r="AAP28" s="128"/>
-      <c r="AAQ28" s="128"/>
-      <c r="AAR28" s="128"/>
-      <c r="AAS28" s="128"/>
-      <c r="AAT28" s="128"/>
-      <c r="AAU28" s="128"/>
-      <c r="AAV28" s="128"/>
-      <c r="AAW28" s="128"/>
-      <c r="AAX28" s="128"/>
-      <c r="AAY28" s="128"/>
-      <c r="AAZ28" s="128"/>
-      <c r="ABA28" s="128"/>
-      <c r="ABB28" s="128"/>
-      <c r="ABC28" s="128"/>
-      <c r="ABD28" s="128"/>
-      <c r="ABE28" s="128"/>
-      <c r="ABF28" s="128"/>
-      <c r="ABG28" s="128"/>
-      <c r="ABH28" s="128"/>
-      <c r="ABI28" s="128"/>
-      <c r="ABJ28" s="128"/>
-      <c r="ABK28" s="128"/>
-      <c r="ABL28" s="128"/>
-      <c r="ABM28" s="128"/>
-      <c r="ABN28" s="128"/>
-      <c r="ABO28" s="128"/>
-      <c r="ABP28" s="128"/>
-      <c r="ABQ28" s="128"/>
-      <c r="ABR28" s="128"/>
-      <c r="ABS28" s="128"/>
-      <c r="ABT28" s="128"/>
-      <c r="ABU28" s="128"/>
-      <c r="ABV28" s="128"/>
-      <c r="ABW28" s="128"/>
-      <c r="ABX28" s="128"/>
-      <c r="ABY28" s="128"/>
-      <c r="ABZ28" s="128"/>
-      <c r="ACA28" s="128"/>
-      <c r="ACB28" s="128"/>
-      <c r="ACC28" s="128"/>
-      <c r="ACD28" s="128"/>
-      <c r="ACE28" s="128"/>
-      <c r="ACF28" s="128"/>
-      <c r="ACG28" s="128"/>
-      <c r="ACH28" s="128"/>
-      <c r="ACI28" s="128"/>
-      <c r="ACJ28" s="128"/>
-      <c r="ACK28" s="128"/>
-      <c r="ACL28" s="128"/>
-      <c r="ACM28" s="128"/>
-      <c r="ACN28" s="128"/>
-      <c r="ACO28" s="128"/>
-      <c r="ACP28" s="128"/>
-      <c r="ACQ28" s="128"/>
-      <c r="ACR28" s="128"/>
-      <c r="ACS28" s="128"/>
-      <c r="ACT28" s="128"/>
-      <c r="ACU28" s="128"/>
-      <c r="ACV28" s="128"/>
-      <c r="ACW28" s="128"/>
-      <c r="ACX28" s="128"/>
-      <c r="ACY28" s="128"/>
-      <c r="ACZ28" s="128"/>
-      <c r="ADA28" s="128"/>
-      <c r="ADB28" s="128"/>
-      <c r="ADC28" s="128"/>
-      <c r="ADD28" s="128"/>
-      <c r="ADE28" s="128"/>
-      <c r="ADF28" s="128"/>
-      <c r="ADG28" s="128"/>
-      <c r="ADH28" s="128"/>
-      <c r="ADI28" s="128"/>
-      <c r="ADJ28" s="128"/>
-      <c r="ADK28" s="128"/>
-      <c r="ADL28" s="128"/>
-      <c r="ADM28" s="128"/>
-      <c r="ADN28" s="128"/>
-      <c r="ADO28" s="128"/>
-      <c r="ADP28" s="128"/>
-      <c r="ADQ28" s="128"/>
-      <c r="ADR28" s="128"/>
-      <c r="ADS28" s="128"/>
-      <c r="ADT28" s="128"/>
-      <c r="ADU28" s="128"/>
-      <c r="ADV28" s="128"/>
-      <c r="ADW28" s="128"/>
-      <c r="ADX28" s="128"/>
-      <c r="ADY28" s="128"/>
-      <c r="ADZ28" s="128"/>
-      <c r="AEA28" s="128"/>
-      <c r="AEB28" s="128"/>
-      <c r="AEC28" s="128"/>
-      <c r="AED28" s="128"/>
-      <c r="AEE28" s="128"/>
-      <c r="AEF28" s="128"/>
-      <c r="AEG28" s="128"/>
-      <c r="AEH28" s="128"/>
-      <c r="AEI28" s="128"/>
-      <c r="AEJ28" s="128"/>
-      <c r="AEK28" s="128"/>
-      <c r="AEL28" s="128"/>
-      <c r="AEM28" s="128"/>
-      <c r="AEN28" s="128"/>
-      <c r="AEO28" s="128"/>
-      <c r="AEP28" s="128"/>
-      <c r="AEQ28" s="128"/>
-      <c r="AER28" s="128"/>
-      <c r="AES28" s="128"/>
-      <c r="AET28" s="128"/>
-      <c r="AEU28" s="128"/>
-      <c r="AEV28" s="128"/>
-      <c r="AEW28" s="128"/>
-      <c r="AEX28" s="128"/>
-      <c r="AEY28" s="128"/>
-      <c r="AEZ28" s="128"/>
-      <c r="AFA28" s="128"/>
-      <c r="AFB28" s="128"/>
-      <c r="AFC28" s="128"/>
-      <c r="AFD28" s="128"/>
-      <c r="AFE28" s="128"/>
-      <c r="AFF28" s="128"/>
-      <c r="AFG28" s="128"/>
-      <c r="AFH28" s="128"/>
-      <c r="AFI28" s="128"/>
-      <c r="AFJ28" s="128"/>
-      <c r="AFK28" s="128"/>
-      <c r="AFL28" s="128"/>
-      <c r="AFM28" s="128"/>
-      <c r="AFN28" s="128"/>
-      <c r="AFO28" s="128"/>
-      <c r="AFP28" s="128"/>
-      <c r="AFQ28" s="128"/>
-      <c r="AFR28" s="128"/>
-      <c r="AFS28" s="128"/>
-      <c r="AFT28" s="128"/>
-      <c r="AFU28" s="128"/>
-      <c r="AFV28" s="128"/>
-      <c r="AFW28" s="128"/>
-      <c r="AFX28" s="128"/>
-      <c r="AFY28" s="128"/>
-      <c r="AFZ28" s="128"/>
-      <c r="AGA28" s="128"/>
-      <c r="AGB28" s="128"/>
-      <c r="AGC28" s="128"/>
-      <c r="AGD28" s="128"/>
-      <c r="AGE28" s="128"/>
-      <c r="AGF28" s="128"/>
-      <c r="AGG28" s="128"/>
-      <c r="AGH28" s="128"/>
-      <c r="AGI28" s="128"/>
-      <c r="AGJ28" s="128"/>
-      <c r="AGK28" s="128"/>
-      <c r="AGL28" s="128"/>
-      <c r="AGM28" s="128"/>
-      <c r="AGN28" s="128"/>
-      <c r="AGO28" s="128"/>
-      <c r="AGP28" s="128"/>
-      <c r="AGQ28" s="128"/>
-      <c r="AGR28" s="128"/>
-      <c r="AGS28" s="128"/>
-      <c r="AGT28" s="128"/>
-      <c r="AGU28" s="128"/>
-      <c r="AGV28" s="128"/>
-      <c r="AGW28" s="128"/>
-      <c r="AGX28" s="128"/>
-      <c r="AGY28" s="128"/>
-      <c r="AGZ28" s="128"/>
-      <c r="AHA28" s="128"/>
-      <c r="AHB28" s="128"/>
-      <c r="AHC28" s="128"/>
-      <c r="AHD28" s="128"/>
-      <c r="AHE28" s="128"/>
-      <c r="AHF28" s="128"/>
-      <c r="AHG28" s="128"/>
-      <c r="AHH28" s="128"/>
-      <c r="AHI28" s="128"/>
-      <c r="AHJ28" s="128"/>
-      <c r="AHK28" s="128"/>
-      <c r="AHL28" s="128"/>
-      <c r="AHM28" s="128"/>
-      <c r="AHN28" s="128"/>
-      <c r="AHO28" s="128"/>
-      <c r="AHP28" s="128"/>
-      <c r="AHQ28" s="128"/>
-      <c r="AHR28" s="128"/>
-      <c r="AHS28" s="128"/>
-      <c r="AHT28" s="128"/>
-      <c r="AHU28" s="128"/>
-      <c r="AHV28" s="128"/>
-      <c r="AHW28" s="128"/>
-      <c r="AHX28" s="128"/>
-      <c r="AHY28" s="128"/>
-      <c r="AHZ28" s="128"/>
-      <c r="AIA28" s="128"/>
-      <c r="AIB28" s="128"/>
-      <c r="AIC28" s="128"/>
-      <c r="AID28" s="128"/>
-      <c r="AIE28" s="128"/>
-      <c r="AIF28" s="128"/>
-      <c r="AIG28" s="128"/>
-      <c r="AIH28" s="128"/>
-      <c r="AII28" s="128"/>
-      <c r="AIJ28" s="128"/>
-      <c r="AIK28" s="128"/>
-      <c r="AIL28" s="128"/>
-      <c r="AIM28" s="128"/>
-      <c r="AIN28" s="128"/>
-      <c r="AIO28" s="128"/>
-      <c r="AIP28" s="128"/>
-      <c r="AIQ28" s="128"/>
-      <c r="AIR28" s="128"/>
-      <c r="AIS28" s="128"/>
-      <c r="AIT28" s="128"/>
-      <c r="AIU28" s="128"/>
-      <c r="AIV28" s="128"/>
-      <c r="AIW28" s="128"/>
-      <c r="AIX28" s="128"/>
-      <c r="AIY28" s="128"/>
-      <c r="AIZ28" s="128"/>
-      <c r="AJA28" s="128"/>
-      <c r="AJB28" s="128"/>
-      <c r="AJC28" s="128"/>
-      <c r="AJD28" s="128"/>
-      <c r="AJE28" s="128"/>
-      <c r="AJF28" s="128"/>
-      <c r="AJG28" s="128"/>
-      <c r="AJH28" s="128"/>
-      <c r="AJI28" s="128"/>
-      <c r="AJJ28" s="128"/>
-      <c r="AJK28" s="128"/>
-      <c r="AJL28" s="128"/>
-      <c r="AJM28" s="128"/>
-      <c r="AJN28" s="128"/>
-      <c r="AJO28" s="128"/>
-      <c r="AJP28" s="128"/>
-      <c r="AJQ28" s="128"/>
-      <c r="AJR28" s="128"/>
-      <c r="AJS28" s="128"/>
-      <c r="AJT28" s="128"/>
-      <c r="AJU28" s="128"/>
-      <c r="AJV28" s="128"/>
-      <c r="AJW28" s="128"/>
-      <c r="AJX28" s="128"/>
-      <c r="AJY28" s="128"/>
-      <c r="AJZ28" s="128"/>
-      <c r="AKA28" s="128"/>
-      <c r="AKB28" s="128"/>
-      <c r="AKC28" s="128"/>
-      <c r="AKD28" s="128"/>
-      <c r="AKE28" s="128"/>
-      <c r="AKF28" s="128"/>
-      <c r="AKG28" s="128"/>
-      <c r="AKH28" s="128"/>
-      <c r="AKI28" s="128"/>
-      <c r="AKJ28" s="128"/>
-      <c r="AKK28" s="128"/>
-      <c r="AKL28" s="128"/>
-      <c r="AKM28" s="128"/>
-      <c r="AKN28" s="128"/>
-      <c r="AKO28" s="128"/>
-      <c r="AKP28" s="128"/>
-      <c r="AKQ28" s="128"/>
-      <c r="AKR28" s="128"/>
-      <c r="AKS28" s="128"/>
-      <c r="AKT28" s="128"/>
-      <c r="AKU28" s="128"/>
-      <c r="AKV28" s="128"/>
-      <c r="AKW28" s="128"/>
-      <c r="AKX28" s="128"/>
-      <c r="AKY28" s="128"/>
-      <c r="AKZ28" s="128"/>
-      <c r="ALA28" s="128"/>
-      <c r="ALB28" s="128"/>
-      <c r="ALC28" s="128"/>
-      <c r="ALD28" s="128"/>
-      <c r="ALE28" s="128"/>
-      <c r="ALF28" s="128"/>
-      <c r="ALG28" s="128"/>
-      <c r="ALH28" s="128"/>
-      <c r="ALI28" s="128"/>
-      <c r="ALJ28" s="128"/>
-      <c r="ALK28" s="128"/>
-      <c r="ALL28" s="128"/>
-      <c r="ALM28" s="128"/>
-      <c r="ALN28" s="128"/>
-      <c r="ALO28" s="128"/>
-      <c r="ALP28" s="128"/>
-      <c r="ALQ28" s="128"/>
-      <c r="ALR28" s="128"/>
-      <c r="ALS28" s="128"/>
-      <c r="ALT28" s="128"/>
-      <c r="ALU28" s="128"/>
-      <c r="ALV28" s="128"/>
-      <c r="ALW28" s="128"/>
-      <c r="ALX28" s="128"/>
-      <c r="ALY28" s="128"/>
-      <c r="ALZ28" s="128"/>
-      <c r="AMA28" s="128"/>
-      <c r="AMB28" s="128"/>
-      <c r="AMC28" s="128"/>
-      <c r="AMD28" s="128"/>
-      <c r="AME28" s="128"/>
-      <c r="AMF28" s="128"/>
-      <c r="AMG28" s="128"/>
-      <c r="AMH28" s="128"/>
-      <c r="AMI28" s="128"/>
-      <c r="AMJ28" s="128"/>
-      <c r="AMK28" s="128"/>
-      <c r="AML28" s="128"/>
-      <c r="AMM28" s="128"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="123"/>
+      <c r="W28" s="123"/>
+      <c r="X28" s="123"/>
+      <c r="Y28" s="123"/>
+      <c r="Z28" s="123"/>
+      <c r="AA28" s="123"/>
+      <c r="AB28" s="123"/>
+      <c r="AC28" s="123"/>
+      <c r="AD28" s="123"/>
+      <c r="AE28" s="123"/>
+      <c r="AF28" s="123"/>
+      <c r="AG28" s="123"/>
+      <c r="AH28" s="123"/>
+      <c r="AI28" s="123"/>
+      <c r="AJ28" s="123"/>
+      <c r="AK28" s="123"/>
+      <c r="AL28" s="123"/>
+      <c r="AM28" s="123"/>
+      <c r="AN28" s="123"/>
+      <c r="AO28" s="123"/>
+      <c r="AP28" s="123"/>
+      <c r="AQ28" s="123"/>
+      <c r="AR28" s="123"/>
+      <c r="AS28" s="123"/>
+      <c r="AT28" s="123"/>
+      <c r="AU28" s="123"/>
+      <c r="AV28" s="123"/>
+      <c r="AW28" s="123"/>
+      <c r="AX28" s="123"/>
+      <c r="AY28" s="123"/>
+      <c r="AZ28" s="123"/>
+      <c r="BA28" s="123"/>
+      <c r="BB28" s="123"/>
+      <c r="BC28" s="123"/>
+      <c r="BD28" s="123"/>
+      <c r="BE28" s="123"/>
+      <c r="BF28" s="123"/>
+      <c r="BG28" s="123"/>
+      <c r="BH28" s="123"/>
+      <c r="BI28" s="123"/>
+      <c r="BJ28" s="123"/>
+      <c r="BK28" s="123"/>
+      <c r="BL28" s="123"/>
+      <c r="BM28" s="123"/>
+      <c r="BN28" s="123"/>
+      <c r="BO28" s="123"/>
+      <c r="BP28" s="123"/>
+      <c r="BQ28" s="123"/>
+      <c r="BR28" s="123"/>
+      <c r="BS28" s="123"/>
+      <c r="BT28" s="123"/>
+      <c r="BU28" s="123"/>
+      <c r="BV28" s="123"/>
+      <c r="BW28" s="123"/>
+      <c r="BX28" s="123"/>
+      <c r="BY28" s="123"/>
+      <c r="BZ28" s="123"/>
+      <c r="CA28" s="123"/>
+      <c r="CB28" s="123"/>
+      <c r="CC28" s="123"/>
+      <c r="CD28" s="123"/>
+      <c r="CE28" s="123"/>
+      <c r="CF28" s="123"/>
+      <c r="CG28" s="123"/>
+      <c r="CH28" s="123"/>
+      <c r="CI28" s="123"/>
+      <c r="CJ28" s="123"/>
+      <c r="CK28" s="123"/>
+      <c r="CL28" s="123"/>
+      <c r="CM28" s="123"/>
+      <c r="CN28" s="123"/>
+      <c r="CO28" s="123"/>
+      <c r="CP28" s="123"/>
+      <c r="CQ28" s="123"/>
+      <c r="CR28" s="123"/>
+      <c r="CS28" s="123"/>
+      <c r="CT28" s="123"/>
+      <c r="CU28" s="123"/>
+      <c r="CV28" s="123"/>
+      <c r="CW28" s="123"/>
+      <c r="CX28" s="123"/>
+      <c r="CY28" s="123"/>
+      <c r="CZ28" s="123"/>
+      <c r="DA28" s="123"/>
+      <c r="DB28" s="123"/>
+      <c r="DC28" s="123"/>
+      <c r="DD28" s="123"/>
+      <c r="DE28" s="123"/>
+      <c r="DF28" s="123"/>
+      <c r="DG28" s="123"/>
+      <c r="DH28" s="123"/>
+      <c r="DI28" s="123"/>
+      <c r="DJ28" s="123"/>
+      <c r="DK28" s="123"/>
+      <c r="DL28" s="123"/>
+      <c r="DM28" s="123"/>
+      <c r="DN28" s="123"/>
+      <c r="DO28" s="123"/>
+      <c r="DP28" s="123"/>
+      <c r="DQ28" s="123"/>
+      <c r="DR28" s="123"/>
+      <c r="DS28" s="123"/>
+      <c r="DT28" s="123"/>
+      <c r="DU28" s="123"/>
+      <c r="DV28" s="123"/>
+      <c r="DW28" s="123"/>
+      <c r="DX28" s="123"/>
+      <c r="DY28" s="123"/>
+      <c r="DZ28" s="123"/>
+      <c r="EA28" s="123"/>
+      <c r="EB28" s="123"/>
+      <c r="EC28" s="123"/>
+      <c r="ED28" s="123"/>
+      <c r="EE28" s="123"/>
+      <c r="EF28" s="123"/>
+      <c r="EG28" s="123"/>
+      <c r="EH28" s="123"/>
+      <c r="EI28" s="123"/>
+      <c r="EJ28" s="123"/>
+      <c r="EK28" s="123"/>
+      <c r="EL28" s="123"/>
+      <c r="EM28" s="123"/>
+      <c r="EN28" s="123"/>
+      <c r="EO28" s="123"/>
+      <c r="EP28" s="123"/>
+      <c r="EQ28" s="123"/>
+      <c r="ER28" s="123"/>
+      <c r="ES28" s="123"/>
+      <c r="ET28" s="123"/>
+      <c r="EU28" s="123"/>
+      <c r="EV28" s="123"/>
+      <c r="EW28" s="123"/>
+      <c r="EX28" s="123"/>
+      <c r="EY28" s="123"/>
+      <c r="EZ28" s="123"/>
+      <c r="FA28" s="123"/>
+      <c r="FB28" s="123"/>
+      <c r="FC28" s="123"/>
+      <c r="FD28" s="123"/>
+      <c r="FE28" s="123"/>
+      <c r="FF28" s="123"/>
+      <c r="FG28" s="123"/>
+      <c r="FH28" s="123"/>
+      <c r="FI28" s="123"/>
+      <c r="FJ28" s="123"/>
+      <c r="FK28" s="123"/>
+      <c r="FL28" s="123"/>
+      <c r="FM28" s="123"/>
+      <c r="FN28" s="123"/>
+      <c r="FO28" s="123"/>
+      <c r="FP28" s="123"/>
+      <c r="FQ28" s="123"/>
+      <c r="FR28" s="123"/>
+      <c r="FS28" s="123"/>
+      <c r="FT28" s="123"/>
+      <c r="FU28" s="123"/>
+      <c r="FV28" s="123"/>
+      <c r="FW28" s="123"/>
+      <c r="FX28" s="123"/>
+      <c r="FY28" s="123"/>
+      <c r="FZ28" s="123"/>
+      <c r="GA28" s="123"/>
+      <c r="GB28" s="123"/>
+      <c r="GC28" s="123"/>
+      <c r="GD28" s="123"/>
+      <c r="GE28" s="123"/>
+      <c r="GF28" s="123"/>
+      <c r="GG28" s="123"/>
+      <c r="GH28" s="123"/>
+      <c r="GI28" s="123"/>
+      <c r="GJ28" s="123"/>
+      <c r="GK28" s="123"/>
+      <c r="GL28" s="123"/>
+      <c r="GM28" s="123"/>
+      <c r="GN28" s="123"/>
+      <c r="GO28" s="123"/>
+      <c r="GP28" s="123"/>
+      <c r="GQ28" s="123"/>
+      <c r="GR28" s="123"/>
+      <c r="GS28" s="123"/>
+      <c r="GT28" s="123"/>
+      <c r="GU28" s="123"/>
+      <c r="GV28" s="123"/>
+      <c r="GW28" s="123"/>
+      <c r="GX28" s="123"/>
+      <c r="GY28" s="123"/>
+      <c r="GZ28" s="123"/>
+      <c r="HA28" s="123"/>
+      <c r="HB28" s="123"/>
+      <c r="HC28" s="123"/>
+      <c r="HD28" s="123"/>
+      <c r="HE28" s="123"/>
+      <c r="HF28" s="123"/>
+      <c r="HG28" s="123"/>
+      <c r="HH28" s="123"/>
+      <c r="HI28" s="123"/>
+      <c r="HJ28" s="123"/>
+      <c r="HK28" s="123"/>
+      <c r="HL28" s="123"/>
+      <c r="HM28" s="123"/>
+      <c r="HN28" s="123"/>
+      <c r="HO28" s="123"/>
+      <c r="HP28" s="123"/>
+      <c r="HQ28" s="123"/>
+      <c r="HR28" s="123"/>
+      <c r="HS28" s="123"/>
+      <c r="HT28" s="123"/>
+      <c r="HU28" s="123"/>
+      <c r="HV28" s="123"/>
+      <c r="HW28" s="123"/>
+      <c r="HX28" s="123"/>
+      <c r="HY28" s="123"/>
+      <c r="HZ28" s="123"/>
+      <c r="IA28" s="123"/>
+      <c r="IB28" s="123"/>
+      <c r="IC28" s="123"/>
+      <c r="ID28" s="123"/>
+      <c r="IE28" s="123"/>
+      <c r="IF28" s="123"/>
+      <c r="IG28" s="123"/>
+      <c r="IH28" s="123"/>
+      <c r="II28" s="123"/>
+      <c r="IJ28" s="123"/>
+      <c r="IK28" s="123"/>
+      <c r="IL28" s="123"/>
+      <c r="IM28" s="123"/>
+      <c r="IN28" s="123"/>
+      <c r="IO28" s="123"/>
+      <c r="IP28" s="123"/>
+      <c r="IQ28" s="123"/>
+      <c r="IR28" s="123"/>
+      <c r="IS28" s="123"/>
+      <c r="IT28" s="123"/>
+      <c r="IU28" s="123"/>
+      <c r="IV28" s="123"/>
+      <c r="IW28" s="123"/>
+      <c r="IX28" s="123"/>
+      <c r="IY28" s="123"/>
+      <c r="IZ28" s="123"/>
+      <c r="JA28" s="123"/>
+      <c r="JB28" s="123"/>
+      <c r="JC28" s="123"/>
+      <c r="JD28" s="123"/>
+      <c r="JE28" s="123"/>
+      <c r="JF28" s="123"/>
+      <c r="JG28" s="123"/>
+      <c r="JH28" s="123"/>
+      <c r="JI28" s="123"/>
+      <c r="JJ28" s="123"/>
+      <c r="JK28" s="123"/>
+      <c r="JL28" s="123"/>
+      <c r="JM28" s="123"/>
+      <c r="JN28" s="123"/>
+      <c r="JO28" s="123"/>
+      <c r="JP28" s="123"/>
+      <c r="JQ28" s="123"/>
+      <c r="JR28" s="123"/>
+      <c r="JS28" s="123"/>
+      <c r="JT28" s="123"/>
+      <c r="JU28" s="123"/>
+      <c r="JV28" s="123"/>
+      <c r="JW28" s="123"/>
+      <c r="JX28" s="123"/>
+      <c r="JY28" s="123"/>
+      <c r="JZ28" s="123"/>
+      <c r="KA28" s="123"/>
+      <c r="KB28" s="123"/>
+      <c r="KC28" s="123"/>
+      <c r="KD28" s="123"/>
+      <c r="KE28" s="123"/>
+      <c r="KF28" s="123"/>
+      <c r="KG28" s="123"/>
+      <c r="KH28" s="123"/>
+      <c r="KI28" s="123"/>
+      <c r="KJ28" s="123"/>
+      <c r="KK28" s="123"/>
+      <c r="KL28" s="123"/>
+      <c r="KM28" s="123"/>
+      <c r="KN28" s="123"/>
+      <c r="KO28" s="123"/>
+      <c r="KP28" s="123"/>
+      <c r="KQ28" s="123"/>
+      <c r="KR28" s="123"/>
+      <c r="KS28" s="123"/>
+      <c r="KT28" s="123"/>
+      <c r="KU28" s="123"/>
+      <c r="KV28" s="123"/>
+      <c r="KW28" s="123"/>
+      <c r="KX28" s="123"/>
+      <c r="KY28" s="123"/>
+      <c r="KZ28" s="123"/>
+      <c r="LA28" s="123"/>
+      <c r="LB28" s="123"/>
+      <c r="LC28" s="123"/>
+      <c r="LD28" s="123"/>
+      <c r="LE28" s="123"/>
+      <c r="LF28" s="123"/>
+      <c r="LG28" s="123"/>
+      <c r="LH28" s="123"/>
+      <c r="LI28" s="123"/>
+      <c r="LJ28" s="123"/>
+      <c r="LK28" s="123"/>
+      <c r="LL28" s="123"/>
+      <c r="LM28" s="123"/>
+      <c r="LN28" s="123"/>
+      <c r="LO28" s="123"/>
+      <c r="LP28" s="123"/>
+      <c r="LQ28" s="123"/>
+      <c r="LR28" s="123"/>
+      <c r="LS28" s="123"/>
+      <c r="LT28" s="123"/>
+      <c r="LU28" s="123"/>
+      <c r="LV28" s="123"/>
+      <c r="LW28" s="123"/>
+      <c r="LX28" s="123"/>
+      <c r="LY28" s="123"/>
+      <c r="LZ28" s="123"/>
+      <c r="MA28" s="123"/>
+      <c r="MB28" s="123"/>
+      <c r="MC28" s="123"/>
+      <c r="MD28" s="123"/>
+      <c r="ME28" s="123"/>
+      <c r="MF28" s="123"/>
+      <c r="MG28" s="123"/>
+      <c r="MH28" s="123"/>
+      <c r="MI28" s="123"/>
+      <c r="MJ28" s="123"/>
+      <c r="MK28" s="123"/>
+      <c r="ML28" s="123"/>
+      <c r="MM28" s="123"/>
+      <c r="MN28" s="123"/>
+      <c r="MO28" s="123"/>
+      <c r="MP28" s="123"/>
+      <c r="MQ28" s="123"/>
+      <c r="MR28" s="123"/>
+      <c r="MS28" s="123"/>
+      <c r="MT28" s="123"/>
+      <c r="MU28" s="123"/>
+      <c r="MV28" s="123"/>
+      <c r="MW28" s="123"/>
+      <c r="MX28" s="123"/>
+      <c r="MY28" s="123"/>
+      <c r="MZ28" s="123"/>
+      <c r="NA28" s="123"/>
+      <c r="NB28" s="123"/>
+      <c r="NC28" s="123"/>
+      <c r="ND28" s="123"/>
+      <c r="NE28" s="123"/>
+      <c r="NF28" s="123"/>
+      <c r="NG28" s="123"/>
+      <c r="NH28" s="123"/>
+      <c r="NI28" s="123"/>
+      <c r="NJ28" s="123"/>
+      <c r="NK28" s="123"/>
+      <c r="NL28" s="123"/>
+      <c r="NM28" s="123"/>
+      <c r="NN28" s="123"/>
+      <c r="NO28" s="123"/>
+      <c r="NP28" s="123"/>
+      <c r="NQ28" s="123"/>
+      <c r="NR28" s="123"/>
+      <c r="NS28" s="123"/>
+      <c r="NT28" s="123"/>
+      <c r="NU28" s="123"/>
+      <c r="NV28" s="123"/>
+      <c r="NW28" s="123"/>
+      <c r="NX28" s="123"/>
+      <c r="NY28" s="123"/>
+      <c r="NZ28" s="123"/>
+      <c r="OA28" s="123"/>
+      <c r="OB28" s="123"/>
+      <c r="OC28" s="123"/>
+      <c r="OD28" s="123"/>
+      <c r="OE28" s="123"/>
+      <c r="OF28" s="123"/>
+      <c r="OG28" s="123"/>
+      <c r="OH28" s="123"/>
+      <c r="OI28" s="123"/>
+      <c r="OJ28" s="123"/>
+      <c r="OK28" s="123"/>
+      <c r="OL28" s="123"/>
+      <c r="OM28" s="123"/>
+      <c r="ON28" s="123"/>
+      <c r="OO28" s="123"/>
+      <c r="OP28" s="123"/>
+      <c r="OQ28" s="123"/>
+      <c r="OR28" s="123"/>
+      <c r="OS28" s="123"/>
+      <c r="OT28" s="123"/>
+      <c r="OU28" s="123"/>
+      <c r="OV28" s="123"/>
+      <c r="OW28" s="123"/>
+      <c r="OX28" s="123"/>
+      <c r="OY28" s="123"/>
+      <c r="OZ28" s="123"/>
+      <c r="PA28" s="123"/>
+      <c r="PB28" s="123"/>
+      <c r="PC28" s="123"/>
+      <c r="PD28" s="123"/>
+      <c r="PE28" s="123"/>
+      <c r="PF28" s="123"/>
+      <c r="PG28" s="123"/>
+      <c r="PH28" s="123"/>
+      <c r="PI28" s="123"/>
+      <c r="PJ28" s="123"/>
+      <c r="PK28" s="123"/>
+      <c r="PL28" s="123"/>
+      <c r="PM28" s="123"/>
+      <c r="PN28" s="123"/>
+      <c r="PO28" s="123"/>
+      <c r="PP28" s="123"/>
+      <c r="PQ28" s="123"/>
+      <c r="PR28" s="123"/>
+      <c r="PS28" s="123"/>
+      <c r="PT28" s="123"/>
+      <c r="PU28" s="123"/>
+      <c r="PV28" s="123"/>
+      <c r="PW28" s="123"/>
+      <c r="PX28" s="123"/>
+      <c r="PY28" s="123"/>
+      <c r="PZ28" s="123"/>
+      <c r="QA28" s="123"/>
+      <c r="QB28" s="123"/>
+      <c r="QC28" s="123"/>
+      <c r="QD28" s="123"/>
+      <c r="QE28" s="123"/>
+      <c r="QF28" s="123"/>
+      <c r="QG28" s="123"/>
+      <c r="QH28" s="123"/>
+      <c r="QI28" s="123"/>
+      <c r="QJ28" s="123"/>
+      <c r="QK28" s="123"/>
+      <c r="QL28" s="123"/>
+      <c r="QM28" s="123"/>
+      <c r="QN28" s="123"/>
+      <c r="QO28" s="123"/>
+      <c r="QP28" s="123"/>
+      <c r="QQ28" s="123"/>
+      <c r="QR28" s="123"/>
+      <c r="QS28" s="123"/>
+      <c r="QT28" s="123"/>
+      <c r="QU28" s="123"/>
+      <c r="QV28" s="123"/>
+      <c r="QW28" s="123"/>
+      <c r="QX28" s="123"/>
+      <c r="QY28" s="123"/>
+      <c r="QZ28" s="123"/>
+      <c r="RA28" s="123"/>
+      <c r="RB28" s="123"/>
+      <c r="RC28" s="123"/>
+      <c r="RD28" s="123"/>
+      <c r="RE28" s="123"/>
+      <c r="RF28" s="123"/>
+      <c r="RG28" s="123"/>
+      <c r="RH28" s="123"/>
+      <c r="RI28" s="123"/>
+      <c r="RJ28" s="123"/>
+      <c r="RK28" s="123"/>
+      <c r="RL28" s="123"/>
+      <c r="RM28" s="123"/>
+      <c r="RN28" s="123"/>
+      <c r="RO28" s="123"/>
+      <c r="RP28" s="123"/>
+      <c r="RQ28" s="123"/>
+      <c r="RR28" s="123"/>
+      <c r="RS28" s="123"/>
+      <c r="RT28" s="123"/>
+      <c r="RU28" s="123"/>
+      <c r="RV28" s="123"/>
+      <c r="RW28" s="123"/>
+      <c r="RX28" s="123"/>
+      <c r="RY28" s="123"/>
+      <c r="RZ28" s="123"/>
+      <c r="SA28" s="123"/>
+      <c r="SB28" s="123"/>
+      <c r="SC28" s="123"/>
+      <c r="SD28" s="123"/>
+      <c r="SE28" s="123"/>
+      <c r="SF28" s="123"/>
+      <c r="SG28" s="123"/>
+      <c r="SH28" s="123"/>
+      <c r="SI28" s="123"/>
+      <c r="SJ28" s="123"/>
+      <c r="SK28" s="123"/>
+      <c r="SL28" s="123"/>
+      <c r="SM28" s="123"/>
+      <c r="SN28" s="123"/>
+      <c r="SO28" s="123"/>
+      <c r="SP28" s="123"/>
+      <c r="SQ28" s="123"/>
+      <c r="SR28" s="123"/>
+      <c r="SS28" s="123"/>
+      <c r="ST28" s="123"/>
+      <c r="SU28" s="123"/>
+      <c r="SV28" s="123"/>
+      <c r="SW28" s="123"/>
+      <c r="SX28" s="123"/>
+      <c r="SY28" s="123"/>
+      <c r="SZ28" s="123"/>
+      <c r="TA28" s="123"/>
+      <c r="TB28" s="123"/>
+      <c r="TC28" s="123"/>
+      <c r="TD28" s="123"/>
+      <c r="TE28" s="123"/>
+      <c r="TF28" s="123"/>
+      <c r="TG28" s="123"/>
+      <c r="TH28" s="123"/>
+      <c r="TI28" s="123"/>
+      <c r="TJ28" s="123"/>
+      <c r="TK28" s="123"/>
+      <c r="TL28" s="123"/>
+      <c r="TM28" s="123"/>
+      <c r="TN28" s="123"/>
+      <c r="TO28" s="123"/>
+      <c r="TP28" s="123"/>
+      <c r="TQ28" s="123"/>
+      <c r="TR28" s="123"/>
+      <c r="TS28" s="123"/>
+      <c r="TT28" s="123"/>
+      <c r="TU28" s="123"/>
+      <c r="TV28" s="123"/>
+      <c r="TW28" s="123"/>
+      <c r="TX28" s="123"/>
+      <c r="TY28" s="123"/>
+      <c r="TZ28" s="123"/>
+      <c r="UA28" s="123"/>
+      <c r="UB28" s="123"/>
+      <c r="UC28" s="123"/>
+      <c r="UD28" s="123"/>
+      <c r="UE28" s="123"/>
+      <c r="UF28" s="123"/>
+      <c r="UG28" s="123"/>
+      <c r="UH28" s="123"/>
+      <c r="UI28" s="123"/>
+      <c r="UJ28" s="123"/>
+      <c r="UK28" s="123"/>
+      <c r="UL28" s="123"/>
+      <c r="UM28" s="123"/>
+      <c r="UN28" s="123"/>
+      <c r="UO28" s="123"/>
+      <c r="UP28" s="123"/>
+      <c r="UQ28" s="123"/>
+      <c r="UR28" s="123"/>
+      <c r="US28" s="123"/>
+      <c r="UT28" s="123"/>
+      <c r="UU28" s="123"/>
+      <c r="UV28" s="123"/>
+      <c r="UW28" s="123"/>
+      <c r="UX28" s="123"/>
+      <c r="UY28" s="123"/>
+      <c r="UZ28" s="123"/>
+      <c r="VA28" s="123"/>
+      <c r="VB28" s="123"/>
+      <c r="VC28" s="123"/>
+      <c r="VD28" s="123"/>
+      <c r="VE28" s="123"/>
+      <c r="VF28" s="123"/>
+      <c r="VG28" s="123"/>
+      <c r="VH28" s="123"/>
+      <c r="VI28" s="123"/>
+      <c r="VJ28" s="123"/>
+      <c r="VK28" s="123"/>
+      <c r="VL28" s="123"/>
+      <c r="VM28" s="123"/>
+      <c r="VN28" s="123"/>
+      <c r="VO28" s="123"/>
+      <c r="VP28" s="123"/>
+      <c r="VQ28" s="123"/>
+      <c r="VR28" s="123"/>
+      <c r="VS28" s="123"/>
+      <c r="VT28" s="123"/>
+      <c r="VU28" s="123"/>
+      <c r="VV28" s="123"/>
+      <c r="VW28" s="123"/>
+      <c r="VX28" s="123"/>
+      <c r="VY28" s="123"/>
+      <c r="VZ28" s="123"/>
+      <c r="WA28" s="123"/>
+      <c r="WB28" s="123"/>
+      <c r="WC28" s="123"/>
+      <c r="WD28" s="123"/>
+      <c r="WE28" s="123"/>
+      <c r="WF28" s="123"/>
+      <c r="WG28" s="123"/>
+      <c r="WH28" s="123"/>
+      <c r="WI28" s="123"/>
+      <c r="WJ28" s="123"/>
+      <c r="WK28" s="123"/>
+      <c r="WL28" s="123"/>
+      <c r="WM28" s="123"/>
+      <c r="WN28" s="123"/>
+      <c r="WO28" s="123"/>
+      <c r="WP28" s="123"/>
+      <c r="WQ28" s="123"/>
+      <c r="WR28" s="123"/>
+      <c r="WS28" s="123"/>
+      <c r="WT28" s="123"/>
+      <c r="WU28" s="123"/>
+      <c r="WV28" s="123"/>
+      <c r="WW28" s="123"/>
+      <c r="WX28" s="123"/>
+      <c r="WY28" s="123"/>
+      <c r="WZ28" s="123"/>
+      <c r="XA28" s="123"/>
+      <c r="XB28" s="123"/>
+      <c r="XC28" s="123"/>
+      <c r="XD28" s="123"/>
+      <c r="XE28" s="123"/>
+      <c r="XF28" s="123"/>
+      <c r="XG28" s="123"/>
+      <c r="XH28" s="123"/>
+      <c r="XI28" s="123"/>
+      <c r="XJ28" s="123"/>
+      <c r="XK28" s="123"/>
+      <c r="XL28" s="123"/>
+      <c r="XM28" s="123"/>
+      <c r="XN28" s="123"/>
+      <c r="XO28" s="123"/>
+      <c r="XP28" s="123"/>
+      <c r="XQ28" s="123"/>
+      <c r="XR28" s="123"/>
+      <c r="XS28" s="123"/>
+      <c r="XT28" s="123"/>
+      <c r="XU28" s="123"/>
+      <c r="XV28" s="123"/>
+      <c r="XW28" s="123"/>
+      <c r="XX28" s="123"/>
+      <c r="XY28" s="123"/>
+      <c r="XZ28" s="123"/>
+      <c r="YA28" s="123"/>
+      <c r="YB28" s="123"/>
+      <c r="YC28" s="123"/>
+      <c r="YD28" s="123"/>
+      <c r="YE28" s="123"/>
+      <c r="YF28" s="123"/>
+      <c r="YG28" s="123"/>
+      <c r="YH28" s="123"/>
+      <c r="YI28" s="123"/>
+      <c r="YJ28" s="123"/>
+      <c r="YK28" s="123"/>
+      <c r="YL28" s="123"/>
+      <c r="YM28" s="123"/>
+      <c r="YN28" s="123"/>
+      <c r="YO28" s="123"/>
+      <c r="YP28" s="123"/>
+      <c r="YQ28" s="123"/>
+      <c r="YR28" s="123"/>
+      <c r="YS28" s="123"/>
+      <c r="YT28" s="123"/>
+      <c r="YU28" s="123"/>
+      <c r="YV28" s="123"/>
+      <c r="YW28" s="123"/>
+      <c r="YX28" s="123"/>
+      <c r="YY28" s="123"/>
+      <c r="YZ28" s="123"/>
+      <c r="ZA28" s="123"/>
+      <c r="ZB28" s="123"/>
+      <c r="ZC28" s="123"/>
+      <c r="ZD28" s="123"/>
+      <c r="ZE28" s="123"/>
+      <c r="ZF28" s="123"/>
+      <c r="ZG28" s="123"/>
+      <c r="ZH28" s="123"/>
+      <c r="ZI28" s="123"/>
+      <c r="ZJ28" s="123"/>
+      <c r="ZK28" s="123"/>
+      <c r="ZL28" s="123"/>
+      <c r="ZM28" s="123"/>
+      <c r="ZN28" s="123"/>
+      <c r="ZO28" s="123"/>
+      <c r="ZP28" s="123"/>
+      <c r="ZQ28" s="123"/>
+      <c r="ZR28" s="123"/>
+      <c r="ZS28" s="123"/>
+      <c r="ZT28" s="123"/>
+      <c r="ZU28" s="123"/>
+      <c r="ZV28" s="123"/>
+      <c r="ZW28" s="123"/>
+      <c r="ZX28" s="123"/>
+      <c r="ZY28" s="123"/>
+      <c r="ZZ28" s="123"/>
+      <c r="AAA28" s="123"/>
+      <c r="AAB28" s="123"/>
+      <c r="AAC28" s="123"/>
+      <c r="AAD28" s="123"/>
+      <c r="AAE28" s="123"/>
+      <c r="AAF28" s="123"/>
+      <c r="AAG28" s="123"/>
+      <c r="AAH28" s="123"/>
+      <c r="AAI28" s="123"/>
+      <c r="AAJ28" s="123"/>
+      <c r="AAK28" s="123"/>
+      <c r="AAL28" s="123"/>
+      <c r="AAM28" s="123"/>
+      <c r="AAN28" s="123"/>
+      <c r="AAO28" s="123"/>
+      <c r="AAP28" s="123"/>
+      <c r="AAQ28" s="123"/>
+      <c r="AAR28" s="123"/>
+      <c r="AAS28" s="123"/>
+      <c r="AAT28" s="123"/>
+      <c r="AAU28" s="123"/>
+      <c r="AAV28" s="123"/>
+      <c r="AAW28" s="123"/>
+      <c r="AAX28" s="123"/>
+      <c r="AAY28" s="123"/>
+      <c r="AAZ28" s="123"/>
+      <c r="ABA28" s="123"/>
+      <c r="ABB28" s="123"/>
+      <c r="ABC28" s="123"/>
+      <c r="ABD28" s="123"/>
+      <c r="ABE28" s="123"/>
+      <c r="ABF28" s="123"/>
+      <c r="ABG28" s="123"/>
+      <c r="ABH28" s="123"/>
+      <c r="ABI28" s="123"/>
+      <c r="ABJ28" s="123"/>
+      <c r="ABK28" s="123"/>
+      <c r="ABL28" s="123"/>
+      <c r="ABM28" s="123"/>
+      <c r="ABN28" s="123"/>
+      <c r="ABO28" s="123"/>
+      <c r="ABP28" s="123"/>
+      <c r="ABQ28" s="123"/>
+      <c r="ABR28" s="123"/>
+      <c r="ABS28" s="123"/>
+      <c r="ABT28" s="123"/>
+      <c r="ABU28" s="123"/>
+      <c r="ABV28" s="123"/>
+      <c r="ABW28" s="123"/>
+      <c r="ABX28" s="123"/>
+      <c r="ABY28" s="123"/>
+      <c r="ABZ28" s="123"/>
+      <c r="ACA28" s="123"/>
+      <c r="ACB28" s="123"/>
+      <c r="ACC28" s="123"/>
+      <c r="ACD28" s="123"/>
+      <c r="ACE28" s="123"/>
+      <c r="ACF28" s="123"/>
+      <c r="ACG28" s="123"/>
+      <c r="ACH28" s="123"/>
+      <c r="ACI28" s="123"/>
+      <c r="ACJ28" s="123"/>
+      <c r="ACK28" s="123"/>
+      <c r="ACL28" s="123"/>
+      <c r="ACM28" s="123"/>
+      <c r="ACN28" s="123"/>
+      <c r="ACO28" s="123"/>
+      <c r="ACP28" s="123"/>
+      <c r="ACQ28" s="123"/>
+      <c r="ACR28" s="123"/>
+      <c r="ACS28" s="123"/>
+      <c r="ACT28" s="123"/>
+      <c r="ACU28" s="123"/>
+      <c r="ACV28" s="123"/>
+      <c r="ACW28" s="123"/>
+      <c r="ACX28" s="123"/>
+      <c r="ACY28" s="123"/>
+      <c r="ACZ28" s="123"/>
+      <c r="ADA28" s="123"/>
+      <c r="ADB28" s="123"/>
+      <c r="ADC28" s="123"/>
+      <c r="ADD28" s="123"/>
+      <c r="ADE28" s="123"/>
+      <c r="ADF28" s="123"/>
+      <c r="ADG28" s="123"/>
+      <c r="ADH28" s="123"/>
+      <c r="ADI28" s="123"/>
+      <c r="ADJ28" s="123"/>
+      <c r="ADK28" s="123"/>
+      <c r="ADL28" s="123"/>
+      <c r="ADM28" s="123"/>
+      <c r="ADN28" s="123"/>
+      <c r="ADO28" s="123"/>
+      <c r="ADP28" s="123"/>
+      <c r="ADQ28" s="123"/>
+      <c r="ADR28" s="123"/>
+      <c r="ADS28" s="123"/>
+      <c r="ADT28" s="123"/>
+      <c r="ADU28" s="123"/>
+      <c r="ADV28" s="123"/>
+      <c r="ADW28" s="123"/>
+      <c r="ADX28" s="123"/>
+      <c r="ADY28" s="123"/>
+      <c r="ADZ28" s="123"/>
+      <c r="AEA28" s="123"/>
+      <c r="AEB28" s="123"/>
+      <c r="AEC28" s="123"/>
+      <c r="AED28" s="123"/>
+      <c r="AEE28" s="123"/>
+      <c r="AEF28" s="123"/>
+      <c r="AEG28" s="123"/>
+      <c r="AEH28" s="123"/>
+      <c r="AEI28" s="123"/>
+      <c r="AEJ28" s="123"/>
+      <c r="AEK28" s="123"/>
+      <c r="AEL28" s="123"/>
+      <c r="AEM28" s="123"/>
+      <c r="AEN28" s="123"/>
+      <c r="AEO28" s="123"/>
+      <c r="AEP28" s="123"/>
+      <c r="AEQ28" s="123"/>
+      <c r="AER28" s="123"/>
+      <c r="AES28" s="123"/>
+      <c r="AET28" s="123"/>
+      <c r="AEU28" s="123"/>
+      <c r="AEV28" s="123"/>
+      <c r="AEW28" s="123"/>
+      <c r="AEX28" s="123"/>
+      <c r="AEY28" s="123"/>
+      <c r="AEZ28" s="123"/>
+      <c r="AFA28" s="123"/>
+      <c r="AFB28" s="123"/>
+      <c r="AFC28" s="123"/>
+      <c r="AFD28" s="123"/>
+      <c r="AFE28" s="123"/>
+      <c r="AFF28" s="123"/>
+      <c r="AFG28" s="123"/>
+      <c r="AFH28" s="123"/>
+      <c r="AFI28" s="123"/>
+      <c r="AFJ28" s="123"/>
+      <c r="AFK28" s="123"/>
+      <c r="AFL28" s="123"/>
+      <c r="AFM28" s="123"/>
+      <c r="AFN28" s="123"/>
+      <c r="AFO28" s="123"/>
+      <c r="AFP28" s="123"/>
+      <c r="AFQ28" s="123"/>
+      <c r="AFR28" s="123"/>
+      <c r="AFS28" s="123"/>
+      <c r="AFT28" s="123"/>
+      <c r="AFU28" s="123"/>
+      <c r="AFV28" s="123"/>
+      <c r="AFW28" s="123"/>
+      <c r="AFX28" s="123"/>
+      <c r="AFY28" s="123"/>
+      <c r="AFZ28" s="123"/>
+      <c r="AGA28" s="123"/>
+      <c r="AGB28" s="123"/>
+      <c r="AGC28" s="123"/>
+      <c r="AGD28" s="123"/>
+      <c r="AGE28" s="123"/>
+      <c r="AGF28" s="123"/>
+      <c r="AGG28" s="123"/>
+      <c r="AGH28" s="123"/>
+      <c r="AGI28" s="123"/>
+      <c r="AGJ28" s="123"/>
+      <c r="AGK28" s="123"/>
+      <c r="AGL28" s="123"/>
+      <c r="AGM28" s="123"/>
+      <c r="AGN28" s="123"/>
+      <c r="AGO28" s="123"/>
+      <c r="AGP28" s="123"/>
+      <c r="AGQ28" s="123"/>
+      <c r="AGR28" s="123"/>
+      <c r="AGS28" s="123"/>
+      <c r="AGT28" s="123"/>
+      <c r="AGU28" s="123"/>
+      <c r="AGV28" s="123"/>
+      <c r="AGW28" s="123"/>
+      <c r="AGX28" s="123"/>
+      <c r="AGY28" s="123"/>
+      <c r="AGZ28" s="123"/>
+      <c r="AHA28" s="123"/>
+      <c r="AHB28" s="123"/>
+      <c r="AHC28" s="123"/>
+      <c r="AHD28" s="123"/>
+      <c r="AHE28" s="123"/>
+      <c r="AHF28" s="123"/>
+      <c r="AHG28" s="123"/>
+      <c r="AHH28" s="123"/>
+      <c r="AHI28" s="123"/>
+      <c r="AHJ28" s="123"/>
+      <c r="AHK28" s="123"/>
+      <c r="AHL28" s="123"/>
+      <c r="AHM28" s="123"/>
+      <c r="AHN28" s="123"/>
+      <c r="AHO28" s="123"/>
+      <c r="AHP28" s="123"/>
+      <c r="AHQ28" s="123"/>
+      <c r="AHR28" s="123"/>
+      <c r="AHS28" s="123"/>
+      <c r="AHT28" s="123"/>
+      <c r="AHU28" s="123"/>
+      <c r="AHV28" s="123"/>
+      <c r="AHW28" s="123"/>
+      <c r="AHX28" s="123"/>
+      <c r="AHY28" s="123"/>
+      <c r="AHZ28" s="123"/>
+      <c r="AIA28" s="123"/>
+      <c r="AIB28" s="123"/>
+      <c r="AIC28" s="123"/>
+      <c r="AID28" s="123"/>
+      <c r="AIE28" s="123"/>
+      <c r="AIF28" s="123"/>
+      <c r="AIG28" s="123"/>
+      <c r="AIH28" s="123"/>
+      <c r="AII28" s="123"/>
+      <c r="AIJ28" s="123"/>
+      <c r="AIK28" s="123"/>
+      <c r="AIL28" s="123"/>
+      <c r="AIM28" s="123"/>
+      <c r="AIN28" s="123"/>
+      <c r="AIO28" s="123"/>
+      <c r="AIP28" s="123"/>
+      <c r="AIQ28" s="123"/>
+      <c r="AIR28" s="123"/>
+      <c r="AIS28" s="123"/>
+      <c r="AIT28" s="123"/>
+      <c r="AIU28" s="123"/>
+      <c r="AIV28" s="123"/>
+      <c r="AIW28" s="123"/>
+      <c r="AIX28" s="123"/>
+      <c r="AIY28" s="123"/>
+      <c r="AIZ28" s="123"/>
+      <c r="AJA28" s="123"/>
+      <c r="AJB28" s="123"/>
+      <c r="AJC28" s="123"/>
+      <c r="AJD28" s="123"/>
+      <c r="AJE28" s="123"/>
+      <c r="AJF28" s="123"/>
+      <c r="AJG28" s="123"/>
+      <c r="AJH28" s="123"/>
+      <c r="AJI28" s="123"/>
+      <c r="AJJ28" s="123"/>
+      <c r="AJK28" s="123"/>
+      <c r="AJL28" s="123"/>
+      <c r="AJM28" s="123"/>
+      <c r="AJN28" s="123"/>
+      <c r="AJO28" s="123"/>
+      <c r="AJP28" s="123"/>
+      <c r="AJQ28" s="123"/>
+      <c r="AJR28" s="123"/>
+      <c r="AJS28" s="123"/>
+      <c r="AJT28" s="123"/>
+      <c r="AJU28" s="123"/>
+      <c r="AJV28" s="123"/>
+      <c r="AJW28" s="123"/>
+      <c r="AJX28" s="123"/>
+      <c r="AJY28" s="123"/>
+      <c r="AJZ28" s="123"/>
+      <c r="AKA28" s="123"/>
+      <c r="AKB28" s="123"/>
+      <c r="AKC28" s="123"/>
+      <c r="AKD28" s="123"/>
+      <c r="AKE28" s="123"/>
+      <c r="AKF28" s="123"/>
+      <c r="AKG28" s="123"/>
+      <c r="AKH28" s="123"/>
+      <c r="AKI28" s="123"/>
+      <c r="AKJ28" s="123"/>
+      <c r="AKK28" s="123"/>
+      <c r="AKL28" s="123"/>
+      <c r="AKM28" s="123"/>
+      <c r="AKN28" s="123"/>
+      <c r="AKO28" s="123"/>
+      <c r="AKP28" s="123"/>
+      <c r="AKQ28" s="123"/>
+      <c r="AKR28" s="123"/>
+      <c r="AKS28" s="123"/>
+      <c r="AKT28" s="123"/>
+      <c r="AKU28" s="123"/>
+      <c r="AKV28" s="123"/>
+      <c r="AKW28" s="123"/>
+      <c r="AKX28" s="123"/>
+      <c r="AKY28" s="123"/>
+      <c r="AKZ28" s="123"/>
+      <c r="ALA28" s="123"/>
+      <c r="ALB28" s="123"/>
+      <c r="ALC28" s="123"/>
+      <c r="ALD28" s="123"/>
+      <c r="ALE28" s="123"/>
+      <c r="ALF28" s="123"/>
+      <c r="ALG28" s="123"/>
+      <c r="ALH28" s="123"/>
+      <c r="ALI28" s="123"/>
+      <c r="ALJ28" s="123"/>
+      <c r="ALK28" s="123"/>
+      <c r="ALL28" s="123"/>
+      <c r="ALM28" s="123"/>
+      <c r="ALN28" s="123"/>
+      <c r="ALO28" s="123"/>
+      <c r="ALP28" s="123"/>
+      <c r="ALQ28" s="123"/>
+      <c r="ALR28" s="123"/>
+      <c r="ALS28" s="123"/>
+      <c r="ALT28" s="123"/>
+      <c r="ALU28" s="123"/>
+      <c r="ALV28" s="123"/>
+      <c r="ALW28" s="123"/>
+      <c r="ALX28" s="123"/>
+      <c r="ALY28" s="123"/>
+      <c r="ALZ28" s="123"/>
+      <c r="AMA28" s="123"/>
+      <c r="AMB28" s="123"/>
+      <c r="AMC28" s="123"/>
+      <c r="AMD28" s="123"/>
+      <c r="AME28" s="123"/>
+      <c r="AMF28" s="123"/>
+      <c r="AMG28" s="123"/>
+      <c r="AMH28" s="123"/>
+      <c r="AMI28" s="123"/>
+      <c r="AMJ28" s="123"/>
+      <c r="AMK28" s="123"/>
+      <c r="AML28" s="123"/>
+      <c r="AMM28" s="123"/>
     </row>
     <row r="29" spans="1:1027" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
@@ -21863,7 +21864,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="180" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="87">
         <v>10</v>
       </c>
@@ -22936,21 +22937,21 @@
         <v>12</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="96" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="97"/>
       <c r="H33" s="97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>656</v>
@@ -24005,17 +24006,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -24212,17 +24213,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4ED499F-DB12-4D3D-85F5-6A7D379F82A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{85F9FA4D-33EC-4527-8FD5-F9BC32BB25CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2764,33 +2764,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">When the default value for Tokenization is set to 'ON' for a country, static token will be integrated with each of the auth response. The Auth Partner will store the individual details against this static token instead of UIN/VID. The country can mandate this using laws.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t>On Change</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: When its turned 'OFF', static token will not be integrated in the auth response. 
-In general this is an one-time setup activity. However the country might decide turn the feature ON/OFF as per the scenario and the business need in the country</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">For Single Fingerprint Authentication, the Match Score generated from the Fingerprint SDK will be validated against the Single quality threshold set
 For Composite Fingerprint Authentication, the Match Score generated from the Fingerprint SDK will be validated against the Composite quality threshold set
 </t>
@@ -2985,42 +2958,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Masked UIN is one of the id field to be returned for an eKYC partner. The no of digits of the masked UIN will be configurable
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">On change: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t>The no of digits of the masked UIN will be as per the updated config</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">This configuration will contain the List of Langauge codes corresponding to Languages that MOSIP will support for a particular Country.
 Kernel: While adding an additional Language Code for a country, Master data also needs to be stored for that language, else Master data services would respond with no data
 IDA: During demo authentication, the language in the authentication input is validated against the configuration list
@@ -3329,6 +3266,37 @@
 In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
     </r>
   </si>
+  <si>
+    <t>Based on MOS-18137 this is no longer valid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Masked UIN is one of the id field to be returned for an eKYC partner. The no of digits of the masked UIN will be configurable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">On change: </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>The no of digits of the masked UIN will be as per the updated config
+In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3337,7 +3305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3542,6 +3510,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3736,7 +3712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4115,6 +4091,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6069,7 +6055,7 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>284</v>
@@ -6094,7 +6080,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>585</v>
@@ -6105,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
@@ -6148,7 +6134,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>360</v>
@@ -6175,7 +6161,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>361</v>
@@ -6202,7 +6188,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="101" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>362</v>
@@ -6213,26 +6199,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6310,7 +6296,7 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="115" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>363</v>
@@ -6333,7 +6319,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
@@ -6373,13 +6359,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -6387,10 +6373,10 @@
       <c r="F15" s="50"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6398,13 +6384,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>32</v>
@@ -6412,10 +6398,10 @@
       <c r="F16" s="50"/>
       <c r="G16" s="118"/>
       <c r="H16" s="118" t="s">
+        <v>645</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>647</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6423,13 +6409,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>32</v>
@@ -6437,10 +6423,10 @@
       <c r="F17" s="50"/>
       <c r="G17" s="118"/>
       <c r="H17" s="118" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -10143,7 +10129,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>9</v>
@@ -10155,7 +10141,7 @@
         <v>460</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
@@ -10170,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="49"/>
@@ -10524,21 +10510,21 @@
         <v>72</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10546,7 +10532,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>9</v>
@@ -10556,7 +10542,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10565,7 +10551,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>9</v>
@@ -10575,7 +10561,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -10992,10 +10978,10 @@
   <dimension ref="A1:AMM33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -17414,7 +17400,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="240" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17435,11 +17421,9 @@
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>599</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>586</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -17462,10 +17446,10 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
@@ -17489,10 +17473,10 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
@@ -17519,7 +17503,7 @@
         <v>344</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
@@ -20640,7 +20624,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>9</v>
@@ -20649,17 +20633,17 @@
         <v>131</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
@@ -20667,24 +20651,24 @@
         <v>6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
@@ -20692,24 +20676,24 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
@@ -20736,7 +20720,7 @@
         <v>346</v>
       </c>
       <c r="I25" s="112" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
@@ -20763,13 +20747,13 @@
         <v>347</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:1027" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C27" s="89" t="s">
         <v>9</v>
@@ -21858,10 +21842,10 @@
       <c r="F30" s="88"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
@@ -21886,1075 +21870,1077 @@
         <v>353</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="99" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A32" s="87">
+    <row r="32" spans="1:1027" s="133" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="85">
         <v>11</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97" t="s">
+      <c r="F32" s="72" t="s">
+        <v>655</v>
+      </c>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131" t="s">
         <v>356</v>
       </c>
-      <c r="I32" s="36" t="s">
-        <v>595</v>
-      </c>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="98"/>
-      <c r="AM32" s="98"/>
-      <c r="AN32" s="98"/>
-      <c r="AO32" s="98"/>
-      <c r="AP32" s="98"/>
-      <c r="AQ32" s="98"/>
-      <c r="AR32" s="98"/>
-      <c r="AS32" s="98"/>
-      <c r="AT32" s="98"/>
-      <c r="AU32" s="98"/>
-      <c r="AV32" s="98"/>
-      <c r="AW32" s="98"/>
-      <c r="AX32" s="98"/>
-      <c r="AY32" s="98"/>
-      <c r="AZ32" s="98"/>
-      <c r="BA32" s="98"/>
-      <c r="BB32" s="98"/>
-      <c r="BC32" s="98"/>
-      <c r="BD32" s="98"/>
-      <c r="BE32" s="98"/>
-      <c r="BF32" s="98"/>
-      <c r="BG32" s="98"/>
-      <c r="BH32" s="98"/>
-      <c r="BI32" s="98"/>
-      <c r="BJ32" s="98"/>
-      <c r="BK32" s="98"/>
-      <c r="BL32" s="98"/>
-      <c r="BM32" s="98"/>
-      <c r="BN32" s="98"/>
-      <c r="BO32" s="98"/>
-      <c r="BP32" s="98"/>
-      <c r="BQ32" s="98"/>
-      <c r="BR32" s="98"/>
-      <c r="BS32" s="98"/>
-      <c r="BT32" s="98"/>
-      <c r="BU32" s="98"/>
-      <c r="BV32" s="98"/>
-      <c r="BW32" s="98"/>
-      <c r="BX32" s="98"/>
-      <c r="BY32" s="98"/>
-      <c r="BZ32" s="98"/>
-      <c r="CA32" s="98"/>
-      <c r="CB32" s="98"/>
-      <c r="CC32" s="98"/>
-      <c r="CD32" s="98"/>
-      <c r="CE32" s="98"/>
-      <c r="CF32" s="98"/>
-      <c r="CG32" s="98"/>
-      <c r="CH32" s="98"/>
-      <c r="CI32" s="98"/>
-      <c r="CJ32" s="98"/>
-      <c r="CK32" s="98"/>
-      <c r="CL32" s="98"/>
-      <c r="CM32" s="98"/>
-      <c r="CN32" s="98"/>
-      <c r="CO32" s="98"/>
-      <c r="CP32" s="98"/>
-      <c r="CQ32" s="98"/>
-      <c r="CR32" s="98"/>
-      <c r="CS32" s="98"/>
-      <c r="CT32" s="98"/>
-      <c r="CU32" s="98"/>
-      <c r="CV32" s="98"/>
-      <c r="CW32" s="98"/>
-      <c r="CX32" s="98"/>
-      <c r="CY32" s="98"/>
-      <c r="CZ32" s="98"/>
-      <c r="DA32" s="98"/>
-      <c r="DB32" s="98"/>
-      <c r="DC32" s="98"/>
-      <c r="DD32" s="98"/>
-      <c r="DE32" s="98"/>
-      <c r="DF32" s="98"/>
-      <c r="DG32" s="98"/>
-      <c r="DH32" s="98"/>
-      <c r="DI32" s="98"/>
-      <c r="DJ32" s="98"/>
-      <c r="DK32" s="98"/>
-      <c r="DL32" s="98"/>
-      <c r="DM32" s="98"/>
-      <c r="DN32" s="98"/>
-      <c r="DO32" s="98"/>
-      <c r="DP32" s="98"/>
-      <c r="DQ32" s="98"/>
-      <c r="DR32" s="98"/>
-      <c r="DS32" s="98"/>
-      <c r="DT32" s="98"/>
-      <c r="DU32" s="98"/>
-      <c r="DV32" s="98"/>
-      <c r="DW32" s="98"/>
-      <c r="DX32" s="98"/>
-      <c r="DY32" s="98"/>
-      <c r="DZ32" s="98"/>
-      <c r="EA32" s="98"/>
-      <c r="EB32" s="98"/>
-      <c r="EC32" s="98"/>
-      <c r="ED32" s="98"/>
-      <c r="EE32" s="98"/>
-      <c r="EF32" s="98"/>
-      <c r="EG32" s="98"/>
-      <c r="EH32" s="98"/>
-      <c r="EI32" s="98"/>
-      <c r="EJ32" s="98"/>
-      <c r="EK32" s="98"/>
-      <c r="EL32" s="98"/>
-      <c r="EM32" s="98"/>
-      <c r="EN32" s="98"/>
-      <c r="EO32" s="98"/>
-      <c r="EP32" s="98"/>
-      <c r="EQ32" s="98"/>
-      <c r="ER32" s="98"/>
-      <c r="ES32" s="98"/>
-      <c r="ET32" s="98"/>
-      <c r="EU32" s="98"/>
-      <c r="EV32" s="98"/>
-      <c r="EW32" s="98"/>
-      <c r="EX32" s="98"/>
-      <c r="EY32" s="98"/>
-      <c r="EZ32" s="98"/>
-      <c r="FA32" s="98"/>
-      <c r="FB32" s="98"/>
-      <c r="FC32" s="98"/>
-      <c r="FD32" s="98"/>
-      <c r="FE32" s="98"/>
-      <c r="FF32" s="98"/>
-      <c r="FG32" s="98"/>
-      <c r="FH32" s="98"/>
-      <c r="FI32" s="98"/>
-      <c r="FJ32" s="98"/>
-      <c r="FK32" s="98"/>
-      <c r="FL32" s="98"/>
-      <c r="FM32" s="98"/>
-      <c r="FN32" s="98"/>
-      <c r="FO32" s="98"/>
-      <c r="FP32" s="98"/>
-      <c r="FQ32" s="98"/>
-      <c r="FR32" s="98"/>
-      <c r="FS32" s="98"/>
-      <c r="FT32" s="98"/>
-      <c r="FU32" s="98"/>
-      <c r="FV32" s="98"/>
-      <c r="FW32" s="98"/>
-      <c r="FX32" s="98"/>
-      <c r="FY32" s="98"/>
-      <c r="FZ32" s="98"/>
-      <c r="GA32" s="98"/>
-      <c r="GB32" s="98"/>
-      <c r="GC32" s="98"/>
-      <c r="GD32" s="98"/>
-      <c r="GE32" s="98"/>
-      <c r="GF32" s="98"/>
-      <c r="GG32" s="98"/>
-      <c r="GH32" s="98"/>
-      <c r="GI32" s="98"/>
-      <c r="GJ32" s="98"/>
-      <c r="GK32" s="98"/>
-      <c r="GL32" s="98"/>
-      <c r="GM32" s="98"/>
-      <c r="GN32" s="98"/>
-      <c r="GO32" s="98"/>
-      <c r="GP32" s="98"/>
-      <c r="GQ32" s="98"/>
-      <c r="GR32" s="98"/>
-      <c r="GS32" s="98"/>
-      <c r="GT32" s="98"/>
-      <c r="GU32" s="98"/>
-      <c r="GV32" s="98"/>
-      <c r="GW32" s="98"/>
-      <c r="GX32" s="98"/>
-      <c r="GY32" s="98"/>
-      <c r="GZ32" s="98"/>
-      <c r="HA32" s="98"/>
-      <c r="HB32" s="98"/>
-      <c r="HC32" s="98"/>
-      <c r="HD32" s="98"/>
-      <c r="HE32" s="98"/>
-      <c r="HF32" s="98"/>
-      <c r="HG32" s="98"/>
-      <c r="HH32" s="98"/>
-      <c r="HI32" s="98"/>
-      <c r="HJ32" s="98"/>
-      <c r="HK32" s="98"/>
-      <c r="HL32" s="98"/>
-      <c r="HM32" s="98"/>
-      <c r="HN32" s="98"/>
-      <c r="HO32" s="98"/>
-      <c r="HP32" s="98"/>
-      <c r="HQ32" s="98"/>
-      <c r="HR32" s="98"/>
-      <c r="HS32" s="98"/>
-      <c r="HT32" s="98"/>
-      <c r="HU32" s="98"/>
-      <c r="HV32" s="98"/>
-      <c r="HW32" s="98"/>
-      <c r="HX32" s="98"/>
-      <c r="HY32" s="98"/>
-      <c r="HZ32" s="98"/>
-      <c r="IA32" s="98"/>
-      <c r="IB32" s="98"/>
-      <c r="IC32" s="98"/>
-      <c r="ID32" s="98"/>
-      <c r="IE32" s="98"/>
-      <c r="IF32" s="98"/>
-      <c r="IG32" s="98"/>
-      <c r="IH32" s="98"/>
-      <c r="II32" s="98"/>
-      <c r="IJ32" s="98"/>
-      <c r="IK32" s="98"/>
-      <c r="IL32" s="98"/>
-      <c r="IM32" s="98"/>
-      <c r="IN32" s="98"/>
-      <c r="IO32" s="98"/>
-      <c r="IP32" s="98"/>
-      <c r="IQ32" s="98"/>
-      <c r="IR32" s="98"/>
-      <c r="IS32" s="98"/>
-      <c r="IT32" s="98"/>
-      <c r="IU32" s="98"/>
-      <c r="IV32" s="98"/>
-      <c r="IW32" s="98"/>
-      <c r="IX32" s="98"/>
-      <c r="IY32" s="98"/>
-      <c r="IZ32" s="98"/>
-      <c r="JA32" s="98"/>
-      <c r="JB32" s="98"/>
-      <c r="JC32" s="98"/>
-      <c r="JD32" s="98"/>
-      <c r="JE32" s="98"/>
-      <c r="JF32" s="98"/>
-      <c r="JG32" s="98"/>
-      <c r="JH32" s="98"/>
-      <c r="JI32" s="98"/>
-      <c r="JJ32" s="98"/>
-      <c r="JK32" s="98"/>
-      <c r="JL32" s="98"/>
-      <c r="JM32" s="98"/>
-      <c r="JN32" s="98"/>
-      <c r="JO32" s="98"/>
-      <c r="JP32" s="98"/>
-      <c r="JQ32" s="98"/>
-      <c r="JR32" s="98"/>
-      <c r="JS32" s="98"/>
-      <c r="JT32" s="98"/>
-      <c r="JU32" s="98"/>
-      <c r="JV32" s="98"/>
-      <c r="JW32" s="98"/>
-      <c r="JX32" s="98"/>
-      <c r="JY32" s="98"/>
-      <c r="JZ32" s="98"/>
-      <c r="KA32" s="98"/>
-      <c r="KB32" s="98"/>
-      <c r="KC32" s="98"/>
-      <c r="KD32" s="98"/>
-      <c r="KE32" s="98"/>
-      <c r="KF32" s="98"/>
-      <c r="KG32" s="98"/>
-      <c r="KH32" s="98"/>
-      <c r="KI32" s="98"/>
-      <c r="KJ32" s="98"/>
-      <c r="KK32" s="98"/>
-      <c r="KL32" s="98"/>
-      <c r="KM32" s="98"/>
-      <c r="KN32" s="98"/>
-      <c r="KO32" s="98"/>
-      <c r="KP32" s="98"/>
-      <c r="KQ32" s="98"/>
-      <c r="KR32" s="98"/>
-      <c r="KS32" s="98"/>
-      <c r="KT32" s="98"/>
-      <c r="KU32" s="98"/>
-      <c r="KV32" s="98"/>
-      <c r="KW32" s="98"/>
-      <c r="KX32" s="98"/>
-      <c r="KY32" s="98"/>
-      <c r="KZ32" s="98"/>
-      <c r="LA32" s="98"/>
-      <c r="LB32" s="98"/>
-      <c r="LC32" s="98"/>
-      <c r="LD32" s="98"/>
-      <c r="LE32" s="98"/>
-      <c r="LF32" s="98"/>
-      <c r="LG32" s="98"/>
-      <c r="LH32" s="98"/>
-      <c r="LI32" s="98"/>
-      <c r="LJ32" s="98"/>
-      <c r="LK32" s="98"/>
-      <c r="LL32" s="98"/>
-      <c r="LM32" s="98"/>
-      <c r="LN32" s="98"/>
-      <c r="LO32" s="98"/>
-      <c r="LP32" s="98"/>
-      <c r="LQ32" s="98"/>
-      <c r="LR32" s="98"/>
-      <c r="LS32" s="98"/>
-      <c r="LT32" s="98"/>
-      <c r="LU32" s="98"/>
-      <c r="LV32" s="98"/>
-      <c r="LW32" s="98"/>
-      <c r="LX32" s="98"/>
-      <c r="LY32" s="98"/>
-      <c r="LZ32" s="98"/>
-      <c r="MA32" s="98"/>
-      <c r="MB32" s="98"/>
-      <c r="MC32" s="98"/>
-      <c r="MD32" s="98"/>
-      <c r="ME32" s="98"/>
-      <c r="MF32" s="98"/>
-      <c r="MG32" s="98"/>
-      <c r="MH32" s="98"/>
-      <c r="MI32" s="98"/>
-      <c r="MJ32" s="98"/>
-      <c r="MK32" s="98"/>
-      <c r="ML32" s="98"/>
-      <c r="MM32" s="98"/>
-      <c r="MN32" s="98"/>
-      <c r="MO32" s="98"/>
-      <c r="MP32" s="98"/>
-      <c r="MQ32" s="98"/>
-      <c r="MR32" s="98"/>
-      <c r="MS32" s="98"/>
-      <c r="MT32" s="98"/>
-      <c r="MU32" s="98"/>
-      <c r="MV32" s="98"/>
-      <c r="MW32" s="98"/>
-      <c r="MX32" s="98"/>
-      <c r="MY32" s="98"/>
-      <c r="MZ32" s="98"/>
-      <c r="NA32" s="98"/>
-      <c r="NB32" s="98"/>
-      <c r="NC32" s="98"/>
-      <c r="ND32" s="98"/>
-      <c r="NE32" s="98"/>
-      <c r="NF32" s="98"/>
-      <c r="NG32" s="98"/>
-      <c r="NH32" s="98"/>
-      <c r="NI32" s="98"/>
-      <c r="NJ32" s="98"/>
-      <c r="NK32" s="98"/>
-      <c r="NL32" s="98"/>
-      <c r="NM32" s="98"/>
-      <c r="NN32" s="98"/>
-      <c r="NO32" s="98"/>
-      <c r="NP32" s="98"/>
-      <c r="NQ32" s="98"/>
-      <c r="NR32" s="98"/>
-      <c r="NS32" s="98"/>
-      <c r="NT32" s="98"/>
-      <c r="NU32" s="98"/>
-      <c r="NV32" s="98"/>
-      <c r="NW32" s="98"/>
-      <c r="NX32" s="98"/>
-      <c r="NY32" s="98"/>
-      <c r="NZ32" s="98"/>
-      <c r="OA32" s="98"/>
-      <c r="OB32" s="98"/>
-      <c r="OC32" s="98"/>
-      <c r="OD32" s="98"/>
-      <c r="OE32" s="98"/>
-      <c r="OF32" s="98"/>
-      <c r="OG32" s="98"/>
-      <c r="OH32" s="98"/>
-      <c r="OI32" s="98"/>
-      <c r="OJ32" s="98"/>
-      <c r="OK32" s="98"/>
-      <c r="OL32" s="98"/>
-      <c r="OM32" s="98"/>
-      <c r="ON32" s="98"/>
-      <c r="OO32" s="98"/>
-      <c r="OP32" s="98"/>
-      <c r="OQ32" s="98"/>
-      <c r="OR32" s="98"/>
-      <c r="OS32" s="98"/>
-      <c r="OT32" s="98"/>
-      <c r="OU32" s="98"/>
-      <c r="OV32" s="98"/>
-      <c r="OW32" s="98"/>
-      <c r="OX32" s="98"/>
-      <c r="OY32" s="98"/>
-      <c r="OZ32" s="98"/>
-      <c r="PA32" s="98"/>
-      <c r="PB32" s="98"/>
-      <c r="PC32" s="98"/>
-      <c r="PD32" s="98"/>
-      <c r="PE32" s="98"/>
-      <c r="PF32" s="98"/>
-      <c r="PG32" s="98"/>
-      <c r="PH32" s="98"/>
-      <c r="PI32" s="98"/>
-      <c r="PJ32" s="98"/>
-      <c r="PK32" s="98"/>
-      <c r="PL32" s="98"/>
-      <c r="PM32" s="98"/>
-      <c r="PN32" s="98"/>
-      <c r="PO32" s="98"/>
-      <c r="PP32" s="98"/>
-      <c r="PQ32" s="98"/>
-      <c r="PR32" s="98"/>
-      <c r="PS32" s="98"/>
-      <c r="PT32" s="98"/>
-      <c r="PU32" s="98"/>
-      <c r="PV32" s="98"/>
-      <c r="PW32" s="98"/>
-      <c r="PX32" s="98"/>
-      <c r="PY32" s="98"/>
-      <c r="PZ32" s="98"/>
-      <c r="QA32" s="98"/>
-      <c r="QB32" s="98"/>
-      <c r="QC32" s="98"/>
-      <c r="QD32" s="98"/>
-      <c r="QE32" s="98"/>
-      <c r="QF32" s="98"/>
-      <c r="QG32" s="98"/>
-      <c r="QH32" s="98"/>
-      <c r="QI32" s="98"/>
-      <c r="QJ32" s="98"/>
-      <c r="QK32" s="98"/>
-      <c r="QL32" s="98"/>
-      <c r="QM32" s="98"/>
-      <c r="QN32" s="98"/>
-      <c r="QO32" s="98"/>
-      <c r="QP32" s="98"/>
-      <c r="QQ32" s="98"/>
-      <c r="QR32" s="98"/>
-      <c r="QS32" s="98"/>
-      <c r="QT32" s="98"/>
-      <c r="QU32" s="98"/>
-      <c r="QV32" s="98"/>
-      <c r="QW32" s="98"/>
-      <c r="QX32" s="98"/>
-      <c r="QY32" s="98"/>
-      <c r="QZ32" s="98"/>
-      <c r="RA32" s="98"/>
-      <c r="RB32" s="98"/>
-      <c r="RC32" s="98"/>
-      <c r="RD32" s="98"/>
-      <c r="RE32" s="98"/>
-      <c r="RF32" s="98"/>
-      <c r="RG32" s="98"/>
-      <c r="RH32" s="98"/>
-      <c r="RI32" s="98"/>
-      <c r="RJ32" s="98"/>
-      <c r="RK32" s="98"/>
-      <c r="RL32" s="98"/>
-      <c r="RM32" s="98"/>
-      <c r="RN32" s="98"/>
-      <c r="RO32" s="98"/>
-      <c r="RP32" s="98"/>
-      <c r="RQ32" s="98"/>
-      <c r="RR32" s="98"/>
-      <c r="RS32" s="98"/>
-      <c r="RT32" s="98"/>
-      <c r="RU32" s="98"/>
-      <c r="RV32" s="98"/>
-      <c r="RW32" s="98"/>
-      <c r="RX32" s="98"/>
-      <c r="RY32" s="98"/>
-      <c r="RZ32" s="98"/>
-      <c r="SA32" s="98"/>
-      <c r="SB32" s="98"/>
-      <c r="SC32" s="98"/>
-      <c r="SD32" s="98"/>
-      <c r="SE32" s="98"/>
-      <c r="SF32" s="98"/>
-      <c r="SG32" s="98"/>
-      <c r="SH32" s="98"/>
-      <c r="SI32" s="98"/>
-      <c r="SJ32" s="98"/>
-      <c r="SK32" s="98"/>
-      <c r="SL32" s="98"/>
-      <c r="SM32" s="98"/>
-      <c r="SN32" s="98"/>
-      <c r="SO32" s="98"/>
-      <c r="SP32" s="98"/>
-      <c r="SQ32" s="98"/>
-      <c r="SR32" s="98"/>
-      <c r="SS32" s="98"/>
-      <c r="ST32" s="98"/>
-      <c r="SU32" s="98"/>
-      <c r="SV32" s="98"/>
-      <c r="SW32" s="98"/>
-      <c r="SX32" s="98"/>
-      <c r="SY32" s="98"/>
-      <c r="SZ32" s="98"/>
-      <c r="TA32" s="98"/>
-      <c r="TB32" s="98"/>
-      <c r="TC32" s="98"/>
-      <c r="TD32" s="98"/>
-      <c r="TE32" s="98"/>
-      <c r="TF32" s="98"/>
-      <c r="TG32" s="98"/>
-      <c r="TH32" s="98"/>
-      <c r="TI32" s="98"/>
-      <c r="TJ32" s="98"/>
-      <c r="TK32" s="98"/>
-      <c r="TL32" s="98"/>
-      <c r="TM32" s="98"/>
-      <c r="TN32" s="98"/>
-      <c r="TO32" s="98"/>
-      <c r="TP32" s="98"/>
-      <c r="TQ32" s="98"/>
-      <c r="TR32" s="98"/>
-      <c r="TS32" s="98"/>
-      <c r="TT32" s="98"/>
-      <c r="TU32" s="98"/>
-      <c r="TV32" s="98"/>
-      <c r="TW32" s="98"/>
-      <c r="TX32" s="98"/>
-      <c r="TY32" s="98"/>
-      <c r="TZ32" s="98"/>
-      <c r="UA32" s="98"/>
-      <c r="UB32" s="98"/>
-      <c r="UC32" s="98"/>
-      <c r="UD32" s="98"/>
-      <c r="UE32" s="98"/>
-      <c r="UF32" s="98"/>
-      <c r="UG32" s="98"/>
-      <c r="UH32" s="98"/>
-      <c r="UI32" s="98"/>
-      <c r="UJ32" s="98"/>
-      <c r="UK32" s="98"/>
-      <c r="UL32" s="98"/>
-      <c r="UM32" s="98"/>
-      <c r="UN32" s="98"/>
-      <c r="UO32" s="98"/>
-      <c r="UP32" s="98"/>
-      <c r="UQ32" s="98"/>
-      <c r="UR32" s="98"/>
-      <c r="US32" s="98"/>
-      <c r="UT32" s="98"/>
-      <c r="UU32" s="98"/>
-      <c r="UV32" s="98"/>
-      <c r="UW32" s="98"/>
-      <c r="UX32" s="98"/>
-      <c r="UY32" s="98"/>
-      <c r="UZ32" s="98"/>
-      <c r="VA32" s="98"/>
-      <c r="VB32" s="98"/>
-      <c r="VC32" s="98"/>
-      <c r="VD32" s="98"/>
-      <c r="VE32" s="98"/>
-      <c r="VF32" s="98"/>
-      <c r="VG32" s="98"/>
-      <c r="VH32" s="98"/>
-      <c r="VI32" s="98"/>
-      <c r="VJ32" s="98"/>
-      <c r="VK32" s="98"/>
-      <c r="VL32" s="98"/>
-      <c r="VM32" s="98"/>
-      <c r="VN32" s="98"/>
-      <c r="VO32" s="98"/>
-      <c r="VP32" s="98"/>
-      <c r="VQ32" s="98"/>
-      <c r="VR32" s="98"/>
-      <c r="VS32" s="98"/>
-      <c r="VT32" s="98"/>
-      <c r="VU32" s="98"/>
-      <c r="VV32" s="98"/>
-      <c r="VW32" s="98"/>
-      <c r="VX32" s="98"/>
-      <c r="VY32" s="98"/>
-      <c r="VZ32" s="98"/>
-      <c r="WA32" s="98"/>
-      <c r="WB32" s="98"/>
-      <c r="WC32" s="98"/>
-      <c r="WD32" s="98"/>
-      <c r="WE32" s="98"/>
-      <c r="WF32" s="98"/>
-      <c r="WG32" s="98"/>
-      <c r="WH32" s="98"/>
-      <c r="WI32" s="98"/>
-      <c r="WJ32" s="98"/>
-      <c r="WK32" s="98"/>
-      <c r="WL32" s="98"/>
-      <c r="WM32" s="98"/>
-      <c r="WN32" s="98"/>
-      <c r="WO32" s="98"/>
-      <c r="WP32" s="98"/>
-      <c r="WQ32" s="98"/>
-      <c r="WR32" s="98"/>
-      <c r="WS32" s="98"/>
-      <c r="WT32" s="98"/>
-      <c r="WU32" s="98"/>
-      <c r="WV32" s="98"/>
-      <c r="WW32" s="98"/>
-      <c r="WX32" s="98"/>
-      <c r="WY32" s="98"/>
-      <c r="WZ32" s="98"/>
-      <c r="XA32" s="98"/>
-      <c r="XB32" s="98"/>
-      <c r="XC32" s="98"/>
-      <c r="XD32" s="98"/>
-      <c r="XE32" s="98"/>
-      <c r="XF32" s="98"/>
-      <c r="XG32" s="98"/>
-      <c r="XH32" s="98"/>
-      <c r="XI32" s="98"/>
-      <c r="XJ32" s="98"/>
-      <c r="XK32" s="98"/>
-      <c r="XL32" s="98"/>
-      <c r="XM32" s="98"/>
-      <c r="XN32" s="98"/>
-      <c r="XO32" s="98"/>
-      <c r="XP32" s="98"/>
-      <c r="XQ32" s="98"/>
-      <c r="XR32" s="98"/>
-      <c r="XS32" s="98"/>
-      <c r="XT32" s="98"/>
-      <c r="XU32" s="98"/>
-      <c r="XV32" s="98"/>
-      <c r="XW32" s="98"/>
-      <c r="XX32" s="98"/>
-      <c r="XY32" s="98"/>
-      <c r="XZ32" s="98"/>
-      <c r="YA32" s="98"/>
-      <c r="YB32" s="98"/>
-      <c r="YC32" s="98"/>
-      <c r="YD32" s="98"/>
-      <c r="YE32" s="98"/>
-      <c r="YF32" s="98"/>
-      <c r="YG32" s="98"/>
-      <c r="YH32" s="98"/>
-      <c r="YI32" s="98"/>
-      <c r="YJ32" s="98"/>
-      <c r="YK32" s="98"/>
-      <c r="YL32" s="98"/>
-      <c r="YM32" s="98"/>
-      <c r="YN32" s="98"/>
-      <c r="YO32" s="98"/>
-      <c r="YP32" s="98"/>
-      <c r="YQ32" s="98"/>
-      <c r="YR32" s="98"/>
-      <c r="YS32" s="98"/>
-      <c r="YT32" s="98"/>
-      <c r="YU32" s="98"/>
-      <c r="YV32" s="98"/>
-      <c r="YW32" s="98"/>
-      <c r="YX32" s="98"/>
-      <c r="YY32" s="98"/>
-      <c r="YZ32" s="98"/>
-      <c r="ZA32" s="98"/>
-      <c r="ZB32" s="98"/>
-      <c r="ZC32" s="98"/>
-      <c r="ZD32" s="98"/>
-      <c r="ZE32" s="98"/>
-      <c r="ZF32" s="98"/>
-      <c r="ZG32" s="98"/>
-      <c r="ZH32" s="98"/>
-      <c r="ZI32" s="98"/>
-      <c r="ZJ32" s="98"/>
-      <c r="ZK32" s="98"/>
-      <c r="ZL32" s="98"/>
-      <c r="ZM32" s="98"/>
-      <c r="ZN32" s="98"/>
-      <c r="ZO32" s="98"/>
-      <c r="ZP32" s="98"/>
-      <c r="ZQ32" s="98"/>
-      <c r="ZR32" s="98"/>
-      <c r="ZS32" s="98"/>
-      <c r="ZT32" s="98"/>
-      <c r="ZU32" s="98"/>
-      <c r="ZV32" s="98"/>
-      <c r="ZW32" s="98"/>
-      <c r="ZX32" s="98"/>
-      <c r="ZY32" s="98"/>
-      <c r="ZZ32" s="98"/>
-      <c r="AAA32" s="98"/>
-      <c r="AAB32" s="98"/>
-      <c r="AAC32" s="98"/>
-      <c r="AAD32" s="98"/>
-      <c r="AAE32" s="98"/>
-      <c r="AAF32" s="98"/>
-      <c r="AAG32" s="98"/>
-      <c r="AAH32" s="98"/>
-      <c r="AAI32" s="98"/>
-      <c r="AAJ32" s="98"/>
-      <c r="AAK32" s="98"/>
-      <c r="AAL32" s="98"/>
-      <c r="AAM32" s="98"/>
-      <c r="AAN32" s="98"/>
-      <c r="AAO32" s="98"/>
-      <c r="AAP32" s="98"/>
-      <c r="AAQ32" s="98"/>
-      <c r="AAR32" s="98"/>
-      <c r="AAS32" s="98"/>
-      <c r="AAT32" s="98"/>
-      <c r="AAU32" s="98"/>
-      <c r="AAV32" s="98"/>
-      <c r="AAW32" s="98"/>
-      <c r="AAX32" s="98"/>
-      <c r="AAY32" s="98"/>
-      <c r="AAZ32" s="98"/>
-      <c r="ABA32" s="98"/>
-      <c r="ABB32" s="98"/>
-      <c r="ABC32" s="98"/>
-      <c r="ABD32" s="98"/>
-      <c r="ABE32" s="98"/>
-      <c r="ABF32" s="98"/>
-      <c r="ABG32" s="98"/>
-      <c r="ABH32" s="98"/>
-      <c r="ABI32" s="98"/>
-      <c r="ABJ32" s="98"/>
-      <c r="ABK32" s="98"/>
-      <c r="ABL32" s="98"/>
-      <c r="ABM32" s="98"/>
-      <c r="ABN32" s="98"/>
-      <c r="ABO32" s="98"/>
-      <c r="ABP32" s="98"/>
-      <c r="ABQ32" s="98"/>
-      <c r="ABR32" s="98"/>
-      <c r="ABS32" s="98"/>
-      <c r="ABT32" s="98"/>
-      <c r="ABU32" s="98"/>
-      <c r="ABV32" s="98"/>
-      <c r="ABW32" s="98"/>
-      <c r="ABX32" s="98"/>
-      <c r="ABY32" s="98"/>
-      <c r="ABZ32" s="98"/>
-      <c r="ACA32" s="98"/>
-      <c r="ACB32" s="98"/>
-      <c r="ACC32" s="98"/>
-      <c r="ACD32" s="98"/>
-      <c r="ACE32" s="98"/>
-      <c r="ACF32" s="98"/>
-      <c r="ACG32" s="98"/>
-      <c r="ACH32" s="98"/>
-      <c r="ACI32" s="98"/>
-      <c r="ACJ32" s="98"/>
-      <c r="ACK32" s="98"/>
-      <c r="ACL32" s="98"/>
-      <c r="ACM32" s="98"/>
-      <c r="ACN32" s="98"/>
-      <c r="ACO32" s="98"/>
-      <c r="ACP32" s="98"/>
-      <c r="ACQ32" s="98"/>
-      <c r="ACR32" s="98"/>
-      <c r="ACS32" s="98"/>
-      <c r="ACT32" s="98"/>
-      <c r="ACU32" s="98"/>
-      <c r="ACV32" s="98"/>
-      <c r="ACW32" s="98"/>
-      <c r="ACX32" s="98"/>
-      <c r="ACY32" s="98"/>
-      <c r="ACZ32" s="98"/>
-      <c r="ADA32" s="98"/>
-      <c r="ADB32" s="98"/>
-      <c r="ADC32" s="98"/>
-      <c r="ADD32" s="98"/>
-      <c r="ADE32" s="98"/>
-      <c r="ADF32" s="98"/>
-      <c r="ADG32" s="98"/>
-      <c r="ADH32" s="98"/>
-      <c r="ADI32" s="98"/>
-      <c r="ADJ32" s="98"/>
-      <c r="ADK32" s="98"/>
-      <c r="ADL32" s="98"/>
-      <c r="ADM32" s="98"/>
-      <c r="ADN32" s="98"/>
-      <c r="ADO32" s="98"/>
-      <c r="ADP32" s="98"/>
-      <c r="ADQ32" s="98"/>
-      <c r="ADR32" s="98"/>
-      <c r="ADS32" s="98"/>
-      <c r="ADT32" s="98"/>
-      <c r="ADU32" s="98"/>
-      <c r="ADV32" s="98"/>
-      <c r="ADW32" s="98"/>
-      <c r="ADX32" s="98"/>
-      <c r="ADY32" s="98"/>
-      <c r="ADZ32" s="98"/>
-      <c r="AEA32" s="98"/>
-      <c r="AEB32" s="98"/>
-      <c r="AEC32" s="98"/>
-      <c r="AED32" s="98"/>
-      <c r="AEE32" s="98"/>
-      <c r="AEF32" s="98"/>
-      <c r="AEG32" s="98"/>
-      <c r="AEH32" s="98"/>
-      <c r="AEI32" s="98"/>
-      <c r="AEJ32" s="98"/>
-      <c r="AEK32" s="98"/>
-      <c r="AEL32" s="98"/>
-      <c r="AEM32" s="98"/>
-      <c r="AEN32" s="98"/>
-      <c r="AEO32" s="98"/>
-      <c r="AEP32" s="98"/>
-      <c r="AEQ32" s="98"/>
-      <c r="AER32" s="98"/>
-      <c r="AES32" s="98"/>
-      <c r="AET32" s="98"/>
-      <c r="AEU32" s="98"/>
-      <c r="AEV32" s="98"/>
-      <c r="AEW32" s="98"/>
-      <c r="AEX32" s="98"/>
-      <c r="AEY32" s="98"/>
-      <c r="AEZ32" s="98"/>
-      <c r="AFA32" s="98"/>
-      <c r="AFB32" s="98"/>
-      <c r="AFC32" s="98"/>
-      <c r="AFD32" s="98"/>
-      <c r="AFE32" s="98"/>
-      <c r="AFF32" s="98"/>
-      <c r="AFG32" s="98"/>
-      <c r="AFH32" s="98"/>
-      <c r="AFI32" s="98"/>
-      <c r="AFJ32" s="98"/>
-      <c r="AFK32" s="98"/>
-      <c r="AFL32" s="98"/>
-      <c r="AFM32" s="98"/>
-      <c r="AFN32" s="98"/>
-      <c r="AFO32" s="98"/>
-      <c r="AFP32" s="98"/>
-      <c r="AFQ32" s="98"/>
-      <c r="AFR32" s="98"/>
-      <c r="AFS32" s="98"/>
-      <c r="AFT32" s="98"/>
-      <c r="AFU32" s="98"/>
-      <c r="AFV32" s="98"/>
-      <c r="AFW32" s="98"/>
-      <c r="AFX32" s="98"/>
-      <c r="AFY32" s="98"/>
-      <c r="AFZ32" s="98"/>
-      <c r="AGA32" s="98"/>
-      <c r="AGB32" s="98"/>
-      <c r="AGC32" s="98"/>
-      <c r="AGD32" s="98"/>
-      <c r="AGE32" s="98"/>
-      <c r="AGF32" s="98"/>
-      <c r="AGG32" s="98"/>
-      <c r="AGH32" s="98"/>
-      <c r="AGI32" s="98"/>
-      <c r="AGJ32" s="98"/>
-      <c r="AGK32" s="98"/>
-      <c r="AGL32" s="98"/>
-      <c r="AGM32" s="98"/>
-      <c r="AGN32" s="98"/>
-      <c r="AGO32" s="98"/>
-      <c r="AGP32" s="98"/>
-      <c r="AGQ32" s="98"/>
-      <c r="AGR32" s="98"/>
-      <c r="AGS32" s="98"/>
-      <c r="AGT32" s="98"/>
-      <c r="AGU32" s="98"/>
-      <c r="AGV32" s="98"/>
-      <c r="AGW32" s="98"/>
-      <c r="AGX32" s="98"/>
-      <c r="AGY32" s="98"/>
-      <c r="AGZ32" s="98"/>
-      <c r="AHA32" s="98"/>
-      <c r="AHB32" s="98"/>
-      <c r="AHC32" s="98"/>
-      <c r="AHD32" s="98"/>
-      <c r="AHE32" s="98"/>
-      <c r="AHF32" s="98"/>
-      <c r="AHG32" s="98"/>
-      <c r="AHH32" s="98"/>
-      <c r="AHI32" s="98"/>
-      <c r="AHJ32" s="98"/>
-      <c r="AHK32" s="98"/>
-      <c r="AHL32" s="98"/>
-      <c r="AHM32" s="98"/>
-      <c r="AHN32" s="98"/>
-      <c r="AHO32" s="98"/>
-      <c r="AHP32" s="98"/>
-      <c r="AHQ32" s="98"/>
-      <c r="AHR32" s="98"/>
-      <c r="AHS32" s="98"/>
-      <c r="AHT32" s="98"/>
-      <c r="AHU32" s="98"/>
-      <c r="AHV32" s="98"/>
-      <c r="AHW32" s="98"/>
-      <c r="AHX32" s="98"/>
-      <c r="AHY32" s="98"/>
-      <c r="AHZ32" s="98"/>
-      <c r="AIA32" s="98"/>
-      <c r="AIB32" s="98"/>
-      <c r="AIC32" s="98"/>
-      <c r="AID32" s="98"/>
-      <c r="AIE32" s="98"/>
-      <c r="AIF32" s="98"/>
-      <c r="AIG32" s="98"/>
-      <c r="AIH32" s="98"/>
-      <c r="AII32" s="98"/>
-      <c r="AIJ32" s="98"/>
-      <c r="AIK32" s="98"/>
-      <c r="AIL32" s="98"/>
-      <c r="AIM32" s="98"/>
-      <c r="AIN32" s="98"/>
-      <c r="AIO32" s="98"/>
-      <c r="AIP32" s="98"/>
-      <c r="AIQ32" s="98"/>
-      <c r="AIR32" s="98"/>
-      <c r="AIS32" s="98"/>
-      <c r="AIT32" s="98"/>
-      <c r="AIU32" s="98"/>
-      <c r="AIV32" s="98"/>
-      <c r="AIW32" s="98"/>
-      <c r="AIX32" s="98"/>
-      <c r="AIY32" s="98"/>
-      <c r="AIZ32" s="98"/>
-      <c r="AJA32" s="98"/>
-      <c r="AJB32" s="98"/>
-      <c r="AJC32" s="98"/>
-      <c r="AJD32" s="98"/>
-      <c r="AJE32" s="98"/>
-      <c r="AJF32" s="98"/>
-      <c r="AJG32" s="98"/>
-      <c r="AJH32" s="98"/>
-      <c r="AJI32" s="98"/>
-      <c r="AJJ32" s="98"/>
-      <c r="AJK32" s="98"/>
-      <c r="AJL32" s="98"/>
-      <c r="AJM32" s="98"/>
-      <c r="AJN32" s="98"/>
-      <c r="AJO32" s="98"/>
-      <c r="AJP32" s="98"/>
-      <c r="AJQ32" s="98"/>
-      <c r="AJR32" s="98"/>
-      <c r="AJS32" s="98"/>
-      <c r="AJT32" s="98"/>
-      <c r="AJU32" s="98"/>
-      <c r="AJV32" s="98"/>
-      <c r="AJW32" s="98"/>
-      <c r="AJX32" s="98"/>
-      <c r="AJY32" s="98"/>
-      <c r="AJZ32" s="98"/>
-      <c r="AKA32" s="98"/>
-      <c r="AKB32" s="98"/>
-      <c r="AKC32" s="98"/>
-      <c r="AKD32" s="98"/>
-      <c r="AKE32" s="98"/>
-      <c r="AKF32" s="98"/>
-      <c r="AKG32" s="98"/>
-      <c r="AKH32" s="98"/>
-      <c r="AKI32" s="98"/>
-      <c r="AKJ32" s="98"/>
-      <c r="AKK32" s="98"/>
-      <c r="AKL32" s="98"/>
-      <c r="AKM32" s="98"/>
-      <c r="AKN32" s="98"/>
-      <c r="AKO32" s="98"/>
-      <c r="AKP32" s="98"/>
-      <c r="AKQ32" s="98"/>
-      <c r="AKR32" s="98"/>
-      <c r="AKS32" s="98"/>
-      <c r="AKT32" s="98"/>
-      <c r="AKU32" s="98"/>
-      <c r="AKV32" s="98"/>
-      <c r="AKW32" s="98"/>
-      <c r="AKX32" s="98"/>
-      <c r="AKY32" s="98"/>
-      <c r="AKZ32" s="98"/>
-      <c r="ALA32" s="98"/>
-      <c r="ALB32" s="98"/>
-      <c r="ALC32" s="98"/>
-      <c r="ALD32" s="98"/>
-      <c r="ALE32" s="98"/>
-      <c r="ALF32" s="98"/>
-      <c r="ALG32" s="98"/>
-      <c r="ALH32" s="98"/>
-      <c r="ALI32" s="98"/>
-      <c r="ALJ32" s="98"/>
-      <c r="ALK32" s="98"/>
-      <c r="ALL32" s="98"/>
-      <c r="ALM32" s="98"/>
-      <c r="ALN32" s="98"/>
-      <c r="ALO32" s="98"/>
-      <c r="ALP32" s="98"/>
-      <c r="ALQ32" s="98"/>
-      <c r="ALR32" s="98"/>
-      <c r="ALS32" s="98"/>
-      <c r="ALT32" s="98"/>
-      <c r="ALU32" s="98"/>
-      <c r="ALV32" s="98"/>
-      <c r="ALW32" s="98"/>
-      <c r="ALX32" s="98"/>
-      <c r="ALY32" s="98"/>
-      <c r="ALZ32" s="98"/>
-      <c r="AMA32" s="98"/>
-      <c r="AMB32" s="98"/>
-      <c r="AMC32" s="98"/>
-      <c r="AMD32" s="98"/>
-      <c r="AME32" s="98"/>
-      <c r="AMF32" s="98"/>
-      <c r="AMG32" s="98"/>
-      <c r="AMH32" s="98"/>
-      <c r="AMI32" s="98"/>
-      <c r="AMJ32" s="98"/>
-      <c r="AMK32" s="98"/>
-      <c r="AML32" s="98"/>
-      <c r="AMM32" s="98"/>
+      <c r="I32" s="72" t="s">
+        <v>656</v>
+      </c>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="132"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="132"/>
+      <c r="AJ32" s="132"/>
+      <c r="AK32" s="132"/>
+      <c r="AL32" s="132"/>
+      <c r="AM32" s="132"/>
+      <c r="AN32" s="132"/>
+      <c r="AO32" s="132"/>
+      <c r="AP32" s="132"/>
+      <c r="AQ32" s="132"/>
+      <c r="AR32" s="132"/>
+      <c r="AS32" s="132"/>
+      <c r="AT32" s="132"/>
+      <c r="AU32" s="132"/>
+      <c r="AV32" s="132"/>
+      <c r="AW32" s="132"/>
+      <c r="AX32" s="132"/>
+      <c r="AY32" s="132"/>
+      <c r="AZ32" s="132"/>
+      <c r="BA32" s="132"/>
+      <c r="BB32" s="132"/>
+      <c r="BC32" s="132"/>
+      <c r="BD32" s="132"/>
+      <c r="BE32" s="132"/>
+      <c r="BF32" s="132"/>
+      <c r="BG32" s="132"/>
+      <c r="BH32" s="132"/>
+      <c r="BI32" s="132"/>
+      <c r="BJ32" s="132"/>
+      <c r="BK32" s="132"/>
+      <c r="BL32" s="132"/>
+      <c r="BM32" s="132"/>
+      <c r="BN32" s="132"/>
+      <c r="BO32" s="132"/>
+      <c r="BP32" s="132"/>
+      <c r="BQ32" s="132"/>
+      <c r="BR32" s="132"/>
+      <c r="BS32" s="132"/>
+      <c r="BT32" s="132"/>
+      <c r="BU32" s="132"/>
+      <c r="BV32" s="132"/>
+      <c r="BW32" s="132"/>
+      <c r="BX32" s="132"/>
+      <c r="BY32" s="132"/>
+      <c r="BZ32" s="132"/>
+      <c r="CA32" s="132"/>
+      <c r="CB32" s="132"/>
+      <c r="CC32" s="132"/>
+      <c r="CD32" s="132"/>
+      <c r="CE32" s="132"/>
+      <c r="CF32" s="132"/>
+      <c r="CG32" s="132"/>
+      <c r="CH32" s="132"/>
+      <c r="CI32" s="132"/>
+      <c r="CJ32" s="132"/>
+      <c r="CK32" s="132"/>
+      <c r="CL32" s="132"/>
+      <c r="CM32" s="132"/>
+      <c r="CN32" s="132"/>
+      <c r="CO32" s="132"/>
+      <c r="CP32" s="132"/>
+      <c r="CQ32" s="132"/>
+      <c r="CR32" s="132"/>
+      <c r="CS32" s="132"/>
+      <c r="CT32" s="132"/>
+      <c r="CU32" s="132"/>
+      <c r="CV32" s="132"/>
+      <c r="CW32" s="132"/>
+      <c r="CX32" s="132"/>
+      <c r="CY32" s="132"/>
+      <c r="CZ32" s="132"/>
+      <c r="DA32" s="132"/>
+      <c r="DB32" s="132"/>
+      <c r="DC32" s="132"/>
+      <c r="DD32" s="132"/>
+      <c r="DE32" s="132"/>
+      <c r="DF32" s="132"/>
+      <c r="DG32" s="132"/>
+      <c r="DH32" s="132"/>
+      <c r="DI32" s="132"/>
+      <c r="DJ32" s="132"/>
+      <c r="DK32" s="132"/>
+      <c r="DL32" s="132"/>
+      <c r="DM32" s="132"/>
+      <c r="DN32" s="132"/>
+      <c r="DO32" s="132"/>
+      <c r="DP32" s="132"/>
+      <c r="DQ32" s="132"/>
+      <c r="DR32" s="132"/>
+      <c r="DS32" s="132"/>
+      <c r="DT32" s="132"/>
+      <c r="DU32" s="132"/>
+      <c r="DV32" s="132"/>
+      <c r="DW32" s="132"/>
+      <c r="DX32" s="132"/>
+      <c r="DY32" s="132"/>
+      <c r="DZ32" s="132"/>
+      <c r="EA32" s="132"/>
+      <c r="EB32" s="132"/>
+      <c r="EC32" s="132"/>
+      <c r="ED32" s="132"/>
+      <c r="EE32" s="132"/>
+      <c r="EF32" s="132"/>
+      <c r="EG32" s="132"/>
+      <c r="EH32" s="132"/>
+      <c r="EI32" s="132"/>
+      <c r="EJ32" s="132"/>
+      <c r="EK32" s="132"/>
+      <c r="EL32" s="132"/>
+      <c r="EM32" s="132"/>
+      <c r="EN32" s="132"/>
+      <c r="EO32" s="132"/>
+      <c r="EP32" s="132"/>
+      <c r="EQ32" s="132"/>
+      <c r="ER32" s="132"/>
+      <c r="ES32" s="132"/>
+      <c r="ET32" s="132"/>
+      <c r="EU32" s="132"/>
+      <c r="EV32" s="132"/>
+      <c r="EW32" s="132"/>
+      <c r="EX32" s="132"/>
+      <c r="EY32" s="132"/>
+      <c r="EZ32" s="132"/>
+      <c r="FA32" s="132"/>
+      <c r="FB32" s="132"/>
+      <c r="FC32" s="132"/>
+      <c r="FD32" s="132"/>
+      <c r="FE32" s="132"/>
+      <c r="FF32" s="132"/>
+      <c r="FG32" s="132"/>
+      <c r="FH32" s="132"/>
+      <c r="FI32" s="132"/>
+      <c r="FJ32" s="132"/>
+      <c r="FK32" s="132"/>
+      <c r="FL32" s="132"/>
+      <c r="FM32" s="132"/>
+      <c r="FN32" s="132"/>
+      <c r="FO32" s="132"/>
+      <c r="FP32" s="132"/>
+      <c r="FQ32" s="132"/>
+      <c r="FR32" s="132"/>
+      <c r="FS32" s="132"/>
+      <c r="FT32" s="132"/>
+      <c r="FU32" s="132"/>
+      <c r="FV32" s="132"/>
+      <c r="FW32" s="132"/>
+      <c r="FX32" s="132"/>
+      <c r="FY32" s="132"/>
+      <c r="FZ32" s="132"/>
+      <c r="GA32" s="132"/>
+      <c r="GB32" s="132"/>
+      <c r="GC32" s="132"/>
+      <c r="GD32" s="132"/>
+      <c r="GE32" s="132"/>
+      <c r="GF32" s="132"/>
+      <c r="GG32" s="132"/>
+      <c r="GH32" s="132"/>
+      <c r="GI32" s="132"/>
+      <c r="GJ32" s="132"/>
+      <c r="GK32" s="132"/>
+      <c r="GL32" s="132"/>
+      <c r="GM32" s="132"/>
+      <c r="GN32" s="132"/>
+      <c r="GO32" s="132"/>
+      <c r="GP32" s="132"/>
+      <c r="GQ32" s="132"/>
+      <c r="GR32" s="132"/>
+      <c r="GS32" s="132"/>
+      <c r="GT32" s="132"/>
+      <c r="GU32" s="132"/>
+      <c r="GV32" s="132"/>
+      <c r="GW32" s="132"/>
+      <c r="GX32" s="132"/>
+      <c r="GY32" s="132"/>
+      <c r="GZ32" s="132"/>
+      <c r="HA32" s="132"/>
+      <c r="HB32" s="132"/>
+      <c r="HC32" s="132"/>
+      <c r="HD32" s="132"/>
+      <c r="HE32" s="132"/>
+      <c r="HF32" s="132"/>
+      <c r="HG32" s="132"/>
+      <c r="HH32" s="132"/>
+      <c r="HI32" s="132"/>
+      <c r="HJ32" s="132"/>
+      <c r="HK32" s="132"/>
+      <c r="HL32" s="132"/>
+      <c r="HM32" s="132"/>
+      <c r="HN32" s="132"/>
+      <c r="HO32" s="132"/>
+      <c r="HP32" s="132"/>
+      <c r="HQ32" s="132"/>
+      <c r="HR32" s="132"/>
+      <c r="HS32" s="132"/>
+      <c r="HT32" s="132"/>
+      <c r="HU32" s="132"/>
+      <c r="HV32" s="132"/>
+      <c r="HW32" s="132"/>
+      <c r="HX32" s="132"/>
+      <c r="HY32" s="132"/>
+      <c r="HZ32" s="132"/>
+      <c r="IA32" s="132"/>
+      <c r="IB32" s="132"/>
+      <c r="IC32" s="132"/>
+      <c r="ID32" s="132"/>
+      <c r="IE32" s="132"/>
+      <c r="IF32" s="132"/>
+      <c r="IG32" s="132"/>
+      <c r="IH32" s="132"/>
+      <c r="II32" s="132"/>
+      <c r="IJ32" s="132"/>
+      <c r="IK32" s="132"/>
+      <c r="IL32" s="132"/>
+      <c r="IM32" s="132"/>
+      <c r="IN32" s="132"/>
+      <c r="IO32" s="132"/>
+      <c r="IP32" s="132"/>
+      <c r="IQ32" s="132"/>
+      <c r="IR32" s="132"/>
+      <c r="IS32" s="132"/>
+      <c r="IT32" s="132"/>
+      <c r="IU32" s="132"/>
+      <c r="IV32" s="132"/>
+      <c r="IW32" s="132"/>
+      <c r="IX32" s="132"/>
+      <c r="IY32" s="132"/>
+      <c r="IZ32" s="132"/>
+      <c r="JA32" s="132"/>
+      <c r="JB32" s="132"/>
+      <c r="JC32" s="132"/>
+      <c r="JD32" s="132"/>
+      <c r="JE32" s="132"/>
+      <c r="JF32" s="132"/>
+      <c r="JG32" s="132"/>
+      <c r="JH32" s="132"/>
+      <c r="JI32" s="132"/>
+      <c r="JJ32" s="132"/>
+      <c r="JK32" s="132"/>
+      <c r="JL32" s="132"/>
+      <c r="JM32" s="132"/>
+      <c r="JN32" s="132"/>
+      <c r="JO32" s="132"/>
+      <c r="JP32" s="132"/>
+      <c r="JQ32" s="132"/>
+      <c r="JR32" s="132"/>
+      <c r="JS32" s="132"/>
+      <c r="JT32" s="132"/>
+      <c r="JU32" s="132"/>
+      <c r="JV32" s="132"/>
+      <c r="JW32" s="132"/>
+      <c r="JX32" s="132"/>
+      <c r="JY32" s="132"/>
+      <c r="JZ32" s="132"/>
+      <c r="KA32" s="132"/>
+      <c r="KB32" s="132"/>
+      <c r="KC32" s="132"/>
+      <c r="KD32" s="132"/>
+      <c r="KE32" s="132"/>
+      <c r="KF32" s="132"/>
+      <c r="KG32" s="132"/>
+      <c r="KH32" s="132"/>
+      <c r="KI32" s="132"/>
+      <c r="KJ32" s="132"/>
+      <c r="KK32" s="132"/>
+      <c r="KL32" s="132"/>
+      <c r="KM32" s="132"/>
+      <c r="KN32" s="132"/>
+      <c r="KO32" s="132"/>
+      <c r="KP32" s="132"/>
+      <c r="KQ32" s="132"/>
+      <c r="KR32" s="132"/>
+      <c r="KS32" s="132"/>
+      <c r="KT32" s="132"/>
+      <c r="KU32" s="132"/>
+      <c r="KV32" s="132"/>
+      <c r="KW32" s="132"/>
+      <c r="KX32" s="132"/>
+      <c r="KY32" s="132"/>
+      <c r="KZ32" s="132"/>
+      <c r="LA32" s="132"/>
+      <c r="LB32" s="132"/>
+      <c r="LC32" s="132"/>
+      <c r="LD32" s="132"/>
+      <c r="LE32" s="132"/>
+      <c r="LF32" s="132"/>
+      <c r="LG32" s="132"/>
+      <c r="LH32" s="132"/>
+      <c r="LI32" s="132"/>
+      <c r="LJ32" s="132"/>
+      <c r="LK32" s="132"/>
+      <c r="LL32" s="132"/>
+      <c r="LM32" s="132"/>
+      <c r="LN32" s="132"/>
+      <c r="LO32" s="132"/>
+      <c r="LP32" s="132"/>
+      <c r="LQ32" s="132"/>
+      <c r="LR32" s="132"/>
+      <c r="LS32" s="132"/>
+      <c r="LT32" s="132"/>
+      <c r="LU32" s="132"/>
+      <c r="LV32" s="132"/>
+      <c r="LW32" s="132"/>
+      <c r="LX32" s="132"/>
+      <c r="LY32" s="132"/>
+      <c r="LZ32" s="132"/>
+      <c r="MA32" s="132"/>
+      <c r="MB32" s="132"/>
+      <c r="MC32" s="132"/>
+      <c r="MD32" s="132"/>
+      <c r="ME32" s="132"/>
+      <c r="MF32" s="132"/>
+      <c r="MG32" s="132"/>
+      <c r="MH32" s="132"/>
+      <c r="MI32" s="132"/>
+      <c r="MJ32" s="132"/>
+      <c r="MK32" s="132"/>
+      <c r="ML32" s="132"/>
+      <c r="MM32" s="132"/>
+      <c r="MN32" s="132"/>
+      <c r="MO32" s="132"/>
+      <c r="MP32" s="132"/>
+      <c r="MQ32" s="132"/>
+      <c r="MR32" s="132"/>
+      <c r="MS32" s="132"/>
+      <c r="MT32" s="132"/>
+      <c r="MU32" s="132"/>
+      <c r="MV32" s="132"/>
+      <c r="MW32" s="132"/>
+      <c r="MX32" s="132"/>
+      <c r="MY32" s="132"/>
+      <c r="MZ32" s="132"/>
+      <c r="NA32" s="132"/>
+      <c r="NB32" s="132"/>
+      <c r="NC32" s="132"/>
+      <c r="ND32" s="132"/>
+      <c r="NE32" s="132"/>
+      <c r="NF32" s="132"/>
+      <c r="NG32" s="132"/>
+      <c r="NH32" s="132"/>
+      <c r="NI32" s="132"/>
+      <c r="NJ32" s="132"/>
+      <c r="NK32" s="132"/>
+      <c r="NL32" s="132"/>
+      <c r="NM32" s="132"/>
+      <c r="NN32" s="132"/>
+      <c r="NO32" s="132"/>
+      <c r="NP32" s="132"/>
+      <c r="NQ32" s="132"/>
+      <c r="NR32" s="132"/>
+      <c r="NS32" s="132"/>
+      <c r="NT32" s="132"/>
+      <c r="NU32" s="132"/>
+      <c r="NV32" s="132"/>
+      <c r="NW32" s="132"/>
+      <c r="NX32" s="132"/>
+      <c r="NY32" s="132"/>
+      <c r="NZ32" s="132"/>
+      <c r="OA32" s="132"/>
+      <c r="OB32" s="132"/>
+      <c r="OC32" s="132"/>
+      <c r="OD32" s="132"/>
+      <c r="OE32" s="132"/>
+      <c r="OF32" s="132"/>
+      <c r="OG32" s="132"/>
+      <c r="OH32" s="132"/>
+      <c r="OI32" s="132"/>
+      <c r="OJ32" s="132"/>
+      <c r="OK32" s="132"/>
+      <c r="OL32" s="132"/>
+      <c r="OM32" s="132"/>
+      <c r="ON32" s="132"/>
+      <c r="OO32" s="132"/>
+      <c r="OP32" s="132"/>
+      <c r="OQ32" s="132"/>
+      <c r="OR32" s="132"/>
+      <c r="OS32" s="132"/>
+      <c r="OT32" s="132"/>
+      <c r="OU32" s="132"/>
+      <c r="OV32" s="132"/>
+      <c r="OW32" s="132"/>
+      <c r="OX32" s="132"/>
+      <c r="OY32" s="132"/>
+      <c r="OZ32" s="132"/>
+      <c r="PA32" s="132"/>
+      <c r="PB32" s="132"/>
+      <c r="PC32" s="132"/>
+      <c r="PD32" s="132"/>
+      <c r="PE32" s="132"/>
+      <c r="PF32" s="132"/>
+      <c r="PG32" s="132"/>
+      <c r="PH32" s="132"/>
+      <c r="PI32" s="132"/>
+      <c r="PJ32" s="132"/>
+      <c r="PK32" s="132"/>
+      <c r="PL32" s="132"/>
+      <c r="PM32" s="132"/>
+      <c r="PN32" s="132"/>
+      <c r="PO32" s="132"/>
+      <c r="PP32" s="132"/>
+      <c r="PQ32" s="132"/>
+      <c r="PR32" s="132"/>
+      <c r="PS32" s="132"/>
+      <c r="PT32" s="132"/>
+      <c r="PU32" s="132"/>
+      <c r="PV32" s="132"/>
+      <c r="PW32" s="132"/>
+      <c r="PX32" s="132"/>
+      <c r="PY32" s="132"/>
+      <c r="PZ32" s="132"/>
+      <c r="QA32" s="132"/>
+      <c r="QB32" s="132"/>
+      <c r="QC32" s="132"/>
+      <c r="QD32" s="132"/>
+      <c r="QE32" s="132"/>
+      <c r="QF32" s="132"/>
+      <c r="QG32" s="132"/>
+      <c r="QH32" s="132"/>
+      <c r="QI32" s="132"/>
+      <c r="QJ32" s="132"/>
+      <c r="QK32" s="132"/>
+      <c r="QL32" s="132"/>
+      <c r="QM32" s="132"/>
+      <c r="QN32" s="132"/>
+      <c r="QO32" s="132"/>
+      <c r="QP32" s="132"/>
+      <c r="QQ32" s="132"/>
+      <c r="QR32" s="132"/>
+      <c r="QS32" s="132"/>
+      <c r="QT32" s="132"/>
+      <c r="QU32" s="132"/>
+      <c r="QV32" s="132"/>
+      <c r="QW32" s="132"/>
+      <c r="QX32" s="132"/>
+      <c r="QY32" s="132"/>
+      <c r="QZ32" s="132"/>
+      <c r="RA32" s="132"/>
+      <c r="RB32" s="132"/>
+      <c r="RC32" s="132"/>
+      <c r="RD32" s="132"/>
+      <c r="RE32" s="132"/>
+      <c r="RF32" s="132"/>
+      <c r="RG32" s="132"/>
+      <c r="RH32" s="132"/>
+      <c r="RI32" s="132"/>
+      <c r="RJ32" s="132"/>
+      <c r="RK32" s="132"/>
+      <c r="RL32" s="132"/>
+      <c r="RM32" s="132"/>
+      <c r="RN32" s="132"/>
+      <c r="RO32" s="132"/>
+      <c r="RP32" s="132"/>
+      <c r="RQ32" s="132"/>
+      <c r="RR32" s="132"/>
+      <c r="RS32" s="132"/>
+      <c r="RT32" s="132"/>
+      <c r="RU32" s="132"/>
+      <c r="RV32" s="132"/>
+      <c r="RW32" s="132"/>
+      <c r="RX32" s="132"/>
+      <c r="RY32" s="132"/>
+      <c r="RZ32" s="132"/>
+      <c r="SA32" s="132"/>
+      <c r="SB32" s="132"/>
+      <c r="SC32" s="132"/>
+      <c r="SD32" s="132"/>
+      <c r="SE32" s="132"/>
+      <c r="SF32" s="132"/>
+      <c r="SG32" s="132"/>
+      <c r="SH32" s="132"/>
+      <c r="SI32" s="132"/>
+      <c r="SJ32" s="132"/>
+      <c r="SK32" s="132"/>
+      <c r="SL32" s="132"/>
+      <c r="SM32" s="132"/>
+      <c r="SN32" s="132"/>
+      <c r="SO32" s="132"/>
+      <c r="SP32" s="132"/>
+      <c r="SQ32" s="132"/>
+      <c r="SR32" s="132"/>
+      <c r="SS32" s="132"/>
+      <c r="ST32" s="132"/>
+      <c r="SU32" s="132"/>
+      <c r="SV32" s="132"/>
+      <c r="SW32" s="132"/>
+      <c r="SX32" s="132"/>
+      <c r="SY32" s="132"/>
+      <c r="SZ32" s="132"/>
+      <c r="TA32" s="132"/>
+      <c r="TB32" s="132"/>
+      <c r="TC32" s="132"/>
+      <c r="TD32" s="132"/>
+      <c r="TE32" s="132"/>
+      <c r="TF32" s="132"/>
+      <c r="TG32" s="132"/>
+      <c r="TH32" s="132"/>
+      <c r="TI32" s="132"/>
+      <c r="TJ32" s="132"/>
+      <c r="TK32" s="132"/>
+      <c r="TL32" s="132"/>
+      <c r="TM32" s="132"/>
+      <c r="TN32" s="132"/>
+      <c r="TO32" s="132"/>
+      <c r="TP32" s="132"/>
+      <c r="TQ32" s="132"/>
+      <c r="TR32" s="132"/>
+      <c r="TS32" s="132"/>
+      <c r="TT32" s="132"/>
+      <c r="TU32" s="132"/>
+      <c r="TV32" s="132"/>
+      <c r="TW32" s="132"/>
+      <c r="TX32" s="132"/>
+      <c r="TY32" s="132"/>
+      <c r="TZ32" s="132"/>
+      <c r="UA32" s="132"/>
+      <c r="UB32" s="132"/>
+      <c r="UC32" s="132"/>
+      <c r="UD32" s="132"/>
+      <c r="UE32" s="132"/>
+      <c r="UF32" s="132"/>
+      <c r="UG32" s="132"/>
+      <c r="UH32" s="132"/>
+      <c r="UI32" s="132"/>
+      <c r="UJ32" s="132"/>
+      <c r="UK32" s="132"/>
+      <c r="UL32" s="132"/>
+      <c r="UM32" s="132"/>
+      <c r="UN32" s="132"/>
+      <c r="UO32" s="132"/>
+      <c r="UP32" s="132"/>
+      <c r="UQ32" s="132"/>
+      <c r="UR32" s="132"/>
+      <c r="US32" s="132"/>
+      <c r="UT32" s="132"/>
+      <c r="UU32" s="132"/>
+      <c r="UV32" s="132"/>
+      <c r="UW32" s="132"/>
+      <c r="UX32" s="132"/>
+      <c r="UY32" s="132"/>
+      <c r="UZ32" s="132"/>
+      <c r="VA32" s="132"/>
+      <c r="VB32" s="132"/>
+      <c r="VC32" s="132"/>
+      <c r="VD32" s="132"/>
+      <c r="VE32" s="132"/>
+      <c r="VF32" s="132"/>
+      <c r="VG32" s="132"/>
+      <c r="VH32" s="132"/>
+      <c r="VI32" s="132"/>
+      <c r="VJ32" s="132"/>
+      <c r="VK32" s="132"/>
+      <c r="VL32" s="132"/>
+      <c r="VM32" s="132"/>
+      <c r="VN32" s="132"/>
+      <c r="VO32" s="132"/>
+      <c r="VP32" s="132"/>
+      <c r="VQ32" s="132"/>
+      <c r="VR32" s="132"/>
+      <c r="VS32" s="132"/>
+      <c r="VT32" s="132"/>
+      <c r="VU32" s="132"/>
+      <c r="VV32" s="132"/>
+      <c r="VW32" s="132"/>
+      <c r="VX32" s="132"/>
+      <c r="VY32" s="132"/>
+      <c r="VZ32" s="132"/>
+      <c r="WA32" s="132"/>
+      <c r="WB32" s="132"/>
+      <c r="WC32" s="132"/>
+      <c r="WD32" s="132"/>
+      <c r="WE32" s="132"/>
+      <c r="WF32" s="132"/>
+      <c r="WG32" s="132"/>
+      <c r="WH32" s="132"/>
+      <c r="WI32" s="132"/>
+      <c r="WJ32" s="132"/>
+      <c r="WK32" s="132"/>
+      <c r="WL32" s="132"/>
+      <c r="WM32" s="132"/>
+      <c r="WN32" s="132"/>
+      <c r="WO32" s="132"/>
+      <c r="WP32" s="132"/>
+      <c r="WQ32" s="132"/>
+      <c r="WR32" s="132"/>
+      <c r="WS32" s="132"/>
+      <c r="WT32" s="132"/>
+      <c r="WU32" s="132"/>
+      <c r="WV32" s="132"/>
+      <c r="WW32" s="132"/>
+      <c r="WX32" s="132"/>
+      <c r="WY32" s="132"/>
+      <c r="WZ32" s="132"/>
+      <c r="XA32" s="132"/>
+      <c r="XB32" s="132"/>
+      <c r="XC32" s="132"/>
+      <c r="XD32" s="132"/>
+      <c r="XE32" s="132"/>
+      <c r="XF32" s="132"/>
+      <c r="XG32" s="132"/>
+      <c r="XH32" s="132"/>
+      <c r="XI32" s="132"/>
+      <c r="XJ32" s="132"/>
+      <c r="XK32" s="132"/>
+      <c r="XL32" s="132"/>
+      <c r="XM32" s="132"/>
+      <c r="XN32" s="132"/>
+      <c r="XO32" s="132"/>
+      <c r="XP32" s="132"/>
+      <c r="XQ32" s="132"/>
+      <c r="XR32" s="132"/>
+      <c r="XS32" s="132"/>
+      <c r="XT32" s="132"/>
+      <c r="XU32" s="132"/>
+      <c r="XV32" s="132"/>
+      <c r="XW32" s="132"/>
+      <c r="XX32" s="132"/>
+      <c r="XY32" s="132"/>
+      <c r="XZ32" s="132"/>
+      <c r="YA32" s="132"/>
+      <c r="YB32" s="132"/>
+      <c r="YC32" s="132"/>
+      <c r="YD32" s="132"/>
+      <c r="YE32" s="132"/>
+      <c r="YF32" s="132"/>
+      <c r="YG32" s="132"/>
+      <c r="YH32" s="132"/>
+      <c r="YI32" s="132"/>
+      <c r="YJ32" s="132"/>
+      <c r="YK32" s="132"/>
+      <c r="YL32" s="132"/>
+      <c r="YM32" s="132"/>
+      <c r="YN32" s="132"/>
+      <c r="YO32" s="132"/>
+      <c r="YP32" s="132"/>
+      <c r="YQ32" s="132"/>
+      <c r="YR32" s="132"/>
+      <c r="YS32" s="132"/>
+      <c r="YT32" s="132"/>
+      <c r="YU32" s="132"/>
+      <c r="YV32" s="132"/>
+      <c r="YW32" s="132"/>
+      <c r="YX32" s="132"/>
+      <c r="YY32" s="132"/>
+      <c r="YZ32" s="132"/>
+      <c r="ZA32" s="132"/>
+      <c r="ZB32" s="132"/>
+      <c r="ZC32" s="132"/>
+      <c r="ZD32" s="132"/>
+      <c r="ZE32" s="132"/>
+      <c r="ZF32" s="132"/>
+      <c r="ZG32" s="132"/>
+      <c r="ZH32" s="132"/>
+      <c r="ZI32" s="132"/>
+      <c r="ZJ32" s="132"/>
+      <c r="ZK32" s="132"/>
+      <c r="ZL32" s="132"/>
+      <c r="ZM32" s="132"/>
+      <c r="ZN32" s="132"/>
+      <c r="ZO32" s="132"/>
+      <c r="ZP32" s="132"/>
+      <c r="ZQ32" s="132"/>
+      <c r="ZR32" s="132"/>
+      <c r="ZS32" s="132"/>
+      <c r="ZT32" s="132"/>
+      <c r="ZU32" s="132"/>
+      <c r="ZV32" s="132"/>
+      <c r="ZW32" s="132"/>
+      <c r="ZX32" s="132"/>
+      <c r="ZY32" s="132"/>
+      <c r="ZZ32" s="132"/>
+      <c r="AAA32" s="132"/>
+      <c r="AAB32" s="132"/>
+      <c r="AAC32" s="132"/>
+      <c r="AAD32" s="132"/>
+      <c r="AAE32" s="132"/>
+      <c r="AAF32" s="132"/>
+      <c r="AAG32" s="132"/>
+      <c r="AAH32" s="132"/>
+      <c r="AAI32" s="132"/>
+      <c r="AAJ32" s="132"/>
+      <c r="AAK32" s="132"/>
+      <c r="AAL32" s="132"/>
+      <c r="AAM32" s="132"/>
+      <c r="AAN32" s="132"/>
+      <c r="AAO32" s="132"/>
+      <c r="AAP32" s="132"/>
+      <c r="AAQ32" s="132"/>
+      <c r="AAR32" s="132"/>
+      <c r="AAS32" s="132"/>
+      <c r="AAT32" s="132"/>
+      <c r="AAU32" s="132"/>
+      <c r="AAV32" s="132"/>
+      <c r="AAW32" s="132"/>
+      <c r="AAX32" s="132"/>
+      <c r="AAY32" s="132"/>
+      <c r="AAZ32" s="132"/>
+      <c r="ABA32" s="132"/>
+      <c r="ABB32" s="132"/>
+      <c r="ABC32" s="132"/>
+      <c r="ABD32" s="132"/>
+      <c r="ABE32" s="132"/>
+      <c r="ABF32" s="132"/>
+      <c r="ABG32" s="132"/>
+      <c r="ABH32" s="132"/>
+      <c r="ABI32" s="132"/>
+      <c r="ABJ32" s="132"/>
+      <c r="ABK32" s="132"/>
+      <c r="ABL32" s="132"/>
+      <c r="ABM32" s="132"/>
+      <c r="ABN32" s="132"/>
+      <c r="ABO32" s="132"/>
+      <c r="ABP32" s="132"/>
+      <c r="ABQ32" s="132"/>
+      <c r="ABR32" s="132"/>
+      <c r="ABS32" s="132"/>
+      <c r="ABT32" s="132"/>
+      <c r="ABU32" s="132"/>
+      <c r="ABV32" s="132"/>
+      <c r="ABW32" s="132"/>
+      <c r="ABX32" s="132"/>
+      <c r="ABY32" s="132"/>
+      <c r="ABZ32" s="132"/>
+      <c r="ACA32" s="132"/>
+      <c r="ACB32" s="132"/>
+      <c r="ACC32" s="132"/>
+      <c r="ACD32" s="132"/>
+      <c r="ACE32" s="132"/>
+      <c r="ACF32" s="132"/>
+      <c r="ACG32" s="132"/>
+      <c r="ACH32" s="132"/>
+      <c r="ACI32" s="132"/>
+      <c r="ACJ32" s="132"/>
+      <c r="ACK32" s="132"/>
+      <c r="ACL32" s="132"/>
+      <c r="ACM32" s="132"/>
+      <c r="ACN32" s="132"/>
+      <c r="ACO32" s="132"/>
+      <c r="ACP32" s="132"/>
+      <c r="ACQ32" s="132"/>
+      <c r="ACR32" s="132"/>
+      <c r="ACS32" s="132"/>
+      <c r="ACT32" s="132"/>
+      <c r="ACU32" s="132"/>
+      <c r="ACV32" s="132"/>
+      <c r="ACW32" s="132"/>
+      <c r="ACX32" s="132"/>
+      <c r="ACY32" s="132"/>
+      <c r="ACZ32" s="132"/>
+      <c r="ADA32" s="132"/>
+      <c r="ADB32" s="132"/>
+      <c r="ADC32" s="132"/>
+      <c r="ADD32" s="132"/>
+      <c r="ADE32" s="132"/>
+      <c r="ADF32" s="132"/>
+      <c r="ADG32" s="132"/>
+      <c r="ADH32" s="132"/>
+      <c r="ADI32" s="132"/>
+      <c r="ADJ32" s="132"/>
+      <c r="ADK32" s="132"/>
+      <c r="ADL32" s="132"/>
+      <c r="ADM32" s="132"/>
+      <c r="ADN32" s="132"/>
+      <c r="ADO32" s="132"/>
+      <c r="ADP32" s="132"/>
+      <c r="ADQ32" s="132"/>
+      <c r="ADR32" s="132"/>
+      <c r="ADS32" s="132"/>
+      <c r="ADT32" s="132"/>
+      <c r="ADU32" s="132"/>
+      <c r="ADV32" s="132"/>
+      <c r="ADW32" s="132"/>
+      <c r="ADX32" s="132"/>
+      <c r="ADY32" s="132"/>
+      <c r="ADZ32" s="132"/>
+      <c r="AEA32" s="132"/>
+      <c r="AEB32" s="132"/>
+      <c r="AEC32" s="132"/>
+      <c r="AED32" s="132"/>
+      <c r="AEE32" s="132"/>
+      <c r="AEF32" s="132"/>
+      <c r="AEG32" s="132"/>
+      <c r="AEH32" s="132"/>
+      <c r="AEI32" s="132"/>
+      <c r="AEJ32" s="132"/>
+      <c r="AEK32" s="132"/>
+      <c r="AEL32" s="132"/>
+      <c r="AEM32" s="132"/>
+      <c r="AEN32" s="132"/>
+      <c r="AEO32" s="132"/>
+      <c r="AEP32" s="132"/>
+      <c r="AEQ32" s="132"/>
+      <c r="AER32" s="132"/>
+      <c r="AES32" s="132"/>
+      <c r="AET32" s="132"/>
+      <c r="AEU32" s="132"/>
+      <c r="AEV32" s="132"/>
+      <c r="AEW32" s="132"/>
+      <c r="AEX32" s="132"/>
+      <c r="AEY32" s="132"/>
+      <c r="AEZ32" s="132"/>
+      <c r="AFA32" s="132"/>
+      <c r="AFB32" s="132"/>
+      <c r="AFC32" s="132"/>
+      <c r="AFD32" s="132"/>
+      <c r="AFE32" s="132"/>
+      <c r="AFF32" s="132"/>
+      <c r="AFG32" s="132"/>
+      <c r="AFH32" s="132"/>
+      <c r="AFI32" s="132"/>
+      <c r="AFJ32" s="132"/>
+      <c r="AFK32" s="132"/>
+      <c r="AFL32" s="132"/>
+      <c r="AFM32" s="132"/>
+      <c r="AFN32" s="132"/>
+      <c r="AFO32" s="132"/>
+      <c r="AFP32" s="132"/>
+      <c r="AFQ32" s="132"/>
+      <c r="AFR32" s="132"/>
+      <c r="AFS32" s="132"/>
+      <c r="AFT32" s="132"/>
+      <c r="AFU32" s="132"/>
+      <c r="AFV32" s="132"/>
+      <c r="AFW32" s="132"/>
+      <c r="AFX32" s="132"/>
+      <c r="AFY32" s="132"/>
+      <c r="AFZ32" s="132"/>
+      <c r="AGA32" s="132"/>
+      <c r="AGB32" s="132"/>
+      <c r="AGC32" s="132"/>
+      <c r="AGD32" s="132"/>
+      <c r="AGE32" s="132"/>
+      <c r="AGF32" s="132"/>
+      <c r="AGG32" s="132"/>
+      <c r="AGH32" s="132"/>
+      <c r="AGI32" s="132"/>
+      <c r="AGJ32" s="132"/>
+      <c r="AGK32" s="132"/>
+      <c r="AGL32" s="132"/>
+      <c r="AGM32" s="132"/>
+      <c r="AGN32" s="132"/>
+      <c r="AGO32" s="132"/>
+      <c r="AGP32" s="132"/>
+      <c r="AGQ32" s="132"/>
+      <c r="AGR32" s="132"/>
+      <c r="AGS32" s="132"/>
+      <c r="AGT32" s="132"/>
+      <c r="AGU32" s="132"/>
+      <c r="AGV32" s="132"/>
+      <c r="AGW32" s="132"/>
+      <c r="AGX32" s="132"/>
+      <c r="AGY32" s="132"/>
+      <c r="AGZ32" s="132"/>
+      <c r="AHA32" s="132"/>
+      <c r="AHB32" s="132"/>
+      <c r="AHC32" s="132"/>
+      <c r="AHD32" s="132"/>
+      <c r="AHE32" s="132"/>
+      <c r="AHF32" s="132"/>
+      <c r="AHG32" s="132"/>
+      <c r="AHH32" s="132"/>
+      <c r="AHI32" s="132"/>
+      <c r="AHJ32" s="132"/>
+      <c r="AHK32" s="132"/>
+      <c r="AHL32" s="132"/>
+      <c r="AHM32" s="132"/>
+      <c r="AHN32" s="132"/>
+      <c r="AHO32" s="132"/>
+      <c r="AHP32" s="132"/>
+      <c r="AHQ32" s="132"/>
+      <c r="AHR32" s="132"/>
+      <c r="AHS32" s="132"/>
+      <c r="AHT32" s="132"/>
+      <c r="AHU32" s="132"/>
+      <c r="AHV32" s="132"/>
+      <c r="AHW32" s="132"/>
+      <c r="AHX32" s="132"/>
+      <c r="AHY32" s="132"/>
+      <c r="AHZ32" s="132"/>
+      <c r="AIA32" s="132"/>
+      <c r="AIB32" s="132"/>
+      <c r="AIC32" s="132"/>
+      <c r="AID32" s="132"/>
+      <c r="AIE32" s="132"/>
+      <c r="AIF32" s="132"/>
+      <c r="AIG32" s="132"/>
+      <c r="AIH32" s="132"/>
+      <c r="AII32" s="132"/>
+      <c r="AIJ32" s="132"/>
+      <c r="AIK32" s="132"/>
+      <c r="AIL32" s="132"/>
+      <c r="AIM32" s="132"/>
+      <c r="AIN32" s="132"/>
+      <c r="AIO32" s="132"/>
+      <c r="AIP32" s="132"/>
+      <c r="AIQ32" s="132"/>
+      <c r="AIR32" s="132"/>
+      <c r="AIS32" s="132"/>
+      <c r="AIT32" s="132"/>
+      <c r="AIU32" s="132"/>
+      <c r="AIV32" s="132"/>
+      <c r="AIW32" s="132"/>
+      <c r="AIX32" s="132"/>
+      <c r="AIY32" s="132"/>
+      <c r="AIZ32" s="132"/>
+      <c r="AJA32" s="132"/>
+      <c r="AJB32" s="132"/>
+      <c r="AJC32" s="132"/>
+      <c r="AJD32" s="132"/>
+      <c r="AJE32" s="132"/>
+      <c r="AJF32" s="132"/>
+      <c r="AJG32" s="132"/>
+      <c r="AJH32" s="132"/>
+      <c r="AJI32" s="132"/>
+      <c r="AJJ32" s="132"/>
+      <c r="AJK32" s="132"/>
+      <c r="AJL32" s="132"/>
+      <c r="AJM32" s="132"/>
+      <c r="AJN32" s="132"/>
+      <c r="AJO32" s="132"/>
+      <c r="AJP32" s="132"/>
+      <c r="AJQ32" s="132"/>
+      <c r="AJR32" s="132"/>
+      <c r="AJS32" s="132"/>
+      <c r="AJT32" s="132"/>
+      <c r="AJU32" s="132"/>
+      <c r="AJV32" s="132"/>
+      <c r="AJW32" s="132"/>
+      <c r="AJX32" s="132"/>
+      <c r="AJY32" s="132"/>
+      <c r="AJZ32" s="132"/>
+      <c r="AKA32" s="132"/>
+      <c r="AKB32" s="132"/>
+      <c r="AKC32" s="132"/>
+      <c r="AKD32" s="132"/>
+      <c r="AKE32" s="132"/>
+      <c r="AKF32" s="132"/>
+      <c r="AKG32" s="132"/>
+      <c r="AKH32" s="132"/>
+      <c r="AKI32" s="132"/>
+      <c r="AKJ32" s="132"/>
+      <c r="AKK32" s="132"/>
+      <c r="AKL32" s="132"/>
+      <c r="AKM32" s="132"/>
+      <c r="AKN32" s="132"/>
+      <c r="AKO32" s="132"/>
+      <c r="AKP32" s="132"/>
+      <c r="AKQ32" s="132"/>
+      <c r="AKR32" s="132"/>
+      <c r="AKS32" s="132"/>
+      <c r="AKT32" s="132"/>
+      <c r="AKU32" s="132"/>
+      <c r="AKV32" s="132"/>
+      <c r="AKW32" s="132"/>
+      <c r="AKX32" s="132"/>
+      <c r="AKY32" s="132"/>
+      <c r="AKZ32" s="132"/>
+      <c r="ALA32" s="132"/>
+      <c r="ALB32" s="132"/>
+      <c r="ALC32" s="132"/>
+      <c r="ALD32" s="132"/>
+      <c r="ALE32" s="132"/>
+      <c r="ALF32" s="132"/>
+      <c r="ALG32" s="132"/>
+      <c r="ALH32" s="132"/>
+      <c r="ALI32" s="132"/>
+      <c r="ALJ32" s="132"/>
+      <c r="ALK32" s="132"/>
+      <c r="ALL32" s="132"/>
+      <c r="ALM32" s="132"/>
+      <c r="ALN32" s="132"/>
+      <c r="ALO32" s="132"/>
+      <c r="ALP32" s="132"/>
+      <c r="ALQ32" s="132"/>
+      <c r="ALR32" s="132"/>
+      <c r="ALS32" s="132"/>
+      <c r="ALT32" s="132"/>
+      <c r="ALU32" s="132"/>
+      <c r="ALV32" s="132"/>
+      <c r="ALW32" s="132"/>
+      <c r="ALX32" s="132"/>
+      <c r="ALY32" s="132"/>
+      <c r="ALZ32" s="132"/>
+      <c r="AMA32" s="132"/>
+      <c r="AMB32" s="132"/>
+      <c r="AMC32" s="132"/>
+      <c r="AMD32" s="132"/>
+      <c r="AME32" s="132"/>
+      <c r="AMF32" s="132"/>
+      <c r="AMG32" s="132"/>
+      <c r="AMH32" s="132"/>
+      <c r="AMI32" s="132"/>
+      <c r="AMJ32" s="132"/>
+      <c r="AMK32" s="132"/>
+      <c r="AML32" s="132"/>
+      <c r="AMM32" s="132"/>
     </row>
     <row r="33" spans="1:1027" s="99" customFormat="1" ht="162.75" x14ac:dyDescent="0.25">
       <c r="A33" s="87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="96" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="97"/>
       <c r="H33" s="97" t="s">
+        <v>652</v>
+      </c>
+      <c r="I33" s="36" t="s">
         <v>654</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>656</v>
       </c>
       <c r="J33" s="98"/>
       <c r="K33" s="98"/>
@@ -29350,7 +29336,7 @@
         <v>292</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:1025" ht="150" x14ac:dyDescent="0.25">
@@ -29374,7 +29360,7 @@
         <v>293</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
@@ -29739,7 +29725,7 @@
         <v>531</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{85F9FA4D-33EC-4527-8FD5-F9BC32BB25CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27C5C68B-C16A-4AC8-8C14-80DCAD376C0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="661">
   <si>
     <r>
       <rPr>
@@ -3296,6 +3296,18 @@
       <t>The no of digits of the masked UIN will be as per the updated config
 In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
     </r>
+  </si>
+  <si>
+    <t>VIN applicable for a country</t>
+  </si>
+  <si>
+    <t>VIN applicable</t>
+  </si>
+  <si>
+    <t>VIN not applicable</t>
+  </si>
+  <si>
+    <t>Denotes if VIN as a concept if it is applicable for a country or not</t>
   </si>
 </sst>
 </file>
@@ -4076,6 +4088,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4091,16 +4113,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5405,17 +5417,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -5993,17 +6005,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10599,17 +10611,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -10977,7 +10989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
@@ -10999,17 +11011,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -21873,14 +21885,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="133" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1027" s="128" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A32" s="85">
         <v>11</v>
       </c>
       <c r="B32" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="125" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="120" t="s">
@@ -21892,1031 +21904,1031 @@
       <c r="F32" s="72" t="s">
         <v>655</v>
       </c>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131" t="s">
+      <c r="G32" s="126"/>
+      <c r="H32" s="126" t="s">
         <v>356</v>
       </c>
       <c r="I32" s="72" t="s">
         <v>656</v>
       </c>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="132"/>
-      <c r="AE32" s="132"/>
-      <c r="AF32" s="132"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="132"/>
-      <c r="AJ32" s="132"/>
-      <c r="AK32" s="132"/>
-      <c r="AL32" s="132"/>
-      <c r="AM32" s="132"/>
-      <c r="AN32" s="132"/>
-      <c r="AO32" s="132"/>
-      <c r="AP32" s="132"/>
-      <c r="AQ32" s="132"/>
-      <c r="AR32" s="132"/>
-      <c r="AS32" s="132"/>
-      <c r="AT32" s="132"/>
-      <c r="AU32" s="132"/>
-      <c r="AV32" s="132"/>
-      <c r="AW32" s="132"/>
-      <c r="AX32" s="132"/>
-      <c r="AY32" s="132"/>
-      <c r="AZ32" s="132"/>
-      <c r="BA32" s="132"/>
-      <c r="BB32" s="132"/>
-      <c r="BC32" s="132"/>
-      <c r="BD32" s="132"/>
-      <c r="BE32" s="132"/>
-      <c r="BF32" s="132"/>
-      <c r="BG32" s="132"/>
-      <c r="BH32" s="132"/>
-      <c r="BI32" s="132"/>
-      <c r="BJ32" s="132"/>
-      <c r="BK32" s="132"/>
-      <c r="BL32" s="132"/>
-      <c r="BM32" s="132"/>
-      <c r="BN32" s="132"/>
-      <c r="BO32" s="132"/>
-      <c r="BP32" s="132"/>
-      <c r="BQ32" s="132"/>
-      <c r="BR32" s="132"/>
-      <c r="BS32" s="132"/>
-      <c r="BT32" s="132"/>
-      <c r="BU32" s="132"/>
-      <c r="BV32" s="132"/>
-      <c r="BW32" s="132"/>
-      <c r="BX32" s="132"/>
-      <c r="BY32" s="132"/>
-      <c r="BZ32" s="132"/>
-      <c r="CA32" s="132"/>
-      <c r="CB32" s="132"/>
-      <c r="CC32" s="132"/>
-      <c r="CD32" s="132"/>
-      <c r="CE32" s="132"/>
-      <c r="CF32" s="132"/>
-      <c r="CG32" s="132"/>
-      <c r="CH32" s="132"/>
-      <c r="CI32" s="132"/>
-      <c r="CJ32" s="132"/>
-      <c r="CK32" s="132"/>
-      <c r="CL32" s="132"/>
-      <c r="CM32" s="132"/>
-      <c r="CN32" s="132"/>
-      <c r="CO32" s="132"/>
-      <c r="CP32" s="132"/>
-      <c r="CQ32" s="132"/>
-      <c r="CR32" s="132"/>
-      <c r="CS32" s="132"/>
-      <c r="CT32" s="132"/>
-      <c r="CU32" s="132"/>
-      <c r="CV32" s="132"/>
-      <c r="CW32" s="132"/>
-      <c r="CX32" s="132"/>
-      <c r="CY32" s="132"/>
-      <c r="CZ32" s="132"/>
-      <c r="DA32" s="132"/>
-      <c r="DB32" s="132"/>
-      <c r="DC32" s="132"/>
-      <c r="DD32" s="132"/>
-      <c r="DE32" s="132"/>
-      <c r="DF32" s="132"/>
-      <c r="DG32" s="132"/>
-      <c r="DH32" s="132"/>
-      <c r="DI32" s="132"/>
-      <c r="DJ32" s="132"/>
-      <c r="DK32" s="132"/>
-      <c r="DL32" s="132"/>
-      <c r="DM32" s="132"/>
-      <c r="DN32" s="132"/>
-      <c r="DO32" s="132"/>
-      <c r="DP32" s="132"/>
-      <c r="DQ32" s="132"/>
-      <c r="DR32" s="132"/>
-      <c r="DS32" s="132"/>
-      <c r="DT32" s="132"/>
-      <c r="DU32" s="132"/>
-      <c r="DV32" s="132"/>
-      <c r="DW32" s="132"/>
-      <c r="DX32" s="132"/>
-      <c r="DY32" s="132"/>
-      <c r="DZ32" s="132"/>
-      <c r="EA32" s="132"/>
-      <c r="EB32" s="132"/>
-      <c r="EC32" s="132"/>
-      <c r="ED32" s="132"/>
-      <c r="EE32" s="132"/>
-      <c r="EF32" s="132"/>
-      <c r="EG32" s="132"/>
-      <c r="EH32" s="132"/>
-      <c r="EI32" s="132"/>
-      <c r="EJ32" s="132"/>
-      <c r="EK32" s="132"/>
-      <c r="EL32" s="132"/>
-      <c r="EM32" s="132"/>
-      <c r="EN32" s="132"/>
-      <c r="EO32" s="132"/>
-      <c r="EP32" s="132"/>
-      <c r="EQ32" s="132"/>
-      <c r="ER32" s="132"/>
-      <c r="ES32" s="132"/>
-      <c r="ET32" s="132"/>
-      <c r="EU32" s="132"/>
-      <c r="EV32" s="132"/>
-      <c r="EW32" s="132"/>
-      <c r="EX32" s="132"/>
-      <c r="EY32" s="132"/>
-      <c r="EZ32" s="132"/>
-      <c r="FA32" s="132"/>
-      <c r="FB32" s="132"/>
-      <c r="FC32" s="132"/>
-      <c r="FD32" s="132"/>
-      <c r="FE32" s="132"/>
-      <c r="FF32" s="132"/>
-      <c r="FG32" s="132"/>
-      <c r="FH32" s="132"/>
-      <c r="FI32" s="132"/>
-      <c r="FJ32" s="132"/>
-      <c r="FK32" s="132"/>
-      <c r="FL32" s="132"/>
-      <c r="FM32" s="132"/>
-      <c r="FN32" s="132"/>
-      <c r="FO32" s="132"/>
-      <c r="FP32" s="132"/>
-      <c r="FQ32" s="132"/>
-      <c r="FR32" s="132"/>
-      <c r="FS32" s="132"/>
-      <c r="FT32" s="132"/>
-      <c r="FU32" s="132"/>
-      <c r="FV32" s="132"/>
-      <c r="FW32" s="132"/>
-      <c r="FX32" s="132"/>
-      <c r="FY32" s="132"/>
-      <c r="FZ32" s="132"/>
-      <c r="GA32" s="132"/>
-      <c r="GB32" s="132"/>
-      <c r="GC32" s="132"/>
-      <c r="GD32" s="132"/>
-      <c r="GE32" s="132"/>
-      <c r="GF32" s="132"/>
-      <c r="GG32" s="132"/>
-      <c r="GH32" s="132"/>
-      <c r="GI32" s="132"/>
-      <c r="GJ32" s="132"/>
-      <c r="GK32" s="132"/>
-      <c r="GL32" s="132"/>
-      <c r="GM32" s="132"/>
-      <c r="GN32" s="132"/>
-      <c r="GO32" s="132"/>
-      <c r="GP32" s="132"/>
-      <c r="GQ32" s="132"/>
-      <c r="GR32" s="132"/>
-      <c r="GS32" s="132"/>
-      <c r="GT32" s="132"/>
-      <c r="GU32" s="132"/>
-      <c r="GV32" s="132"/>
-      <c r="GW32" s="132"/>
-      <c r="GX32" s="132"/>
-      <c r="GY32" s="132"/>
-      <c r="GZ32" s="132"/>
-      <c r="HA32" s="132"/>
-      <c r="HB32" s="132"/>
-      <c r="HC32" s="132"/>
-      <c r="HD32" s="132"/>
-      <c r="HE32" s="132"/>
-      <c r="HF32" s="132"/>
-      <c r="HG32" s="132"/>
-      <c r="HH32" s="132"/>
-      <c r="HI32" s="132"/>
-      <c r="HJ32" s="132"/>
-      <c r="HK32" s="132"/>
-      <c r="HL32" s="132"/>
-      <c r="HM32" s="132"/>
-      <c r="HN32" s="132"/>
-      <c r="HO32" s="132"/>
-      <c r="HP32" s="132"/>
-      <c r="HQ32" s="132"/>
-      <c r="HR32" s="132"/>
-      <c r="HS32" s="132"/>
-      <c r="HT32" s="132"/>
-      <c r="HU32" s="132"/>
-      <c r="HV32" s="132"/>
-      <c r="HW32" s="132"/>
-      <c r="HX32" s="132"/>
-      <c r="HY32" s="132"/>
-      <c r="HZ32" s="132"/>
-      <c r="IA32" s="132"/>
-      <c r="IB32" s="132"/>
-      <c r="IC32" s="132"/>
-      <c r="ID32" s="132"/>
-      <c r="IE32" s="132"/>
-      <c r="IF32" s="132"/>
-      <c r="IG32" s="132"/>
-      <c r="IH32" s="132"/>
-      <c r="II32" s="132"/>
-      <c r="IJ32" s="132"/>
-      <c r="IK32" s="132"/>
-      <c r="IL32" s="132"/>
-      <c r="IM32" s="132"/>
-      <c r="IN32" s="132"/>
-      <c r="IO32" s="132"/>
-      <c r="IP32" s="132"/>
-      <c r="IQ32" s="132"/>
-      <c r="IR32" s="132"/>
-      <c r="IS32" s="132"/>
-      <c r="IT32" s="132"/>
-      <c r="IU32" s="132"/>
-      <c r="IV32" s="132"/>
-      <c r="IW32" s="132"/>
-      <c r="IX32" s="132"/>
-      <c r="IY32" s="132"/>
-      <c r="IZ32" s="132"/>
-      <c r="JA32" s="132"/>
-      <c r="JB32" s="132"/>
-      <c r="JC32" s="132"/>
-      <c r="JD32" s="132"/>
-      <c r="JE32" s="132"/>
-      <c r="JF32" s="132"/>
-      <c r="JG32" s="132"/>
-      <c r="JH32" s="132"/>
-      <c r="JI32" s="132"/>
-      <c r="JJ32" s="132"/>
-      <c r="JK32" s="132"/>
-      <c r="JL32" s="132"/>
-      <c r="JM32" s="132"/>
-      <c r="JN32" s="132"/>
-      <c r="JO32" s="132"/>
-      <c r="JP32" s="132"/>
-      <c r="JQ32" s="132"/>
-      <c r="JR32" s="132"/>
-      <c r="JS32" s="132"/>
-      <c r="JT32" s="132"/>
-      <c r="JU32" s="132"/>
-      <c r="JV32" s="132"/>
-      <c r="JW32" s="132"/>
-      <c r="JX32" s="132"/>
-      <c r="JY32" s="132"/>
-      <c r="JZ32" s="132"/>
-      <c r="KA32" s="132"/>
-      <c r="KB32" s="132"/>
-      <c r="KC32" s="132"/>
-      <c r="KD32" s="132"/>
-      <c r="KE32" s="132"/>
-      <c r="KF32" s="132"/>
-      <c r="KG32" s="132"/>
-      <c r="KH32" s="132"/>
-      <c r="KI32" s="132"/>
-      <c r="KJ32" s="132"/>
-      <c r="KK32" s="132"/>
-      <c r="KL32" s="132"/>
-      <c r="KM32" s="132"/>
-      <c r="KN32" s="132"/>
-      <c r="KO32" s="132"/>
-      <c r="KP32" s="132"/>
-      <c r="KQ32" s="132"/>
-      <c r="KR32" s="132"/>
-      <c r="KS32" s="132"/>
-      <c r="KT32" s="132"/>
-      <c r="KU32" s="132"/>
-      <c r="KV32" s="132"/>
-      <c r="KW32" s="132"/>
-      <c r="KX32" s="132"/>
-      <c r="KY32" s="132"/>
-      <c r="KZ32" s="132"/>
-      <c r="LA32" s="132"/>
-      <c r="LB32" s="132"/>
-      <c r="LC32" s="132"/>
-      <c r="LD32" s="132"/>
-      <c r="LE32" s="132"/>
-      <c r="LF32" s="132"/>
-      <c r="LG32" s="132"/>
-      <c r="LH32" s="132"/>
-      <c r="LI32" s="132"/>
-      <c r="LJ32" s="132"/>
-      <c r="LK32" s="132"/>
-      <c r="LL32" s="132"/>
-      <c r="LM32" s="132"/>
-      <c r="LN32" s="132"/>
-      <c r="LO32" s="132"/>
-      <c r="LP32" s="132"/>
-      <c r="LQ32" s="132"/>
-      <c r="LR32" s="132"/>
-      <c r="LS32" s="132"/>
-      <c r="LT32" s="132"/>
-      <c r="LU32" s="132"/>
-      <c r="LV32" s="132"/>
-      <c r="LW32" s="132"/>
-      <c r="LX32" s="132"/>
-      <c r="LY32" s="132"/>
-      <c r="LZ32" s="132"/>
-      <c r="MA32" s="132"/>
-      <c r="MB32" s="132"/>
-      <c r="MC32" s="132"/>
-      <c r="MD32" s="132"/>
-      <c r="ME32" s="132"/>
-      <c r="MF32" s="132"/>
-      <c r="MG32" s="132"/>
-      <c r="MH32" s="132"/>
-      <c r="MI32" s="132"/>
-      <c r="MJ32" s="132"/>
-      <c r="MK32" s="132"/>
-      <c r="ML32" s="132"/>
-      <c r="MM32" s="132"/>
-      <c r="MN32" s="132"/>
-      <c r="MO32" s="132"/>
-      <c r="MP32" s="132"/>
-      <c r="MQ32" s="132"/>
-      <c r="MR32" s="132"/>
-      <c r="MS32" s="132"/>
-      <c r="MT32" s="132"/>
-      <c r="MU32" s="132"/>
-      <c r="MV32" s="132"/>
-      <c r="MW32" s="132"/>
-      <c r="MX32" s="132"/>
-      <c r="MY32" s="132"/>
-      <c r="MZ32" s="132"/>
-      <c r="NA32" s="132"/>
-      <c r="NB32" s="132"/>
-      <c r="NC32" s="132"/>
-      <c r="ND32" s="132"/>
-      <c r="NE32" s="132"/>
-      <c r="NF32" s="132"/>
-      <c r="NG32" s="132"/>
-      <c r="NH32" s="132"/>
-      <c r="NI32" s="132"/>
-      <c r="NJ32" s="132"/>
-      <c r="NK32" s="132"/>
-      <c r="NL32" s="132"/>
-      <c r="NM32" s="132"/>
-      <c r="NN32" s="132"/>
-      <c r="NO32" s="132"/>
-      <c r="NP32" s="132"/>
-      <c r="NQ32" s="132"/>
-      <c r="NR32" s="132"/>
-      <c r="NS32" s="132"/>
-      <c r="NT32" s="132"/>
-      <c r="NU32" s="132"/>
-      <c r="NV32" s="132"/>
-      <c r="NW32" s="132"/>
-      <c r="NX32" s="132"/>
-      <c r="NY32" s="132"/>
-      <c r="NZ32" s="132"/>
-      <c r="OA32" s="132"/>
-      <c r="OB32" s="132"/>
-      <c r="OC32" s="132"/>
-      <c r="OD32" s="132"/>
-      <c r="OE32" s="132"/>
-      <c r="OF32" s="132"/>
-      <c r="OG32" s="132"/>
-      <c r="OH32" s="132"/>
-      <c r="OI32" s="132"/>
-      <c r="OJ32" s="132"/>
-      <c r="OK32" s="132"/>
-      <c r="OL32" s="132"/>
-      <c r="OM32" s="132"/>
-      <c r="ON32" s="132"/>
-      <c r="OO32" s="132"/>
-      <c r="OP32" s="132"/>
-      <c r="OQ32" s="132"/>
-      <c r="OR32" s="132"/>
-      <c r="OS32" s="132"/>
-      <c r="OT32" s="132"/>
-      <c r="OU32" s="132"/>
-      <c r="OV32" s="132"/>
-      <c r="OW32" s="132"/>
-      <c r="OX32" s="132"/>
-      <c r="OY32" s="132"/>
-      <c r="OZ32" s="132"/>
-      <c r="PA32" s="132"/>
-      <c r="PB32" s="132"/>
-      <c r="PC32" s="132"/>
-      <c r="PD32" s="132"/>
-      <c r="PE32" s="132"/>
-      <c r="PF32" s="132"/>
-      <c r="PG32" s="132"/>
-      <c r="PH32" s="132"/>
-      <c r="PI32" s="132"/>
-      <c r="PJ32" s="132"/>
-      <c r="PK32" s="132"/>
-      <c r="PL32" s="132"/>
-      <c r="PM32" s="132"/>
-      <c r="PN32" s="132"/>
-      <c r="PO32" s="132"/>
-      <c r="PP32" s="132"/>
-      <c r="PQ32" s="132"/>
-      <c r="PR32" s="132"/>
-      <c r="PS32" s="132"/>
-      <c r="PT32" s="132"/>
-      <c r="PU32" s="132"/>
-      <c r="PV32" s="132"/>
-      <c r="PW32" s="132"/>
-      <c r="PX32" s="132"/>
-      <c r="PY32" s="132"/>
-      <c r="PZ32" s="132"/>
-      <c r="QA32" s="132"/>
-      <c r="QB32" s="132"/>
-      <c r="QC32" s="132"/>
-      <c r="QD32" s="132"/>
-      <c r="QE32" s="132"/>
-      <c r="QF32" s="132"/>
-      <c r="QG32" s="132"/>
-      <c r="QH32" s="132"/>
-      <c r="QI32" s="132"/>
-      <c r="QJ32" s="132"/>
-      <c r="QK32" s="132"/>
-      <c r="QL32" s="132"/>
-      <c r="QM32" s="132"/>
-      <c r="QN32" s="132"/>
-      <c r="QO32" s="132"/>
-      <c r="QP32" s="132"/>
-      <c r="QQ32" s="132"/>
-      <c r="QR32" s="132"/>
-      <c r="QS32" s="132"/>
-      <c r="QT32" s="132"/>
-      <c r="QU32" s="132"/>
-      <c r="QV32" s="132"/>
-      <c r="QW32" s="132"/>
-      <c r="QX32" s="132"/>
-      <c r="QY32" s="132"/>
-      <c r="QZ32" s="132"/>
-      <c r="RA32" s="132"/>
-      <c r="RB32" s="132"/>
-      <c r="RC32" s="132"/>
-      <c r="RD32" s="132"/>
-      <c r="RE32" s="132"/>
-      <c r="RF32" s="132"/>
-      <c r="RG32" s="132"/>
-      <c r="RH32" s="132"/>
-      <c r="RI32" s="132"/>
-      <c r="RJ32" s="132"/>
-      <c r="RK32" s="132"/>
-      <c r="RL32" s="132"/>
-      <c r="RM32" s="132"/>
-      <c r="RN32" s="132"/>
-      <c r="RO32" s="132"/>
-      <c r="RP32" s="132"/>
-      <c r="RQ32" s="132"/>
-      <c r="RR32" s="132"/>
-      <c r="RS32" s="132"/>
-      <c r="RT32" s="132"/>
-      <c r="RU32" s="132"/>
-      <c r="RV32" s="132"/>
-      <c r="RW32" s="132"/>
-      <c r="RX32" s="132"/>
-      <c r="RY32" s="132"/>
-      <c r="RZ32" s="132"/>
-      <c r="SA32" s="132"/>
-      <c r="SB32" s="132"/>
-      <c r="SC32" s="132"/>
-      <c r="SD32" s="132"/>
-      <c r="SE32" s="132"/>
-      <c r="SF32" s="132"/>
-      <c r="SG32" s="132"/>
-      <c r="SH32" s="132"/>
-      <c r="SI32" s="132"/>
-      <c r="SJ32" s="132"/>
-      <c r="SK32" s="132"/>
-      <c r="SL32" s="132"/>
-      <c r="SM32" s="132"/>
-      <c r="SN32" s="132"/>
-      <c r="SO32" s="132"/>
-      <c r="SP32" s="132"/>
-      <c r="SQ32" s="132"/>
-      <c r="SR32" s="132"/>
-      <c r="SS32" s="132"/>
-      <c r="ST32" s="132"/>
-      <c r="SU32" s="132"/>
-      <c r="SV32" s="132"/>
-      <c r="SW32" s="132"/>
-      <c r="SX32" s="132"/>
-      <c r="SY32" s="132"/>
-      <c r="SZ32" s="132"/>
-      <c r="TA32" s="132"/>
-      <c r="TB32" s="132"/>
-      <c r="TC32" s="132"/>
-      <c r="TD32" s="132"/>
-      <c r="TE32" s="132"/>
-      <c r="TF32" s="132"/>
-      <c r="TG32" s="132"/>
-      <c r="TH32" s="132"/>
-      <c r="TI32" s="132"/>
-      <c r="TJ32" s="132"/>
-      <c r="TK32" s="132"/>
-      <c r="TL32" s="132"/>
-      <c r="TM32" s="132"/>
-      <c r="TN32" s="132"/>
-      <c r="TO32" s="132"/>
-      <c r="TP32" s="132"/>
-      <c r="TQ32" s="132"/>
-      <c r="TR32" s="132"/>
-      <c r="TS32" s="132"/>
-      <c r="TT32" s="132"/>
-      <c r="TU32" s="132"/>
-      <c r="TV32" s="132"/>
-      <c r="TW32" s="132"/>
-      <c r="TX32" s="132"/>
-      <c r="TY32" s="132"/>
-      <c r="TZ32" s="132"/>
-      <c r="UA32" s="132"/>
-      <c r="UB32" s="132"/>
-      <c r="UC32" s="132"/>
-      <c r="UD32" s="132"/>
-      <c r="UE32" s="132"/>
-      <c r="UF32" s="132"/>
-      <c r="UG32" s="132"/>
-      <c r="UH32" s="132"/>
-      <c r="UI32" s="132"/>
-      <c r="UJ32" s="132"/>
-      <c r="UK32" s="132"/>
-      <c r="UL32" s="132"/>
-      <c r="UM32" s="132"/>
-      <c r="UN32" s="132"/>
-      <c r="UO32" s="132"/>
-      <c r="UP32" s="132"/>
-      <c r="UQ32" s="132"/>
-      <c r="UR32" s="132"/>
-      <c r="US32" s="132"/>
-      <c r="UT32" s="132"/>
-      <c r="UU32" s="132"/>
-      <c r="UV32" s="132"/>
-      <c r="UW32" s="132"/>
-      <c r="UX32" s="132"/>
-      <c r="UY32" s="132"/>
-      <c r="UZ32" s="132"/>
-      <c r="VA32" s="132"/>
-      <c r="VB32" s="132"/>
-      <c r="VC32" s="132"/>
-      <c r="VD32" s="132"/>
-      <c r="VE32" s="132"/>
-      <c r="VF32" s="132"/>
-      <c r="VG32" s="132"/>
-      <c r="VH32" s="132"/>
-      <c r="VI32" s="132"/>
-      <c r="VJ32" s="132"/>
-      <c r="VK32" s="132"/>
-      <c r="VL32" s="132"/>
-      <c r="VM32" s="132"/>
-      <c r="VN32" s="132"/>
-      <c r="VO32" s="132"/>
-      <c r="VP32" s="132"/>
-      <c r="VQ32" s="132"/>
-      <c r="VR32" s="132"/>
-      <c r="VS32" s="132"/>
-      <c r="VT32" s="132"/>
-      <c r="VU32" s="132"/>
-      <c r="VV32" s="132"/>
-      <c r="VW32" s="132"/>
-      <c r="VX32" s="132"/>
-      <c r="VY32" s="132"/>
-      <c r="VZ32" s="132"/>
-      <c r="WA32" s="132"/>
-      <c r="WB32" s="132"/>
-      <c r="WC32" s="132"/>
-      <c r="WD32" s="132"/>
-      <c r="WE32" s="132"/>
-      <c r="WF32" s="132"/>
-      <c r="WG32" s="132"/>
-      <c r="WH32" s="132"/>
-      <c r="WI32" s="132"/>
-      <c r="WJ32" s="132"/>
-      <c r="WK32" s="132"/>
-      <c r="WL32" s="132"/>
-      <c r="WM32" s="132"/>
-      <c r="WN32" s="132"/>
-      <c r="WO32" s="132"/>
-      <c r="WP32" s="132"/>
-      <c r="WQ32" s="132"/>
-      <c r="WR32" s="132"/>
-      <c r="WS32" s="132"/>
-      <c r="WT32" s="132"/>
-      <c r="WU32" s="132"/>
-      <c r="WV32" s="132"/>
-      <c r="WW32" s="132"/>
-      <c r="WX32" s="132"/>
-      <c r="WY32" s="132"/>
-      <c r="WZ32" s="132"/>
-      <c r="XA32" s="132"/>
-      <c r="XB32" s="132"/>
-      <c r="XC32" s="132"/>
-      <c r="XD32" s="132"/>
-      <c r="XE32" s="132"/>
-      <c r="XF32" s="132"/>
-      <c r="XG32" s="132"/>
-      <c r="XH32" s="132"/>
-      <c r="XI32" s="132"/>
-      <c r="XJ32" s="132"/>
-      <c r="XK32" s="132"/>
-      <c r="XL32" s="132"/>
-      <c r="XM32" s="132"/>
-      <c r="XN32" s="132"/>
-      <c r="XO32" s="132"/>
-      <c r="XP32" s="132"/>
-      <c r="XQ32" s="132"/>
-      <c r="XR32" s="132"/>
-      <c r="XS32" s="132"/>
-      <c r="XT32" s="132"/>
-      <c r="XU32" s="132"/>
-      <c r="XV32" s="132"/>
-      <c r="XW32" s="132"/>
-      <c r="XX32" s="132"/>
-      <c r="XY32" s="132"/>
-      <c r="XZ32" s="132"/>
-      <c r="YA32" s="132"/>
-      <c r="YB32" s="132"/>
-      <c r="YC32" s="132"/>
-      <c r="YD32" s="132"/>
-      <c r="YE32" s="132"/>
-      <c r="YF32" s="132"/>
-      <c r="YG32" s="132"/>
-      <c r="YH32" s="132"/>
-      <c r="YI32" s="132"/>
-      <c r="YJ32" s="132"/>
-      <c r="YK32" s="132"/>
-      <c r="YL32" s="132"/>
-      <c r="YM32" s="132"/>
-      <c r="YN32" s="132"/>
-      <c r="YO32" s="132"/>
-      <c r="YP32" s="132"/>
-      <c r="YQ32" s="132"/>
-      <c r="YR32" s="132"/>
-      <c r="YS32" s="132"/>
-      <c r="YT32" s="132"/>
-      <c r="YU32" s="132"/>
-      <c r="YV32" s="132"/>
-      <c r="YW32" s="132"/>
-      <c r="YX32" s="132"/>
-      <c r="YY32" s="132"/>
-      <c r="YZ32" s="132"/>
-      <c r="ZA32" s="132"/>
-      <c r="ZB32" s="132"/>
-      <c r="ZC32" s="132"/>
-      <c r="ZD32" s="132"/>
-      <c r="ZE32" s="132"/>
-      <c r="ZF32" s="132"/>
-      <c r="ZG32" s="132"/>
-      <c r="ZH32" s="132"/>
-      <c r="ZI32" s="132"/>
-      <c r="ZJ32" s="132"/>
-      <c r="ZK32" s="132"/>
-      <c r="ZL32" s="132"/>
-      <c r="ZM32" s="132"/>
-      <c r="ZN32" s="132"/>
-      <c r="ZO32" s="132"/>
-      <c r="ZP32" s="132"/>
-      <c r="ZQ32" s="132"/>
-      <c r="ZR32" s="132"/>
-      <c r="ZS32" s="132"/>
-      <c r="ZT32" s="132"/>
-      <c r="ZU32" s="132"/>
-      <c r="ZV32" s="132"/>
-      <c r="ZW32" s="132"/>
-      <c r="ZX32" s="132"/>
-      <c r="ZY32" s="132"/>
-      <c r="ZZ32" s="132"/>
-      <c r="AAA32" s="132"/>
-      <c r="AAB32" s="132"/>
-      <c r="AAC32" s="132"/>
-      <c r="AAD32" s="132"/>
-      <c r="AAE32" s="132"/>
-      <c r="AAF32" s="132"/>
-      <c r="AAG32" s="132"/>
-      <c r="AAH32" s="132"/>
-      <c r="AAI32" s="132"/>
-      <c r="AAJ32" s="132"/>
-      <c r="AAK32" s="132"/>
-      <c r="AAL32" s="132"/>
-      <c r="AAM32" s="132"/>
-      <c r="AAN32" s="132"/>
-      <c r="AAO32" s="132"/>
-      <c r="AAP32" s="132"/>
-      <c r="AAQ32" s="132"/>
-      <c r="AAR32" s="132"/>
-      <c r="AAS32" s="132"/>
-      <c r="AAT32" s="132"/>
-      <c r="AAU32" s="132"/>
-      <c r="AAV32" s="132"/>
-      <c r="AAW32" s="132"/>
-      <c r="AAX32" s="132"/>
-      <c r="AAY32" s="132"/>
-      <c r="AAZ32" s="132"/>
-      <c r="ABA32" s="132"/>
-      <c r="ABB32" s="132"/>
-      <c r="ABC32" s="132"/>
-      <c r="ABD32" s="132"/>
-      <c r="ABE32" s="132"/>
-      <c r="ABF32" s="132"/>
-      <c r="ABG32" s="132"/>
-      <c r="ABH32" s="132"/>
-      <c r="ABI32" s="132"/>
-      <c r="ABJ32" s="132"/>
-      <c r="ABK32" s="132"/>
-      <c r="ABL32" s="132"/>
-      <c r="ABM32" s="132"/>
-      <c r="ABN32" s="132"/>
-      <c r="ABO32" s="132"/>
-      <c r="ABP32" s="132"/>
-      <c r="ABQ32" s="132"/>
-      <c r="ABR32" s="132"/>
-      <c r="ABS32" s="132"/>
-      <c r="ABT32" s="132"/>
-      <c r="ABU32" s="132"/>
-      <c r="ABV32" s="132"/>
-      <c r="ABW32" s="132"/>
-      <c r="ABX32" s="132"/>
-      <c r="ABY32" s="132"/>
-      <c r="ABZ32" s="132"/>
-      <c r="ACA32" s="132"/>
-      <c r="ACB32" s="132"/>
-      <c r="ACC32" s="132"/>
-      <c r="ACD32" s="132"/>
-      <c r="ACE32" s="132"/>
-      <c r="ACF32" s="132"/>
-      <c r="ACG32" s="132"/>
-      <c r="ACH32" s="132"/>
-      <c r="ACI32" s="132"/>
-      <c r="ACJ32" s="132"/>
-      <c r="ACK32" s="132"/>
-      <c r="ACL32" s="132"/>
-      <c r="ACM32" s="132"/>
-      <c r="ACN32" s="132"/>
-      <c r="ACO32" s="132"/>
-      <c r="ACP32" s="132"/>
-      <c r="ACQ32" s="132"/>
-      <c r="ACR32" s="132"/>
-      <c r="ACS32" s="132"/>
-      <c r="ACT32" s="132"/>
-      <c r="ACU32" s="132"/>
-      <c r="ACV32" s="132"/>
-      <c r="ACW32" s="132"/>
-      <c r="ACX32" s="132"/>
-      <c r="ACY32" s="132"/>
-      <c r="ACZ32" s="132"/>
-      <c r="ADA32" s="132"/>
-      <c r="ADB32" s="132"/>
-      <c r="ADC32" s="132"/>
-      <c r="ADD32" s="132"/>
-      <c r="ADE32" s="132"/>
-      <c r="ADF32" s="132"/>
-      <c r="ADG32" s="132"/>
-      <c r="ADH32" s="132"/>
-      <c r="ADI32" s="132"/>
-      <c r="ADJ32" s="132"/>
-      <c r="ADK32" s="132"/>
-      <c r="ADL32" s="132"/>
-      <c r="ADM32" s="132"/>
-      <c r="ADN32" s="132"/>
-      <c r="ADO32" s="132"/>
-      <c r="ADP32" s="132"/>
-      <c r="ADQ32" s="132"/>
-      <c r="ADR32" s="132"/>
-      <c r="ADS32" s="132"/>
-      <c r="ADT32" s="132"/>
-      <c r="ADU32" s="132"/>
-      <c r="ADV32" s="132"/>
-      <c r="ADW32" s="132"/>
-      <c r="ADX32" s="132"/>
-      <c r="ADY32" s="132"/>
-      <c r="ADZ32" s="132"/>
-      <c r="AEA32" s="132"/>
-      <c r="AEB32" s="132"/>
-      <c r="AEC32" s="132"/>
-      <c r="AED32" s="132"/>
-      <c r="AEE32" s="132"/>
-      <c r="AEF32" s="132"/>
-      <c r="AEG32" s="132"/>
-      <c r="AEH32" s="132"/>
-      <c r="AEI32" s="132"/>
-      <c r="AEJ32" s="132"/>
-      <c r="AEK32" s="132"/>
-      <c r="AEL32" s="132"/>
-      <c r="AEM32" s="132"/>
-      <c r="AEN32" s="132"/>
-      <c r="AEO32" s="132"/>
-      <c r="AEP32" s="132"/>
-      <c r="AEQ32" s="132"/>
-      <c r="AER32" s="132"/>
-      <c r="AES32" s="132"/>
-      <c r="AET32" s="132"/>
-      <c r="AEU32" s="132"/>
-      <c r="AEV32" s="132"/>
-      <c r="AEW32" s="132"/>
-      <c r="AEX32" s="132"/>
-      <c r="AEY32" s="132"/>
-      <c r="AEZ32" s="132"/>
-      <c r="AFA32" s="132"/>
-      <c r="AFB32" s="132"/>
-      <c r="AFC32" s="132"/>
-      <c r="AFD32" s="132"/>
-      <c r="AFE32" s="132"/>
-      <c r="AFF32" s="132"/>
-      <c r="AFG32" s="132"/>
-      <c r="AFH32" s="132"/>
-      <c r="AFI32" s="132"/>
-      <c r="AFJ32" s="132"/>
-      <c r="AFK32" s="132"/>
-      <c r="AFL32" s="132"/>
-      <c r="AFM32" s="132"/>
-      <c r="AFN32" s="132"/>
-      <c r="AFO32" s="132"/>
-      <c r="AFP32" s="132"/>
-      <c r="AFQ32" s="132"/>
-      <c r="AFR32" s="132"/>
-      <c r="AFS32" s="132"/>
-      <c r="AFT32" s="132"/>
-      <c r="AFU32" s="132"/>
-      <c r="AFV32" s="132"/>
-      <c r="AFW32" s="132"/>
-      <c r="AFX32" s="132"/>
-      <c r="AFY32" s="132"/>
-      <c r="AFZ32" s="132"/>
-      <c r="AGA32" s="132"/>
-      <c r="AGB32" s="132"/>
-      <c r="AGC32" s="132"/>
-      <c r="AGD32" s="132"/>
-      <c r="AGE32" s="132"/>
-      <c r="AGF32" s="132"/>
-      <c r="AGG32" s="132"/>
-      <c r="AGH32" s="132"/>
-      <c r="AGI32" s="132"/>
-      <c r="AGJ32" s="132"/>
-      <c r="AGK32" s="132"/>
-      <c r="AGL32" s="132"/>
-      <c r="AGM32" s="132"/>
-      <c r="AGN32" s="132"/>
-      <c r="AGO32" s="132"/>
-      <c r="AGP32" s="132"/>
-      <c r="AGQ32" s="132"/>
-      <c r="AGR32" s="132"/>
-      <c r="AGS32" s="132"/>
-      <c r="AGT32" s="132"/>
-      <c r="AGU32" s="132"/>
-      <c r="AGV32" s="132"/>
-      <c r="AGW32" s="132"/>
-      <c r="AGX32" s="132"/>
-      <c r="AGY32" s="132"/>
-      <c r="AGZ32" s="132"/>
-      <c r="AHA32" s="132"/>
-      <c r="AHB32" s="132"/>
-      <c r="AHC32" s="132"/>
-      <c r="AHD32" s="132"/>
-      <c r="AHE32" s="132"/>
-      <c r="AHF32" s="132"/>
-      <c r="AHG32" s="132"/>
-      <c r="AHH32" s="132"/>
-      <c r="AHI32" s="132"/>
-      <c r="AHJ32" s="132"/>
-      <c r="AHK32" s="132"/>
-      <c r="AHL32" s="132"/>
-      <c r="AHM32" s="132"/>
-      <c r="AHN32" s="132"/>
-      <c r="AHO32" s="132"/>
-      <c r="AHP32" s="132"/>
-      <c r="AHQ32" s="132"/>
-      <c r="AHR32" s="132"/>
-      <c r="AHS32" s="132"/>
-      <c r="AHT32" s="132"/>
-      <c r="AHU32" s="132"/>
-      <c r="AHV32" s="132"/>
-      <c r="AHW32" s="132"/>
-      <c r="AHX32" s="132"/>
-      <c r="AHY32" s="132"/>
-      <c r="AHZ32" s="132"/>
-      <c r="AIA32" s="132"/>
-      <c r="AIB32" s="132"/>
-      <c r="AIC32" s="132"/>
-      <c r="AID32" s="132"/>
-      <c r="AIE32" s="132"/>
-      <c r="AIF32" s="132"/>
-      <c r="AIG32" s="132"/>
-      <c r="AIH32" s="132"/>
-      <c r="AII32" s="132"/>
-      <c r="AIJ32" s="132"/>
-      <c r="AIK32" s="132"/>
-      <c r="AIL32" s="132"/>
-      <c r="AIM32" s="132"/>
-      <c r="AIN32" s="132"/>
-      <c r="AIO32" s="132"/>
-      <c r="AIP32" s="132"/>
-      <c r="AIQ32" s="132"/>
-      <c r="AIR32" s="132"/>
-      <c r="AIS32" s="132"/>
-      <c r="AIT32" s="132"/>
-      <c r="AIU32" s="132"/>
-      <c r="AIV32" s="132"/>
-      <c r="AIW32" s="132"/>
-      <c r="AIX32" s="132"/>
-      <c r="AIY32" s="132"/>
-      <c r="AIZ32" s="132"/>
-      <c r="AJA32" s="132"/>
-      <c r="AJB32" s="132"/>
-      <c r="AJC32" s="132"/>
-      <c r="AJD32" s="132"/>
-      <c r="AJE32" s="132"/>
-      <c r="AJF32" s="132"/>
-      <c r="AJG32" s="132"/>
-      <c r="AJH32" s="132"/>
-      <c r="AJI32" s="132"/>
-      <c r="AJJ32" s="132"/>
-      <c r="AJK32" s="132"/>
-      <c r="AJL32" s="132"/>
-      <c r="AJM32" s="132"/>
-      <c r="AJN32" s="132"/>
-      <c r="AJO32" s="132"/>
-      <c r="AJP32" s="132"/>
-      <c r="AJQ32" s="132"/>
-      <c r="AJR32" s="132"/>
-      <c r="AJS32" s="132"/>
-      <c r="AJT32" s="132"/>
-      <c r="AJU32" s="132"/>
-      <c r="AJV32" s="132"/>
-      <c r="AJW32" s="132"/>
-      <c r="AJX32" s="132"/>
-      <c r="AJY32" s="132"/>
-      <c r="AJZ32" s="132"/>
-      <c r="AKA32" s="132"/>
-      <c r="AKB32" s="132"/>
-      <c r="AKC32" s="132"/>
-      <c r="AKD32" s="132"/>
-      <c r="AKE32" s="132"/>
-      <c r="AKF32" s="132"/>
-      <c r="AKG32" s="132"/>
-      <c r="AKH32" s="132"/>
-      <c r="AKI32" s="132"/>
-      <c r="AKJ32" s="132"/>
-      <c r="AKK32" s="132"/>
-      <c r="AKL32" s="132"/>
-      <c r="AKM32" s="132"/>
-      <c r="AKN32" s="132"/>
-      <c r="AKO32" s="132"/>
-      <c r="AKP32" s="132"/>
-      <c r="AKQ32" s="132"/>
-      <c r="AKR32" s="132"/>
-      <c r="AKS32" s="132"/>
-      <c r="AKT32" s="132"/>
-      <c r="AKU32" s="132"/>
-      <c r="AKV32" s="132"/>
-      <c r="AKW32" s="132"/>
-      <c r="AKX32" s="132"/>
-      <c r="AKY32" s="132"/>
-      <c r="AKZ32" s="132"/>
-      <c r="ALA32" s="132"/>
-      <c r="ALB32" s="132"/>
-      <c r="ALC32" s="132"/>
-      <c r="ALD32" s="132"/>
-      <c r="ALE32" s="132"/>
-      <c r="ALF32" s="132"/>
-      <c r="ALG32" s="132"/>
-      <c r="ALH32" s="132"/>
-      <c r="ALI32" s="132"/>
-      <c r="ALJ32" s="132"/>
-      <c r="ALK32" s="132"/>
-      <c r="ALL32" s="132"/>
-      <c r="ALM32" s="132"/>
-      <c r="ALN32" s="132"/>
-      <c r="ALO32" s="132"/>
-      <c r="ALP32" s="132"/>
-      <c r="ALQ32" s="132"/>
-      <c r="ALR32" s="132"/>
-      <c r="ALS32" s="132"/>
-      <c r="ALT32" s="132"/>
-      <c r="ALU32" s="132"/>
-      <c r="ALV32" s="132"/>
-      <c r="ALW32" s="132"/>
-      <c r="ALX32" s="132"/>
-      <c r="ALY32" s="132"/>
-      <c r="ALZ32" s="132"/>
-      <c r="AMA32" s="132"/>
-      <c r="AMB32" s="132"/>
-      <c r="AMC32" s="132"/>
-      <c r="AMD32" s="132"/>
-      <c r="AME32" s="132"/>
-      <c r="AMF32" s="132"/>
-      <c r="AMG32" s="132"/>
-      <c r="AMH32" s="132"/>
-      <c r="AMI32" s="132"/>
-      <c r="AMJ32" s="132"/>
-      <c r="AMK32" s="132"/>
-      <c r="AML32" s="132"/>
-      <c r="AMM32" s="132"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="127"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="127"/>
+      <c r="AJ32" s="127"/>
+      <c r="AK32" s="127"/>
+      <c r="AL32" s="127"/>
+      <c r="AM32" s="127"/>
+      <c r="AN32" s="127"/>
+      <c r="AO32" s="127"/>
+      <c r="AP32" s="127"/>
+      <c r="AQ32" s="127"/>
+      <c r="AR32" s="127"/>
+      <c r="AS32" s="127"/>
+      <c r="AT32" s="127"/>
+      <c r="AU32" s="127"/>
+      <c r="AV32" s="127"/>
+      <c r="AW32" s="127"/>
+      <c r="AX32" s="127"/>
+      <c r="AY32" s="127"/>
+      <c r="AZ32" s="127"/>
+      <c r="BA32" s="127"/>
+      <c r="BB32" s="127"/>
+      <c r="BC32" s="127"/>
+      <c r="BD32" s="127"/>
+      <c r="BE32" s="127"/>
+      <c r="BF32" s="127"/>
+      <c r="BG32" s="127"/>
+      <c r="BH32" s="127"/>
+      <c r="BI32" s="127"/>
+      <c r="BJ32" s="127"/>
+      <c r="BK32" s="127"/>
+      <c r="BL32" s="127"/>
+      <c r="BM32" s="127"/>
+      <c r="BN32" s="127"/>
+      <c r="BO32" s="127"/>
+      <c r="BP32" s="127"/>
+      <c r="BQ32" s="127"/>
+      <c r="BR32" s="127"/>
+      <c r="BS32" s="127"/>
+      <c r="BT32" s="127"/>
+      <c r="BU32" s="127"/>
+      <c r="BV32" s="127"/>
+      <c r="BW32" s="127"/>
+      <c r="BX32" s="127"/>
+      <c r="BY32" s="127"/>
+      <c r="BZ32" s="127"/>
+      <c r="CA32" s="127"/>
+      <c r="CB32" s="127"/>
+      <c r="CC32" s="127"/>
+      <c r="CD32" s="127"/>
+      <c r="CE32" s="127"/>
+      <c r="CF32" s="127"/>
+      <c r="CG32" s="127"/>
+      <c r="CH32" s="127"/>
+      <c r="CI32" s="127"/>
+      <c r="CJ32" s="127"/>
+      <c r="CK32" s="127"/>
+      <c r="CL32" s="127"/>
+      <c r="CM32" s="127"/>
+      <c r="CN32" s="127"/>
+      <c r="CO32" s="127"/>
+      <c r="CP32" s="127"/>
+      <c r="CQ32" s="127"/>
+      <c r="CR32" s="127"/>
+      <c r="CS32" s="127"/>
+      <c r="CT32" s="127"/>
+      <c r="CU32" s="127"/>
+      <c r="CV32" s="127"/>
+      <c r="CW32" s="127"/>
+      <c r="CX32" s="127"/>
+      <c r="CY32" s="127"/>
+      <c r="CZ32" s="127"/>
+      <c r="DA32" s="127"/>
+      <c r="DB32" s="127"/>
+      <c r="DC32" s="127"/>
+      <c r="DD32" s="127"/>
+      <c r="DE32" s="127"/>
+      <c r="DF32" s="127"/>
+      <c r="DG32" s="127"/>
+      <c r="DH32" s="127"/>
+      <c r="DI32" s="127"/>
+      <c r="DJ32" s="127"/>
+      <c r="DK32" s="127"/>
+      <c r="DL32" s="127"/>
+      <c r="DM32" s="127"/>
+      <c r="DN32" s="127"/>
+      <c r="DO32" s="127"/>
+      <c r="DP32" s="127"/>
+      <c r="DQ32" s="127"/>
+      <c r="DR32" s="127"/>
+      <c r="DS32" s="127"/>
+      <c r="DT32" s="127"/>
+      <c r="DU32" s="127"/>
+      <c r="DV32" s="127"/>
+      <c r="DW32" s="127"/>
+      <c r="DX32" s="127"/>
+      <c r="DY32" s="127"/>
+      <c r="DZ32" s="127"/>
+      <c r="EA32" s="127"/>
+      <c r="EB32" s="127"/>
+      <c r="EC32" s="127"/>
+      <c r="ED32" s="127"/>
+      <c r="EE32" s="127"/>
+      <c r="EF32" s="127"/>
+      <c r="EG32" s="127"/>
+      <c r="EH32" s="127"/>
+      <c r="EI32" s="127"/>
+      <c r="EJ32" s="127"/>
+      <c r="EK32" s="127"/>
+      <c r="EL32" s="127"/>
+      <c r="EM32" s="127"/>
+      <c r="EN32" s="127"/>
+      <c r="EO32" s="127"/>
+      <c r="EP32" s="127"/>
+      <c r="EQ32" s="127"/>
+      <c r="ER32" s="127"/>
+      <c r="ES32" s="127"/>
+      <c r="ET32" s="127"/>
+      <c r="EU32" s="127"/>
+      <c r="EV32" s="127"/>
+      <c r="EW32" s="127"/>
+      <c r="EX32" s="127"/>
+      <c r="EY32" s="127"/>
+      <c r="EZ32" s="127"/>
+      <c r="FA32" s="127"/>
+      <c r="FB32" s="127"/>
+      <c r="FC32" s="127"/>
+      <c r="FD32" s="127"/>
+      <c r="FE32" s="127"/>
+      <c r="FF32" s="127"/>
+      <c r="FG32" s="127"/>
+      <c r="FH32" s="127"/>
+      <c r="FI32" s="127"/>
+      <c r="FJ32" s="127"/>
+      <c r="FK32" s="127"/>
+      <c r="FL32" s="127"/>
+      <c r="FM32" s="127"/>
+      <c r="FN32" s="127"/>
+      <c r="FO32" s="127"/>
+      <c r="FP32" s="127"/>
+      <c r="FQ32" s="127"/>
+      <c r="FR32" s="127"/>
+      <c r="FS32" s="127"/>
+      <c r="FT32" s="127"/>
+      <c r="FU32" s="127"/>
+      <c r="FV32" s="127"/>
+      <c r="FW32" s="127"/>
+      <c r="FX32" s="127"/>
+      <c r="FY32" s="127"/>
+      <c r="FZ32" s="127"/>
+      <c r="GA32" s="127"/>
+      <c r="GB32" s="127"/>
+      <c r="GC32" s="127"/>
+      <c r="GD32" s="127"/>
+      <c r="GE32" s="127"/>
+      <c r="GF32" s="127"/>
+      <c r="GG32" s="127"/>
+      <c r="GH32" s="127"/>
+      <c r="GI32" s="127"/>
+      <c r="GJ32" s="127"/>
+      <c r="GK32" s="127"/>
+      <c r="GL32" s="127"/>
+      <c r="GM32" s="127"/>
+      <c r="GN32" s="127"/>
+      <c r="GO32" s="127"/>
+      <c r="GP32" s="127"/>
+      <c r="GQ32" s="127"/>
+      <c r="GR32" s="127"/>
+      <c r="GS32" s="127"/>
+      <c r="GT32" s="127"/>
+      <c r="GU32" s="127"/>
+      <c r="GV32" s="127"/>
+      <c r="GW32" s="127"/>
+      <c r="GX32" s="127"/>
+      <c r="GY32" s="127"/>
+      <c r="GZ32" s="127"/>
+      <c r="HA32" s="127"/>
+      <c r="HB32" s="127"/>
+      <c r="HC32" s="127"/>
+      <c r="HD32" s="127"/>
+      <c r="HE32" s="127"/>
+      <c r="HF32" s="127"/>
+      <c r="HG32" s="127"/>
+      <c r="HH32" s="127"/>
+      <c r="HI32" s="127"/>
+      <c r="HJ32" s="127"/>
+      <c r="HK32" s="127"/>
+      <c r="HL32" s="127"/>
+      <c r="HM32" s="127"/>
+      <c r="HN32" s="127"/>
+      <c r="HO32" s="127"/>
+      <c r="HP32" s="127"/>
+      <c r="HQ32" s="127"/>
+      <c r="HR32" s="127"/>
+      <c r="HS32" s="127"/>
+      <c r="HT32" s="127"/>
+      <c r="HU32" s="127"/>
+      <c r="HV32" s="127"/>
+      <c r="HW32" s="127"/>
+      <c r="HX32" s="127"/>
+      <c r="HY32" s="127"/>
+      <c r="HZ32" s="127"/>
+      <c r="IA32" s="127"/>
+      <c r="IB32" s="127"/>
+      <c r="IC32" s="127"/>
+      <c r="ID32" s="127"/>
+      <c r="IE32" s="127"/>
+      <c r="IF32" s="127"/>
+      <c r="IG32" s="127"/>
+      <c r="IH32" s="127"/>
+      <c r="II32" s="127"/>
+      <c r="IJ32" s="127"/>
+      <c r="IK32" s="127"/>
+      <c r="IL32" s="127"/>
+      <c r="IM32" s="127"/>
+      <c r="IN32" s="127"/>
+      <c r="IO32" s="127"/>
+      <c r="IP32" s="127"/>
+      <c r="IQ32" s="127"/>
+      <c r="IR32" s="127"/>
+      <c r="IS32" s="127"/>
+      <c r="IT32" s="127"/>
+      <c r="IU32" s="127"/>
+      <c r="IV32" s="127"/>
+      <c r="IW32" s="127"/>
+      <c r="IX32" s="127"/>
+      <c r="IY32" s="127"/>
+      <c r="IZ32" s="127"/>
+      <c r="JA32" s="127"/>
+      <c r="JB32" s="127"/>
+      <c r="JC32" s="127"/>
+      <c r="JD32" s="127"/>
+      <c r="JE32" s="127"/>
+      <c r="JF32" s="127"/>
+      <c r="JG32" s="127"/>
+      <c r="JH32" s="127"/>
+      <c r="JI32" s="127"/>
+      <c r="JJ32" s="127"/>
+      <c r="JK32" s="127"/>
+      <c r="JL32" s="127"/>
+      <c r="JM32" s="127"/>
+      <c r="JN32" s="127"/>
+      <c r="JO32" s="127"/>
+      <c r="JP32" s="127"/>
+      <c r="JQ32" s="127"/>
+      <c r="JR32" s="127"/>
+      <c r="JS32" s="127"/>
+      <c r="JT32" s="127"/>
+      <c r="JU32" s="127"/>
+      <c r="JV32" s="127"/>
+      <c r="JW32" s="127"/>
+      <c r="JX32" s="127"/>
+      <c r="JY32" s="127"/>
+      <c r="JZ32" s="127"/>
+      <c r="KA32" s="127"/>
+      <c r="KB32" s="127"/>
+      <c r="KC32" s="127"/>
+      <c r="KD32" s="127"/>
+      <c r="KE32" s="127"/>
+      <c r="KF32" s="127"/>
+      <c r="KG32" s="127"/>
+      <c r="KH32" s="127"/>
+      <c r="KI32" s="127"/>
+      <c r="KJ32" s="127"/>
+      <c r="KK32" s="127"/>
+      <c r="KL32" s="127"/>
+      <c r="KM32" s="127"/>
+      <c r="KN32" s="127"/>
+      <c r="KO32" s="127"/>
+      <c r="KP32" s="127"/>
+      <c r="KQ32" s="127"/>
+      <c r="KR32" s="127"/>
+      <c r="KS32" s="127"/>
+      <c r="KT32" s="127"/>
+      <c r="KU32" s="127"/>
+      <c r="KV32" s="127"/>
+      <c r="KW32" s="127"/>
+      <c r="KX32" s="127"/>
+      <c r="KY32" s="127"/>
+      <c r="KZ32" s="127"/>
+      <c r="LA32" s="127"/>
+      <c r="LB32" s="127"/>
+      <c r="LC32" s="127"/>
+      <c r="LD32" s="127"/>
+      <c r="LE32" s="127"/>
+      <c r="LF32" s="127"/>
+      <c r="LG32" s="127"/>
+      <c r="LH32" s="127"/>
+      <c r="LI32" s="127"/>
+      <c r="LJ32" s="127"/>
+      <c r="LK32" s="127"/>
+      <c r="LL32" s="127"/>
+      <c r="LM32" s="127"/>
+      <c r="LN32" s="127"/>
+      <c r="LO32" s="127"/>
+      <c r="LP32" s="127"/>
+      <c r="LQ32" s="127"/>
+      <c r="LR32" s="127"/>
+      <c r="LS32" s="127"/>
+      <c r="LT32" s="127"/>
+      <c r="LU32" s="127"/>
+      <c r="LV32" s="127"/>
+      <c r="LW32" s="127"/>
+      <c r="LX32" s="127"/>
+      <c r="LY32" s="127"/>
+      <c r="LZ32" s="127"/>
+      <c r="MA32" s="127"/>
+      <c r="MB32" s="127"/>
+      <c r="MC32" s="127"/>
+      <c r="MD32" s="127"/>
+      <c r="ME32" s="127"/>
+      <c r="MF32" s="127"/>
+      <c r="MG32" s="127"/>
+      <c r="MH32" s="127"/>
+      <c r="MI32" s="127"/>
+      <c r="MJ32" s="127"/>
+      <c r="MK32" s="127"/>
+      <c r="ML32" s="127"/>
+      <c r="MM32" s="127"/>
+      <c r="MN32" s="127"/>
+      <c r="MO32" s="127"/>
+      <c r="MP32" s="127"/>
+      <c r="MQ32" s="127"/>
+      <c r="MR32" s="127"/>
+      <c r="MS32" s="127"/>
+      <c r="MT32" s="127"/>
+      <c r="MU32" s="127"/>
+      <c r="MV32" s="127"/>
+      <c r="MW32" s="127"/>
+      <c r="MX32" s="127"/>
+      <c r="MY32" s="127"/>
+      <c r="MZ32" s="127"/>
+      <c r="NA32" s="127"/>
+      <c r="NB32" s="127"/>
+      <c r="NC32" s="127"/>
+      <c r="ND32" s="127"/>
+      <c r="NE32" s="127"/>
+      <c r="NF32" s="127"/>
+      <c r="NG32" s="127"/>
+      <c r="NH32" s="127"/>
+      <c r="NI32" s="127"/>
+      <c r="NJ32" s="127"/>
+      <c r="NK32" s="127"/>
+      <c r="NL32" s="127"/>
+      <c r="NM32" s="127"/>
+      <c r="NN32" s="127"/>
+      <c r="NO32" s="127"/>
+      <c r="NP32" s="127"/>
+      <c r="NQ32" s="127"/>
+      <c r="NR32" s="127"/>
+      <c r="NS32" s="127"/>
+      <c r="NT32" s="127"/>
+      <c r="NU32" s="127"/>
+      <c r="NV32" s="127"/>
+      <c r="NW32" s="127"/>
+      <c r="NX32" s="127"/>
+      <c r="NY32" s="127"/>
+      <c r="NZ32" s="127"/>
+      <c r="OA32" s="127"/>
+      <c r="OB32" s="127"/>
+      <c r="OC32" s="127"/>
+      <c r="OD32" s="127"/>
+      <c r="OE32" s="127"/>
+      <c r="OF32" s="127"/>
+      <c r="OG32" s="127"/>
+      <c r="OH32" s="127"/>
+      <c r="OI32" s="127"/>
+      <c r="OJ32" s="127"/>
+      <c r="OK32" s="127"/>
+      <c r="OL32" s="127"/>
+      <c r="OM32" s="127"/>
+      <c r="ON32" s="127"/>
+      <c r="OO32" s="127"/>
+      <c r="OP32" s="127"/>
+      <c r="OQ32" s="127"/>
+      <c r="OR32" s="127"/>
+      <c r="OS32" s="127"/>
+      <c r="OT32" s="127"/>
+      <c r="OU32" s="127"/>
+      <c r="OV32" s="127"/>
+      <c r="OW32" s="127"/>
+      <c r="OX32" s="127"/>
+      <c r="OY32" s="127"/>
+      <c r="OZ32" s="127"/>
+      <c r="PA32" s="127"/>
+      <c r="PB32" s="127"/>
+      <c r="PC32" s="127"/>
+      <c r="PD32" s="127"/>
+      <c r="PE32" s="127"/>
+      <c r="PF32" s="127"/>
+      <c r="PG32" s="127"/>
+      <c r="PH32" s="127"/>
+      <c r="PI32" s="127"/>
+      <c r="PJ32" s="127"/>
+      <c r="PK32" s="127"/>
+      <c r="PL32" s="127"/>
+      <c r="PM32" s="127"/>
+      <c r="PN32" s="127"/>
+      <c r="PO32" s="127"/>
+      <c r="PP32" s="127"/>
+      <c r="PQ32" s="127"/>
+      <c r="PR32" s="127"/>
+      <c r="PS32" s="127"/>
+      <c r="PT32" s="127"/>
+      <c r="PU32" s="127"/>
+      <c r="PV32" s="127"/>
+      <c r="PW32" s="127"/>
+      <c r="PX32" s="127"/>
+      <c r="PY32" s="127"/>
+      <c r="PZ32" s="127"/>
+      <c r="QA32" s="127"/>
+      <c r="QB32" s="127"/>
+      <c r="QC32" s="127"/>
+      <c r="QD32" s="127"/>
+      <c r="QE32" s="127"/>
+      <c r="QF32" s="127"/>
+      <c r="QG32" s="127"/>
+      <c r="QH32" s="127"/>
+      <c r="QI32" s="127"/>
+      <c r="QJ32" s="127"/>
+      <c r="QK32" s="127"/>
+      <c r="QL32" s="127"/>
+      <c r="QM32" s="127"/>
+      <c r="QN32" s="127"/>
+      <c r="QO32" s="127"/>
+      <c r="QP32" s="127"/>
+      <c r="QQ32" s="127"/>
+      <c r="QR32" s="127"/>
+      <c r="QS32" s="127"/>
+      <c r="QT32" s="127"/>
+      <c r="QU32" s="127"/>
+      <c r="QV32" s="127"/>
+      <c r="QW32" s="127"/>
+      <c r="QX32" s="127"/>
+      <c r="QY32" s="127"/>
+      <c r="QZ32" s="127"/>
+      <c r="RA32" s="127"/>
+      <c r="RB32" s="127"/>
+      <c r="RC32" s="127"/>
+      <c r="RD32" s="127"/>
+      <c r="RE32" s="127"/>
+      <c r="RF32" s="127"/>
+      <c r="RG32" s="127"/>
+      <c r="RH32" s="127"/>
+      <c r="RI32" s="127"/>
+      <c r="RJ32" s="127"/>
+      <c r="RK32" s="127"/>
+      <c r="RL32" s="127"/>
+      <c r="RM32" s="127"/>
+      <c r="RN32" s="127"/>
+      <c r="RO32" s="127"/>
+      <c r="RP32" s="127"/>
+      <c r="RQ32" s="127"/>
+      <c r="RR32" s="127"/>
+      <c r="RS32" s="127"/>
+      <c r="RT32" s="127"/>
+      <c r="RU32" s="127"/>
+      <c r="RV32" s="127"/>
+      <c r="RW32" s="127"/>
+      <c r="RX32" s="127"/>
+      <c r="RY32" s="127"/>
+      <c r="RZ32" s="127"/>
+      <c r="SA32" s="127"/>
+      <c r="SB32" s="127"/>
+      <c r="SC32" s="127"/>
+      <c r="SD32" s="127"/>
+      <c r="SE32" s="127"/>
+      <c r="SF32" s="127"/>
+      <c r="SG32" s="127"/>
+      <c r="SH32" s="127"/>
+      <c r="SI32" s="127"/>
+      <c r="SJ32" s="127"/>
+      <c r="SK32" s="127"/>
+      <c r="SL32" s="127"/>
+      <c r="SM32" s="127"/>
+      <c r="SN32" s="127"/>
+      <c r="SO32" s="127"/>
+      <c r="SP32" s="127"/>
+      <c r="SQ32" s="127"/>
+      <c r="SR32" s="127"/>
+      <c r="SS32" s="127"/>
+      <c r="ST32" s="127"/>
+      <c r="SU32" s="127"/>
+      <c r="SV32" s="127"/>
+      <c r="SW32" s="127"/>
+      <c r="SX32" s="127"/>
+      <c r="SY32" s="127"/>
+      <c r="SZ32" s="127"/>
+      <c r="TA32" s="127"/>
+      <c r="TB32" s="127"/>
+      <c r="TC32" s="127"/>
+      <c r="TD32" s="127"/>
+      <c r="TE32" s="127"/>
+      <c r="TF32" s="127"/>
+      <c r="TG32" s="127"/>
+      <c r="TH32" s="127"/>
+      <c r="TI32" s="127"/>
+      <c r="TJ32" s="127"/>
+      <c r="TK32" s="127"/>
+      <c r="TL32" s="127"/>
+      <c r="TM32" s="127"/>
+      <c r="TN32" s="127"/>
+      <c r="TO32" s="127"/>
+      <c r="TP32" s="127"/>
+      <c r="TQ32" s="127"/>
+      <c r="TR32" s="127"/>
+      <c r="TS32" s="127"/>
+      <c r="TT32" s="127"/>
+      <c r="TU32" s="127"/>
+      <c r="TV32" s="127"/>
+      <c r="TW32" s="127"/>
+      <c r="TX32" s="127"/>
+      <c r="TY32" s="127"/>
+      <c r="TZ32" s="127"/>
+      <c r="UA32" s="127"/>
+      <c r="UB32" s="127"/>
+      <c r="UC32" s="127"/>
+      <c r="UD32" s="127"/>
+      <c r="UE32" s="127"/>
+      <c r="UF32" s="127"/>
+      <c r="UG32" s="127"/>
+      <c r="UH32" s="127"/>
+      <c r="UI32" s="127"/>
+      <c r="UJ32" s="127"/>
+      <c r="UK32" s="127"/>
+      <c r="UL32" s="127"/>
+      <c r="UM32" s="127"/>
+      <c r="UN32" s="127"/>
+      <c r="UO32" s="127"/>
+      <c r="UP32" s="127"/>
+      <c r="UQ32" s="127"/>
+      <c r="UR32" s="127"/>
+      <c r="US32" s="127"/>
+      <c r="UT32" s="127"/>
+      <c r="UU32" s="127"/>
+      <c r="UV32" s="127"/>
+      <c r="UW32" s="127"/>
+      <c r="UX32" s="127"/>
+      <c r="UY32" s="127"/>
+      <c r="UZ32" s="127"/>
+      <c r="VA32" s="127"/>
+      <c r="VB32" s="127"/>
+      <c r="VC32" s="127"/>
+      <c r="VD32" s="127"/>
+      <c r="VE32" s="127"/>
+      <c r="VF32" s="127"/>
+      <c r="VG32" s="127"/>
+      <c r="VH32" s="127"/>
+      <c r="VI32" s="127"/>
+      <c r="VJ32" s="127"/>
+      <c r="VK32" s="127"/>
+      <c r="VL32" s="127"/>
+      <c r="VM32" s="127"/>
+      <c r="VN32" s="127"/>
+      <c r="VO32" s="127"/>
+      <c r="VP32" s="127"/>
+      <c r="VQ32" s="127"/>
+      <c r="VR32" s="127"/>
+      <c r="VS32" s="127"/>
+      <c r="VT32" s="127"/>
+      <c r="VU32" s="127"/>
+      <c r="VV32" s="127"/>
+      <c r="VW32" s="127"/>
+      <c r="VX32" s="127"/>
+      <c r="VY32" s="127"/>
+      <c r="VZ32" s="127"/>
+      <c r="WA32" s="127"/>
+      <c r="WB32" s="127"/>
+      <c r="WC32" s="127"/>
+      <c r="WD32" s="127"/>
+      <c r="WE32" s="127"/>
+      <c r="WF32" s="127"/>
+      <c r="WG32" s="127"/>
+      <c r="WH32" s="127"/>
+      <c r="WI32" s="127"/>
+      <c r="WJ32" s="127"/>
+      <c r="WK32" s="127"/>
+      <c r="WL32" s="127"/>
+      <c r="WM32" s="127"/>
+      <c r="WN32" s="127"/>
+      <c r="WO32" s="127"/>
+      <c r="WP32" s="127"/>
+      <c r="WQ32" s="127"/>
+      <c r="WR32" s="127"/>
+      <c r="WS32" s="127"/>
+      <c r="WT32" s="127"/>
+      <c r="WU32" s="127"/>
+      <c r="WV32" s="127"/>
+      <c r="WW32" s="127"/>
+      <c r="WX32" s="127"/>
+      <c r="WY32" s="127"/>
+      <c r="WZ32" s="127"/>
+      <c r="XA32" s="127"/>
+      <c r="XB32" s="127"/>
+      <c r="XC32" s="127"/>
+      <c r="XD32" s="127"/>
+      <c r="XE32" s="127"/>
+      <c r="XF32" s="127"/>
+      <c r="XG32" s="127"/>
+      <c r="XH32" s="127"/>
+      <c r="XI32" s="127"/>
+      <c r="XJ32" s="127"/>
+      <c r="XK32" s="127"/>
+      <c r="XL32" s="127"/>
+      <c r="XM32" s="127"/>
+      <c r="XN32" s="127"/>
+      <c r="XO32" s="127"/>
+      <c r="XP32" s="127"/>
+      <c r="XQ32" s="127"/>
+      <c r="XR32" s="127"/>
+      <c r="XS32" s="127"/>
+      <c r="XT32" s="127"/>
+      <c r="XU32" s="127"/>
+      <c r="XV32" s="127"/>
+      <c r="XW32" s="127"/>
+      <c r="XX32" s="127"/>
+      <c r="XY32" s="127"/>
+      <c r="XZ32" s="127"/>
+      <c r="YA32" s="127"/>
+      <c r="YB32" s="127"/>
+      <c r="YC32" s="127"/>
+      <c r="YD32" s="127"/>
+      <c r="YE32" s="127"/>
+      <c r="YF32" s="127"/>
+      <c r="YG32" s="127"/>
+      <c r="YH32" s="127"/>
+      <c r="YI32" s="127"/>
+      <c r="YJ32" s="127"/>
+      <c r="YK32" s="127"/>
+      <c r="YL32" s="127"/>
+      <c r="YM32" s="127"/>
+      <c r="YN32" s="127"/>
+      <c r="YO32" s="127"/>
+      <c r="YP32" s="127"/>
+      <c r="YQ32" s="127"/>
+      <c r="YR32" s="127"/>
+      <c r="YS32" s="127"/>
+      <c r="YT32" s="127"/>
+      <c r="YU32" s="127"/>
+      <c r="YV32" s="127"/>
+      <c r="YW32" s="127"/>
+      <c r="YX32" s="127"/>
+      <c r="YY32" s="127"/>
+      <c r="YZ32" s="127"/>
+      <c r="ZA32" s="127"/>
+      <c r="ZB32" s="127"/>
+      <c r="ZC32" s="127"/>
+      <c r="ZD32" s="127"/>
+      <c r="ZE32" s="127"/>
+      <c r="ZF32" s="127"/>
+      <c r="ZG32" s="127"/>
+      <c r="ZH32" s="127"/>
+      <c r="ZI32" s="127"/>
+      <c r="ZJ32" s="127"/>
+      <c r="ZK32" s="127"/>
+      <c r="ZL32" s="127"/>
+      <c r="ZM32" s="127"/>
+      <c r="ZN32" s="127"/>
+      <c r="ZO32" s="127"/>
+      <c r="ZP32" s="127"/>
+      <c r="ZQ32" s="127"/>
+      <c r="ZR32" s="127"/>
+      <c r="ZS32" s="127"/>
+      <c r="ZT32" s="127"/>
+      <c r="ZU32" s="127"/>
+      <c r="ZV32" s="127"/>
+      <c r="ZW32" s="127"/>
+      <c r="ZX32" s="127"/>
+      <c r="ZY32" s="127"/>
+      <c r="ZZ32" s="127"/>
+      <c r="AAA32" s="127"/>
+      <c r="AAB32" s="127"/>
+      <c r="AAC32" s="127"/>
+      <c r="AAD32" s="127"/>
+      <c r="AAE32" s="127"/>
+      <c r="AAF32" s="127"/>
+      <c r="AAG32" s="127"/>
+      <c r="AAH32" s="127"/>
+      <c r="AAI32" s="127"/>
+      <c r="AAJ32" s="127"/>
+      <c r="AAK32" s="127"/>
+      <c r="AAL32" s="127"/>
+      <c r="AAM32" s="127"/>
+      <c r="AAN32" s="127"/>
+      <c r="AAO32" s="127"/>
+      <c r="AAP32" s="127"/>
+      <c r="AAQ32" s="127"/>
+      <c r="AAR32" s="127"/>
+      <c r="AAS32" s="127"/>
+      <c r="AAT32" s="127"/>
+      <c r="AAU32" s="127"/>
+      <c r="AAV32" s="127"/>
+      <c r="AAW32" s="127"/>
+      <c r="AAX32" s="127"/>
+      <c r="AAY32" s="127"/>
+      <c r="AAZ32" s="127"/>
+      <c r="ABA32" s="127"/>
+      <c r="ABB32" s="127"/>
+      <c r="ABC32" s="127"/>
+      <c r="ABD32" s="127"/>
+      <c r="ABE32" s="127"/>
+      <c r="ABF32" s="127"/>
+      <c r="ABG32" s="127"/>
+      <c r="ABH32" s="127"/>
+      <c r="ABI32" s="127"/>
+      <c r="ABJ32" s="127"/>
+      <c r="ABK32" s="127"/>
+      <c r="ABL32" s="127"/>
+      <c r="ABM32" s="127"/>
+      <c r="ABN32" s="127"/>
+      <c r="ABO32" s="127"/>
+      <c r="ABP32" s="127"/>
+      <c r="ABQ32" s="127"/>
+      <c r="ABR32" s="127"/>
+      <c r="ABS32" s="127"/>
+      <c r="ABT32" s="127"/>
+      <c r="ABU32" s="127"/>
+      <c r="ABV32" s="127"/>
+      <c r="ABW32" s="127"/>
+      <c r="ABX32" s="127"/>
+      <c r="ABY32" s="127"/>
+      <c r="ABZ32" s="127"/>
+      <c r="ACA32" s="127"/>
+      <c r="ACB32" s="127"/>
+      <c r="ACC32" s="127"/>
+      <c r="ACD32" s="127"/>
+      <c r="ACE32" s="127"/>
+      <c r="ACF32" s="127"/>
+      <c r="ACG32" s="127"/>
+      <c r="ACH32" s="127"/>
+      <c r="ACI32" s="127"/>
+      <c r="ACJ32" s="127"/>
+      <c r="ACK32" s="127"/>
+      <c r="ACL32" s="127"/>
+      <c r="ACM32" s="127"/>
+      <c r="ACN32" s="127"/>
+      <c r="ACO32" s="127"/>
+      <c r="ACP32" s="127"/>
+      <c r="ACQ32" s="127"/>
+      <c r="ACR32" s="127"/>
+      <c r="ACS32" s="127"/>
+      <c r="ACT32" s="127"/>
+      <c r="ACU32" s="127"/>
+      <c r="ACV32" s="127"/>
+      <c r="ACW32" s="127"/>
+      <c r="ACX32" s="127"/>
+      <c r="ACY32" s="127"/>
+      <c r="ACZ32" s="127"/>
+      <c r="ADA32" s="127"/>
+      <c r="ADB32" s="127"/>
+      <c r="ADC32" s="127"/>
+      <c r="ADD32" s="127"/>
+      <c r="ADE32" s="127"/>
+      <c r="ADF32" s="127"/>
+      <c r="ADG32" s="127"/>
+      <c r="ADH32" s="127"/>
+      <c r="ADI32" s="127"/>
+      <c r="ADJ32" s="127"/>
+      <c r="ADK32" s="127"/>
+      <c r="ADL32" s="127"/>
+      <c r="ADM32" s="127"/>
+      <c r="ADN32" s="127"/>
+      <c r="ADO32" s="127"/>
+      <c r="ADP32" s="127"/>
+      <c r="ADQ32" s="127"/>
+      <c r="ADR32" s="127"/>
+      <c r="ADS32" s="127"/>
+      <c r="ADT32" s="127"/>
+      <c r="ADU32" s="127"/>
+      <c r="ADV32" s="127"/>
+      <c r="ADW32" s="127"/>
+      <c r="ADX32" s="127"/>
+      <c r="ADY32" s="127"/>
+      <c r="ADZ32" s="127"/>
+      <c r="AEA32" s="127"/>
+      <c r="AEB32" s="127"/>
+      <c r="AEC32" s="127"/>
+      <c r="AED32" s="127"/>
+      <c r="AEE32" s="127"/>
+      <c r="AEF32" s="127"/>
+      <c r="AEG32" s="127"/>
+      <c r="AEH32" s="127"/>
+      <c r="AEI32" s="127"/>
+      <c r="AEJ32" s="127"/>
+      <c r="AEK32" s="127"/>
+      <c r="AEL32" s="127"/>
+      <c r="AEM32" s="127"/>
+      <c r="AEN32" s="127"/>
+      <c r="AEO32" s="127"/>
+      <c r="AEP32" s="127"/>
+      <c r="AEQ32" s="127"/>
+      <c r="AER32" s="127"/>
+      <c r="AES32" s="127"/>
+      <c r="AET32" s="127"/>
+      <c r="AEU32" s="127"/>
+      <c r="AEV32" s="127"/>
+      <c r="AEW32" s="127"/>
+      <c r="AEX32" s="127"/>
+      <c r="AEY32" s="127"/>
+      <c r="AEZ32" s="127"/>
+      <c r="AFA32" s="127"/>
+      <c r="AFB32" s="127"/>
+      <c r="AFC32" s="127"/>
+      <c r="AFD32" s="127"/>
+      <c r="AFE32" s="127"/>
+      <c r="AFF32" s="127"/>
+      <c r="AFG32" s="127"/>
+      <c r="AFH32" s="127"/>
+      <c r="AFI32" s="127"/>
+      <c r="AFJ32" s="127"/>
+      <c r="AFK32" s="127"/>
+      <c r="AFL32" s="127"/>
+      <c r="AFM32" s="127"/>
+      <c r="AFN32" s="127"/>
+      <c r="AFO32" s="127"/>
+      <c r="AFP32" s="127"/>
+      <c r="AFQ32" s="127"/>
+      <c r="AFR32" s="127"/>
+      <c r="AFS32" s="127"/>
+      <c r="AFT32" s="127"/>
+      <c r="AFU32" s="127"/>
+      <c r="AFV32" s="127"/>
+      <c r="AFW32" s="127"/>
+      <c r="AFX32" s="127"/>
+      <c r="AFY32" s="127"/>
+      <c r="AFZ32" s="127"/>
+      <c r="AGA32" s="127"/>
+      <c r="AGB32" s="127"/>
+      <c r="AGC32" s="127"/>
+      <c r="AGD32" s="127"/>
+      <c r="AGE32" s="127"/>
+      <c r="AGF32" s="127"/>
+      <c r="AGG32" s="127"/>
+      <c r="AGH32" s="127"/>
+      <c r="AGI32" s="127"/>
+      <c r="AGJ32" s="127"/>
+      <c r="AGK32" s="127"/>
+      <c r="AGL32" s="127"/>
+      <c r="AGM32" s="127"/>
+      <c r="AGN32" s="127"/>
+      <c r="AGO32" s="127"/>
+      <c r="AGP32" s="127"/>
+      <c r="AGQ32" s="127"/>
+      <c r="AGR32" s="127"/>
+      <c r="AGS32" s="127"/>
+      <c r="AGT32" s="127"/>
+      <c r="AGU32" s="127"/>
+      <c r="AGV32" s="127"/>
+      <c r="AGW32" s="127"/>
+      <c r="AGX32" s="127"/>
+      <c r="AGY32" s="127"/>
+      <c r="AGZ32" s="127"/>
+      <c r="AHA32" s="127"/>
+      <c r="AHB32" s="127"/>
+      <c r="AHC32" s="127"/>
+      <c r="AHD32" s="127"/>
+      <c r="AHE32" s="127"/>
+      <c r="AHF32" s="127"/>
+      <c r="AHG32" s="127"/>
+      <c r="AHH32" s="127"/>
+      <c r="AHI32" s="127"/>
+      <c r="AHJ32" s="127"/>
+      <c r="AHK32" s="127"/>
+      <c r="AHL32" s="127"/>
+      <c r="AHM32" s="127"/>
+      <c r="AHN32" s="127"/>
+      <c r="AHO32" s="127"/>
+      <c r="AHP32" s="127"/>
+      <c r="AHQ32" s="127"/>
+      <c r="AHR32" s="127"/>
+      <c r="AHS32" s="127"/>
+      <c r="AHT32" s="127"/>
+      <c r="AHU32" s="127"/>
+      <c r="AHV32" s="127"/>
+      <c r="AHW32" s="127"/>
+      <c r="AHX32" s="127"/>
+      <c r="AHY32" s="127"/>
+      <c r="AHZ32" s="127"/>
+      <c r="AIA32" s="127"/>
+      <c r="AIB32" s="127"/>
+      <c r="AIC32" s="127"/>
+      <c r="AID32" s="127"/>
+      <c r="AIE32" s="127"/>
+      <c r="AIF32" s="127"/>
+      <c r="AIG32" s="127"/>
+      <c r="AIH32" s="127"/>
+      <c r="AII32" s="127"/>
+      <c r="AIJ32" s="127"/>
+      <c r="AIK32" s="127"/>
+      <c r="AIL32" s="127"/>
+      <c r="AIM32" s="127"/>
+      <c r="AIN32" s="127"/>
+      <c r="AIO32" s="127"/>
+      <c r="AIP32" s="127"/>
+      <c r="AIQ32" s="127"/>
+      <c r="AIR32" s="127"/>
+      <c r="AIS32" s="127"/>
+      <c r="AIT32" s="127"/>
+      <c r="AIU32" s="127"/>
+      <c r="AIV32" s="127"/>
+      <c r="AIW32" s="127"/>
+      <c r="AIX32" s="127"/>
+      <c r="AIY32" s="127"/>
+      <c r="AIZ32" s="127"/>
+      <c r="AJA32" s="127"/>
+      <c r="AJB32" s="127"/>
+      <c r="AJC32" s="127"/>
+      <c r="AJD32" s="127"/>
+      <c r="AJE32" s="127"/>
+      <c r="AJF32" s="127"/>
+      <c r="AJG32" s="127"/>
+      <c r="AJH32" s="127"/>
+      <c r="AJI32" s="127"/>
+      <c r="AJJ32" s="127"/>
+      <c r="AJK32" s="127"/>
+      <c r="AJL32" s="127"/>
+      <c r="AJM32" s="127"/>
+      <c r="AJN32" s="127"/>
+      <c r="AJO32" s="127"/>
+      <c r="AJP32" s="127"/>
+      <c r="AJQ32" s="127"/>
+      <c r="AJR32" s="127"/>
+      <c r="AJS32" s="127"/>
+      <c r="AJT32" s="127"/>
+      <c r="AJU32" s="127"/>
+      <c r="AJV32" s="127"/>
+      <c r="AJW32" s="127"/>
+      <c r="AJX32" s="127"/>
+      <c r="AJY32" s="127"/>
+      <c r="AJZ32" s="127"/>
+      <c r="AKA32" s="127"/>
+      <c r="AKB32" s="127"/>
+      <c r="AKC32" s="127"/>
+      <c r="AKD32" s="127"/>
+      <c r="AKE32" s="127"/>
+      <c r="AKF32" s="127"/>
+      <c r="AKG32" s="127"/>
+      <c r="AKH32" s="127"/>
+      <c r="AKI32" s="127"/>
+      <c r="AKJ32" s="127"/>
+      <c r="AKK32" s="127"/>
+      <c r="AKL32" s="127"/>
+      <c r="AKM32" s="127"/>
+      <c r="AKN32" s="127"/>
+      <c r="AKO32" s="127"/>
+      <c r="AKP32" s="127"/>
+      <c r="AKQ32" s="127"/>
+      <c r="AKR32" s="127"/>
+      <c r="AKS32" s="127"/>
+      <c r="AKT32" s="127"/>
+      <c r="AKU32" s="127"/>
+      <c r="AKV32" s="127"/>
+      <c r="AKW32" s="127"/>
+      <c r="AKX32" s="127"/>
+      <c r="AKY32" s="127"/>
+      <c r="AKZ32" s="127"/>
+      <c r="ALA32" s="127"/>
+      <c r="ALB32" s="127"/>
+      <c r="ALC32" s="127"/>
+      <c r="ALD32" s="127"/>
+      <c r="ALE32" s="127"/>
+      <c r="ALF32" s="127"/>
+      <c r="ALG32" s="127"/>
+      <c r="ALH32" s="127"/>
+      <c r="ALI32" s="127"/>
+      <c r="ALJ32" s="127"/>
+      <c r="ALK32" s="127"/>
+      <c r="ALL32" s="127"/>
+      <c r="ALM32" s="127"/>
+      <c r="ALN32" s="127"/>
+      <c r="ALO32" s="127"/>
+      <c r="ALP32" s="127"/>
+      <c r="ALQ32" s="127"/>
+      <c r="ALR32" s="127"/>
+      <c r="ALS32" s="127"/>
+      <c r="ALT32" s="127"/>
+      <c r="ALU32" s="127"/>
+      <c r="ALV32" s="127"/>
+      <c r="ALW32" s="127"/>
+      <c r="ALX32" s="127"/>
+      <c r="ALY32" s="127"/>
+      <c r="ALZ32" s="127"/>
+      <c r="AMA32" s="127"/>
+      <c r="AMB32" s="127"/>
+      <c r="AMC32" s="127"/>
+      <c r="AMD32" s="127"/>
+      <c r="AME32" s="127"/>
+      <c r="AMF32" s="127"/>
+      <c r="AMG32" s="127"/>
+      <c r="AMH32" s="127"/>
+      <c r="AMI32" s="127"/>
+      <c r="AMJ32" s="127"/>
+      <c r="AMK32" s="127"/>
+      <c r="AML32" s="127"/>
+      <c r="AMM32" s="127"/>
     </row>
     <row r="33" spans="1:1027" s="99" customFormat="1" ht="162.75" x14ac:dyDescent="0.25">
       <c r="A33" s="87">
@@ -23992,17 +24004,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -24178,10 +24190,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMK52"/>
+  <dimension ref="A1:AMK53"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24199,17 +24211,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -29728,6 +29740,31 @@
         <v>596</v>
       </c>
     </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>50</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>657</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="104" t="s">
+        <v>652</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>660</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27C5C68B-C16A-4AC8-8C14-80DCAD376C0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175BF8A-0014-425E-B2C4-7B55B59D97B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,14 @@
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
     <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3149,9 +3156,6 @@
     <t xml:space="preserve">Documents to be uploaded: Mapping of Process (New/UIN Update) + Adult/Child + Gender + Foreigner/Local + Field being updated in case of UIN Update to Document Category + Document Type </t>
   </si>
   <si>
-    <t>UIN Update - Mode of authentication of individual through Registration Client</t>
-  </si>
-  <si>
     <t>Biometric</t>
   </si>
   <si>
@@ -3309,6 +3313,22 @@
   <si>
     <t>Denotes if VIN as a concept if it is applicable for a country or not</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UIN Update - Mode of authentication of individual through Registration Client - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>applicable for v2 only</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3317,7 +3337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3529,6 +3549,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5402,21 +5430,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
@@ -5430,7 +5458,7 @@
       <c r="I1" s="129"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5460,7 +5488,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5498,7 +5526,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
@@ -5541,7 +5569,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5584,7 +5612,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5627,7 +5655,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5670,7 +5698,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5713,7 +5741,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5756,7 +5784,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5799,7 +5827,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5842,7 +5870,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5885,7 +5913,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5928,7 +5956,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5990,21 +6018,21 @@
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="130" t="s">
         <v>26</v>
       </c>
@@ -6017,7 +6045,7 @@
       <c r="H1" s="130"/>
       <c r="I1" s="130"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6046,7 +6074,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -6073,7 +6101,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -6098,7 +6126,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -6125,7 +6153,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6152,7 +6180,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6179,7 +6207,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -6206,7 +6234,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -6233,7 +6261,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -6260,7 +6288,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -6287,7 +6315,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -6314,7 +6342,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -6341,7 +6369,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -6366,7 +6394,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -6388,21 +6416,21 @@
         <v>622</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>32</v>
@@ -6410,24 +6438,24 @@
       <c r="F16" s="50"/>
       <c r="G16" s="118"/>
       <c r="H16" s="118" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>32</v>
@@ -6435,13 +6463,13 @@
       <c r="F17" s="50"/>
       <c r="G17" s="118"/>
       <c r="H17" s="118" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -6462,7 +6490,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -6481,7 +6509,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -6500,7 +6528,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -6519,7 +6547,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -6538,7 +6566,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -6557,7 +6585,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -6576,7 +6604,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -6595,7 +6623,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -6614,7 +6642,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -6637,7 +6665,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -6656,7 +6684,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -6675,7 +6703,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -6696,7 +6724,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -6733,25 +6761,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AML75"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.5546875" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
         <v>53</v>
       </c>
@@ -6763,7 +6791,7 @@
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6789,7 +6817,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6815,7 +6843,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6842,7 +6870,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6865,7 +6893,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6888,7 +6916,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6915,7 +6943,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6942,7 +6970,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6969,7 +6997,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6996,7 +7024,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7023,7 +7051,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7050,7 +7078,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7077,7 +7105,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7104,7 +7132,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7127,7 +7155,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7150,7 +7178,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7173,7 +7201,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7196,7 +7224,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7217,7 +7245,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7238,7 +7266,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7261,7 +7289,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7284,7 +7312,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7305,7 +7333,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7326,7 +7354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7351,7 +7379,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7374,7 +7402,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7399,7 +7427,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7424,7 +7452,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7449,7 +7477,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="198" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7476,7 +7504,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7503,7 +7531,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7530,7 +7558,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7557,7 +7585,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7584,7 +7612,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7611,7 +7639,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1026" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7638,7 +7666,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7659,7 +7687,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7684,7 +7712,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7709,7 +7737,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7736,7 +7764,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7763,7 +7791,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8808,7 +8836,7 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1026" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9851,7 +9879,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9874,7 +9902,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9897,7 +9925,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9920,7 +9948,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1026" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9943,7 +9971,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9968,7 +9996,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9993,7 +10021,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -10018,7 +10046,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -10043,7 +10071,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -10066,7 +10094,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -10089,7 +10117,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -10112,7 +10140,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -10135,7 +10163,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -10156,7 +10184,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10168,7 +10196,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="49"/>
@@ -10179,7 +10207,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -10204,7 +10232,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10229,7 +10257,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -10253,7 +10281,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -10277,7 +10305,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -10299,7 +10327,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -10323,7 +10351,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -10347,7 +10375,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -10371,7 +10399,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -10395,7 +10423,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -10417,7 +10445,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -10437,7 +10465,7 @@
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -10457,7 +10485,7 @@
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -10477,7 +10505,7 @@
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -10497,7 +10525,7 @@
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -10517,18 +10545,18 @@
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E73" s="36" t="s">
         <v>589</v>
@@ -10536,15 +10564,15 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>9</v>
@@ -10554,16 +10582,16 @@
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <f t="shared" ref="A75" si="1">A74+1</f>
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>9</v>
@@ -10573,7 +10601,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -10596,21 +10624,21 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.7109375" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.6640625" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
         <v>154</v>
       </c>
@@ -10623,7 +10651,7 @@
       <c r="H1" s="131"/>
       <c r="I1" s="131"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10652,7 +10680,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -10673,7 +10701,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10694,7 +10722,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -10715,7 +10743,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -10736,7 +10764,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -10757,7 +10785,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -10778,7 +10806,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10801,7 +10829,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -10824,7 +10852,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -10845,7 +10873,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -10866,7 +10894,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -10887,7 +10915,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -10908,7 +10936,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -10929,7 +10957,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -10952,7 +10980,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -10996,21 +11024,21 @@
       <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="131" t="s">
         <v>101</v>
       </c>
@@ -11023,7 +11051,7 @@
       <c r="H1" s="131"/>
       <c r="I1" s="131"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -11052,7 +11080,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -12093,7 +12121,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -13134,7 +13162,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1027" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13157,7 +13185,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13178,7 +13206,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13199,7 +13227,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13222,7 +13250,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13243,7 +13271,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13264,7 +13292,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14301,7 +14329,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15338,7 +15366,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16375,7 +16403,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -17412,7 +17440,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17437,7 +17465,7 @@
       </c>
       <c r="I15" s="73"/>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -17458,13 +17486,13 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1027" ht="224.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -17485,13 +17513,13 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17518,7 +17546,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18555,7 +18583,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19592,7 +19620,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -20631,7 +20659,7 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="210" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1027" ht="184.8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A22" s="87">
         <v>5</v>
       </c>
@@ -20658,7 +20686,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="87">
         <v>6</v>
       </c>
@@ -20677,13 +20705,13 @@
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="87">
         <v>7</v>
       </c>
@@ -20708,7 +20736,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1027" ht="138" x14ac:dyDescent="0.3">
       <c r="A25" s="111">
         <v>19</v>
       </c>
@@ -20735,7 +20763,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20762,10 +20790,10 @@
         <v>591</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1027" ht="26.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C27" s="89" t="s">
         <v>9</v>
@@ -20779,7 +20807,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" s="124" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1027" s="124" customFormat="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A28" s="120"/>
       <c r="B28" s="121" t="s">
         <v>138</v>
@@ -21814,7 +21842,7 @@
       <c r="AML28" s="123"/>
       <c r="AMM28" s="123"/>
     </row>
-    <row r="29" spans="1:1027" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1027" ht="79.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
         <v>161</v>
@@ -21835,7 +21863,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="195" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1027" ht="171.6" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A30" s="87">
         <v>9</v>
       </c>
@@ -21860,7 +21888,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="87">
         <v>10</v>
       </c>
@@ -21885,7 +21913,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="128" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1027" s="128" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A32" s="85">
         <v>11</v>
       </c>
@@ -21902,14 +21930,14 @@
         <v>5</v>
       </c>
       <c r="F32" s="72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G32" s="126"/>
       <c r="H32" s="126" t="s">
         <v>356</v>
       </c>
       <c r="I32" s="72" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J32" s="127"/>
       <c r="K32" s="127"/>
@@ -22930,29 +22958,29 @@
       <c r="AML32" s="127"/>
       <c r="AMM32" s="127"/>
     </row>
-    <row r="33" spans="1:1027" s="99" customFormat="1" ht="162.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1027" s="99" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="87">
         <v>11</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="96" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="97"/>
       <c r="H33" s="97" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J33" s="98"/>
       <c r="K33" s="98"/>
@@ -23990,20 +24018,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.5703125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5546875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
         <v>139</v>
       </c>
@@ -24016,7 +24044,7 @@
       <c r="H1" s="131"/>
       <c r="I1" s="131"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -24045,7 +24073,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -24062,7 +24090,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -24079,7 +24107,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -24096,7 +24124,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -24113,7 +24141,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -24130,7 +24158,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -24147,7 +24175,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -24164,7 +24192,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -24192,25 +24220,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView topLeftCell="A45" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.33203125" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="132" t="s">
         <v>193</v>
       </c>
@@ -24223,7 +24251,7 @@
       <c r="H1" s="133"/>
       <c r="I1" s="133"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -24252,7 +24280,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -24294,7 +24322,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -24337,7 +24365,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -24380,7 +24408,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -24421,7 +24449,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -24464,7 +24492,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
@@ -24505,7 +24533,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -24546,7 +24574,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -24572,7 +24600,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -24615,7 +24643,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -24658,7 +24686,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
@@ -24699,7 +24727,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
@@ -24742,7 +24770,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
@@ -24783,7 +24811,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -24824,7 +24852,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -24865,7 +24893,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -25901,7 +25929,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -26937,7 +26965,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -26963,7 +26991,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -26989,7 +27017,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -28027,7 +28055,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -28053,7 +28081,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -28077,7 +28105,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -28101,7 +28129,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -28125,7 +28153,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -28149,7 +28177,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -28173,7 +28201,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -28197,7 +28225,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -28221,7 +28249,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -28245,7 +28273,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -28269,7 +28297,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -28293,7 +28321,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -29327,7 +29355,7 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="210" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -29351,7 +29379,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -29375,7 +29403,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -29399,7 +29427,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -29423,7 +29451,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -29445,7 +29473,7 @@
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -29469,7 +29497,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -29493,7 +29521,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -29516,7 +29544,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -29539,7 +29567,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -29562,7 +29590,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -29585,7 +29613,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -29608,7 +29636,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -29631,7 +29659,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -29652,7 +29680,7 @@
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -29673,7 +29701,7 @@
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -29694,7 +29722,7 @@
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>48</v>
       </c>
@@ -29717,7 +29745,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>49</v>
       </c>
@@ -29740,29 +29768,29 @@
         <v>596</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>50</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="E53" s="36" t="s">
         <v>658</v>
-      </c>
-      <c r="E53" s="36" t="s">
-        <v>659</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="104" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70C4B283-822D-42B8-827D-A72E1AD9618B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD20A33-D0B7-4227-B68D-F83483759E97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,19 @@
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
     <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="644">
   <si>
     <r>
       <rPr>
@@ -3261,6 +3268,9 @@
   </si>
   <si>
     <t>auth.types.allowed</t>
+  </si>
+  <si>
+    <t>“Dear [Individual full name], Thank you for registering with Digital Identity platform. Your registration id is [Registration ID]."</t>
   </si>
 </sst>
 </file>
@@ -5320,21 +5330,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
@@ -5348,7 +5358,7 @@
       <c r="I1" s="118"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5378,7 +5388,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5416,7 +5426,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
@@ -5459,7 +5469,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5502,7 +5512,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5545,7 +5555,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5588,7 +5598,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5631,7 +5641,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5674,7 +5684,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5717,7 +5727,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5760,7 +5770,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5803,7 +5813,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5846,7 +5856,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5908,21 +5918,21 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>26</v>
       </c>
@@ -5935,7 +5945,7 @@
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5964,7 +5974,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5991,7 +6001,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -6016,7 +6026,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -6043,7 +6053,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6070,7 +6080,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6097,7 +6107,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -6124,7 +6134,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -6151,7 +6161,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -6178,7 +6188,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -6205,7 +6215,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -6232,7 +6242,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -6259,7 +6269,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -6284,7 +6294,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -6307,7 +6317,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -6328,7 +6338,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -6347,7 +6357,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -6366,7 +6376,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -6385,7 +6395,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -6404,7 +6414,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -6423,7 +6433,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -6442,7 +6452,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -6461,7 +6471,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -6480,7 +6490,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -6503,7 +6513,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -6522,7 +6532,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -6541,7 +6551,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -6562,7 +6572,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="62"/>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -6599,25 +6609,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AML75"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.5546875" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
         <v>53</v>
       </c>
@@ -6629,7 +6639,7 @@
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6655,7 +6665,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6681,7 +6691,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6708,7 +6718,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6731,7 +6741,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6754,7 +6764,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6781,7 +6791,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6808,7 +6818,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6835,7 +6845,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6862,7 +6872,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6889,7 +6899,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6916,7 +6926,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6943,7 +6953,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6970,7 +6980,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6993,7 +7003,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7016,7 +7026,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7039,7 +7049,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7050,7 +7060,9 @@
       <c r="C18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>643</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
         <v>11</v>
@@ -7062,7 +7074,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7083,7 +7095,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7104,7 +7116,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7127,7 +7139,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7150,7 +7162,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7171,7 +7183,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7192,7 +7204,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7217,7 +7229,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7240,7 +7252,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7265,7 +7277,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7290,7 +7302,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7315,7 +7327,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="198" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7342,7 +7354,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7369,7 +7381,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7396,7 +7408,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7423,7 +7435,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7450,7 +7462,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7477,7 +7489,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1026" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7504,7 +7516,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7525,7 +7537,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7550,7 +7562,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7575,7 +7587,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7602,7 +7614,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7629,7 +7641,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8674,7 +8686,7 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1026" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9717,7 +9729,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9740,7 +9752,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9763,7 +9775,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9786,7 +9798,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1026" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9809,7 +9821,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9834,7 +9846,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9859,7 +9871,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9884,7 +9896,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9909,7 +9921,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9932,7 +9944,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -9955,7 +9967,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -9978,7 +9990,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -10001,7 +10013,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -10022,7 +10034,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10045,7 +10057,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -10070,7 +10082,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10095,7 +10107,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -10119,7 +10131,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -10143,7 +10155,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -10165,7 +10177,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -10189,7 +10201,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -10213,7 +10225,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -10237,7 +10249,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -10261,7 +10273,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -10283,7 +10295,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -10303,7 +10315,7 @@
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -10323,7 +10335,7 @@
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -10343,7 +10355,7 @@
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -10363,7 +10375,7 @@
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -10383,7 +10395,7 @@
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -10405,7 +10417,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -10423,7 +10435,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <f t="shared" ref="A75" si="1">A74+1</f>
         <v>74</v>
@@ -10462,21 +10474,21 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.7109375" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.6640625" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
         <v>155</v>
       </c>
@@ -10489,7 +10501,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10518,7 +10530,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -10539,7 +10551,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10560,7 +10572,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -10581,7 +10593,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -10602,7 +10614,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -10623,7 +10635,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -10644,7 +10656,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10667,7 +10679,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -10690,7 +10702,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -10711,7 +10723,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -10732,7 +10744,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -10753,7 +10765,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -10774,7 +10786,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -10795,7 +10807,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -10818,7 +10830,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -10855,28 +10867,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="120" t="s">
         <v>101</v>
       </c>
@@ -10889,7 +10901,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -10918,7 +10930,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -11959,7 +11971,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -13000,7 +13012,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1027" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13023,7 +13035,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13044,7 +13056,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13065,7 +13077,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13088,7 +13100,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13109,7 +13121,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13130,7 +13142,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14167,7 +14179,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15204,7 +15216,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16241,7 +16253,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -17278,7 +17290,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1027" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17305,7 +17317,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -17332,7 +17344,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1027" ht="224.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -17359,7 +17371,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17386,7 +17398,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18423,7 +18435,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19460,7 +19472,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -20499,7 +20511,7 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A22" s="87">
         <v>5</v>
       </c>
@@ -20526,7 +20538,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="87">
         <v>6</v>
       </c>
@@ -20551,7 +20563,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="87">
         <v>7</v>
       </c>
@@ -20576,7 +20588,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1027" ht="138" x14ac:dyDescent="0.3">
       <c r="A25" s="111">
         <v>19</v>
       </c>
@@ -20603,7 +20615,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20630,7 +20642,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>138</v>
@@ -20647,7 +20659,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="87"/>
       <c r="B28" s="88" t="s">
         <v>139</v>
@@ -20664,7 +20676,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:1027" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1027" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
         <v>162</v>
@@ -20685,7 +20697,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="195" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A30" s="87">
         <v>9</v>
       </c>
@@ -20710,7 +20722,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="87">
         <v>10</v>
       </c>
@@ -20735,7 +20747,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="99" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1027" s="99" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="87">
         <v>11</v>
       </c>
@@ -21795,20 +21807,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.5703125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5546875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
         <v>140</v>
       </c>
@@ -21821,7 +21833,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -21850,7 +21862,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -21867,7 +21879,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -21884,7 +21896,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -21901,7 +21913,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -21918,7 +21930,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -21935,7 +21947,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -21952,7 +21964,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -21969,7 +21981,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -21997,25 +22009,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A49" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.33203125" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
         <v>194</v>
       </c>
@@ -22028,7 +22040,7 @@
       <c r="H1" s="122"/>
       <c r="I1" s="122"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22057,7 +22069,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -22099,7 +22111,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22142,7 +22154,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22185,7 +22197,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -22226,7 +22238,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22269,7 +22281,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
@@ -22310,7 +22322,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -22351,7 +22363,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22377,7 +22389,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22420,7 +22432,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22463,7 +22475,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
@@ -22504,7 +22516,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
@@ -22547,7 +22559,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
@@ -22588,7 +22600,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -22629,7 +22641,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -22670,7 +22682,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23706,7 +23718,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24742,7 +24754,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24768,7 +24780,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24794,7 +24806,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -25832,7 +25844,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25858,7 +25870,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -25882,7 +25894,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -25906,7 +25918,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -25930,7 +25942,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -25954,7 +25966,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -25978,7 +25990,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -26002,7 +26014,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -26026,7 +26038,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -26050,7 +26062,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -26074,7 +26086,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -26098,7 +26110,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -27132,7 +27144,7 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="210" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -27156,7 +27168,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -27180,7 +27192,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -27204,7 +27216,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -27228,7 +27240,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -27250,7 +27262,7 @@
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -27274,7 +27286,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -27298,7 +27310,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -27321,7 +27333,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -27344,7 +27356,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -27367,7 +27379,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -27390,7 +27402,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -27413,7 +27425,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -27436,7 +27448,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27457,7 +27469,7 @@
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27478,7 +27490,7 @@
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27499,7 +27511,7 @@
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>48</v>
       </c>
@@ -27522,7 +27534,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>49</v>
       </c>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD20A33-D0B7-4227-B68D-F83483759E97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4ECD28D1-711A-428F-A2F5-5EC4071A0C1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,12 @@
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
     <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="648">
   <si>
     <r>
       <rPr>
@@ -2454,10 +2447,6 @@
 Registration: Validate that the email entered in demographic details does not exceed the maximum length.</t>
   </si>
   <si>
-    <t>IDA: The auth and OTP notifications will be sent both in primary and secondary  language. The eKYC response will be sent both in primary and secondary language
-Registration: All static content will display in the primary language. For demographic details, preview and acknowledgement pages: display static content and user entry in left hand side in primary and right hand side in secondary language.</t>
-  </si>
-  <si>
     <t>This configuration will impact both the Pre-Registration and Registration Client.
 This will validate the size of the document being uploaded
 Registration: Validates that the document uploaded does not exceed the maximum size configured.</t>
@@ -3038,11 +3027,6 @@
 </t>
   </si>
   <si>
-    <t>IDA: The auth and OTP notifications will be sent in the primary language configured. The eKYC response will be sent in primary language configured.  
-Registration: All static content will display in the primary language. For demographic details, preview and acknowledgement pages: display static content and user entry in left hand side in primary and right hand side in secondary language.
-Registration Processor: If Primary Language is Updated the Master Data and Notification will be fetched using New Primary Language but if Data is not present in the New Primary Language then the System will throw an error.</t>
-  </si>
-  <si>
     <t>Registration Processor: If Notification type is Changed and for the change implementation is done then, Notification will be sent based on the New Notification Type but if implementation is not done then system will throw an error.
 IDA: The auth notifications will be triggered based on this configuration</t>
   </si>
@@ -3271,6 +3255,27 @@
   </si>
   <si>
     <t>“Dear [Individual full name], Thank you for registering with Digital Identity platform. Your registration id is [Registration ID]."</t>
+  </si>
+  <si>
+    <t>Language to trigger Notification</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>IDA: The primary language to trigger auth and OTP notification and eKYC response  is set using this configuration
+Registration: All static content will display in the primary language. For demographic details, preview and acknowledgement pages: display static content and user entry in left hand side in primary and right hand side in secondary language.
+Registration Processor: If Primary Language is Updated the Master Data and Notification will be fetched using New Primary Language but if Data is not present in the New Primary Language then the System will throw an error.</t>
+  </si>
+  <si>
+    <t>IDA: The secondary language to trigger auth and OTP notification and eKYC response  is set using this configuration
+Registration: All static content will display in the primary language. For demographic details, preview and acknowledgement pages: display static content and user entry in left hand side in primary and right hand side in secondary language.</t>
+  </si>
+  <si>
+    <t>IDA: The language "primary" or "both" in which the notification/eKYC response has to be triggered is set by this configuration</t>
   </si>
 </sst>
 </file>
@@ -5330,21 +5335,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5363,7 @@
       <c r="I1" s="118"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5388,7 +5393,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5426,7 +5431,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
@@ -5469,7 +5474,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5512,7 +5517,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5555,7 +5560,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5598,7 +5603,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5641,7 +5646,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5684,7 +5689,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5727,7 +5732,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5770,7 +5775,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5813,7 +5818,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5856,7 +5861,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5918,21 +5923,21 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>26</v>
       </c>
@@ -5945,7 +5950,7 @@
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5974,7 +5979,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5995,13 +6000,13 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -6020,18 +6025,18 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
@@ -6053,7 +6058,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6074,13 +6079,13 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6101,13 +6106,13 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -6128,40 +6133,40 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="101" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -6188,7 +6193,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -6215,7 +6220,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -6236,13 +6241,13 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="115" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -6259,7 +6264,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
@@ -6269,7 +6274,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -6294,18 +6299,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -6313,11 +6318,11 @@
       <c r="F15" s="50"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -6338,7 +6343,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -6357,7 +6362,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -6376,7 +6381,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -6395,7 +6400,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -6414,7 +6419,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -6433,7 +6438,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -6452,7 +6457,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -6471,7 +6476,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -6490,7 +6495,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -6513,7 +6518,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -6532,7 +6537,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -6551,7 +6556,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -6572,7 +6577,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="62"/>
     </row>
-    <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -6609,25 +6614,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AML75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.5546875" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="s">
         <v>53</v>
       </c>
@@ -6639,7 +6644,7 @@
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6665,7 +6670,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6688,10 +6693,10 @@
         <v>427</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6715,10 +6720,10 @@
         <v>428</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6741,7 +6746,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6761,10 +6766,10 @@
         <v>279</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6788,10 +6793,10 @@
         <v>429</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6815,10 +6820,10 @@
         <v>430</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6842,10 +6847,10 @@
         <v>431</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6869,10 +6874,10 @@
         <v>432</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6896,10 +6901,10 @@
         <v>279</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6923,10 +6928,10 @@
         <v>279</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6950,10 +6955,10 @@
         <v>427</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6977,10 +6982,10 @@
         <v>427</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7000,10 +7005,10 @@
         <v>279</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7023,10 +7028,10 @@
         <v>279</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7046,10 +7051,10 @@
         <v>433</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7061,7 +7066,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
@@ -7071,10 +7076,10 @@
         <v>433</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7095,7 +7100,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7116,7 +7121,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7136,10 +7141,10 @@
         <v>434</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7159,10 +7164,10 @@
         <v>434</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7183,7 +7188,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7204,7 +7209,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7226,10 +7231,10 @@
         <v>435</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7249,10 +7254,10 @@
         <v>436</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7274,10 +7279,10 @@
         <v>437</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7299,10 +7304,10 @@
         <v>279</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7324,10 +7329,10 @@
         <v>438</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="198" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7351,10 +7356,10 @@
         <v>439</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7378,10 +7383,10 @@
         <v>440</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7405,10 +7410,10 @@
         <v>442</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7432,10 +7437,10 @@
         <v>444</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7459,10 +7464,10 @@
         <v>445</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7486,10 +7491,10 @@
         <v>446</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1026" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7513,10 +7518,10 @@
         <v>446</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7537,7 +7542,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7559,10 +7564,10 @@
         <v>449</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7584,10 +7589,10 @@
         <v>450</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7611,10 +7616,10 @@
         <v>427</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7638,10 +7643,10 @@
         <v>427</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7665,7 +7670,7 @@
         <v>451</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -8686,7 +8691,7 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1026" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8708,7 +8713,7 @@
         <v>452</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -9729,7 +9734,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9749,10 +9754,10 @@
         <v>453</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9772,10 +9777,10 @@
         <v>142</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9795,10 +9800,10 @@
         <v>440</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1026" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9818,10 +9823,10 @@
         <v>454</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9843,10 +9848,10 @@
         <v>455</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9868,10 +9873,10 @@
         <v>456</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9893,10 +9898,10 @@
         <v>457</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9918,10 +9923,10 @@
         <v>459</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9941,10 +9946,10 @@
         <v>460</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -9964,10 +9969,10 @@
         <v>461</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -9987,10 +9992,10 @@
         <v>444</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -10010,16 +10015,16 @@
         <v>461</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>9</v>
@@ -10031,10 +10036,10 @@
         <v>461</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10046,7 +10051,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="49"/>
@@ -10054,10 +10059,10 @@
         <v>462</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -10079,10 +10084,10 @@
         <v>463</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10104,10 +10109,10 @@
         <v>464</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -10128,10 +10133,10 @@
         <v>468</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -10152,10 +10157,10 @@
         <v>470</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -10174,10 +10179,10 @@
         <v>472</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -10198,10 +10203,10 @@
         <v>474</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -10222,10 +10227,10 @@
         <v>476</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -10246,10 +10251,10 @@
         <v>478</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -10270,10 +10275,10 @@
         <v>480</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -10292,10 +10297,10 @@
         <v>482</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -10315,7 +10320,7 @@
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -10335,7 +10340,7 @@
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -10355,7 +10360,7 @@
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -10375,7 +10380,7 @@
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -10395,34 +10400,34 @@
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>9</v>
@@ -10432,16 +10437,16 @@
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f t="shared" ref="A75" si="1">A74+1</f>
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>9</v>
@@ -10451,7 +10456,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -10474,21 +10479,21 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.6640625" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.7109375" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
         <v>155</v>
       </c>
@@ -10501,7 +10506,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10530,7 +10535,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -10551,7 +10556,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10572,7 +10577,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -10593,7 +10598,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -10614,7 +10619,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -10635,7 +10640,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -10656,7 +10661,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10679,7 +10684,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -10702,7 +10707,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -10723,7 +10728,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -10765,7 +10770,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -10786,7 +10791,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -10807,7 +10812,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -10830,7 +10835,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -10874,21 +10879,21 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
         <v>101</v>
       </c>
@@ -10901,7 +10906,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -10930,7 +10935,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -11971,7 +11976,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -13012,7 +13017,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13035,7 +13040,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13056,7 +13061,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13077,7 +13082,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13100,7 +13105,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13121,7 +13126,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13142,7 +13147,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14179,7 +14184,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15216,7 +15221,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16253,7 +16258,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -17290,7 +17295,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17311,13 +17316,13 @@
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -17338,13 +17343,13 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="224.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -17365,13 +17370,13 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17395,10 +17400,10 @@
         <v>345</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18435,7 +18440,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19472,7 +19477,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -20511,12 +20516,12 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>9</v>
@@ -20525,70 +20530,70 @@
         <v>131</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="87">
         <v>6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="87">
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="138" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A25" s="111">
         <v>19</v>
       </c>
@@ -20612,10 +20617,10 @@
         <v>347</v>
       </c>
       <c r="I25" s="112" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20639,10 +20644,10 @@
         <v>348</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>138</v>
@@ -20659,7 +20664,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="87"/>
       <c r="B28" s="88" t="s">
         <v>139</v>
@@ -20676,7 +20681,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:1027" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1027" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
         <v>162</v>
@@ -20697,7 +20702,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1027" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="87">
         <v>9</v>
       </c>
@@ -20716,13 +20721,13 @@
       <c r="F30" s="88"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="87">
         <v>10</v>
       </c>
@@ -20744,10 +20749,10 @@
         <v>354</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="99" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1027" s="99" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="87">
         <v>11</v>
       </c>
@@ -20769,7 +20774,7 @@
         <v>357</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="98"/>
@@ -21807,20 +21812,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.5546875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5703125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
         <v>140</v>
       </c>
@@ -21833,7 +21838,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -21862,7 +21867,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -21879,7 +21884,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -21896,7 +21901,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -21913,7 +21918,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -21930,7 +21935,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -21947,7 +21952,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -21964,7 +21969,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -21981,7 +21986,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -22007,27 +22012,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMK52"/>
+  <dimension ref="A1:AMK53"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.33203125" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.28515625" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
         <v>194</v>
       </c>
@@ -22040,7 +22045,7 @@
       <c r="H1" s="122"/>
       <c r="I1" s="122"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22069,7 +22074,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -22111,7 +22116,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22154,7 +22159,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22197,7 +22202,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -22238,7 +22243,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22281,7 +22286,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
@@ -22322,7 +22327,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -22363,7 +22368,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22389,7 +22394,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22432,7 +22437,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22475,7 +22480,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
@@ -22516,7 +22521,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
@@ -22539,7 +22544,7 @@
         <v>339</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -22559,7 +22564,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
@@ -22600,7 +22605,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -22641,7 +22646,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -22682,7 +22687,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23718,7 +23723,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24754,7 +24759,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24780,7 +24785,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24806,7 +24811,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -25844,7 +25849,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25870,7 +25875,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -25894,7 +25899,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -25918,7 +25923,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -25942,7 +25947,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -25966,7 +25971,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -25990,7 +25995,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -26014,7 +26019,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -26038,7 +26043,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -26062,7 +26067,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -26086,7 +26091,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -26110,7 +26115,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -27144,7 +27149,7 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1025" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -27165,10 +27170,10 @@
         <v>293</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -27189,10 +27194,10 @@
         <v>294</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>598</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -27213,10 +27218,10 @@
         <v>295</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>523</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -27240,7 +27245,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -27262,7 +27267,7 @@
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -27286,7 +27291,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -27310,7 +27315,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -27330,10 +27335,10 @@
         <v>376</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -27353,10 +27358,10 @@
         <v>375</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -27379,7 +27384,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -27399,10 +27404,10 @@
         <v>378</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -27425,7 +27430,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -27445,10 +27450,10 @@
         <v>515</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27465,11 +27470,11 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="104" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27486,11 +27491,11 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="104" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27507,16 +27512,16 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="104" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>48</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>9</v>
@@ -27531,10 +27536,10 @@
         <v>404</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>49</v>
       </c>
@@ -27551,10 +27556,33 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="104" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>599</v>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>50</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="36" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4ECD28D1-711A-428F-A2F5-5EC4071A0C1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A95C3CD-86F5-4BEF-80CC-017796BF2410}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="653">
   <si>
     <r>
       <rPr>
@@ -2984,42 +2984,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Masked UIN is one of the id field to be returned for an eKYC partner. The no of digits of the masked UIN will be configurable
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">On change: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t>The no of digits of the masked UIN will be as per the updated config</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">This configuration will contain the List of Langauge codes corresponding to Languages that MOSIP will support for a particular Country.
 Kernel: While adding an additional Language Code for a country, Master data also needs to be stored for that language, else Master data services would respond with no data
 IDA: During demo authentication, the language in the authentication input is validated against the configuration list
@@ -3277,6 +3241,74 @@
   <si>
     <t>IDA: The language "primary" or "both" in which the notification/eKYC response has to be triggered is set by this configuration</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Masked UIN is one of the id field to be returned for an eKYC partner. The no of digits of the masked UIN will be configurable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">On change: </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>The no of digits of the masked UIN will be as per the updated config
+In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
+    </r>
+  </si>
+  <si>
+    <t>Configure the idtype to be supported for Authentication/KYC/OTP Request</t>
+  </si>
+  <si>
+    <t>To be added</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The authentication,eKYC and OTP requests will be supported for the id Types configured.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+On change:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The authentication,eKYC and OTP requests will be supported for the id Type Changed
+In general this is an one-time setup activity. However the country might decide to change the config as per the scenario and the business need in the country</t>
+    </r>
+  </si>
+  <si>
+    <t>UIN and VID</t>
+  </si>
+  <si>
+    <t>UIN/VID</t>
+  </si>
 </sst>
 </file>
 
@@ -3285,7 +3317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3470,6 +3502,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3666,7 +3712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3947,12 +3993,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4025,6 +4065,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5350,17 +5423,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -5938,17 +6011,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -5975,7 +6048,7 @@
       <c r="H2" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="114" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6000,7 +6073,7 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>285</v>
@@ -6025,7 +6098,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>585</v>
@@ -6036,7 +6109,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
@@ -6079,7 +6152,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>361</v>
@@ -6106,7 +6179,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>362</v>
@@ -6132,8 +6205,8 @@
         <v>11</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="101" t="s">
-        <v>618</v>
+      <c r="H8" s="99" t="s">
+        <v>617</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>363</v>
@@ -6144,26 +6217,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6176,7 +6249,7 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="115">
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -6186,7 +6259,7 @@
         <v>275</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="115" t="s">
+      <c r="H10" s="113" t="s">
         <v>383</v>
       </c>
       <c r="I10" s="19" t="s">
@@ -6203,7 +6276,7 @@
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="115">
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -6213,7 +6286,7 @@
         <v>275</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="115" t="s">
+      <c r="H11" s="113" t="s">
         <v>382</v>
       </c>
       <c r="I11" s="19" t="s">
@@ -6230,7 +6303,7 @@
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="115">
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -6240,8 +6313,8 @@
         <v>275</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="115" t="s">
-        <v>619</v>
+      <c r="H12" s="113" t="s">
+        <v>618</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>364</v>
@@ -6264,7 +6337,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
@@ -6304,13 +6377,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -6318,7 +6391,7 @@
       <c r="F15" s="50"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I15" s="19"/>
     </row>
@@ -6343,7 +6416,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -6633,22 +6706,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="108" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -6746,7 +6819,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7054,7 +7127,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7066,7 +7139,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
@@ -7209,7 +7282,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7227,7 +7300,7 @@
       <c r="F25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="98" t="s">
         <v>435</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -9734,7 +9807,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -10018,13 +10091,13 @@
         <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>9</v>
@@ -10036,7 +10109,7 @@
         <v>461</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
@@ -10051,7 +10124,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="49"/>
@@ -10278,7 +10351,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -10405,13 +10478,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E73" s="36" t="s">
         <v>590</v>
@@ -10419,7 +10492,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10427,7 +10500,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>9</v>
@@ -10437,7 +10510,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10446,7 +10519,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>9</v>
@@ -10456,7 +10529,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -10494,17 +10567,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -10677,10 +10750,10 @@
       <c r="E9" s="28"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="101" t="s">
         <v>398</v>
       </c>
     </row>
@@ -10700,10 +10773,10 @@
       <c r="E10" s="28"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="100" t="s">
         <v>401</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="101" t="s">
         <v>402</v>
       </c>
     </row>
@@ -10870,13 +10943,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMM32"/>
+  <dimension ref="A1:AMM33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10894,17 +10967,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -10935,7 +11008,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -17295,7 +17368,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1027" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17316,7 +17389,7 @@
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>586</v>
@@ -17343,7 +17416,7 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>587</v>
@@ -17370,7 +17443,7 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>588</v>
@@ -20521,7 +20594,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>9</v>
@@ -20537,7 +20610,7 @@
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>591</v>
@@ -20548,24 +20621,24 @@
         <v>6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>601</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>602</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
@@ -20573,51 +20646,51 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>605</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>606</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="111">
+      <c r="A25" s="109">
         <v>19</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="114" t="s">
+      <c r="E25" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112" t="s">
+      <c r="G25" s="110"/>
+      <c r="H25" s="110" t="s">
         <v>347</v>
       </c>
-      <c r="I25" s="112" t="s">
-        <v>608</v>
+      <c r="I25" s="110" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
@@ -20721,7 +20794,7 @@
       <c r="F30" s="88"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I30" s="36" t="s">
         <v>593</v>
@@ -20752,1048 +20825,1073 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="99" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A32" s="87">
+    <row r="32" spans="1:1027" s="97" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="85">
         <v>11</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="122" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97" t="s">
+      <c r="F32" s="72"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124" t="s">
         <v>357</v>
       </c>
-      <c r="I32" s="36" t="s">
-        <v>595</v>
-      </c>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="98"/>
-      <c r="AM32" s="98"/>
-      <c r="AN32" s="98"/>
-      <c r="AO32" s="98"/>
-      <c r="AP32" s="98"/>
-      <c r="AQ32" s="98"/>
-      <c r="AR32" s="98"/>
-      <c r="AS32" s="98"/>
-      <c r="AT32" s="98"/>
-      <c r="AU32" s="98"/>
-      <c r="AV32" s="98"/>
-      <c r="AW32" s="98"/>
-      <c r="AX32" s="98"/>
-      <c r="AY32" s="98"/>
-      <c r="AZ32" s="98"/>
-      <c r="BA32" s="98"/>
-      <c r="BB32" s="98"/>
-      <c r="BC32" s="98"/>
-      <c r="BD32" s="98"/>
-      <c r="BE32" s="98"/>
-      <c r="BF32" s="98"/>
-      <c r="BG32" s="98"/>
-      <c r="BH32" s="98"/>
-      <c r="BI32" s="98"/>
-      <c r="BJ32" s="98"/>
-      <c r="BK32" s="98"/>
-      <c r="BL32" s="98"/>
-      <c r="BM32" s="98"/>
-      <c r="BN32" s="98"/>
-      <c r="BO32" s="98"/>
-      <c r="BP32" s="98"/>
-      <c r="BQ32" s="98"/>
-      <c r="BR32" s="98"/>
-      <c r="BS32" s="98"/>
-      <c r="BT32" s="98"/>
-      <c r="BU32" s="98"/>
-      <c r="BV32" s="98"/>
-      <c r="BW32" s="98"/>
-      <c r="BX32" s="98"/>
-      <c r="BY32" s="98"/>
-      <c r="BZ32" s="98"/>
-      <c r="CA32" s="98"/>
-      <c r="CB32" s="98"/>
-      <c r="CC32" s="98"/>
-      <c r="CD32" s="98"/>
-      <c r="CE32" s="98"/>
-      <c r="CF32" s="98"/>
-      <c r="CG32" s="98"/>
-      <c r="CH32" s="98"/>
-      <c r="CI32" s="98"/>
-      <c r="CJ32" s="98"/>
-      <c r="CK32" s="98"/>
-      <c r="CL32" s="98"/>
-      <c r="CM32" s="98"/>
-      <c r="CN32" s="98"/>
-      <c r="CO32" s="98"/>
-      <c r="CP32" s="98"/>
-      <c r="CQ32" s="98"/>
-      <c r="CR32" s="98"/>
-      <c r="CS32" s="98"/>
-      <c r="CT32" s="98"/>
-      <c r="CU32" s="98"/>
-      <c r="CV32" s="98"/>
-      <c r="CW32" s="98"/>
-      <c r="CX32" s="98"/>
-      <c r="CY32" s="98"/>
-      <c r="CZ32" s="98"/>
-      <c r="DA32" s="98"/>
-      <c r="DB32" s="98"/>
-      <c r="DC32" s="98"/>
-      <c r="DD32" s="98"/>
-      <c r="DE32" s="98"/>
-      <c r="DF32" s="98"/>
-      <c r="DG32" s="98"/>
-      <c r="DH32" s="98"/>
-      <c r="DI32" s="98"/>
-      <c r="DJ32" s="98"/>
-      <c r="DK32" s="98"/>
-      <c r="DL32" s="98"/>
-      <c r="DM32" s="98"/>
-      <c r="DN32" s="98"/>
-      <c r="DO32" s="98"/>
-      <c r="DP32" s="98"/>
-      <c r="DQ32" s="98"/>
-      <c r="DR32" s="98"/>
-      <c r="DS32" s="98"/>
-      <c r="DT32" s="98"/>
-      <c r="DU32" s="98"/>
-      <c r="DV32" s="98"/>
-      <c r="DW32" s="98"/>
-      <c r="DX32" s="98"/>
-      <c r="DY32" s="98"/>
-      <c r="DZ32" s="98"/>
-      <c r="EA32" s="98"/>
-      <c r="EB32" s="98"/>
-      <c r="EC32" s="98"/>
-      <c r="ED32" s="98"/>
-      <c r="EE32" s="98"/>
-      <c r="EF32" s="98"/>
-      <c r="EG32" s="98"/>
-      <c r="EH32" s="98"/>
-      <c r="EI32" s="98"/>
-      <c r="EJ32" s="98"/>
-      <c r="EK32" s="98"/>
-      <c r="EL32" s="98"/>
-      <c r="EM32" s="98"/>
-      <c r="EN32" s="98"/>
-      <c r="EO32" s="98"/>
-      <c r="EP32" s="98"/>
-      <c r="EQ32" s="98"/>
-      <c r="ER32" s="98"/>
-      <c r="ES32" s="98"/>
-      <c r="ET32" s="98"/>
-      <c r="EU32" s="98"/>
-      <c r="EV32" s="98"/>
-      <c r="EW32" s="98"/>
-      <c r="EX32" s="98"/>
-      <c r="EY32" s="98"/>
-      <c r="EZ32" s="98"/>
-      <c r="FA32" s="98"/>
-      <c r="FB32" s="98"/>
-      <c r="FC32" s="98"/>
-      <c r="FD32" s="98"/>
-      <c r="FE32" s="98"/>
-      <c r="FF32" s="98"/>
-      <c r="FG32" s="98"/>
-      <c r="FH32" s="98"/>
-      <c r="FI32" s="98"/>
-      <c r="FJ32" s="98"/>
-      <c r="FK32" s="98"/>
-      <c r="FL32" s="98"/>
-      <c r="FM32" s="98"/>
-      <c r="FN32" s="98"/>
-      <c r="FO32" s="98"/>
-      <c r="FP32" s="98"/>
-      <c r="FQ32" s="98"/>
-      <c r="FR32" s="98"/>
-      <c r="FS32" s="98"/>
-      <c r="FT32" s="98"/>
-      <c r="FU32" s="98"/>
-      <c r="FV32" s="98"/>
-      <c r="FW32" s="98"/>
-      <c r="FX32" s="98"/>
-      <c r="FY32" s="98"/>
-      <c r="FZ32" s="98"/>
-      <c r="GA32" s="98"/>
-      <c r="GB32" s="98"/>
-      <c r="GC32" s="98"/>
-      <c r="GD32" s="98"/>
-      <c r="GE32" s="98"/>
-      <c r="GF32" s="98"/>
-      <c r="GG32" s="98"/>
-      <c r="GH32" s="98"/>
-      <c r="GI32" s="98"/>
-      <c r="GJ32" s="98"/>
-      <c r="GK32" s="98"/>
-      <c r="GL32" s="98"/>
-      <c r="GM32" s="98"/>
-      <c r="GN32" s="98"/>
-      <c r="GO32" s="98"/>
-      <c r="GP32" s="98"/>
-      <c r="GQ32" s="98"/>
-      <c r="GR32" s="98"/>
-      <c r="GS32" s="98"/>
-      <c r="GT32" s="98"/>
-      <c r="GU32" s="98"/>
-      <c r="GV32" s="98"/>
-      <c r="GW32" s="98"/>
-      <c r="GX32" s="98"/>
-      <c r="GY32" s="98"/>
-      <c r="GZ32" s="98"/>
-      <c r="HA32" s="98"/>
-      <c r="HB32" s="98"/>
-      <c r="HC32" s="98"/>
-      <c r="HD32" s="98"/>
-      <c r="HE32" s="98"/>
-      <c r="HF32" s="98"/>
-      <c r="HG32" s="98"/>
-      <c r="HH32" s="98"/>
-      <c r="HI32" s="98"/>
-      <c r="HJ32" s="98"/>
-      <c r="HK32" s="98"/>
-      <c r="HL32" s="98"/>
-      <c r="HM32" s="98"/>
-      <c r="HN32" s="98"/>
-      <c r="HO32" s="98"/>
-      <c r="HP32" s="98"/>
-      <c r="HQ32" s="98"/>
-      <c r="HR32" s="98"/>
-      <c r="HS32" s="98"/>
-      <c r="HT32" s="98"/>
-      <c r="HU32" s="98"/>
-      <c r="HV32" s="98"/>
-      <c r="HW32" s="98"/>
-      <c r="HX32" s="98"/>
-      <c r="HY32" s="98"/>
-      <c r="HZ32" s="98"/>
-      <c r="IA32" s="98"/>
-      <c r="IB32" s="98"/>
-      <c r="IC32" s="98"/>
-      <c r="ID32" s="98"/>
-      <c r="IE32" s="98"/>
-      <c r="IF32" s="98"/>
-      <c r="IG32" s="98"/>
-      <c r="IH32" s="98"/>
-      <c r="II32" s="98"/>
-      <c r="IJ32" s="98"/>
-      <c r="IK32" s="98"/>
-      <c r="IL32" s="98"/>
-      <c r="IM32" s="98"/>
-      <c r="IN32" s="98"/>
-      <c r="IO32" s="98"/>
-      <c r="IP32" s="98"/>
-      <c r="IQ32" s="98"/>
-      <c r="IR32" s="98"/>
-      <c r="IS32" s="98"/>
-      <c r="IT32" s="98"/>
-      <c r="IU32" s="98"/>
-      <c r="IV32" s="98"/>
-      <c r="IW32" s="98"/>
-      <c r="IX32" s="98"/>
-      <c r="IY32" s="98"/>
-      <c r="IZ32" s="98"/>
-      <c r="JA32" s="98"/>
-      <c r="JB32" s="98"/>
-      <c r="JC32" s="98"/>
-      <c r="JD32" s="98"/>
-      <c r="JE32" s="98"/>
-      <c r="JF32" s="98"/>
-      <c r="JG32" s="98"/>
-      <c r="JH32" s="98"/>
-      <c r="JI32" s="98"/>
-      <c r="JJ32" s="98"/>
-      <c r="JK32" s="98"/>
-      <c r="JL32" s="98"/>
-      <c r="JM32" s="98"/>
-      <c r="JN32" s="98"/>
-      <c r="JO32" s="98"/>
-      <c r="JP32" s="98"/>
-      <c r="JQ32" s="98"/>
-      <c r="JR32" s="98"/>
-      <c r="JS32" s="98"/>
-      <c r="JT32" s="98"/>
-      <c r="JU32" s="98"/>
-      <c r="JV32" s="98"/>
-      <c r="JW32" s="98"/>
-      <c r="JX32" s="98"/>
-      <c r="JY32" s="98"/>
-      <c r="JZ32" s="98"/>
-      <c r="KA32" s="98"/>
-      <c r="KB32" s="98"/>
-      <c r="KC32" s="98"/>
-      <c r="KD32" s="98"/>
-      <c r="KE32" s="98"/>
-      <c r="KF32" s="98"/>
-      <c r="KG32" s="98"/>
-      <c r="KH32" s="98"/>
-      <c r="KI32" s="98"/>
-      <c r="KJ32" s="98"/>
-      <c r="KK32" s="98"/>
-      <c r="KL32" s="98"/>
-      <c r="KM32" s="98"/>
-      <c r="KN32" s="98"/>
-      <c r="KO32" s="98"/>
-      <c r="KP32" s="98"/>
-      <c r="KQ32" s="98"/>
-      <c r="KR32" s="98"/>
-      <c r="KS32" s="98"/>
-      <c r="KT32" s="98"/>
-      <c r="KU32" s="98"/>
-      <c r="KV32" s="98"/>
-      <c r="KW32" s="98"/>
-      <c r="KX32" s="98"/>
-      <c r="KY32" s="98"/>
-      <c r="KZ32" s="98"/>
-      <c r="LA32" s="98"/>
-      <c r="LB32" s="98"/>
-      <c r="LC32" s="98"/>
-      <c r="LD32" s="98"/>
-      <c r="LE32" s="98"/>
-      <c r="LF32" s="98"/>
-      <c r="LG32" s="98"/>
-      <c r="LH32" s="98"/>
-      <c r="LI32" s="98"/>
-      <c r="LJ32" s="98"/>
-      <c r="LK32" s="98"/>
-      <c r="LL32" s="98"/>
-      <c r="LM32" s="98"/>
-      <c r="LN32" s="98"/>
-      <c r="LO32" s="98"/>
-      <c r="LP32" s="98"/>
-      <c r="LQ32" s="98"/>
-      <c r="LR32" s="98"/>
-      <c r="LS32" s="98"/>
-      <c r="LT32" s="98"/>
-      <c r="LU32" s="98"/>
-      <c r="LV32" s="98"/>
-      <c r="LW32" s="98"/>
-      <c r="LX32" s="98"/>
-      <c r="LY32" s="98"/>
-      <c r="LZ32" s="98"/>
-      <c r="MA32" s="98"/>
-      <c r="MB32" s="98"/>
-      <c r="MC32" s="98"/>
-      <c r="MD32" s="98"/>
-      <c r="ME32" s="98"/>
-      <c r="MF32" s="98"/>
-      <c r="MG32" s="98"/>
-      <c r="MH32" s="98"/>
-      <c r="MI32" s="98"/>
-      <c r="MJ32" s="98"/>
-      <c r="MK32" s="98"/>
-      <c r="ML32" s="98"/>
-      <c r="MM32" s="98"/>
-      <c r="MN32" s="98"/>
-      <c r="MO32" s="98"/>
-      <c r="MP32" s="98"/>
-      <c r="MQ32" s="98"/>
-      <c r="MR32" s="98"/>
-      <c r="MS32" s="98"/>
-      <c r="MT32" s="98"/>
-      <c r="MU32" s="98"/>
-      <c r="MV32" s="98"/>
-      <c r="MW32" s="98"/>
-      <c r="MX32" s="98"/>
-      <c r="MY32" s="98"/>
-      <c r="MZ32" s="98"/>
-      <c r="NA32" s="98"/>
-      <c r="NB32" s="98"/>
-      <c r="NC32" s="98"/>
-      <c r="ND32" s="98"/>
-      <c r="NE32" s="98"/>
-      <c r="NF32" s="98"/>
-      <c r="NG32" s="98"/>
-      <c r="NH32" s="98"/>
-      <c r="NI32" s="98"/>
-      <c r="NJ32" s="98"/>
-      <c r="NK32" s="98"/>
-      <c r="NL32" s="98"/>
-      <c r="NM32" s="98"/>
-      <c r="NN32" s="98"/>
-      <c r="NO32" s="98"/>
-      <c r="NP32" s="98"/>
-      <c r="NQ32" s="98"/>
-      <c r="NR32" s="98"/>
-      <c r="NS32" s="98"/>
-      <c r="NT32" s="98"/>
-      <c r="NU32" s="98"/>
-      <c r="NV32" s="98"/>
-      <c r="NW32" s="98"/>
-      <c r="NX32" s="98"/>
-      <c r="NY32" s="98"/>
-      <c r="NZ32" s="98"/>
-      <c r="OA32" s="98"/>
-      <c r="OB32" s="98"/>
-      <c r="OC32" s="98"/>
-      <c r="OD32" s="98"/>
-      <c r="OE32" s="98"/>
-      <c r="OF32" s="98"/>
-      <c r="OG32" s="98"/>
-      <c r="OH32" s="98"/>
-      <c r="OI32" s="98"/>
-      <c r="OJ32" s="98"/>
-      <c r="OK32" s="98"/>
-      <c r="OL32" s="98"/>
-      <c r="OM32" s="98"/>
-      <c r="ON32" s="98"/>
-      <c r="OO32" s="98"/>
-      <c r="OP32" s="98"/>
-      <c r="OQ32" s="98"/>
-      <c r="OR32" s="98"/>
-      <c r="OS32" s="98"/>
-      <c r="OT32" s="98"/>
-      <c r="OU32" s="98"/>
-      <c r="OV32" s="98"/>
-      <c r="OW32" s="98"/>
-      <c r="OX32" s="98"/>
-      <c r="OY32" s="98"/>
-      <c r="OZ32" s="98"/>
-      <c r="PA32" s="98"/>
-      <c r="PB32" s="98"/>
-      <c r="PC32" s="98"/>
-      <c r="PD32" s="98"/>
-      <c r="PE32" s="98"/>
-      <c r="PF32" s="98"/>
-      <c r="PG32" s="98"/>
-      <c r="PH32" s="98"/>
-      <c r="PI32" s="98"/>
-      <c r="PJ32" s="98"/>
-      <c r="PK32" s="98"/>
-      <c r="PL32" s="98"/>
-      <c r="PM32" s="98"/>
-      <c r="PN32" s="98"/>
-      <c r="PO32" s="98"/>
-      <c r="PP32" s="98"/>
-      <c r="PQ32" s="98"/>
-      <c r="PR32" s="98"/>
-      <c r="PS32" s="98"/>
-      <c r="PT32" s="98"/>
-      <c r="PU32" s="98"/>
-      <c r="PV32" s="98"/>
-      <c r="PW32" s="98"/>
-      <c r="PX32" s="98"/>
-      <c r="PY32" s="98"/>
-      <c r="PZ32" s="98"/>
-      <c r="QA32" s="98"/>
-      <c r="QB32" s="98"/>
-      <c r="QC32" s="98"/>
-      <c r="QD32" s="98"/>
-      <c r="QE32" s="98"/>
-      <c r="QF32" s="98"/>
-      <c r="QG32" s="98"/>
-      <c r="QH32" s="98"/>
-      <c r="QI32" s="98"/>
-      <c r="QJ32" s="98"/>
-      <c r="QK32" s="98"/>
-      <c r="QL32" s="98"/>
-      <c r="QM32" s="98"/>
-      <c r="QN32" s="98"/>
-      <c r="QO32" s="98"/>
-      <c r="QP32" s="98"/>
-      <c r="QQ32" s="98"/>
-      <c r="QR32" s="98"/>
-      <c r="QS32" s="98"/>
-      <c r="QT32" s="98"/>
-      <c r="QU32" s="98"/>
-      <c r="QV32" s="98"/>
-      <c r="QW32" s="98"/>
-      <c r="QX32" s="98"/>
-      <c r="QY32" s="98"/>
-      <c r="QZ32" s="98"/>
-      <c r="RA32" s="98"/>
-      <c r="RB32" s="98"/>
-      <c r="RC32" s="98"/>
-      <c r="RD32" s="98"/>
-      <c r="RE32" s="98"/>
-      <c r="RF32" s="98"/>
-      <c r="RG32" s="98"/>
-      <c r="RH32" s="98"/>
-      <c r="RI32" s="98"/>
-      <c r="RJ32" s="98"/>
-      <c r="RK32" s="98"/>
-      <c r="RL32" s="98"/>
-      <c r="RM32" s="98"/>
-      <c r="RN32" s="98"/>
-      <c r="RO32" s="98"/>
-      <c r="RP32" s="98"/>
-      <c r="RQ32" s="98"/>
-      <c r="RR32" s="98"/>
-      <c r="RS32" s="98"/>
-      <c r="RT32" s="98"/>
-      <c r="RU32" s="98"/>
-      <c r="RV32" s="98"/>
-      <c r="RW32" s="98"/>
-      <c r="RX32" s="98"/>
-      <c r="RY32" s="98"/>
-      <c r="RZ32" s="98"/>
-      <c r="SA32" s="98"/>
-      <c r="SB32" s="98"/>
-      <c r="SC32" s="98"/>
-      <c r="SD32" s="98"/>
-      <c r="SE32" s="98"/>
-      <c r="SF32" s="98"/>
-      <c r="SG32" s="98"/>
-      <c r="SH32" s="98"/>
-      <c r="SI32" s="98"/>
-      <c r="SJ32" s="98"/>
-      <c r="SK32" s="98"/>
-      <c r="SL32" s="98"/>
-      <c r="SM32" s="98"/>
-      <c r="SN32" s="98"/>
-      <c r="SO32" s="98"/>
-      <c r="SP32" s="98"/>
-      <c r="SQ32" s="98"/>
-      <c r="SR32" s="98"/>
-      <c r="SS32" s="98"/>
-      <c r="ST32" s="98"/>
-      <c r="SU32" s="98"/>
-      <c r="SV32" s="98"/>
-      <c r="SW32" s="98"/>
-      <c r="SX32" s="98"/>
-      <c r="SY32" s="98"/>
-      <c r="SZ32" s="98"/>
-      <c r="TA32" s="98"/>
-      <c r="TB32" s="98"/>
-      <c r="TC32" s="98"/>
-      <c r="TD32" s="98"/>
-      <c r="TE32" s="98"/>
-      <c r="TF32" s="98"/>
-      <c r="TG32" s="98"/>
-      <c r="TH32" s="98"/>
-      <c r="TI32" s="98"/>
-      <c r="TJ32" s="98"/>
-      <c r="TK32" s="98"/>
-      <c r="TL32" s="98"/>
-      <c r="TM32" s="98"/>
-      <c r="TN32" s="98"/>
-      <c r="TO32" s="98"/>
-      <c r="TP32" s="98"/>
-      <c r="TQ32" s="98"/>
-      <c r="TR32" s="98"/>
-      <c r="TS32" s="98"/>
-      <c r="TT32" s="98"/>
-      <c r="TU32" s="98"/>
-      <c r="TV32" s="98"/>
-      <c r="TW32" s="98"/>
-      <c r="TX32" s="98"/>
-      <c r="TY32" s="98"/>
-      <c r="TZ32" s="98"/>
-      <c r="UA32" s="98"/>
-      <c r="UB32" s="98"/>
-      <c r="UC32" s="98"/>
-      <c r="UD32" s="98"/>
-      <c r="UE32" s="98"/>
-      <c r="UF32" s="98"/>
-      <c r="UG32" s="98"/>
-      <c r="UH32" s="98"/>
-      <c r="UI32" s="98"/>
-      <c r="UJ32" s="98"/>
-      <c r="UK32" s="98"/>
-      <c r="UL32" s="98"/>
-      <c r="UM32" s="98"/>
-      <c r="UN32" s="98"/>
-      <c r="UO32" s="98"/>
-      <c r="UP32" s="98"/>
-      <c r="UQ32" s="98"/>
-      <c r="UR32" s="98"/>
-      <c r="US32" s="98"/>
-      <c r="UT32" s="98"/>
-      <c r="UU32" s="98"/>
-      <c r="UV32" s="98"/>
-      <c r="UW32" s="98"/>
-      <c r="UX32" s="98"/>
-      <c r="UY32" s="98"/>
-      <c r="UZ32" s="98"/>
-      <c r="VA32" s="98"/>
-      <c r="VB32" s="98"/>
-      <c r="VC32" s="98"/>
-      <c r="VD32" s="98"/>
-      <c r="VE32" s="98"/>
-      <c r="VF32" s="98"/>
-      <c r="VG32" s="98"/>
-      <c r="VH32" s="98"/>
-      <c r="VI32" s="98"/>
-      <c r="VJ32" s="98"/>
-      <c r="VK32" s="98"/>
-      <c r="VL32" s="98"/>
-      <c r="VM32" s="98"/>
-      <c r="VN32" s="98"/>
-      <c r="VO32" s="98"/>
-      <c r="VP32" s="98"/>
-      <c r="VQ32" s="98"/>
-      <c r="VR32" s="98"/>
-      <c r="VS32" s="98"/>
-      <c r="VT32" s="98"/>
-      <c r="VU32" s="98"/>
-      <c r="VV32" s="98"/>
-      <c r="VW32" s="98"/>
-      <c r="VX32" s="98"/>
-      <c r="VY32" s="98"/>
-      <c r="VZ32" s="98"/>
-      <c r="WA32" s="98"/>
-      <c r="WB32" s="98"/>
-      <c r="WC32" s="98"/>
-      <c r="WD32" s="98"/>
-      <c r="WE32" s="98"/>
-      <c r="WF32" s="98"/>
-      <c r="WG32" s="98"/>
-      <c r="WH32" s="98"/>
-      <c r="WI32" s="98"/>
-      <c r="WJ32" s="98"/>
-      <c r="WK32" s="98"/>
-      <c r="WL32" s="98"/>
-      <c r="WM32" s="98"/>
-      <c r="WN32" s="98"/>
-      <c r="WO32" s="98"/>
-      <c r="WP32" s="98"/>
-      <c r="WQ32" s="98"/>
-      <c r="WR32" s="98"/>
-      <c r="WS32" s="98"/>
-      <c r="WT32" s="98"/>
-      <c r="WU32" s="98"/>
-      <c r="WV32" s="98"/>
-      <c r="WW32" s="98"/>
-      <c r="WX32" s="98"/>
-      <c r="WY32" s="98"/>
-      <c r="WZ32" s="98"/>
-      <c r="XA32" s="98"/>
-      <c r="XB32" s="98"/>
-      <c r="XC32" s="98"/>
-      <c r="XD32" s="98"/>
-      <c r="XE32" s="98"/>
-      <c r="XF32" s="98"/>
-      <c r="XG32" s="98"/>
-      <c r="XH32" s="98"/>
-      <c r="XI32" s="98"/>
-      <c r="XJ32" s="98"/>
-      <c r="XK32" s="98"/>
-      <c r="XL32" s="98"/>
-      <c r="XM32" s="98"/>
-      <c r="XN32" s="98"/>
-      <c r="XO32" s="98"/>
-      <c r="XP32" s="98"/>
-      <c r="XQ32" s="98"/>
-      <c r="XR32" s="98"/>
-      <c r="XS32" s="98"/>
-      <c r="XT32" s="98"/>
-      <c r="XU32" s="98"/>
-      <c r="XV32" s="98"/>
-      <c r="XW32" s="98"/>
-      <c r="XX32" s="98"/>
-      <c r="XY32" s="98"/>
-      <c r="XZ32" s="98"/>
-      <c r="YA32" s="98"/>
-      <c r="YB32" s="98"/>
-      <c r="YC32" s="98"/>
-      <c r="YD32" s="98"/>
-      <c r="YE32" s="98"/>
-      <c r="YF32" s="98"/>
-      <c r="YG32" s="98"/>
-      <c r="YH32" s="98"/>
-      <c r="YI32" s="98"/>
-      <c r="YJ32" s="98"/>
-      <c r="YK32" s="98"/>
-      <c r="YL32" s="98"/>
-      <c r="YM32" s="98"/>
-      <c r="YN32" s="98"/>
-      <c r="YO32" s="98"/>
-      <c r="YP32" s="98"/>
-      <c r="YQ32" s="98"/>
-      <c r="YR32" s="98"/>
-      <c r="YS32" s="98"/>
-      <c r="YT32" s="98"/>
-      <c r="YU32" s="98"/>
-      <c r="YV32" s="98"/>
-      <c r="YW32" s="98"/>
-      <c r="YX32" s="98"/>
-      <c r="YY32" s="98"/>
-      <c r="YZ32" s="98"/>
-      <c r="ZA32" s="98"/>
-      <c r="ZB32" s="98"/>
-      <c r="ZC32" s="98"/>
-      <c r="ZD32" s="98"/>
-      <c r="ZE32" s="98"/>
-      <c r="ZF32" s="98"/>
-      <c r="ZG32" s="98"/>
-      <c r="ZH32" s="98"/>
-      <c r="ZI32" s="98"/>
-      <c r="ZJ32" s="98"/>
-      <c r="ZK32" s="98"/>
-      <c r="ZL32" s="98"/>
-      <c r="ZM32" s="98"/>
-      <c r="ZN32" s="98"/>
-      <c r="ZO32" s="98"/>
-      <c r="ZP32" s="98"/>
-      <c r="ZQ32" s="98"/>
-      <c r="ZR32" s="98"/>
-      <c r="ZS32" s="98"/>
-      <c r="ZT32" s="98"/>
-      <c r="ZU32" s="98"/>
-      <c r="ZV32" s="98"/>
-      <c r="ZW32" s="98"/>
-      <c r="ZX32" s="98"/>
-      <c r="ZY32" s="98"/>
-      <c r="ZZ32" s="98"/>
-      <c r="AAA32" s="98"/>
-      <c r="AAB32" s="98"/>
-      <c r="AAC32" s="98"/>
-      <c r="AAD32" s="98"/>
-      <c r="AAE32" s="98"/>
-      <c r="AAF32" s="98"/>
-      <c r="AAG32" s="98"/>
-      <c r="AAH32" s="98"/>
-      <c r="AAI32" s="98"/>
-      <c r="AAJ32" s="98"/>
-      <c r="AAK32" s="98"/>
-      <c r="AAL32" s="98"/>
-      <c r="AAM32" s="98"/>
-      <c r="AAN32" s="98"/>
-      <c r="AAO32" s="98"/>
-      <c r="AAP32" s="98"/>
-      <c r="AAQ32" s="98"/>
-      <c r="AAR32" s="98"/>
-      <c r="AAS32" s="98"/>
-      <c r="AAT32" s="98"/>
-      <c r="AAU32" s="98"/>
-      <c r="AAV32" s="98"/>
-      <c r="AAW32" s="98"/>
-      <c r="AAX32" s="98"/>
-      <c r="AAY32" s="98"/>
-      <c r="AAZ32" s="98"/>
-      <c r="ABA32" s="98"/>
-      <c r="ABB32" s="98"/>
-      <c r="ABC32" s="98"/>
-      <c r="ABD32" s="98"/>
-      <c r="ABE32" s="98"/>
-      <c r="ABF32" s="98"/>
-      <c r="ABG32" s="98"/>
-      <c r="ABH32" s="98"/>
-      <c r="ABI32" s="98"/>
-      <c r="ABJ32" s="98"/>
-      <c r="ABK32" s="98"/>
-      <c r="ABL32" s="98"/>
-      <c r="ABM32" s="98"/>
-      <c r="ABN32" s="98"/>
-      <c r="ABO32" s="98"/>
-      <c r="ABP32" s="98"/>
-      <c r="ABQ32" s="98"/>
-      <c r="ABR32" s="98"/>
-      <c r="ABS32" s="98"/>
-      <c r="ABT32" s="98"/>
-      <c r="ABU32" s="98"/>
-      <c r="ABV32" s="98"/>
-      <c r="ABW32" s="98"/>
-      <c r="ABX32" s="98"/>
-      <c r="ABY32" s="98"/>
-      <c r="ABZ32" s="98"/>
-      <c r="ACA32" s="98"/>
-      <c r="ACB32" s="98"/>
-      <c r="ACC32" s="98"/>
-      <c r="ACD32" s="98"/>
-      <c r="ACE32" s="98"/>
-      <c r="ACF32" s="98"/>
-      <c r="ACG32" s="98"/>
-      <c r="ACH32" s="98"/>
-      <c r="ACI32" s="98"/>
-      <c r="ACJ32" s="98"/>
-      <c r="ACK32" s="98"/>
-      <c r="ACL32" s="98"/>
-      <c r="ACM32" s="98"/>
-      <c r="ACN32" s="98"/>
-      <c r="ACO32" s="98"/>
-      <c r="ACP32" s="98"/>
-      <c r="ACQ32" s="98"/>
-      <c r="ACR32" s="98"/>
-      <c r="ACS32" s="98"/>
-      <c r="ACT32" s="98"/>
-      <c r="ACU32" s="98"/>
-      <c r="ACV32" s="98"/>
-      <c r="ACW32" s="98"/>
-      <c r="ACX32" s="98"/>
-      <c r="ACY32" s="98"/>
-      <c r="ACZ32" s="98"/>
-      <c r="ADA32" s="98"/>
-      <c r="ADB32" s="98"/>
-      <c r="ADC32" s="98"/>
-      <c r="ADD32" s="98"/>
-      <c r="ADE32" s="98"/>
-      <c r="ADF32" s="98"/>
-      <c r="ADG32" s="98"/>
-      <c r="ADH32" s="98"/>
-      <c r="ADI32" s="98"/>
-      <c r="ADJ32" s="98"/>
-      <c r="ADK32" s="98"/>
-      <c r="ADL32" s="98"/>
-      <c r="ADM32" s="98"/>
-      <c r="ADN32" s="98"/>
-      <c r="ADO32" s="98"/>
-      <c r="ADP32" s="98"/>
-      <c r="ADQ32" s="98"/>
-      <c r="ADR32" s="98"/>
-      <c r="ADS32" s="98"/>
-      <c r="ADT32" s="98"/>
-      <c r="ADU32" s="98"/>
-      <c r="ADV32" s="98"/>
-      <c r="ADW32" s="98"/>
-      <c r="ADX32" s="98"/>
-      <c r="ADY32" s="98"/>
-      <c r="ADZ32" s="98"/>
-      <c r="AEA32" s="98"/>
-      <c r="AEB32" s="98"/>
-      <c r="AEC32" s="98"/>
-      <c r="AED32" s="98"/>
-      <c r="AEE32" s="98"/>
-      <c r="AEF32" s="98"/>
-      <c r="AEG32" s="98"/>
-      <c r="AEH32" s="98"/>
-      <c r="AEI32" s="98"/>
-      <c r="AEJ32" s="98"/>
-      <c r="AEK32" s="98"/>
-      <c r="AEL32" s="98"/>
-      <c r="AEM32" s="98"/>
-      <c r="AEN32" s="98"/>
-      <c r="AEO32" s="98"/>
-      <c r="AEP32" s="98"/>
-      <c r="AEQ32" s="98"/>
-      <c r="AER32" s="98"/>
-      <c r="AES32" s="98"/>
-      <c r="AET32" s="98"/>
-      <c r="AEU32" s="98"/>
-      <c r="AEV32" s="98"/>
-      <c r="AEW32" s="98"/>
-      <c r="AEX32" s="98"/>
-      <c r="AEY32" s="98"/>
-      <c r="AEZ32" s="98"/>
-      <c r="AFA32" s="98"/>
-      <c r="AFB32" s="98"/>
-      <c r="AFC32" s="98"/>
-      <c r="AFD32" s="98"/>
-      <c r="AFE32" s="98"/>
-      <c r="AFF32" s="98"/>
-      <c r="AFG32" s="98"/>
-      <c r="AFH32" s="98"/>
-      <c r="AFI32" s="98"/>
-      <c r="AFJ32" s="98"/>
-      <c r="AFK32" s="98"/>
-      <c r="AFL32" s="98"/>
-      <c r="AFM32" s="98"/>
-      <c r="AFN32" s="98"/>
-      <c r="AFO32" s="98"/>
-      <c r="AFP32" s="98"/>
-      <c r="AFQ32" s="98"/>
-      <c r="AFR32" s="98"/>
-      <c r="AFS32" s="98"/>
-      <c r="AFT32" s="98"/>
-      <c r="AFU32" s="98"/>
-      <c r="AFV32" s="98"/>
-      <c r="AFW32" s="98"/>
-      <c r="AFX32" s="98"/>
-      <c r="AFY32" s="98"/>
-      <c r="AFZ32" s="98"/>
-      <c r="AGA32" s="98"/>
-      <c r="AGB32" s="98"/>
-      <c r="AGC32" s="98"/>
-      <c r="AGD32" s="98"/>
-      <c r="AGE32" s="98"/>
-      <c r="AGF32" s="98"/>
-      <c r="AGG32" s="98"/>
-      <c r="AGH32" s="98"/>
-      <c r="AGI32" s="98"/>
-      <c r="AGJ32" s="98"/>
-      <c r="AGK32" s="98"/>
-      <c r="AGL32" s="98"/>
-      <c r="AGM32" s="98"/>
-      <c r="AGN32" s="98"/>
-      <c r="AGO32" s="98"/>
-      <c r="AGP32" s="98"/>
-      <c r="AGQ32" s="98"/>
-      <c r="AGR32" s="98"/>
-      <c r="AGS32" s="98"/>
-      <c r="AGT32" s="98"/>
-      <c r="AGU32" s="98"/>
-      <c r="AGV32" s="98"/>
-      <c r="AGW32" s="98"/>
-      <c r="AGX32" s="98"/>
-      <c r="AGY32" s="98"/>
-      <c r="AGZ32" s="98"/>
-      <c r="AHA32" s="98"/>
-      <c r="AHB32" s="98"/>
-      <c r="AHC32" s="98"/>
-      <c r="AHD32" s="98"/>
-      <c r="AHE32" s="98"/>
-      <c r="AHF32" s="98"/>
-      <c r="AHG32" s="98"/>
-      <c r="AHH32" s="98"/>
-      <c r="AHI32" s="98"/>
-      <c r="AHJ32" s="98"/>
-      <c r="AHK32" s="98"/>
-      <c r="AHL32" s="98"/>
-      <c r="AHM32" s="98"/>
-      <c r="AHN32" s="98"/>
-      <c r="AHO32" s="98"/>
-      <c r="AHP32" s="98"/>
-      <c r="AHQ32" s="98"/>
-      <c r="AHR32" s="98"/>
-      <c r="AHS32" s="98"/>
-      <c r="AHT32" s="98"/>
-      <c r="AHU32" s="98"/>
-      <c r="AHV32" s="98"/>
-      <c r="AHW32" s="98"/>
-      <c r="AHX32" s="98"/>
-      <c r="AHY32" s="98"/>
-      <c r="AHZ32" s="98"/>
-      <c r="AIA32" s="98"/>
-      <c r="AIB32" s="98"/>
-      <c r="AIC32" s="98"/>
-      <c r="AID32" s="98"/>
-      <c r="AIE32" s="98"/>
-      <c r="AIF32" s="98"/>
-      <c r="AIG32" s="98"/>
-      <c r="AIH32" s="98"/>
-      <c r="AII32" s="98"/>
-      <c r="AIJ32" s="98"/>
-      <c r="AIK32" s="98"/>
-      <c r="AIL32" s="98"/>
-      <c r="AIM32" s="98"/>
-      <c r="AIN32" s="98"/>
-      <c r="AIO32" s="98"/>
-      <c r="AIP32" s="98"/>
-      <c r="AIQ32" s="98"/>
-      <c r="AIR32" s="98"/>
-      <c r="AIS32" s="98"/>
-      <c r="AIT32" s="98"/>
-      <c r="AIU32" s="98"/>
-      <c r="AIV32" s="98"/>
-      <c r="AIW32" s="98"/>
-      <c r="AIX32" s="98"/>
-      <c r="AIY32" s="98"/>
-      <c r="AIZ32" s="98"/>
-      <c r="AJA32" s="98"/>
-      <c r="AJB32" s="98"/>
-      <c r="AJC32" s="98"/>
-      <c r="AJD32" s="98"/>
-      <c r="AJE32" s="98"/>
-      <c r="AJF32" s="98"/>
-      <c r="AJG32" s="98"/>
-      <c r="AJH32" s="98"/>
-      <c r="AJI32" s="98"/>
-      <c r="AJJ32" s="98"/>
-      <c r="AJK32" s="98"/>
-      <c r="AJL32" s="98"/>
-      <c r="AJM32" s="98"/>
-      <c r="AJN32" s="98"/>
-      <c r="AJO32" s="98"/>
-      <c r="AJP32" s="98"/>
-      <c r="AJQ32" s="98"/>
-      <c r="AJR32" s="98"/>
-      <c r="AJS32" s="98"/>
-      <c r="AJT32" s="98"/>
-      <c r="AJU32" s="98"/>
-      <c r="AJV32" s="98"/>
-      <c r="AJW32" s="98"/>
-      <c r="AJX32" s="98"/>
-      <c r="AJY32" s="98"/>
-      <c r="AJZ32" s="98"/>
-      <c r="AKA32" s="98"/>
-      <c r="AKB32" s="98"/>
-      <c r="AKC32" s="98"/>
-      <c r="AKD32" s="98"/>
-      <c r="AKE32" s="98"/>
-      <c r="AKF32" s="98"/>
-      <c r="AKG32" s="98"/>
-      <c r="AKH32" s="98"/>
-      <c r="AKI32" s="98"/>
-      <c r="AKJ32" s="98"/>
-      <c r="AKK32" s="98"/>
-      <c r="AKL32" s="98"/>
-      <c r="AKM32" s="98"/>
-      <c r="AKN32" s="98"/>
-      <c r="AKO32" s="98"/>
-      <c r="AKP32" s="98"/>
-      <c r="AKQ32" s="98"/>
-      <c r="AKR32" s="98"/>
-      <c r="AKS32" s="98"/>
-      <c r="AKT32" s="98"/>
-      <c r="AKU32" s="98"/>
-      <c r="AKV32" s="98"/>
-      <c r="AKW32" s="98"/>
-      <c r="AKX32" s="98"/>
-      <c r="AKY32" s="98"/>
-      <c r="AKZ32" s="98"/>
-      <c r="ALA32" s="98"/>
-      <c r="ALB32" s="98"/>
-      <c r="ALC32" s="98"/>
-      <c r="ALD32" s="98"/>
-      <c r="ALE32" s="98"/>
-      <c r="ALF32" s="98"/>
-      <c r="ALG32" s="98"/>
-      <c r="ALH32" s="98"/>
-      <c r="ALI32" s="98"/>
-      <c r="ALJ32" s="98"/>
-      <c r="ALK32" s="98"/>
-      <c r="ALL32" s="98"/>
-      <c r="ALM32" s="98"/>
-      <c r="ALN32" s="98"/>
-      <c r="ALO32" s="98"/>
-      <c r="ALP32" s="98"/>
-      <c r="ALQ32" s="98"/>
-      <c r="ALR32" s="98"/>
-      <c r="ALS32" s="98"/>
-      <c r="ALT32" s="98"/>
-      <c r="ALU32" s="98"/>
-      <c r="ALV32" s="98"/>
-      <c r="ALW32" s="98"/>
-      <c r="ALX32" s="98"/>
-      <c r="ALY32" s="98"/>
-      <c r="ALZ32" s="98"/>
-      <c r="AMA32" s="98"/>
-      <c r="AMB32" s="98"/>
-      <c r="AMC32" s="98"/>
-      <c r="AMD32" s="98"/>
-      <c r="AME32" s="98"/>
-      <c r="AMF32" s="98"/>
-      <c r="AMG32" s="98"/>
-      <c r="AMH32" s="98"/>
-      <c r="AMI32" s="98"/>
-      <c r="AMJ32" s="98"/>
-      <c r="AMK32" s="98"/>
-      <c r="AML32" s="98"/>
-      <c r="AMM32" s="98"/>
+      <c r="I32" s="72" t="s">
+        <v>647</v>
+      </c>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="96"/>
+      <c r="AG32" s="96"/>
+      <c r="AH32" s="96"/>
+      <c r="AI32" s="96"/>
+      <c r="AJ32" s="96"/>
+      <c r="AK32" s="96"/>
+      <c r="AL32" s="96"/>
+      <c r="AM32" s="96"/>
+      <c r="AN32" s="96"/>
+      <c r="AO32" s="96"/>
+      <c r="AP32" s="96"/>
+      <c r="AQ32" s="96"/>
+      <c r="AR32" s="96"/>
+      <c r="AS32" s="96"/>
+      <c r="AT32" s="96"/>
+      <c r="AU32" s="96"/>
+      <c r="AV32" s="96"/>
+      <c r="AW32" s="96"/>
+      <c r="AX32" s="96"/>
+      <c r="AY32" s="96"/>
+      <c r="AZ32" s="96"/>
+      <c r="BA32" s="96"/>
+      <c r="BB32" s="96"/>
+      <c r="BC32" s="96"/>
+      <c r="BD32" s="96"/>
+      <c r="BE32" s="96"/>
+      <c r="BF32" s="96"/>
+      <c r="BG32" s="96"/>
+      <c r="BH32" s="96"/>
+      <c r="BI32" s="96"/>
+      <c r="BJ32" s="96"/>
+      <c r="BK32" s="96"/>
+      <c r="BL32" s="96"/>
+      <c r="BM32" s="96"/>
+      <c r="BN32" s="96"/>
+      <c r="BO32" s="96"/>
+      <c r="BP32" s="96"/>
+      <c r="BQ32" s="96"/>
+      <c r="BR32" s="96"/>
+      <c r="BS32" s="96"/>
+      <c r="BT32" s="96"/>
+      <c r="BU32" s="96"/>
+      <c r="BV32" s="96"/>
+      <c r="BW32" s="96"/>
+      <c r="BX32" s="96"/>
+      <c r="BY32" s="96"/>
+      <c r="BZ32" s="96"/>
+      <c r="CA32" s="96"/>
+      <c r="CB32" s="96"/>
+      <c r="CC32" s="96"/>
+      <c r="CD32" s="96"/>
+      <c r="CE32" s="96"/>
+      <c r="CF32" s="96"/>
+      <c r="CG32" s="96"/>
+      <c r="CH32" s="96"/>
+      <c r="CI32" s="96"/>
+      <c r="CJ32" s="96"/>
+      <c r="CK32" s="96"/>
+      <c r="CL32" s="96"/>
+      <c r="CM32" s="96"/>
+      <c r="CN32" s="96"/>
+      <c r="CO32" s="96"/>
+      <c r="CP32" s="96"/>
+      <c r="CQ32" s="96"/>
+      <c r="CR32" s="96"/>
+      <c r="CS32" s="96"/>
+      <c r="CT32" s="96"/>
+      <c r="CU32" s="96"/>
+      <c r="CV32" s="96"/>
+      <c r="CW32" s="96"/>
+      <c r="CX32" s="96"/>
+      <c r="CY32" s="96"/>
+      <c r="CZ32" s="96"/>
+      <c r="DA32" s="96"/>
+      <c r="DB32" s="96"/>
+      <c r="DC32" s="96"/>
+      <c r="DD32" s="96"/>
+      <c r="DE32" s="96"/>
+      <c r="DF32" s="96"/>
+      <c r="DG32" s="96"/>
+      <c r="DH32" s="96"/>
+      <c r="DI32" s="96"/>
+      <c r="DJ32" s="96"/>
+      <c r="DK32" s="96"/>
+      <c r="DL32" s="96"/>
+      <c r="DM32" s="96"/>
+      <c r="DN32" s="96"/>
+      <c r="DO32" s="96"/>
+      <c r="DP32" s="96"/>
+      <c r="DQ32" s="96"/>
+      <c r="DR32" s="96"/>
+      <c r="DS32" s="96"/>
+      <c r="DT32" s="96"/>
+      <c r="DU32" s="96"/>
+      <c r="DV32" s="96"/>
+      <c r="DW32" s="96"/>
+      <c r="DX32" s="96"/>
+      <c r="DY32" s="96"/>
+      <c r="DZ32" s="96"/>
+      <c r="EA32" s="96"/>
+      <c r="EB32" s="96"/>
+      <c r="EC32" s="96"/>
+      <c r="ED32" s="96"/>
+      <c r="EE32" s="96"/>
+      <c r="EF32" s="96"/>
+      <c r="EG32" s="96"/>
+      <c r="EH32" s="96"/>
+      <c r="EI32" s="96"/>
+      <c r="EJ32" s="96"/>
+      <c r="EK32" s="96"/>
+      <c r="EL32" s="96"/>
+      <c r="EM32" s="96"/>
+      <c r="EN32" s="96"/>
+      <c r="EO32" s="96"/>
+      <c r="EP32" s="96"/>
+      <c r="EQ32" s="96"/>
+      <c r="ER32" s="96"/>
+      <c r="ES32" s="96"/>
+      <c r="ET32" s="96"/>
+      <c r="EU32" s="96"/>
+      <c r="EV32" s="96"/>
+      <c r="EW32" s="96"/>
+      <c r="EX32" s="96"/>
+      <c r="EY32" s="96"/>
+      <c r="EZ32" s="96"/>
+      <c r="FA32" s="96"/>
+      <c r="FB32" s="96"/>
+      <c r="FC32" s="96"/>
+      <c r="FD32" s="96"/>
+      <c r="FE32" s="96"/>
+      <c r="FF32" s="96"/>
+      <c r="FG32" s="96"/>
+      <c r="FH32" s="96"/>
+      <c r="FI32" s="96"/>
+      <c r="FJ32" s="96"/>
+      <c r="FK32" s="96"/>
+      <c r="FL32" s="96"/>
+      <c r="FM32" s="96"/>
+      <c r="FN32" s="96"/>
+      <c r="FO32" s="96"/>
+      <c r="FP32" s="96"/>
+      <c r="FQ32" s="96"/>
+      <c r="FR32" s="96"/>
+      <c r="FS32" s="96"/>
+      <c r="FT32" s="96"/>
+      <c r="FU32" s="96"/>
+      <c r="FV32" s="96"/>
+      <c r="FW32" s="96"/>
+      <c r="FX32" s="96"/>
+      <c r="FY32" s="96"/>
+      <c r="FZ32" s="96"/>
+      <c r="GA32" s="96"/>
+      <c r="GB32" s="96"/>
+      <c r="GC32" s="96"/>
+      <c r="GD32" s="96"/>
+      <c r="GE32" s="96"/>
+      <c r="GF32" s="96"/>
+      <c r="GG32" s="96"/>
+      <c r="GH32" s="96"/>
+      <c r="GI32" s="96"/>
+      <c r="GJ32" s="96"/>
+      <c r="GK32" s="96"/>
+      <c r="GL32" s="96"/>
+      <c r="GM32" s="96"/>
+      <c r="GN32" s="96"/>
+      <c r="GO32" s="96"/>
+      <c r="GP32" s="96"/>
+      <c r="GQ32" s="96"/>
+      <c r="GR32" s="96"/>
+      <c r="GS32" s="96"/>
+      <c r="GT32" s="96"/>
+      <c r="GU32" s="96"/>
+      <c r="GV32" s="96"/>
+      <c r="GW32" s="96"/>
+      <c r="GX32" s="96"/>
+      <c r="GY32" s="96"/>
+      <c r="GZ32" s="96"/>
+      <c r="HA32" s="96"/>
+      <c r="HB32" s="96"/>
+      <c r="HC32" s="96"/>
+      <c r="HD32" s="96"/>
+      <c r="HE32" s="96"/>
+      <c r="HF32" s="96"/>
+      <c r="HG32" s="96"/>
+      <c r="HH32" s="96"/>
+      <c r="HI32" s="96"/>
+      <c r="HJ32" s="96"/>
+      <c r="HK32" s="96"/>
+      <c r="HL32" s="96"/>
+      <c r="HM32" s="96"/>
+      <c r="HN32" s="96"/>
+      <c r="HO32" s="96"/>
+      <c r="HP32" s="96"/>
+      <c r="HQ32" s="96"/>
+      <c r="HR32" s="96"/>
+      <c r="HS32" s="96"/>
+      <c r="HT32" s="96"/>
+      <c r="HU32" s="96"/>
+      <c r="HV32" s="96"/>
+      <c r="HW32" s="96"/>
+      <c r="HX32" s="96"/>
+      <c r="HY32" s="96"/>
+      <c r="HZ32" s="96"/>
+      <c r="IA32" s="96"/>
+      <c r="IB32" s="96"/>
+      <c r="IC32" s="96"/>
+      <c r="ID32" s="96"/>
+      <c r="IE32" s="96"/>
+      <c r="IF32" s="96"/>
+      <c r="IG32" s="96"/>
+      <c r="IH32" s="96"/>
+      <c r="II32" s="96"/>
+      <c r="IJ32" s="96"/>
+      <c r="IK32" s="96"/>
+      <c r="IL32" s="96"/>
+      <c r="IM32" s="96"/>
+      <c r="IN32" s="96"/>
+      <c r="IO32" s="96"/>
+      <c r="IP32" s="96"/>
+      <c r="IQ32" s="96"/>
+      <c r="IR32" s="96"/>
+      <c r="IS32" s="96"/>
+      <c r="IT32" s="96"/>
+      <c r="IU32" s="96"/>
+      <c r="IV32" s="96"/>
+      <c r="IW32" s="96"/>
+      <c r="IX32" s="96"/>
+      <c r="IY32" s="96"/>
+      <c r="IZ32" s="96"/>
+      <c r="JA32" s="96"/>
+      <c r="JB32" s="96"/>
+      <c r="JC32" s="96"/>
+      <c r="JD32" s="96"/>
+      <c r="JE32" s="96"/>
+      <c r="JF32" s="96"/>
+      <c r="JG32" s="96"/>
+      <c r="JH32" s="96"/>
+      <c r="JI32" s="96"/>
+      <c r="JJ32" s="96"/>
+      <c r="JK32" s="96"/>
+      <c r="JL32" s="96"/>
+      <c r="JM32" s="96"/>
+      <c r="JN32" s="96"/>
+      <c r="JO32" s="96"/>
+      <c r="JP32" s="96"/>
+      <c r="JQ32" s="96"/>
+      <c r="JR32" s="96"/>
+      <c r="JS32" s="96"/>
+      <c r="JT32" s="96"/>
+      <c r="JU32" s="96"/>
+      <c r="JV32" s="96"/>
+      <c r="JW32" s="96"/>
+      <c r="JX32" s="96"/>
+      <c r="JY32" s="96"/>
+      <c r="JZ32" s="96"/>
+      <c r="KA32" s="96"/>
+      <c r="KB32" s="96"/>
+      <c r="KC32" s="96"/>
+      <c r="KD32" s="96"/>
+      <c r="KE32" s="96"/>
+      <c r="KF32" s="96"/>
+      <c r="KG32" s="96"/>
+      <c r="KH32" s="96"/>
+      <c r="KI32" s="96"/>
+      <c r="KJ32" s="96"/>
+      <c r="KK32" s="96"/>
+      <c r="KL32" s="96"/>
+      <c r="KM32" s="96"/>
+      <c r="KN32" s="96"/>
+      <c r="KO32" s="96"/>
+      <c r="KP32" s="96"/>
+      <c r="KQ32" s="96"/>
+      <c r="KR32" s="96"/>
+      <c r="KS32" s="96"/>
+      <c r="KT32" s="96"/>
+      <c r="KU32" s="96"/>
+      <c r="KV32" s="96"/>
+      <c r="KW32" s="96"/>
+      <c r="KX32" s="96"/>
+      <c r="KY32" s="96"/>
+      <c r="KZ32" s="96"/>
+      <c r="LA32" s="96"/>
+      <c r="LB32" s="96"/>
+      <c r="LC32" s="96"/>
+      <c r="LD32" s="96"/>
+      <c r="LE32" s="96"/>
+      <c r="LF32" s="96"/>
+      <c r="LG32" s="96"/>
+      <c r="LH32" s="96"/>
+      <c r="LI32" s="96"/>
+      <c r="LJ32" s="96"/>
+      <c r="LK32" s="96"/>
+      <c r="LL32" s="96"/>
+      <c r="LM32" s="96"/>
+      <c r="LN32" s="96"/>
+      <c r="LO32" s="96"/>
+      <c r="LP32" s="96"/>
+      <c r="LQ32" s="96"/>
+      <c r="LR32" s="96"/>
+      <c r="LS32" s="96"/>
+      <c r="LT32" s="96"/>
+      <c r="LU32" s="96"/>
+      <c r="LV32" s="96"/>
+      <c r="LW32" s="96"/>
+      <c r="LX32" s="96"/>
+      <c r="LY32" s="96"/>
+      <c r="LZ32" s="96"/>
+      <c r="MA32" s="96"/>
+      <c r="MB32" s="96"/>
+      <c r="MC32" s="96"/>
+      <c r="MD32" s="96"/>
+      <c r="ME32" s="96"/>
+      <c r="MF32" s="96"/>
+      <c r="MG32" s="96"/>
+      <c r="MH32" s="96"/>
+      <c r="MI32" s="96"/>
+      <c r="MJ32" s="96"/>
+      <c r="MK32" s="96"/>
+      <c r="ML32" s="96"/>
+      <c r="MM32" s="96"/>
+      <c r="MN32" s="96"/>
+      <c r="MO32" s="96"/>
+      <c r="MP32" s="96"/>
+      <c r="MQ32" s="96"/>
+      <c r="MR32" s="96"/>
+      <c r="MS32" s="96"/>
+      <c r="MT32" s="96"/>
+      <c r="MU32" s="96"/>
+      <c r="MV32" s="96"/>
+      <c r="MW32" s="96"/>
+      <c r="MX32" s="96"/>
+      <c r="MY32" s="96"/>
+      <c r="MZ32" s="96"/>
+      <c r="NA32" s="96"/>
+      <c r="NB32" s="96"/>
+      <c r="NC32" s="96"/>
+      <c r="ND32" s="96"/>
+      <c r="NE32" s="96"/>
+      <c r="NF32" s="96"/>
+      <c r="NG32" s="96"/>
+      <c r="NH32" s="96"/>
+      <c r="NI32" s="96"/>
+      <c r="NJ32" s="96"/>
+      <c r="NK32" s="96"/>
+      <c r="NL32" s="96"/>
+      <c r="NM32" s="96"/>
+      <c r="NN32" s="96"/>
+      <c r="NO32" s="96"/>
+      <c r="NP32" s="96"/>
+      <c r="NQ32" s="96"/>
+      <c r="NR32" s="96"/>
+      <c r="NS32" s="96"/>
+      <c r="NT32" s="96"/>
+      <c r="NU32" s="96"/>
+      <c r="NV32" s="96"/>
+      <c r="NW32" s="96"/>
+      <c r="NX32" s="96"/>
+      <c r="NY32" s="96"/>
+      <c r="NZ32" s="96"/>
+      <c r="OA32" s="96"/>
+      <c r="OB32" s="96"/>
+      <c r="OC32" s="96"/>
+      <c r="OD32" s="96"/>
+      <c r="OE32" s="96"/>
+      <c r="OF32" s="96"/>
+      <c r="OG32" s="96"/>
+      <c r="OH32" s="96"/>
+      <c r="OI32" s="96"/>
+      <c r="OJ32" s="96"/>
+      <c r="OK32" s="96"/>
+      <c r="OL32" s="96"/>
+      <c r="OM32" s="96"/>
+      <c r="ON32" s="96"/>
+      <c r="OO32" s="96"/>
+      <c r="OP32" s="96"/>
+      <c r="OQ32" s="96"/>
+      <c r="OR32" s="96"/>
+      <c r="OS32" s="96"/>
+      <c r="OT32" s="96"/>
+      <c r="OU32" s="96"/>
+      <c r="OV32" s="96"/>
+      <c r="OW32" s="96"/>
+      <c r="OX32" s="96"/>
+      <c r="OY32" s="96"/>
+      <c r="OZ32" s="96"/>
+      <c r="PA32" s="96"/>
+      <c r="PB32" s="96"/>
+      <c r="PC32" s="96"/>
+      <c r="PD32" s="96"/>
+      <c r="PE32" s="96"/>
+      <c r="PF32" s="96"/>
+      <c r="PG32" s="96"/>
+      <c r="PH32" s="96"/>
+      <c r="PI32" s="96"/>
+      <c r="PJ32" s="96"/>
+      <c r="PK32" s="96"/>
+      <c r="PL32" s="96"/>
+      <c r="PM32" s="96"/>
+      <c r="PN32" s="96"/>
+      <c r="PO32" s="96"/>
+      <c r="PP32" s="96"/>
+      <c r="PQ32" s="96"/>
+      <c r="PR32" s="96"/>
+      <c r="PS32" s="96"/>
+      <c r="PT32" s="96"/>
+      <c r="PU32" s="96"/>
+      <c r="PV32" s="96"/>
+      <c r="PW32" s="96"/>
+      <c r="PX32" s="96"/>
+      <c r="PY32" s="96"/>
+      <c r="PZ32" s="96"/>
+      <c r="QA32" s="96"/>
+      <c r="QB32" s="96"/>
+      <c r="QC32" s="96"/>
+      <c r="QD32" s="96"/>
+      <c r="QE32" s="96"/>
+      <c r="QF32" s="96"/>
+      <c r="QG32" s="96"/>
+      <c r="QH32" s="96"/>
+      <c r="QI32" s="96"/>
+      <c r="QJ32" s="96"/>
+      <c r="QK32" s="96"/>
+      <c r="QL32" s="96"/>
+      <c r="QM32" s="96"/>
+      <c r="QN32" s="96"/>
+      <c r="QO32" s="96"/>
+      <c r="QP32" s="96"/>
+      <c r="QQ32" s="96"/>
+      <c r="QR32" s="96"/>
+      <c r="QS32" s="96"/>
+      <c r="QT32" s="96"/>
+      <c r="QU32" s="96"/>
+      <c r="QV32" s="96"/>
+      <c r="QW32" s="96"/>
+      <c r="QX32" s="96"/>
+      <c r="QY32" s="96"/>
+      <c r="QZ32" s="96"/>
+      <c r="RA32" s="96"/>
+      <c r="RB32" s="96"/>
+      <c r="RC32" s="96"/>
+      <c r="RD32" s="96"/>
+      <c r="RE32" s="96"/>
+      <c r="RF32" s="96"/>
+      <c r="RG32" s="96"/>
+      <c r="RH32" s="96"/>
+      <c r="RI32" s="96"/>
+      <c r="RJ32" s="96"/>
+      <c r="RK32" s="96"/>
+      <c r="RL32" s="96"/>
+      <c r="RM32" s="96"/>
+      <c r="RN32" s="96"/>
+      <c r="RO32" s="96"/>
+      <c r="RP32" s="96"/>
+      <c r="RQ32" s="96"/>
+      <c r="RR32" s="96"/>
+      <c r="RS32" s="96"/>
+      <c r="RT32" s="96"/>
+      <c r="RU32" s="96"/>
+      <c r="RV32" s="96"/>
+      <c r="RW32" s="96"/>
+      <c r="RX32" s="96"/>
+      <c r="RY32" s="96"/>
+      <c r="RZ32" s="96"/>
+      <c r="SA32" s="96"/>
+      <c r="SB32" s="96"/>
+      <c r="SC32" s="96"/>
+      <c r="SD32" s="96"/>
+      <c r="SE32" s="96"/>
+      <c r="SF32" s="96"/>
+      <c r="SG32" s="96"/>
+      <c r="SH32" s="96"/>
+      <c r="SI32" s="96"/>
+      <c r="SJ32" s="96"/>
+      <c r="SK32" s="96"/>
+      <c r="SL32" s="96"/>
+      <c r="SM32" s="96"/>
+      <c r="SN32" s="96"/>
+      <c r="SO32" s="96"/>
+      <c r="SP32" s="96"/>
+      <c r="SQ32" s="96"/>
+      <c r="SR32" s="96"/>
+      <c r="SS32" s="96"/>
+      <c r="ST32" s="96"/>
+      <c r="SU32" s="96"/>
+      <c r="SV32" s="96"/>
+      <c r="SW32" s="96"/>
+      <c r="SX32" s="96"/>
+      <c r="SY32" s="96"/>
+      <c r="SZ32" s="96"/>
+      <c r="TA32" s="96"/>
+      <c r="TB32" s="96"/>
+      <c r="TC32" s="96"/>
+      <c r="TD32" s="96"/>
+      <c r="TE32" s="96"/>
+      <c r="TF32" s="96"/>
+      <c r="TG32" s="96"/>
+      <c r="TH32" s="96"/>
+      <c r="TI32" s="96"/>
+      <c r="TJ32" s="96"/>
+      <c r="TK32" s="96"/>
+      <c r="TL32" s="96"/>
+      <c r="TM32" s="96"/>
+      <c r="TN32" s="96"/>
+      <c r="TO32" s="96"/>
+      <c r="TP32" s="96"/>
+      <c r="TQ32" s="96"/>
+      <c r="TR32" s="96"/>
+      <c r="TS32" s="96"/>
+      <c r="TT32" s="96"/>
+      <c r="TU32" s="96"/>
+      <c r="TV32" s="96"/>
+      <c r="TW32" s="96"/>
+      <c r="TX32" s="96"/>
+      <c r="TY32" s="96"/>
+      <c r="TZ32" s="96"/>
+      <c r="UA32" s="96"/>
+      <c r="UB32" s="96"/>
+      <c r="UC32" s="96"/>
+      <c r="UD32" s="96"/>
+      <c r="UE32" s="96"/>
+      <c r="UF32" s="96"/>
+      <c r="UG32" s="96"/>
+      <c r="UH32" s="96"/>
+      <c r="UI32" s="96"/>
+      <c r="UJ32" s="96"/>
+      <c r="UK32" s="96"/>
+      <c r="UL32" s="96"/>
+      <c r="UM32" s="96"/>
+      <c r="UN32" s="96"/>
+      <c r="UO32" s="96"/>
+      <c r="UP32" s="96"/>
+      <c r="UQ32" s="96"/>
+      <c r="UR32" s="96"/>
+      <c r="US32" s="96"/>
+      <c r="UT32" s="96"/>
+      <c r="UU32" s="96"/>
+      <c r="UV32" s="96"/>
+      <c r="UW32" s="96"/>
+      <c r="UX32" s="96"/>
+      <c r="UY32" s="96"/>
+      <c r="UZ32" s="96"/>
+      <c r="VA32" s="96"/>
+      <c r="VB32" s="96"/>
+      <c r="VC32" s="96"/>
+      <c r="VD32" s="96"/>
+      <c r="VE32" s="96"/>
+      <c r="VF32" s="96"/>
+      <c r="VG32" s="96"/>
+      <c r="VH32" s="96"/>
+      <c r="VI32" s="96"/>
+      <c r="VJ32" s="96"/>
+      <c r="VK32" s="96"/>
+      <c r="VL32" s="96"/>
+      <c r="VM32" s="96"/>
+      <c r="VN32" s="96"/>
+      <c r="VO32" s="96"/>
+      <c r="VP32" s="96"/>
+      <c r="VQ32" s="96"/>
+      <c r="VR32" s="96"/>
+      <c r="VS32" s="96"/>
+      <c r="VT32" s="96"/>
+      <c r="VU32" s="96"/>
+      <c r="VV32" s="96"/>
+      <c r="VW32" s="96"/>
+      <c r="VX32" s="96"/>
+      <c r="VY32" s="96"/>
+      <c r="VZ32" s="96"/>
+      <c r="WA32" s="96"/>
+      <c r="WB32" s="96"/>
+      <c r="WC32" s="96"/>
+      <c r="WD32" s="96"/>
+      <c r="WE32" s="96"/>
+      <c r="WF32" s="96"/>
+      <c r="WG32" s="96"/>
+      <c r="WH32" s="96"/>
+      <c r="WI32" s="96"/>
+      <c r="WJ32" s="96"/>
+      <c r="WK32" s="96"/>
+      <c r="WL32" s="96"/>
+      <c r="WM32" s="96"/>
+      <c r="WN32" s="96"/>
+      <c r="WO32" s="96"/>
+      <c r="WP32" s="96"/>
+      <c r="WQ32" s="96"/>
+      <c r="WR32" s="96"/>
+      <c r="WS32" s="96"/>
+      <c r="WT32" s="96"/>
+      <c r="WU32" s="96"/>
+      <c r="WV32" s="96"/>
+      <c r="WW32" s="96"/>
+      <c r="WX32" s="96"/>
+      <c r="WY32" s="96"/>
+      <c r="WZ32" s="96"/>
+      <c r="XA32" s="96"/>
+      <c r="XB32" s="96"/>
+      <c r="XC32" s="96"/>
+      <c r="XD32" s="96"/>
+      <c r="XE32" s="96"/>
+      <c r="XF32" s="96"/>
+      <c r="XG32" s="96"/>
+      <c r="XH32" s="96"/>
+      <c r="XI32" s="96"/>
+      <c r="XJ32" s="96"/>
+      <c r="XK32" s="96"/>
+      <c r="XL32" s="96"/>
+      <c r="XM32" s="96"/>
+      <c r="XN32" s="96"/>
+      <c r="XO32" s="96"/>
+      <c r="XP32" s="96"/>
+      <c r="XQ32" s="96"/>
+      <c r="XR32" s="96"/>
+      <c r="XS32" s="96"/>
+      <c r="XT32" s="96"/>
+      <c r="XU32" s="96"/>
+      <c r="XV32" s="96"/>
+      <c r="XW32" s="96"/>
+      <c r="XX32" s="96"/>
+      <c r="XY32" s="96"/>
+      <c r="XZ32" s="96"/>
+      <c r="YA32" s="96"/>
+      <c r="YB32" s="96"/>
+      <c r="YC32" s="96"/>
+      <c r="YD32" s="96"/>
+      <c r="YE32" s="96"/>
+      <c r="YF32" s="96"/>
+      <c r="YG32" s="96"/>
+      <c r="YH32" s="96"/>
+      <c r="YI32" s="96"/>
+      <c r="YJ32" s="96"/>
+      <c r="YK32" s="96"/>
+      <c r="YL32" s="96"/>
+      <c r="YM32" s="96"/>
+      <c r="YN32" s="96"/>
+      <c r="YO32" s="96"/>
+      <c r="YP32" s="96"/>
+      <c r="YQ32" s="96"/>
+      <c r="YR32" s="96"/>
+      <c r="YS32" s="96"/>
+      <c r="YT32" s="96"/>
+      <c r="YU32" s="96"/>
+      <c r="YV32" s="96"/>
+      <c r="YW32" s="96"/>
+      <c r="YX32" s="96"/>
+      <c r="YY32" s="96"/>
+      <c r="YZ32" s="96"/>
+      <c r="ZA32" s="96"/>
+      <c r="ZB32" s="96"/>
+      <c r="ZC32" s="96"/>
+      <c r="ZD32" s="96"/>
+      <c r="ZE32" s="96"/>
+      <c r="ZF32" s="96"/>
+      <c r="ZG32" s="96"/>
+      <c r="ZH32" s="96"/>
+      <c r="ZI32" s="96"/>
+      <c r="ZJ32" s="96"/>
+      <c r="ZK32" s="96"/>
+      <c r="ZL32" s="96"/>
+      <c r="ZM32" s="96"/>
+      <c r="ZN32" s="96"/>
+      <c r="ZO32" s="96"/>
+      <c r="ZP32" s="96"/>
+      <c r="ZQ32" s="96"/>
+      <c r="ZR32" s="96"/>
+      <c r="ZS32" s="96"/>
+      <c r="ZT32" s="96"/>
+      <c r="ZU32" s="96"/>
+      <c r="ZV32" s="96"/>
+      <c r="ZW32" s="96"/>
+      <c r="ZX32" s="96"/>
+      <c r="ZY32" s="96"/>
+      <c r="ZZ32" s="96"/>
+      <c r="AAA32" s="96"/>
+      <c r="AAB32" s="96"/>
+      <c r="AAC32" s="96"/>
+      <c r="AAD32" s="96"/>
+      <c r="AAE32" s="96"/>
+      <c r="AAF32" s="96"/>
+      <c r="AAG32" s="96"/>
+      <c r="AAH32" s="96"/>
+      <c r="AAI32" s="96"/>
+      <c r="AAJ32" s="96"/>
+      <c r="AAK32" s="96"/>
+      <c r="AAL32" s="96"/>
+      <c r="AAM32" s="96"/>
+      <c r="AAN32" s="96"/>
+      <c r="AAO32" s="96"/>
+      <c r="AAP32" s="96"/>
+      <c r="AAQ32" s="96"/>
+      <c r="AAR32" s="96"/>
+      <c r="AAS32" s="96"/>
+      <c r="AAT32" s="96"/>
+      <c r="AAU32" s="96"/>
+      <c r="AAV32" s="96"/>
+      <c r="AAW32" s="96"/>
+      <c r="AAX32" s="96"/>
+      <c r="AAY32" s="96"/>
+      <c r="AAZ32" s="96"/>
+      <c r="ABA32" s="96"/>
+      <c r="ABB32" s="96"/>
+      <c r="ABC32" s="96"/>
+      <c r="ABD32" s="96"/>
+      <c r="ABE32" s="96"/>
+      <c r="ABF32" s="96"/>
+      <c r="ABG32" s="96"/>
+      <c r="ABH32" s="96"/>
+      <c r="ABI32" s="96"/>
+      <c r="ABJ32" s="96"/>
+      <c r="ABK32" s="96"/>
+      <c r="ABL32" s="96"/>
+      <c r="ABM32" s="96"/>
+      <c r="ABN32" s="96"/>
+      <c r="ABO32" s="96"/>
+      <c r="ABP32" s="96"/>
+      <c r="ABQ32" s="96"/>
+      <c r="ABR32" s="96"/>
+      <c r="ABS32" s="96"/>
+      <c r="ABT32" s="96"/>
+      <c r="ABU32" s="96"/>
+      <c r="ABV32" s="96"/>
+      <c r="ABW32" s="96"/>
+      <c r="ABX32" s="96"/>
+      <c r="ABY32" s="96"/>
+      <c r="ABZ32" s="96"/>
+      <c r="ACA32" s="96"/>
+      <c r="ACB32" s="96"/>
+      <c r="ACC32" s="96"/>
+      <c r="ACD32" s="96"/>
+      <c r="ACE32" s="96"/>
+      <c r="ACF32" s="96"/>
+      <c r="ACG32" s="96"/>
+      <c r="ACH32" s="96"/>
+      <c r="ACI32" s="96"/>
+      <c r="ACJ32" s="96"/>
+      <c r="ACK32" s="96"/>
+      <c r="ACL32" s="96"/>
+      <c r="ACM32" s="96"/>
+      <c r="ACN32" s="96"/>
+      <c r="ACO32" s="96"/>
+      <c r="ACP32" s="96"/>
+      <c r="ACQ32" s="96"/>
+      <c r="ACR32" s="96"/>
+      <c r="ACS32" s="96"/>
+      <c r="ACT32" s="96"/>
+      <c r="ACU32" s="96"/>
+      <c r="ACV32" s="96"/>
+      <c r="ACW32" s="96"/>
+      <c r="ACX32" s="96"/>
+      <c r="ACY32" s="96"/>
+      <c r="ACZ32" s="96"/>
+      <c r="ADA32" s="96"/>
+      <c r="ADB32" s="96"/>
+      <c r="ADC32" s="96"/>
+      <c r="ADD32" s="96"/>
+      <c r="ADE32" s="96"/>
+      <c r="ADF32" s="96"/>
+      <c r="ADG32" s="96"/>
+      <c r="ADH32" s="96"/>
+      <c r="ADI32" s="96"/>
+      <c r="ADJ32" s="96"/>
+      <c r="ADK32" s="96"/>
+      <c r="ADL32" s="96"/>
+      <c r="ADM32" s="96"/>
+      <c r="ADN32" s="96"/>
+      <c r="ADO32" s="96"/>
+      <c r="ADP32" s="96"/>
+      <c r="ADQ32" s="96"/>
+      <c r="ADR32" s="96"/>
+      <c r="ADS32" s="96"/>
+      <c r="ADT32" s="96"/>
+      <c r="ADU32" s="96"/>
+      <c r="ADV32" s="96"/>
+      <c r="ADW32" s="96"/>
+      <c r="ADX32" s="96"/>
+      <c r="ADY32" s="96"/>
+      <c r="ADZ32" s="96"/>
+      <c r="AEA32" s="96"/>
+      <c r="AEB32" s="96"/>
+      <c r="AEC32" s="96"/>
+      <c r="AED32" s="96"/>
+      <c r="AEE32" s="96"/>
+      <c r="AEF32" s="96"/>
+      <c r="AEG32" s="96"/>
+      <c r="AEH32" s="96"/>
+      <c r="AEI32" s="96"/>
+      <c r="AEJ32" s="96"/>
+      <c r="AEK32" s="96"/>
+      <c r="AEL32" s="96"/>
+      <c r="AEM32" s="96"/>
+      <c r="AEN32" s="96"/>
+      <c r="AEO32" s="96"/>
+      <c r="AEP32" s="96"/>
+      <c r="AEQ32" s="96"/>
+      <c r="AER32" s="96"/>
+      <c r="AES32" s="96"/>
+      <c r="AET32" s="96"/>
+      <c r="AEU32" s="96"/>
+      <c r="AEV32" s="96"/>
+      <c r="AEW32" s="96"/>
+      <c r="AEX32" s="96"/>
+      <c r="AEY32" s="96"/>
+      <c r="AEZ32" s="96"/>
+      <c r="AFA32" s="96"/>
+      <c r="AFB32" s="96"/>
+      <c r="AFC32" s="96"/>
+      <c r="AFD32" s="96"/>
+      <c r="AFE32" s="96"/>
+      <c r="AFF32" s="96"/>
+      <c r="AFG32" s="96"/>
+      <c r="AFH32" s="96"/>
+      <c r="AFI32" s="96"/>
+      <c r="AFJ32" s="96"/>
+      <c r="AFK32" s="96"/>
+      <c r="AFL32" s="96"/>
+      <c r="AFM32" s="96"/>
+      <c r="AFN32" s="96"/>
+      <c r="AFO32" s="96"/>
+      <c r="AFP32" s="96"/>
+      <c r="AFQ32" s="96"/>
+      <c r="AFR32" s="96"/>
+      <c r="AFS32" s="96"/>
+      <c r="AFT32" s="96"/>
+      <c r="AFU32" s="96"/>
+      <c r="AFV32" s="96"/>
+      <c r="AFW32" s="96"/>
+      <c r="AFX32" s="96"/>
+      <c r="AFY32" s="96"/>
+      <c r="AFZ32" s="96"/>
+      <c r="AGA32" s="96"/>
+      <c r="AGB32" s="96"/>
+      <c r="AGC32" s="96"/>
+      <c r="AGD32" s="96"/>
+      <c r="AGE32" s="96"/>
+      <c r="AGF32" s="96"/>
+      <c r="AGG32" s="96"/>
+      <c r="AGH32" s="96"/>
+      <c r="AGI32" s="96"/>
+      <c r="AGJ32" s="96"/>
+      <c r="AGK32" s="96"/>
+      <c r="AGL32" s="96"/>
+      <c r="AGM32" s="96"/>
+      <c r="AGN32" s="96"/>
+      <c r="AGO32" s="96"/>
+      <c r="AGP32" s="96"/>
+      <c r="AGQ32" s="96"/>
+      <c r="AGR32" s="96"/>
+      <c r="AGS32" s="96"/>
+      <c r="AGT32" s="96"/>
+      <c r="AGU32" s="96"/>
+      <c r="AGV32" s="96"/>
+      <c r="AGW32" s="96"/>
+      <c r="AGX32" s="96"/>
+      <c r="AGY32" s="96"/>
+      <c r="AGZ32" s="96"/>
+      <c r="AHA32" s="96"/>
+      <c r="AHB32" s="96"/>
+      <c r="AHC32" s="96"/>
+      <c r="AHD32" s="96"/>
+      <c r="AHE32" s="96"/>
+      <c r="AHF32" s="96"/>
+      <c r="AHG32" s="96"/>
+      <c r="AHH32" s="96"/>
+      <c r="AHI32" s="96"/>
+      <c r="AHJ32" s="96"/>
+      <c r="AHK32" s="96"/>
+      <c r="AHL32" s="96"/>
+      <c r="AHM32" s="96"/>
+      <c r="AHN32" s="96"/>
+      <c r="AHO32" s="96"/>
+      <c r="AHP32" s="96"/>
+      <c r="AHQ32" s="96"/>
+      <c r="AHR32" s="96"/>
+      <c r="AHS32" s="96"/>
+      <c r="AHT32" s="96"/>
+      <c r="AHU32" s="96"/>
+      <c r="AHV32" s="96"/>
+      <c r="AHW32" s="96"/>
+      <c r="AHX32" s="96"/>
+      <c r="AHY32" s="96"/>
+      <c r="AHZ32" s="96"/>
+      <c r="AIA32" s="96"/>
+      <c r="AIB32" s="96"/>
+      <c r="AIC32" s="96"/>
+      <c r="AID32" s="96"/>
+      <c r="AIE32" s="96"/>
+      <c r="AIF32" s="96"/>
+      <c r="AIG32" s="96"/>
+      <c r="AIH32" s="96"/>
+      <c r="AII32" s="96"/>
+      <c r="AIJ32" s="96"/>
+      <c r="AIK32" s="96"/>
+      <c r="AIL32" s="96"/>
+      <c r="AIM32" s="96"/>
+      <c r="AIN32" s="96"/>
+      <c r="AIO32" s="96"/>
+      <c r="AIP32" s="96"/>
+      <c r="AIQ32" s="96"/>
+      <c r="AIR32" s="96"/>
+      <c r="AIS32" s="96"/>
+      <c r="AIT32" s="96"/>
+      <c r="AIU32" s="96"/>
+      <c r="AIV32" s="96"/>
+      <c r="AIW32" s="96"/>
+      <c r="AIX32" s="96"/>
+      <c r="AIY32" s="96"/>
+      <c r="AIZ32" s="96"/>
+      <c r="AJA32" s="96"/>
+      <c r="AJB32" s="96"/>
+      <c r="AJC32" s="96"/>
+      <c r="AJD32" s="96"/>
+      <c r="AJE32" s="96"/>
+      <c r="AJF32" s="96"/>
+      <c r="AJG32" s="96"/>
+      <c r="AJH32" s="96"/>
+      <c r="AJI32" s="96"/>
+      <c r="AJJ32" s="96"/>
+      <c r="AJK32" s="96"/>
+      <c r="AJL32" s="96"/>
+      <c r="AJM32" s="96"/>
+      <c r="AJN32" s="96"/>
+      <c r="AJO32" s="96"/>
+      <c r="AJP32" s="96"/>
+      <c r="AJQ32" s="96"/>
+      <c r="AJR32" s="96"/>
+      <c r="AJS32" s="96"/>
+      <c r="AJT32" s="96"/>
+      <c r="AJU32" s="96"/>
+      <c r="AJV32" s="96"/>
+      <c r="AJW32" s="96"/>
+      <c r="AJX32" s="96"/>
+      <c r="AJY32" s="96"/>
+      <c r="AJZ32" s="96"/>
+      <c r="AKA32" s="96"/>
+      <c r="AKB32" s="96"/>
+      <c r="AKC32" s="96"/>
+      <c r="AKD32" s="96"/>
+      <c r="AKE32" s="96"/>
+      <c r="AKF32" s="96"/>
+      <c r="AKG32" s="96"/>
+      <c r="AKH32" s="96"/>
+      <c r="AKI32" s="96"/>
+      <c r="AKJ32" s="96"/>
+      <c r="AKK32" s="96"/>
+      <c r="AKL32" s="96"/>
+      <c r="AKM32" s="96"/>
+      <c r="AKN32" s="96"/>
+      <c r="AKO32" s="96"/>
+      <c r="AKP32" s="96"/>
+      <c r="AKQ32" s="96"/>
+      <c r="AKR32" s="96"/>
+      <c r="AKS32" s="96"/>
+      <c r="AKT32" s="96"/>
+      <c r="AKU32" s="96"/>
+      <c r="AKV32" s="96"/>
+      <c r="AKW32" s="96"/>
+      <c r="AKX32" s="96"/>
+      <c r="AKY32" s="96"/>
+      <c r="AKZ32" s="96"/>
+      <c r="ALA32" s="96"/>
+      <c r="ALB32" s="96"/>
+      <c r="ALC32" s="96"/>
+      <c r="ALD32" s="96"/>
+      <c r="ALE32" s="96"/>
+      <c r="ALF32" s="96"/>
+      <c r="ALG32" s="96"/>
+      <c r="ALH32" s="96"/>
+      <c r="ALI32" s="96"/>
+      <c r="ALJ32" s="96"/>
+      <c r="ALK32" s="96"/>
+      <c r="ALL32" s="96"/>
+      <c r="ALM32" s="96"/>
+      <c r="ALN32" s="96"/>
+      <c r="ALO32" s="96"/>
+      <c r="ALP32" s="96"/>
+      <c r="ALQ32" s="96"/>
+      <c r="ALR32" s="96"/>
+      <c r="ALS32" s="96"/>
+      <c r="ALT32" s="96"/>
+      <c r="ALU32" s="96"/>
+      <c r="ALV32" s="96"/>
+      <c r="ALW32" s="96"/>
+      <c r="ALX32" s="96"/>
+      <c r="ALY32" s="96"/>
+      <c r="ALZ32" s="96"/>
+      <c r="AMA32" s="96"/>
+      <c r="AMB32" s="96"/>
+      <c r="AMC32" s="96"/>
+      <c r="AMD32" s="96"/>
+      <c r="AME32" s="96"/>
+      <c r="AMF32" s="96"/>
+      <c r="AMG32" s="96"/>
+      <c r="AMH32" s="96"/>
+      <c r="AMI32" s="96"/>
+      <c r="AMJ32" s="96"/>
+      <c r="AMK32" s="96"/>
+      <c r="AML32" s="96"/>
+      <c r="AMM32" s="96"/>
+    </row>
+    <row r="33" spans="1:9" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="129">
+        <v>11</v>
+      </c>
+      <c r="B33" s="126" t="s">
+        <v>648</v>
+      </c>
+      <c r="C33" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="130" t="s">
+        <v>651</v>
+      </c>
+      <c r="E33" s="127" t="s">
+        <v>652</v>
+      </c>
+      <c r="F33" s="125"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131" t="s">
+        <v>649</v>
+      </c>
+      <c r="I33" s="125" t="s">
+        <v>650</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21826,17 +21924,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -22012,10 +22110,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMK53"/>
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A47" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22033,17 +22131,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -22379,7 +22477,7 @@
       <c r="C10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="103" t="s">
         <v>311</v>
       </c>
       <c r="E10" s="41"/>
@@ -25958,7 +26056,7 @@
       <c r="C27" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="104" t="s">
         <v>325</v>
       </c>
       <c r="E27" s="41"/>
@@ -26030,7 +26128,7 @@
       <c r="C30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="105" t="s">
         <v>326</v>
       </c>
       <c r="E30" s="41"/>
@@ -26102,7 +26200,7 @@
       <c r="C33" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="104" t="s">
         <v>327</v>
       </c>
       <c r="E33" s="41"/>
@@ -27160,7 +27258,7 @@
       <c r="C35" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="105" t="s">
+      <c r="D35" s="103" t="s">
         <v>224</v>
       </c>
       <c r="E35" s="41"/>
@@ -27170,7 +27268,7 @@
         <v>293</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
@@ -27194,7 +27292,7 @@
         <v>294</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
@@ -27218,7 +27316,7 @@
         <v>295</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
@@ -27302,7 +27400,7 @@
       <c r="C41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="105" t="s">
+      <c r="D41" s="103" t="s">
         <v>336</v>
       </c>
       <c r="E41" s="41"/>
@@ -27348,7 +27446,7 @@
       <c r="C43" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="108">
+      <c r="D43" s="106">
         <v>43466</v>
       </c>
       <c r="E43" s="41"/>
@@ -27394,7 +27492,7 @@
       <c r="C45" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="D45" s="103" t="s">
         <v>371</v>
       </c>
       <c r="E45" s="41"/>
@@ -27446,7 +27544,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
-      <c r="H47" s="104" t="s">
+      <c r="H47" s="102" t="s">
         <v>515</v>
       </c>
       <c r="I47" s="36" t="s">
@@ -27469,7 +27567,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
-      <c r="H48" s="104" t="s">
+      <c r="H48" s="102" t="s">
         <v>527</v>
       </c>
       <c r="I48" s="36"/>
@@ -27490,7 +27588,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
-      <c r="H49" s="104" t="s">
+      <c r="H49" s="102" t="s">
         <v>527</v>
       </c>
       <c r="I49" s="36"/>
@@ -27511,7 +27609,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
-      <c r="H50" s="104" t="s">
+      <c r="H50" s="102" t="s">
         <v>527</v>
       </c>
       <c r="I50" s="36"/>
@@ -27532,7 +27630,7 @@
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
-      <c r="H51" s="104" t="s">
+      <c r="H51" s="102" t="s">
         <v>404</v>
       </c>
       <c r="I51" s="36" t="s">
@@ -27555,11 +27653,11 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
-      <c r="H52" s="104" t="s">
+      <c r="H52" s="102" t="s">
         <v>531</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -27567,23 +27665,34 @@
         <v>50</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="E53" s="41" t="s">
         <v>643</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>644</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
-      <c r="H53" s="104"/>
+      <c r="H53" s="102"/>
       <c r="I53" s="36" t="s">
-        <v>647</v>
-      </c>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A95C3CD-86F5-4BEF-80CC-017796BF2410}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61D957C3-517F-453A-B348-81C05B30E70B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="660">
   <si>
     <r>
       <rPr>
@@ -3308,6 +3308,27 @@
   </si>
   <si>
     <t>UIN/VID</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>VID Type to be generated for every UIN issuance</t>
+  </si>
+  <si>
+    <t>Perpeptual</t>
+  </si>
+  <si>
+    <t>Other VID types defined by the country</t>
+  </si>
+  <si>
+    <t>Whether to generate VID for every UIN Issuance</t>
+  </si>
+  <si>
+    <t>Whether to print VID on UIN car or not</t>
   </si>
 </sst>
 </file>
@@ -4051,21 +4072,6 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4098,6 +4104,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5408,35 +5429,35 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5466,7 +5487,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5504,7 +5525,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
@@ -5547,7 +5568,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5590,7 +5611,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5633,7 +5654,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5676,7 +5697,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5719,7 +5740,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5762,7 +5783,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5805,7 +5826,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5848,7 +5869,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5891,7 +5912,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5934,7 +5955,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5996,34 +6017,34 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.26953125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.26953125" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.26953125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6052,7 +6073,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -6079,7 +6100,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -6104,7 +6125,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -6131,7 +6152,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6158,7 +6179,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6185,7 +6206,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -6212,7 +6233,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="143" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -6239,7 +6260,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -6266,7 +6287,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -6293,7 +6314,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -6320,7 +6341,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -6347,7 +6368,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -6372,7 +6393,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -6395,7 +6416,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -6416,7 +6437,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -6435,7 +6456,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -6454,7 +6475,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -6473,7 +6494,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -6492,7 +6513,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -6511,7 +6532,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -6530,7 +6551,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -6549,7 +6570,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -6568,7 +6589,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -6591,7 +6612,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -6610,7 +6631,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -6629,7 +6650,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -6650,7 +6671,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="62"/>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -6692,20 +6713,20 @@
       <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.54296875" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="107" t="s">
         <v>53</v>
       </c>
@@ -6717,7 +6738,7 @@
       <c r="G1" s="107"/>
       <c r="H1" s="107"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6743,7 +6764,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="143" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6769,7 +6790,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="208" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6796,7 +6817,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="234" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6819,7 +6840,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6842,7 +6863,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6869,7 +6890,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6896,7 +6917,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6923,7 +6944,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6950,7 +6971,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6977,7 +6998,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7004,7 +7025,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7031,7 +7052,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7058,7 +7079,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7081,7 +7102,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7104,7 +7125,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7127,7 +7148,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="156" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7152,7 +7173,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7173,7 +7194,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7194,7 +7215,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7217,7 +7238,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7240,7 +7261,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7261,7 +7282,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7282,7 +7303,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="234" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7307,7 +7328,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7330,7 +7351,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7355,7 +7376,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7380,7 +7401,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7405,7 +7426,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="195" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7432,7 +7453,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7459,7 +7480,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7486,7 +7507,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7513,7 +7534,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7540,7 +7561,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7567,7 +7588,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1026" ht="156" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7594,7 +7615,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7615,7 +7636,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7640,7 +7661,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7665,7 +7686,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7692,7 +7713,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7719,7 +7740,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8764,7 +8785,7 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9807,7 +9828,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9830,7 +9851,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9853,7 +9874,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9876,7 +9897,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1026" ht="143" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9899,7 +9920,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9924,7 +9945,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9949,7 +9970,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9974,7 +9995,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9999,7 +10020,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -10022,7 +10043,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -10045,7 +10066,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -10068,7 +10089,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -10091,7 +10112,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -10112,7 +10133,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="348" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10135,7 +10156,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="130" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -10160,7 +10181,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="143" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10185,7 +10206,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -10209,7 +10230,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -10233,7 +10254,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -10255,7 +10276,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -10279,7 +10300,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -10303,7 +10324,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -10327,7 +10348,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -10351,7 +10372,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -10373,7 +10394,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -10393,7 +10414,7 @@
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -10413,7 +10434,7 @@
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -10433,7 +10454,7 @@
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -10453,7 +10474,7 @@
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -10473,7 +10494,7 @@
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -10495,7 +10516,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -10513,7 +10534,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <f t="shared" ref="A75" si="1">A74+1</f>
         <v>74</v>
@@ -10552,34 +10573,34 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.7109375" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.54296875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.26953125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.7265625" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10608,7 +10629,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -10629,7 +10650,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10650,7 +10671,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -10671,7 +10692,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -10692,7 +10713,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -10713,7 +10734,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -10734,7 +10755,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10757,7 +10778,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -10780,7 +10801,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -10801,7 +10822,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="156" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -10822,7 +10843,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="143" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -10843,7 +10864,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -10864,7 +10885,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -10885,7 +10906,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -10908,7 +10929,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -10945,41 +10966,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.54296875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -11008,7 +11029,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="273" x14ac:dyDescent="0.3">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -12049,7 +12070,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -13090,7 +13111,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1027" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13113,7 +13134,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13134,7 +13155,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13155,7 +13176,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13178,7 +13199,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13199,7 +13220,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13220,7 +13241,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14257,7 +14278,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15294,7 +15315,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16331,7 +16352,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -17368,7 +17389,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="240" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1027" ht="195" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17395,7 +17416,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -17422,7 +17443,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1027" ht="208" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -17449,7 +17470,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17476,7 +17497,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18513,7 +18534,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19550,7 +19571,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -20589,7 +20610,7 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
       <c r="A22" s="87">
         <v>5</v>
       </c>
@@ -20616,7 +20637,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A23" s="87">
         <v>6</v>
       </c>
@@ -20641,7 +20662,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A24" s="87">
         <v>7</v>
       </c>
@@ -20666,7 +20687,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
       <c r="A25" s="109">
         <v>19</v>
       </c>
@@ -20693,7 +20714,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20720,7 +20741,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>138</v>
@@ -20737,7 +20758,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="87"/>
       <c r="B28" s="88" t="s">
         <v>139</v>
@@ -20754,7 +20775,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:1027" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1027" ht="78" x14ac:dyDescent="0.35">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
         <v>162</v>
@@ -20775,7 +20796,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="195" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
       <c r="A30" s="87">
         <v>9</v>
       </c>
@@ -20800,7 +20821,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A31" s="87">
         <v>10</v>
       </c>
@@ -20825,25 +20846,25 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="97" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1027" s="97" customFormat="1" ht="130" x14ac:dyDescent="0.35">
       <c r="A32" s="85">
         <v>11</v>
       </c>
       <c r="B32" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="122" t="s">
+      <c r="D32" s="117" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="123" t="s">
+      <c r="E32" s="118" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="72"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124" t="s">
+      <c r="G32" s="119"/>
+      <c r="H32" s="119" t="s">
         <v>357</v>
       </c>
       <c r="I32" s="72" t="s">
@@ -21868,28 +21889,28 @@
       <c r="AML32" s="96"/>
       <c r="AMM32" s="96"/>
     </row>
-    <row r="33" spans="1:9" ht="162.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="129">
+    <row r="33" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+      <c r="A33" s="124">
         <v>11</v>
       </c>
-      <c r="B33" s="126" t="s">
+      <c r="B33" s="121" t="s">
         <v>648</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="130" t="s">
+      <c r="D33" s="125" t="s">
         <v>651</v>
       </c>
-      <c r="E33" s="127" t="s">
+      <c r="E33" s="122" t="s">
         <v>652</v>
       </c>
-      <c r="F33" s="125"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131" t="s">
+      <c r="F33" s="120"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126" t="s">
         <v>649</v>
       </c>
-      <c r="I33" s="125" t="s">
+      <c r="I33" s="120" t="s">
         <v>650</v>
       </c>
     </row>
@@ -21910,33 +21931,33 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.5703125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.54296875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -21965,7 +21986,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -21982,7 +22003,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -21999,7 +22020,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -22016,7 +22037,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -22033,7 +22054,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -22050,7 +22071,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -22067,7 +22088,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -22084,7 +22105,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -22110,40 +22131,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMK54"/>
+  <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.26953125" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22172,7 +22193,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -22214,7 +22235,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22257,7 +22278,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22300,7 +22321,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -22341,7 +22362,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22384,7 +22405,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
@@ -22425,7 +22446,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -22466,7 +22487,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="52" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22492,7 +22513,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22535,7 +22556,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22578,7 +22599,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
@@ -22619,7 +22640,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
@@ -22662,7 +22683,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
@@ -22703,7 +22724,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -22744,7 +22765,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -22785,7 +22806,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23821,7 +23842,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24857,7 +24878,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24883,7 +24904,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1025" ht="104" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24909,7 +24930,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -25947,7 +25968,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25973,7 +25994,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -25997,7 +26018,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -26021,7 +26042,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -26045,7 +26066,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -26069,7 +26090,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -26093,7 +26114,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -26117,7 +26138,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -26141,7 +26162,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -26165,7 +26186,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -26189,7 +26210,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -26213,7 +26234,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -27247,7 +27268,7 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="210" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" ht="156" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -27271,7 +27292,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" ht="117" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -27295,7 +27316,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1025" ht="78" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -27319,7 +27340,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -27343,7 +27364,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -27365,7 +27386,7 @@
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -27389,7 +27410,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -27413,7 +27434,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -27436,7 +27457,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -27459,7 +27480,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -27482,7 +27503,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -27505,7 +27526,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -27528,7 +27549,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -27551,7 +27572,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27572,7 +27593,7 @@
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27593,7 +27614,7 @@
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27614,7 +27635,7 @@
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <v>48</v>
       </c>
@@ -27637,7 +27658,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>49</v>
       </c>
@@ -27660,7 +27681,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <v>50</v>
       </c>
@@ -27683,16 +27704,74 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="41"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="13">
+        <v>51</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>658</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>654</v>
+      </c>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
-      <c r="H54" s="102"/>
+      <c r="H54" s="102" t="s">
+        <v>527</v>
+      </c>
       <c r="I54" s="36"/>
+    </row>
+    <row r="55" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="13">
+        <v>52</v>
+      </c>
+      <c r="B55" s="120" t="s">
+        <v>655</v>
+      </c>
+      <c r="C55" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="121" t="s">
+        <v>656</v>
+      </c>
+      <c r="E55" s="120" t="s">
+        <v>657</v>
+      </c>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="102" t="s">
+        <v>527</v>
+      </c>
+      <c r="I55" s="121"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="13">
+        <v>53</v>
+      </c>
+      <c r="B56" s="120" t="s">
+        <v>659</v>
+      </c>
+      <c r="C56" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="121" t="s">
+        <v>653</v>
+      </c>
+      <c r="E56" s="121" t="s">
+        <v>654</v>
+      </c>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="102" t="s">
+        <v>527</v>
+      </c>
+      <c r="I56" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61D957C3-517F-453A-B348-81C05B30E70B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB61D1CD-0DC7-426F-B6D7-F53E08EEA52D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="661">
   <si>
     <r>
       <rPr>
@@ -3329,6 +3329,9 @@
   </si>
   <si>
     <t>Whether to print VID on UIN car or not</t>
+  </si>
+  <si>
+    <t>VID Concept applicable for a country or Not</t>
   </si>
 </sst>
 </file>
@@ -5429,21 +5432,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
@@ -5457,7 +5460,7 @@
       <c r="I1" s="127"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5487,7 +5490,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -5525,7 +5528,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
@@ -5568,7 +5571,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5611,7 +5614,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5654,7 +5657,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5697,7 +5700,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5740,7 +5743,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5783,7 +5786,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5826,7 +5829,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5869,7 +5872,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5912,7 +5915,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5955,7 +5958,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6017,21 +6020,21 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.26953125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.26953125" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="128" t="s">
         <v>26</v>
       </c>
@@ -6044,7 +6047,7 @@
       <c r="H1" s="128"/>
       <c r="I1" s="128"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -6260,7 +6263,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -6416,7 +6419,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -6437,7 +6440,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -6456,7 +6459,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -6475,7 +6478,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -6494,7 +6497,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -6513,7 +6516,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -6532,7 +6535,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -6551,7 +6554,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -6570,7 +6573,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -6589,7 +6592,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -6612,7 +6615,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -6631,7 +6634,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -6650,7 +6653,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -6671,7 +6674,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="62"/>
     </row>
-    <row r="29" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -6713,20 +6716,20 @@
       <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.54296875" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
         <v>53</v>
       </c>
@@ -6738,7 +6741,7 @@
       <c r="G1" s="107"/>
       <c r="H1" s="107"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="143" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="208" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A59" si="0">A3+1</f>
         <v>2</v>
@@ -6817,7 +6820,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="234" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6840,7 +6843,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6863,7 +6866,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6890,7 +6893,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6917,7 +6920,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6944,7 +6947,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6971,7 +6974,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6998,7 +7001,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7025,7 +7028,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7052,7 +7055,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7079,7 +7082,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7102,7 +7105,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="52" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7125,7 +7128,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7148,7 +7151,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="156" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7173,7 +7176,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7194,7 +7197,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7215,7 +7218,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7238,7 +7241,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7261,7 +7264,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7282,7 +7285,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7303,7 +7306,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="234" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7328,7 +7331,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7351,7 +7354,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7376,7 +7379,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7401,7 +7404,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7426,7 +7429,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="195" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7453,7 +7456,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7480,7 +7483,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7507,7 +7510,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7534,7 +7537,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7561,7 +7564,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7588,7 +7591,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="156" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1026" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7615,7 +7618,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7636,7 +7639,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7661,7 +7664,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1026" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7686,7 +7689,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7713,7 +7716,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7740,7 +7743,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1026" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8785,7 +8788,7 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1026" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9828,7 +9831,7 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9851,7 +9854,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9874,7 +9877,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1026" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9897,7 +9900,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="143" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1026" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9920,7 +9923,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1026" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9945,7 +9948,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9970,7 +9973,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9995,7 +9998,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="117" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -10020,7 +10023,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -10043,7 +10046,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -10066,7 +10069,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -10089,7 +10092,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -10112,7 +10115,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -10133,7 +10136,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="348" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10156,7 +10159,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="130" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -10181,7 +10184,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="143" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10206,7 +10209,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -10230,7 +10233,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="39" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -10254,7 +10257,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -10276,7 +10279,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -10300,7 +10303,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -10414,7 +10417,7 @@
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -10434,7 +10437,7 @@
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -10454,7 +10457,7 @@
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -10474,7 +10477,7 @@
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -10494,7 +10497,7 @@
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="39" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f t="shared" ref="A75" si="1">A74+1</f>
         <v>74</v>
@@ -10573,21 +10576,21 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.54296875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.26953125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.7265625" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.7109375" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
         <v>155</v>
       </c>
@@ -10600,7 +10603,7 @@
       <c r="H1" s="129"/>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -10650,7 +10653,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -10713,7 +10716,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10778,7 +10781,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -10801,7 +10804,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -10822,7 +10825,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="156" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -10843,7 +10846,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -10864,7 +10867,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -10885,7 +10888,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="130" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -10929,7 +10932,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -10973,21 +10976,21 @@
       <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.54296875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1027" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="129" t="s">
         <v>101</v>
       </c>
@@ -11000,7 +11003,7 @@
       <c r="H1" s="129"/>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -11029,7 +11032,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="84" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1027" s="84" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -12070,7 +12073,7 @@
       <c r="AML3" s="83"/>
       <c r="AMM3" s="83"/>
     </row>
-    <row r="4" spans="1:1027" s="84" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1027" s="84" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -13111,7 +13114,7 @@
       <c r="AML4" s="83"/>
       <c r="AMM4" s="83"/>
     </row>
-    <row r="5" spans="1:1027" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13134,7 +13137,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13155,7 +13158,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13176,7 +13179,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13199,7 +13202,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13220,7 +13223,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13241,7 +13244,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85">
         <v>9</v>
       </c>
@@ -14278,7 +14281,7 @@
       <c r="AML11" s="74"/>
       <c r="AMM11" s="74"/>
     </row>
-    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
         <v>10</v>
       </c>
@@ -15315,7 +15318,7 @@
       <c r="AML12" s="74"/>
       <c r="AMM12" s="74"/>
     </row>
-    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1027" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85">
         <v>11</v>
       </c>
@@ -16352,7 +16355,7 @@
       <c r="AML13" s="74"/>
       <c r="AMM13" s="74"/>
     </row>
-    <row r="14" spans="1:1027" s="75" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1027" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
         <v>12</v>
       </c>
@@ -17389,7 +17392,7 @@
       <c r="AML14" s="74"/>
       <c r="AMM14" s="74"/>
     </row>
-    <row r="15" spans="1:1027" ht="195" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17416,7 +17419,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -17443,7 +17446,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="208" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1027" ht="255" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -17470,7 +17473,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17497,7 +17500,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1027" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -18534,7 +18537,7 @@
       <c r="AML19" s="83"/>
       <c r="AMM19" s="83"/>
     </row>
-    <row r="20" spans="1:1027" s="84" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1027" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -19571,7 +19574,7 @@
       <c r="AML20" s="83"/>
       <c r="AMM20" s="83"/>
     </row>
-    <row r="21" spans="1:1027" s="94" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1027" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>130</v>
@@ -20610,7 +20613,7 @@
       <c r="AML21" s="93"/>
       <c r="AMM21" s="93"/>
     </row>
-    <row r="22" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
         <v>5</v>
       </c>
@@ -20637,7 +20640,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="87">
         <v>6</v>
       </c>
@@ -20662,7 +20665,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="87">
         <v>7</v>
       </c>
@@ -20687,7 +20690,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1027" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A25" s="109">
         <v>19</v>
       </c>
@@ -20714,7 +20717,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1027" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="87">
         <v>8</v>
       </c>
@@ -20741,7 +20744,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>138</v>
@@ -20758,7 +20761,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="87"/>
       <c r="B28" s="88" t="s">
         <v>139</v>
@@ -20775,7 +20778,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:1027" ht="78" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1027" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
         <v>162</v>
@@ -20796,7 +20799,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1027" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="87">
         <v>9</v>
       </c>
@@ -20821,7 +20824,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="87">
         <v>10</v>
       </c>
@@ -20846,7 +20849,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="97" customFormat="1" ht="130" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1027" s="97" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A32" s="85">
         <v>11</v>
       </c>
@@ -21889,7 +21892,7 @@
       <c r="AML32" s="96"/>
       <c r="AMM32" s="96"/>
     </row>
-    <row r="33" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="162.75" x14ac:dyDescent="0.25">
       <c r="A33" s="124">
         <v>11</v>
       </c>
@@ -21931,20 +21934,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.54296875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5703125" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
         <v>140</v>
       </c>
@@ -21957,7 +21960,7 @@
       <c r="H1" s="129"/>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -21986,7 +21989,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -22003,7 +22006,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -22020,7 +22023,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -22037,7 +22040,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -22054,7 +22057,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -22071,7 +22074,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -22088,7 +22091,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -22105,7 +22108,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -22131,27 +22134,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMK56"/>
+  <dimension ref="A1:AMK57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.26953125" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.28515625" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
         <v>194</v>
       </c>
@@ -22164,7 +22167,7 @@
       <c r="H1" s="131"/>
       <c r="I1" s="131"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22193,7 +22196,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -22235,7 +22238,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22278,7 +22281,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22321,7 +22324,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -22362,7 +22365,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22405,7 +22408,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
@@ -22446,7 +22449,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -22487,7 +22490,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22513,7 +22516,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22556,7 +22559,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22599,7 +22602,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
@@ -22640,7 +22643,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
@@ -22683,7 +22686,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
@@ -22724,7 +22727,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -22765,7 +22768,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -22806,7 +22809,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23842,7 +23845,7 @@
       <c r="AMJ18" s="74"/>
       <c r="AMK18" s="74"/>
     </row>
-    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24878,7 +24881,7 @@
       <c r="AMJ19" s="74"/>
       <c r="AMK19" s="74"/>
     </row>
-    <row r="20" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24904,7 +24907,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="104" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24930,7 +24933,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="75" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1025" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -25968,7 +25971,7 @@
       <c r="AMJ22" s="74"/>
       <c r="AMK22" s="74"/>
     </row>
-    <row r="23" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25994,7 +25997,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -26018,7 +26021,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -26042,7 +26045,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -26066,7 +26069,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -26090,7 +26093,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -26114,7 +26117,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -26138,7 +26141,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -26162,7 +26165,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -26186,7 +26189,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -26210,7 +26213,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -26234,7 +26237,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1025" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -27268,7 +27271,7 @@
       <c r="AMJ34" s="74"/>
       <c r="AMK34" s="74"/>
     </row>
-    <row r="35" spans="1:1025" ht="156" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1025" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -27292,7 +27295,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="117" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -27316,7 +27319,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="78" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -27340,7 +27343,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -27364,7 +27367,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -27386,7 +27389,7 @@
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -27410,7 +27413,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -27434,7 +27437,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -27457,7 +27460,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -27480,7 +27483,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -27503,7 +27506,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -27526,7 +27529,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -27549,7 +27552,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -27572,7 +27575,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27593,7 +27596,7 @@
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27614,7 +27617,7 @@
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27635,7 +27638,7 @@
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>48</v>
       </c>
@@ -27658,7 +27661,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>49</v>
       </c>
@@ -27681,7 +27684,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>50</v>
       </c>
@@ -27704,7 +27707,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>51</v>
       </c>
@@ -27727,7 +27730,7 @@
       </c>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>52</v>
       </c>
@@ -27750,7 +27753,7 @@
       </c>
       <c r="I55" s="121"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>53</v>
       </c>
@@ -27772,6 +27775,27 @@
         <v>527</v>
       </c>
       <c r="I56" s="121"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>54</v>
+      </c>
+      <c r="B57" s="120" t="s">
+        <v>660</v>
+      </c>
+      <c r="C57" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="121" t="s">
+        <v>653</v>
+      </c>
+      <c r="E57" s="121" t="s">
+        <v>654</v>
+      </c>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81667569-69E6-4189-B03E-F9BD5BC40DFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830EE054-4702-4D03-956F-2BF3F80469D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="664">
   <si>
     <r>
       <rPr>
@@ -6730,8 +6730,8 @@
   <dimension ref="A1:AML76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10307,9 +10307,11 @@
         <v>9</v>
       </c>
       <c r="D63" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="E63" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="E63" s="36"/>
       <c r="F63" s="36"/>
       <c r="G63" s="36" t="s">
         <v>469</v>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1036862\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830EE054-4702-4D03-956F-2BF3F80469D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2821152-DB2C-4492-B73E-DC515CBA2C26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,12 @@
     <sheet name="Resident Services" sheetId="6" r:id="rId6"/>
     <sheet name="Global Configurations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="667">
   <si>
     <r>
       <rPr>
@@ -613,9 +606,6 @@
   </si>
   <si>
     <t>Set up Email template for virtual ID generation</t>
-  </si>
-  <si>
-    <t>Others to be added</t>
   </si>
   <si>
     <t>(1) Full Name (2) Date of Birth/Age (3) Gender (4) Address (5) Region (6) Province (7) City (8) Local Administrative Authority (9) Mobile Number (10) Email ID (11) id Number/PIN Number</t>
@@ -3353,6 +3343,18 @@
     <t>Passport
 Driving License
 CNIE/EC/Residence card</t>
+  </si>
+  <si>
+    <t>Password protection for e-UIN PDF generated</t>
+  </si>
+  <si>
+    <t>Postal code</t>
+  </si>
+  <si>
+    <t>This should be consistent with Reg. Processor</t>
+  </si>
+  <si>
+    <t>Based on implementation this can also be done at Reg Proc</t>
   </si>
 </sst>
 </file>
@@ -5450,21 +5452,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
@@ -5478,7 +5480,7 @@
       <c r="I1" s="126"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5501,14 +5503,14 @@
         <v>7</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A3" s="66">
         <v>1</v>
       </c>
@@ -5546,28 +5548,28 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
@@ -5589,28 +5591,28 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
@@ -5632,28 +5634,28 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
@@ -5675,13 +5677,13 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
@@ -5693,10 +5695,10 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
@@ -5718,13 +5720,13 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -5736,10 +5738,10 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
@@ -5761,28 +5763,28 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
@@ -5804,28 +5806,28 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
@@ -5847,28 +5849,28 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
@@ -5890,28 +5892,28 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I12" s="68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
@@ -5933,13 +5935,13 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
@@ -5951,10 +5953,10 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
@@ -5976,7 +5978,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6038,21 +6040,21 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" style="16" customWidth="1"/>
-    <col min="10" max="1025" width="9.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.6328125" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.36328125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.36328125" style="16" customWidth="1"/>
+    <col min="10" max="1025" width="9.36328125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="127" t="s">
         <v>26</v>
       </c>
@@ -6065,7 +6067,7 @@
       <c r="H1" s="127"/>
       <c r="I1" s="127"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6088,13 +6090,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -6115,18 +6117,18 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
@@ -6140,24 +6142,24 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -6167,13 +6169,13 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>32</v>
@@ -6194,13 +6196,13 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -6221,18 +6223,18 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -6248,45 +6250,45 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="98" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
@@ -6298,22 +6300,22 @@
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="112" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -6325,22 +6327,22 @@
         <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="112" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
@@ -6352,55 +6354,55 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>32</v>
@@ -6408,24 +6410,24 @@
       <c r="F14" s="50"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -6433,11 +6435,11 @@
       <c r="F15" s="50"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -6448,17 +6450,17 @@
         <v>9</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -6471,13 +6473,13 @@
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
       <c r="F17" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -6490,13 +6492,13 @@
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -6509,13 +6511,13 @@
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -6528,13 +6530,13 @@
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
       <c r="F20" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -6547,13 +6549,13 @@
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
       <c r="F21" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -6566,13 +6568,13 @@
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -6585,13 +6587,13 @@
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -6604,13 +6606,13 @@
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -6627,13 +6629,13 @@
         <v>44</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -6646,13 +6648,13 @@
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -6665,13 +6667,13 @@
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
       <c r="F27" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -6686,13 +6688,13 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="61"/>
     </row>
-    <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -6703,11 +6705,11 @@
         <v>9</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -6729,25 +6731,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AML76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" style="24" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="46.5546875" style="15" customWidth="1"/>
-    <col min="9" max="1026" width="9.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.54296875" style="15" customWidth="1"/>
+    <col min="9" max="1026" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="106" t="s">
         <v>53</v>
       </c>
@@ -6759,7 +6761,7 @@
       <c r="G1" s="106"/>
       <c r="H1" s="106"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6779,13 +6781,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="143" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6799,19 +6801,19 @@
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="208" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A60" si="0">A3+1</f>
         <v>2</v>
@@ -6823,22 +6825,22 @@
         <v>9</v>
       </c>
       <c r="D4" s="68" t="s">
+        <v>655</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="221" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6852,16 +6854,16 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6878,13 +6880,13 @@
         <v>59</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6902,16 +6904,16 @@
         <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6932,13 +6934,13 @@
         <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6959,13 +6961,13 @@
         <v>11</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6986,13 +6988,13 @@
         <v>11</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7013,13 +7015,13 @@
         <v>11</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7040,13 +7042,13 @@
         <v>11</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7061,25 +7063,25 @@
         <v>55</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>9</v>
@@ -7088,19 +7090,19 @@
         <v>55</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7117,13 +7119,13 @@
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7140,13 +7142,13 @@
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7158,20 +7160,20 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7183,20 +7185,20 @@
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7214,10 +7216,10 @@
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7235,10 +7237,10 @@
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7255,13 +7257,13 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7278,13 +7280,13 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7302,10 +7304,10 @@
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7323,10 +7325,10 @@
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="234" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7338,43 +7340,43 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="97" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7386,20 +7388,20 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7411,99 +7413,99 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="198" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="195" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7518,19 +7520,19 @@
         <v>84</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="33" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7545,19 +7547,19 @@
         <v>100</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7569,22 +7571,22 @@
         <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7605,13 +7607,13 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1026" ht="156" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7632,19 +7634,19 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>9</v>
@@ -7656,35 +7658,35 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>444</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>445</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="39" spans="1:1026" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1026" ht="117" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7703,19 +7705,19 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="40" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>9</v>
@@ -7724,25 +7726,25 @@
         <v>55</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="41" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1026" ht="78" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>9</v>
@@ -7751,25 +7753,25 @@
         <v>55</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="42" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>9</v>
@@ -7778,16 +7780,16 @@
         <v>43466</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -8808,29 +8810,29 @@
       <c r="AMK42" s="15"/>
       <c r="AML42" s="15"/>
     </row>
-    <row r="43" spans="1:1026" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1026" ht="104" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -9851,36 +9853,36 @@
       <c r="AMK43" s="15"/>
       <c r="AML43" s="15"/>
     </row>
-    <row r="44" spans="1:1026" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44" s="36"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>9</v>
@@ -9894,137 +9896,137 @@
         <v>139</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="46" spans="1:1026" ht="132" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1026" ht="130" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:1026" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1026" ht="143" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
-    <row r="48" spans="1:1026" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1026" ht="65" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50" s="50"/>
       <c r="G50" s="50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="117" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>9</v>
@@ -10033,23 +10035,23 @@
         <v>100</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>9</v>
@@ -10060,19 +10062,19 @@
       <c r="E52" s="36"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>9</v>
@@ -10083,19 +10085,19 @@
       <c r="E53" s="36"/>
       <c r="F53" s="50"/>
       <c r="G53" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>9</v>
@@ -10106,19 +10108,19 @@
       <c r="E54" s="36"/>
       <c r="F54" s="50"/>
       <c r="G54" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>9</v>
@@ -10129,299 +10131,299 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="28"/>
       <c r="H56" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="52" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
       <c r="H57" s="26"/>
     </row>
-    <row r="58" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="348" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E58" s="41"/>
       <c r="F58" s="49"/>
       <c r="G58" s="50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="130" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F59" s="50"/>
       <c r="G59" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="143" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F60" s="50"/>
       <c r="G60" s="50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>59</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="E61" s="36" t="s">
         <v>463</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>464</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>60</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="E62" s="36" t="s">
         <v>463</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>464</v>
       </c>
       <c r="F62" s="36"/>
       <c r="G62" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>61</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>62</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="E64" s="36" t="s">
         <v>463</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>464</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>63</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>64</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="E66" s="36" t="s">
         <v>463</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>464</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>65</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="E67" s="36" t="s">
         <v>463</v>
-      </c>
-      <c r="E67" s="36" t="s">
-        <v>464</v>
       </c>
       <c r="F67" s="36"/>
       <c r="G67" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>66</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>9</v>
@@ -10432,18 +10434,18 @@
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>67</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>9</v>
@@ -10454,118 +10456,118 @@
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>68</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>69</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>70</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>71</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H73" s="36"/>
     </row>
-    <row r="74" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="39" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>72</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>9</v>
@@ -10575,16 +10577,16 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <f t="shared" ref="A76" si="1">A75+1</f>
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>9</v>
@@ -10594,7 +10596,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -10617,23 +10619,23 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="62.6640625" style="24" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.54296875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.36328125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.6328125" style="24" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="128"/>
       <c r="C1" s="128"/>
@@ -10644,7 +10646,7 @@
       <c r="H1" s="128"/>
       <c r="I1" s="128"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -10667,34 +10669,34 @@
         <v>7</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>382</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>383</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="10"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>385</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -10702,104 +10704,104 @@
         <v>95</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -10807,7 +10809,7 @@
         <v>96</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>97</v>
@@ -10816,182 +10818,182 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I9" s="100" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A10" s="28">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="99" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" s="100" t="s">
         <v>398</v>
       </c>
-      <c r="I10" s="100" t="s">
-        <v>399</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I11" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="I11" s="45" t="s">
-        <v>404</v>
-      </c>
     </row>
-    <row r="12" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="156" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="I12" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>407</v>
-      </c>
     </row>
-    <row r="13" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="143" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="I13" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>410</v>
-      </c>
     </row>
-    <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="I14" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="I14" s="45" t="s">
-        <v>413</v>
-      </c>
     </row>
-    <row r="15" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="I15" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I15" s="45" t="s">
-        <v>416</v>
-      </c>
     </row>
-    <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I16" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="I16" s="45" t="s">
-        <v>420</v>
-      </c>
     </row>
-    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="I17" s="45" t="s">
         <v>422</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -11017,21 +11019,21 @@
       <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.54296875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1027" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="128" t="s">
         <v>98</v>
       </c>
@@ -11044,7 +11046,7 @@
       <c r="H1" s="128"/>
       <c r="I1" s="128"/>
     </row>
-    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1027" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -11067,13 +11069,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:1027" s="83" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" s="83" customFormat="1" ht="273" x14ac:dyDescent="0.3">
       <c r="A3" s="77">
         <v>1</v>
       </c>
@@ -11090,7 +11092,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
@@ -12114,7 +12116,7 @@
       <c r="AML3" s="82"/>
       <c r="AMM3" s="82"/>
     </row>
-    <row r="4" spans="1:1027" s="83" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1027" s="83" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A4" s="77">
         <v>2</v>
       </c>
@@ -12131,7 +12133,7 @@
         <v>104</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G4" s="78"/>
       <c r="H4" s="78"/>
@@ -13155,7 +13157,7 @@
       <c r="AML4" s="82"/>
       <c r="AMM4" s="82"/>
     </row>
-    <row r="5" spans="1:1027" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1027" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13172,13 +13174,13 @@
         <v>107</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="6" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13199,7 +13201,7 @@
       <c r="H6" s="52"/>
       <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13220,7 +13222,7 @@
       <c r="H7" s="52"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13243,7 +13245,7 @@
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13264,7 +13266,7 @@
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13285,7 +13287,7 @@
       <c r="H10" s="52"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:1027" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1027" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="84">
         <v>9</v>
       </c>
@@ -14322,7 +14324,7 @@
       <c r="AML11" s="73"/>
       <c r="AMM11" s="73"/>
     </row>
-    <row r="12" spans="1:1027" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1027" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="84">
         <v>10</v>
       </c>
@@ -15359,7 +15361,7 @@
       <c r="AML12" s="73"/>
       <c r="AMM12" s="73"/>
     </row>
-    <row r="13" spans="1:1027" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1027" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="84">
         <v>11</v>
       </c>
@@ -16396,7 +16398,7 @@
       <c r="AML13" s="73"/>
       <c r="AMM13" s="73"/>
     </row>
-    <row r="14" spans="1:1027" s="74" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1027" s="74" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="84">
         <v>12</v>
       </c>
@@ -16409,7 +16411,7 @@
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
       <c r="F14" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G14" s="71"/>
       <c r="H14" s="71"/>
@@ -17433,7 +17435,7 @@
       <c r="AML14" s="73"/>
       <c r="AMM14" s="73"/>
     </row>
-    <row r="15" spans="1:1027" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -17454,18 +17456,18 @@
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
-    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1027" ht="234.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>9</v>
@@ -17481,18 +17483,18 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="224.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1027" ht="195" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>3</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>9</v>
@@ -17508,13 +17510,13 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -17535,13 +17537,13 @@
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" s="83" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1027" s="83" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="77">
         <v>17</v>
       </c>
@@ -18578,7 +18580,7 @@
       <c r="AML19" s="82"/>
       <c r="AMM19" s="82"/>
     </row>
-    <row r="20" spans="1:1027" s="83" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1027" s="83" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" s="77">
         <v>18</v>
       </c>
@@ -19615,7 +19617,7 @@
       <c r="AML20" s="82"/>
       <c r="AMM20" s="82"/>
     </row>
-    <row r="21" spans="1:1027" s="93" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1027" s="93" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="86"/>
       <c r="B21" s="87" t="s">
         <v>127</v>
@@ -19630,7 +19632,7 @@
         <v>122</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G21" s="90"/>
       <c r="H21" s="90"/>
@@ -20654,12 +20656,12 @@
       <c r="AML21" s="92"/>
       <c r="AMM21" s="92"/>
     </row>
-    <row r="22" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1027" ht="182" x14ac:dyDescent="0.35">
       <c r="A22" s="86">
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>9</v>
@@ -20668,70 +20670,70 @@
         <v>128</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A23" s="86">
         <v>6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>597</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>598</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A24" s="86">
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>601</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>602</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="138" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
       <c r="A25" s="108">
         <v>19</v>
       </c>
@@ -20752,13 +20754,13 @@
       </c>
       <c r="G25" s="109"/>
       <c r="H25" s="109" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I25" s="109" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
       <c r="A26" s="86">
         <v>8</v>
       </c>
@@ -20779,13 +20781,13 @@
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="86"/>
       <c r="B27" s="87" t="s">
         <v>135</v>
@@ -20796,13 +20798,13 @@
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:1027" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1027" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="86"/>
       <c r="B28" s="87" t="s">
         <v>136</v>
@@ -20813,45 +20815,45 @@
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:1027" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1027" ht="78" x14ac:dyDescent="0.35">
       <c r="A29" s="86"/>
       <c r="B29" s="87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="94" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="87" t="s">
-        <v>161</v>
-      </c>
       <c r="F29" s="87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
       <c r="A30" s="86">
         <v>9</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>5</v>
@@ -20859,18 +20861,18 @@
       <c r="F30" s="87"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
       <c r="A31" s="86">
         <v>10</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>9</v>
@@ -20879,29 +20881,29 @@
         <v>22</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F31" s="87"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" s="96" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1027" s="96" customFormat="1" ht="130" x14ac:dyDescent="0.35">
       <c r="A32" s="84">
         <v>11</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E32" s="117" t="s">
         <v>5</v>
@@ -20909,10 +20911,10 @@
       <c r="F32" s="71"/>
       <c r="G32" s="118"/>
       <c r="H32" s="118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I32" s="71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J32" s="95"/>
       <c r="K32" s="95"/>
@@ -21933,29 +21935,29 @@
       <c r="AML32" s="95"/>
       <c r="AMM32" s="95"/>
     </row>
-    <row r="33" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="143" x14ac:dyDescent="0.35">
       <c r="A33" s="123">
         <v>11</v>
       </c>
       <c r="B33" s="120" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C33" s="122" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="124" t="s">
+        <v>645</v>
+      </c>
+      <c r="E33" s="121" t="s">
         <v>646</v>
-      </c>
-      <c r="E33" s="121" t="s">
-        <v>647</v>
       </c>
       <c r="F33" s="119"/>
       <c r="G33" s="125"/>
       <c r="H33" s="125" t="s">
+        <v>643</v>
+      </c>
+      <c r="I33" s="119" t="s">
         <v>644</v>
-      </c>
-      <c r="I33" s="119" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -21971,24 +21973,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMM10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.5546875" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.54296875" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="128" t="s">
         <v>137</v>
       </c>
@@ -22001,7 +22003,7 @@
       <c r="H1" s="128"/>
       <c r="I1" s="128"/>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -22024,13 +22026,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -22040,14 +22042,14 @@
       <c r="C3" s="42"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
-        <v>139</v>
+      <c r="F3" s="119" t="s">
+        <v>665</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -22057,18 +22059,18 @@
       <c r="C4" s="42"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
-        <v>11</v>
+      <c r="F4" s="119" t="s">
+        <v>665</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="52" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="37"/>
@@ -22081,11 +22083,11 @@
       <c r="H5" s="41"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="52" t="s">
         <v>142</v>
       </c>
       <c r="C6" s="37"/>
@@ -22098,11 +22100,11 @@
       <c r="H6" s="41"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="52" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="37"/>
@@ -22115,11 +22117,11 @@
       <c r="H7" s="41"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="52" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="37"/>
@@ -22132,11 +22134,11 @@
       <c r="H8" s="41"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="52" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="37"/>
@@ -22149,17 +22151,21 @@
       <c r="H9" s="41"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>146</v>
+        <v>663</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>664</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="119" t="s">
+        <v>666</v>
+      </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="12"/>
@@ -22181,23 +22187,23 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.33203125" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.36328125" style="3" customWidth="1"/>
+    <col min="10" max="1025" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="130"/>
       <c r="C1" s="130"/>
@@ -22208,7 +22214,7 @@
       <c r="H1" s="130"/>
       <c r="I1" s="130"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22231,13 +22237,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -22248,7 +22254,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
@@ -22256,10 +22262,10 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -22279,7 +22285,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -22299,10 +22305,10 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -22322,7 +22328,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -22334,7 +22340,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -22342,10 +22348,10 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -22365,13 +22371,13 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
@@ -22383,10 +22389,10 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -22406,7 +22412,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f>A9+1</f>
         <v>7</v>
@@ -22426,10 +22432,10 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -22449,13 +22455,13 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -22467,10 +22473,10 @@
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
       <c r="H8" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>305</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>306</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -22490,13 +22496,13 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
@@ -22508,10 +22514,10 @@
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -22531,7 +22537,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="52" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22543,7 +22549,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="8" t="s">
@@ -22551,13 +22557,13 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>310</v>
-      </c>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f>A7+1</f>
         <v>8</v>
@@ -22577,10 +22583,10 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -22600,7 +22606,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22620,10 +22626,10 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -22643,13 +22649,13 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f>A12+1</f>
         <v>10</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
@@ -22661,10 +22667,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -22684,13 +22690,13 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="143" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f>A13+1</f>
         <v>11</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>9</v>
@@ -22704,10 +22710,10 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -22727,13 +22733,13 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>9</v>
@@ -22745,10 +22751,10 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -22768,13 +22774,13 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>9</v>
@@ -22786,10 +22792,10 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -22809,13 +22815,13 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>9</v>
@@ -22827,10 +22833,10 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -22850,7 +22856,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1025" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="70">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23886,7 +23892,7 @@
       <c r="AMJ18" s="73"/>
       <c r="AMK18" s="73"/>
     </row>
-    <row r="19" spans="1:1025" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1025" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="70">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -24922,7 +24928,7 @@
       <c r="AMJ19" s="73"/>
       <c r="AMK19" s="73"/>
     </row>
-    <row r="20" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -24942,13 +24948,13 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1025" ht="104" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -24968,13 +24974,13 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" s="74" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1025" s="74" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="70">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -26012,7 +26018,7 @@
       <c r="AMJ22" s="73"/>
       <c r="AMK22" s="73"/>
     </row>
-    <row r="23" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -26032,19 +26038,19 @@
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -26056,19 +26062,19 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -26080,19 +26086,19 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -26104,43 +26110,43 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="103" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1025" ht="52" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -26152,19 +26158,19 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>9</v>
@@ -26176,43 +26182,43 @@
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>9</v>
@@ -26224,19 +26230,19 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>9</v>
@@ -26248,43 +26254,43 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1025" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="72" t="s">
         <v>9</v>
@@ -27312,85 +27318,85 @@
       <c r="AMJ34" s="73"/>
       <c r="AMK34" s="73"/>
     </row>
-    <row r="35" spans="1:1025" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1025" ht="156" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1025" ht="117" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1025" ht="78" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>9</v>
@@ -27402,41 +27408,41 @@
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>9</v>
@@ -27448,65 +27454,65 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>39</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>40</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>9</v>
@@ -27518,87 +27524,87 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>41</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>42</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="102" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>43</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>44</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>9</v>
@@ -27610,13 +27616,13 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="101" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -27633,11 +27639,11 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -27654,11 +27660,11 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -27675,163 +27681,163 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <v>48</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>49</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="101" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <v>50</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="E53" s="41" t="s">
         <v>637</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>638</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="101"/>
       <c r="I53" s="36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <v>51</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="E54" s="41" t="s">
         <v>648</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>649</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <v>52</v>
       </c>
       <c r="B55" s="119" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C55" s="120" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="120" t="s">
+        <v>650</v>
+      </c>
+      <c r="E55" s="119" t="s">
         <v>651</v>
-      </c>
-      <c r="E55" s="119" t="s">
-        <v>652</v>
       </c>
       <c r="F55" s="120"/>
       <c r="G55" s="120"/>
       <c r="H55" s="101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I55" s="120"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>53</v>
       </c>
       <c r="B56" s="119" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C56" s="120" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="120" t="s">
+        <v>647</v>
+      </c>
+      <c r="E56" s="120" t="s">
         <v>648</v>
-      </c>
-      <c r="E56" s="120" t="s">
-        <v>649</v>
       </c>
       <c r="F56" s="120"/>
       <c r="G56" s="120"/>
       <c r="H56" s="101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I56" s="120"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>54</v>
       </c>
       <c r="B57" s="119" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C57" s="120" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="120" t="s">
+        <v>647</v>
+      </c>
+      <c r="E57" s="120" t="s">
         <v>648</v>
-      </c>
-      <c r="E57" s="120" t="s">
-        <v>649</v>
       </c>
       <c r="F57" s="120"/>
       <c r="G57" s="120"/>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66663B9-56C6-4258-8AED-B89A767B2929}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC756E-3354-4CBC-AE00-3EECBE8C86AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1108">
   <si>
     <r>
       <rPr>
@@ -4109,9 +4109,6 @@
     <t>To Use Global Configuration</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Additional Configurations - CEPH</t>
   </si>
   <si>
@@ -4139,7 +4136,70 @@
     <t>Should be used from Global Properties</t>
   </si>
   <si>
-    <t>s</t>
+    <t>fra
+ara</t>
+  </si>
+  <si>
+    <t>1…n</t>
+  </si>
+  <si>
+    <t>1..100</t>
+  </si>
+  <si>
+    <t>1…100</t>
+  </si>
+  <si>
+    <t>Country's Configured Location</t>
+  </si>
+  <si>
+    <t>ara
+fra</t>
+  </si>
+  <si>
+    <t>.zip</t>
+  </si>
+  <si>
+    <t>1-n</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>UTC
+GMT</t>
+  </si>
+  <si>
+    <t>1…10</t>
+  </si>
+  <si>
+    <t>As Defined by Country</t>
+  </si>
+  <si>
+    <t>1…40</t>
+  </si>
+  <si>
+    <t>gender,region,province,city</t>
+  </si>
+  <si>
+    <t>0…n</t>
+  </si>
+  <si>
+    <t>cron</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0…24</t>
+  </si>
+  <si>
+    <t>0…60</t>
+  </si>
+  <si>
+    <t>Registration Processor (Legends are at the Bottom)</t>
+  </si>
+  <si>
+    <t>Description (View Mindtree Comments)</t>
   </si>
 </sst>
 </file>
@@ -4820,7 +4880,7 @@
     <xf numFmtId="0" fontId="34" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5193,21 +5253,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5286,18 +5331,6 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5334,6 +5367,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -5344,257 +5410,6 @@
     <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFCC"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFCC"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5856,6 +5671,257 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6475,36 +6541,36 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E2C46C3-07E1-4644-A6A1-072998C6178F}" name="Table22458" displayName="Table22458" ref="A2:J181" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E2C46C3-07E1-4644-A6A1-072998C6178F}" name="Table22458" displayName="Table22458" ref="A2:J181" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="A2:J181" xr:uid="{9DB49932-04AD-4A73-97BE-153504850C54}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{19F2BF26-B521-4C9D-A4B4-AC23BED0E985}" name="S.No" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{47B0DABE-4767-481F-88E2-1B7D1713AFDC}" name="Configuration Feature" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C7D92B30-1FBD-41E4-A7D3-D4F3C462B4C5}" name="Module" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{A5CFE678-13E9-4571-9EE6-6282F72DB2D7}" name="Type of Config" dataDxfId="6" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{3D2A14DD-06C8-4566-906F-7C0646D6A410}" name="Default Value" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0C5DD1AA-E313-4BE4-859F-32E1EE6E7AFB}" name="Other Values" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{77642CF2-43E3-4FDA-AA39-713715BC41BF}" name="Config in Config Server" dataDxfId="0" dataCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{205385DF-DCD1-4326-8BAB-742E6F2828B2}" name="Mindtree Comments" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{838DFB09-41D2-45A8-B1A2-6D2AC39E57A5}" name="Customer Comments" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{96B50686-5AD4-473E-92B0-16C7EAD2ECD7}" name="System Bahavior - Change" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{19F2BF26-B521-4C9D-A4B4-AC23BED0E985}" name="S.No" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{47B0DABE-4767-481F-88E2-1B7D1713AFDC}" name="Configuration Feature" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{C7D92B30-1FBD-41E4-A7D3-D4F3C462B4C5}" name="Module" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{A5CFE678-13E9-4571-9EE6-6282F72DB2D7}" name="Type of Config" dataDxfId="16" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{3D2A14DD-06C8-4566-906F-7C0646D6A410}" name="Default Value" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{0C5DD1AA-E313-4BE4-859F-32E1EE6E7AFB}" name="Other Values" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{77642CF2-43E3-4FDA-AA39-713715BC41BF}" name="Config in Config Server" dataDxfId="13" dataCellStyle="Good"/>
+    <tableColumn id="6" xr3:uid="{205385DF-DCD1-4326-8BAB-742E6F2828B2}" name="Mindtree Comments" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{838DFB09-41D2-45A8-B1A2-6D2AC39E57A5}" name="Customer Comments" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{96B50686-5AD4-473E-92B0-16C7EAD2ECD7}" name="System Bahavior - Change" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="B2:I17" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="B2:I17" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="B2:I17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Configuration Feature" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type of Config" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default Value" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Other Values" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Mindtree Comments" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Customer Comments" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Config in Config Server" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="System Bahavior - On Setup and Change" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Configuration Feature" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type of Config" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default Value" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Other Values" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Mindtree Comments" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Customer Comments" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Config in Config Server" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="System Bahavior - On Setup and Change" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6831,17 +6897,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
@@ -7419,17 +7485,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
@@ -11977,10 +12043,10 @@
   <dimension ref="A1:AMO193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11988,30 +12054,30 @@
     <col min="1" max="1" width="4.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="47.26953125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.26953125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.453125" style="23" customWidth="1"/>
     <col min="8" max="8" width="35.90625" style="23" customWidth="1"/>
     <col min="9" max="9" width="30.453125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="39.08984375" style="165" customWidth="1"/>
+    <col min="10" max="10" width="39.08984375" style="156" customWidth="1"/>
     <col min="11" max="11" width="62.54296875" style="23" customWidth="1"/>
     <col min="12" max="1029" width="9.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16 1029:1029" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="160" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="162"/>
+      <c r="A1" s="171" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="173"/>
       <c r="K1" s="3"/>
       <c r="AMO1"/>
     </row>
@@ -12019,31 +12085,31 @@
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="128" t="s">
         <v>638</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="133" t="s">
+      <c r="I2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="154" t="s">
         <v>1032</v>
       </c>
       <c r="K2" s="3"/>
@@ -12053,25 +12119,29 @@
       <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="129" t="s">
         <v>639</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="129" t="s">
         <v>640</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="129" t="s">
         <v>641</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134" t="s">
+      <c r="E3" s="166" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="166" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G3" s="129" t="s">
         <v>643</v>
       </c>
-      <c r="H3" s="134" t="s">
+      <c r="H3" s="129" t="s">
         <v>642</v>
       </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134" t="s">
+      <c r="I3" s="129"/>
+      <c r="J3" s="129" t="s">
         <v>1031</v>
       </c>
       <c r="K3" s="3"/>
@@ -12081,25 +12151,25 @@
       <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="130" t="s">
         <v>644</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="131" t="s">
         <v>645</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="131" t="s">
         <v>646</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="136" t="s">
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="131" t="s">
         <v>647</v>
       </c>
-      <c r="H4" s="138" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I4" s="136"/>
-      <c r="J4" s="135"/>
+      <c r="H4" s="133" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I4" s="131"/>
+      <c r="J4" s="130"/>
       <c r="K4" s="3"/>
       <c r="AMO4"/>
     </row>
@@ -12107,25 +12177,25 @@
       <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="130" t="s">
         <v>648</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="131" t="s">
         <v>645</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="131" t="s">
         <v>646</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="136" t="s">
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="131" t="s">
         <v>649</v>
       </c>
-      <c r="H5" s="138" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="135"/>
+      <c r="H5" s="133" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I5" s="131"/>
+      <c r="J5" s="130"/>
       <c r="K5" s="3"/>
       <c r="AMO5"/>
     </row>
@@ -12133,25 +12203,25 @@
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="130" t="s">
         <v>650</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="131" t="s">
         <v>645</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="131" t="s">
         <v>646</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="136" t="s">
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="131" t="s">
         <v>651</v>
       </c>
-      <c r="H6" s="138" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I6" s="136"/>
-      <c r="J6" s="135"/>
+      <c r="H6" s="133" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I6" s="131"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="3"/>
       <c r="AMO6"/>
     </row>
@@ -12159,25 +12229,29 @@
       <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="134" t="s">
         <v>652</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="135" t="s">
         <v>645</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="135" t="s">
         <v>641</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140" t="s">
+      <c r="E7" s="143">
+        <v>5</v>
+      </c>
+      <c r="F7" s="143" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G7" s="135" t="s">
         <v>654</v>
       </c>
-      <c r="H7" s="139" t="s">
+      <c r="H7" s="134" t="s">
         <v>653</v>
       </c>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="3"/>
       <c r="AMO7"/>
     </row>
@@ -12185,25 +12259,25 @@
       <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="136" t="s">
         <v>655</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="137" t="s">
         <v>656</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="142" t="s">
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="137" t="s">
         <v>657</v>
       </c>
-      <c r="H8" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="141" t="s">
+      <c r="H8" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I8" s="137"/>
+      <c r="J8" s="136" t="s">
         <v>1033</v>
       </c>
       <c r="K8"/>
@@ -12218,25 +12292,25 @@
       <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="136" t="s">
         <v>658</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="137" t="s">
         <v>656</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="142" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="137" t="s">
         <v>659</v>
       </c>
-      <c r="H9" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="141" t="s">
+      <c r="H9" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I9" s="137"/>
+      <c r="J9" s="136" t="s">
         <v>1033</v>
       </c>
       <c r="K9"/>
@@ -12251,25 +12325,25 @@
       <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="136" t="s">
         <v>660</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="137" t="s">
         <v>656</v>
       </c>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="142" t="s">
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="137" t="s">
         <v>661</v>
       </c>
-      <c r="H10" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="141" t="s">
+      <c r="H10" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I10" s="137"/>
+      <c r="J10" s="136" t="s">
         <v>1033</v>
       </c>
       <c r="K10"/>
@@ -12284,25 +12358,25 @@
       <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="136" t="s">
         <v>662</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="137" t="s">
         <v>656</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="142" t="s">
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="137" t="s">
         <v>663</v>
       </c>
-      <c r="H11" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="141" t="s">
+      <c r="H11" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I11" s="137"/>
+      <c r="J11" s="136" t="s">
         <v>1033</v>
       </c>
       <c r="K11"/>
@@ -12317,25 +12391,25 @@
       <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="136" t="s">
         <v>664</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="137" t="s">
         <v>656</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="142" t="s">
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="137" t="s">
         <v>665</v>
       </c>
-      <c r="H12" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="141" t="s">
+      <c r="H12" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I12" s="137"/>
+      <c r="J12" s="136" t="s">
         <v>1033</v>
       </c>
       <c r="K12"/>
@@ -12350,25 +12424,25 @@
       <c r="A13" s="27">
         <v>11</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="136" t="s">
         <v>666</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="137" t="s">
         <v>656</v>
       </c>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="142" t="s">
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="137" t="s">
         <v>667</v>
       </c>
-      <c r="H13" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I13" s="142"/>
-      <c r="J13" s="141" t="s">
+      <c r="H13" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I13" s="137"/>
+      <c r="J13" s="136" t="s">
         <v>1033</v>
       </c>
       <c r="K13"/>
@@ -12383,25 +12457,25 @@
       <c r="A14" s="27">
         <v>12</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="136" t="s">
         <v>668</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="137" t="s">
         <v>669</v>
       </c>
-      <c r="D14" s="142" t="s">
+      <c r="D14" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="142" t="s">
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="137" t="s">
         <v>670</v>
       </c>
-      <c r="H14" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I14" s="142"/>
-      <c r="J14" s="141" t="s">
+      <c r="H14" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I14" s="137"/>
+      <c r="J14" s="136" t="s">
         <v>1034</v>
       </c>
       <c r="K14"/>
@@ -12416,25 +12490,29 @@
       <c r="A15" s="27">
         <v>13</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="136" t="s">
         <v>671</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="137" t="s">
         <v>669</v>
       </c>
-      <c r="D15" s="142" t="s">
+      <c r="D15" s="137" t="s">
         <v>641</v>
       </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="142" t="s">
+      <c r="E15" s="138">
+        <v>30</v>
+      </c>
+      <c r="F15" s="138" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G15" s="137" t="s">
         <v>672</v>
       </c>
-      <c r="H15" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I15" s="142"/>
-      <c r="J15" s="141" t="s">
+      <c r="H15" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I15" s="137"/>
+      <c r="J15" s="136" t="s">
         <v>1035</v>
       </c>
       <c r="K15"/>
@@ -12449,25 +12527,29 @@
       <c r="A16" s="27">
         <v>14</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="136" t="s">
         <v>673</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="137" t="s">
         <v>669</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="137" t="s">
         <v>641</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="142" t="s">
+      <c r="E16" s="138">
+        <v>30</v>
+      </c>
+      <c r="F16" s="138" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G16" s="137" t="s">
         <v>674</v>
       </c>
-      <c r="H16" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I16" s="142"/>
-      <c r="J16" s="141" t="s">
+      <c r="H16" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I16" s="137"/>
+      <c r="J16" s="136" t="s">
         <v>1037</v>
       </c>
       <c r="K16"/>
@@ -12482,25 +12564,29 @@
       <c r="A17" s="27">
         <v>15</v>
       </c>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="136" t="s">
         <v>675</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="137" t="s">
         <v>669</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="137" t="s">
         <v>641</v>
       </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="142" t="s">
+      <c r="E17" s="138">
+        <v>60</v>
+      </c>
+      <c r="F17" s="138" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G17" s="137" t="s">
         <v>676</v>
       </c>
-      <c r="H17" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I17" s="142"/>
-      <c r="J17" s="141" t="s">
+      <c r="H17" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I17" s="137"/>
+      <c r="J17" s="136" t="s">
         <v>1036</v>
       </c>
       <c r="K17"/>
@@ -12515,25 +12601,25 @@
       <c r="A18" s="27">
         <v>16</v>
       </c>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="140" t="s">
         <v>677</v>
       </c>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="137" t="s">
         <v>669</v>
       </c>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="142" t="s">
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="137" t="s">
         <v>678</v>
       </c>
-      <c r="H18" s="144" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142" t="s">
+      <c r="H18" s="139" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137" t="s">
         <v>1039</v>
       </c>
       <c r="K18"/>
@@ -12548,25 +12634,25 @@
       <c r="A19" s="27">
         <v>17</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="140" t="s">
         <v>679</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="137" t="s">
         <v>669</v>
       </c>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E19" s="145"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="142" t="s">
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="137" t="s">
         <v>680</v>
       </c>
-      <c r="H19" s="144" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142" t="s">
+      <c r="H19" s="139" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137" t="s">
         <v>1038</v>
       </c>
       <c r="K19"/>
@@ -12581,25 +12667,25 @@
       <c r="A20" s="27">
         <v>18</v>
       </c>
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="140" t="s">
         <v>681</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="137" t="s">
         <v>669</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E20" s="145"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="142" t="s">
+      <c r="E20" s="140"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="137" t="s">
         <v>682</v>
       </c>
-      <c r="H20" s="144" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142" t="s">
+      <c r="H20" s="139" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137" t="s">
         <v>1038</v>
       </c>
       <c r="K20"/>
@@ -12614,25 +12700,25 @@
       <c r="A21" s="27">
         <v>19</v>
       </c>
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="140" t="s">
         <v>683</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="137" t="s">
         <v>684</v>
       </c>
-      <c r="D21" s="142" t="s">
+      <c r="D21" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="142" t="s">
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="137" t="s">
         <v>685</v>
       </c>
-      <c r="H21" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142" t="s">
+      <c r="H21" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137" t="s">
         <v>1040</v>
       </c>
       <c r="K21"/>
@@ -12647,25 +12733,25 @@
       <c r="A22" s="27">
         <v>20</v>
       </c>
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="140" t="s">
         <v>686</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="137" t="s">
         <v>684</v>
       </c>
-      <c r="D22" s="142" t="s">
+      <c r="D22" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E22" s="145"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="142" t="s">
+      <c r="E22" s="140"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="137" t="s">
         <v>687</v>
       </c>
-      <c r="H22" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142" t="s">
+      <c r="H22" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137" t="s">
         <v>1040</v>
       </c>
       <c r="K22"/>
@@ -12680,25 +12766,25 @@
       <c r="A23" s="27">
         <v>21</v>
       </c>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="140" t="s">
         <v>688</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="137" t="s">
         <v>684</v>
       </c>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="142" t="s">
+      <c r="E23" s="140"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="137" t="s">
         <v>689</v>
       </c>
-      <c r="H23" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142" t="s">
+      <c r="H23" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137" t="s">
         <v>1040</v>
       </c>
       <c r="K23"/>
@@ -12713,25 +12799,25 @@
       <c r="A24" s="27">
         <v>22</v>
       </c>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="140" t="s">
         <v>690</v>
       </c>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="137" t="s">
         <v>684</v>
       </c>
-      <c r="D24" s="142" t="s">
+      <c r="D24" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E24" s="145"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="142" t="s">
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="137" t="s">
         <v>691</v>
       </c>
-      <c r="H24" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142" t="s">
+      <c r="H24" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137" t="s">
         <v>1040</v>
       </c>
       <c r="K24"/>
@@ -12746,25 +12832,25 @@
       <c r="A25" s="27">
         <v>23</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="140" t="s">
         <v>692</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="137" t="s">
         <v>684</v>
       </c>
-      <c r="D25" s="142" t="s">
+      <c r="D25" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E25" s="145"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="142" t="s">
+      <c r="E25" s="140"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="137" t="s">
         <v>693</v>
       </c>
-      <c r="H25" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142" t="s">
+      <c r="H25" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137" t="s">
         <v>1041</v>
       </c>
       <c r="K25"/>
@@ -12779,25 +12865,25 @@
       <c r="A26" s="27">
         <v>24</v>
       </c>
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="140" t="s">
         <v>694</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="137" t="s">
         <v>684</v>
       </c>
-      <c r="D26" s="142" t="s">
+      <c r="D26" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E26" s="145"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="142" t="s">
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="137" t="s">
         <v>695</v>
       </c>
-      <c r="H26" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
+      <c r="H26" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
@@ -12810,25 +12896,25 @@
       <c r="A27" s="27">
         <v>25</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="140" t="s">
         <v>696</v>
       </c>
-      <c r="C27" s="145" t="s">
+      <c r="C27" s="140" t="s">
         <v>684</v>
       </c>
-      <c r="D27" s="145" t="s">
+      <c r="D27" s="140" t="s">
         <v>646</v>
       </c>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="141" t="s">
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="136" t="s">
         <v>697</v>
       </c>
-      <c r="H27" s="145" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I27" s="145"/>
-      <c r="J27" s="141"/>
+      <c r="H27" s="140" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I27" s="140"/>
+      <c r="J27" s="136"/>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -12841,25 +12927,25 @@
       <c r="A28" s="27">
         <v>26</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="140" t="s">
         <v>698</v>
       </c>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="137" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="142" t="s">
+      <c r="D28" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E28" s="145"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="142" t="s">
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="137" t="s">
         <v>367</v>
       </c>
-      <c r="H28" s="145" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142" t="s">
+      <c r="H28" s="140" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137" t="s">
         <v>1043</v>
       </c>
       <c r="K28"/>
@@ -12874,25 +12960,25 @@
       <c r="A29" s="27">
         <v>27</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="134" t="s">
         <v>700</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="142" t="s">
         <v>699</v>
       </c>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="142" t="s">
         <v>646</v>
       </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="147" t="s">
+      <c r="E29" s="134"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="142" t="s">
         <v>368</v>
       </c>
-      <c r="H29" s="149" t="s">
+      <c r="H29" s="144" t="s">
         <v>653</v>
       </c>
-      <c r="I29" s="147"/>
-      <c r="J29" s="149"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="144"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
@@ -12905,25 +12991,29 @@
       <c r="A30" s="27">
         <v>28</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="140" t="s">
         <v>701</v>
       </c>
-      <c r="C30" s="142" t="s">
+      <c r="C30" s="137" t="s">
         <v>699</v>
       </c>
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="137" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="145"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="142" t="s">
+      <c r="E30" s="138" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F30" s="138" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G30" s="137" t="s">
         <v>369</v>
       </c>
-      <c r="H30" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142" t="s">
+      <c r="H30" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137" t="s">
         <v>1042</v>
       </c>
       <c r="K30"/>
@@ -12938,25 +13028,25 @@
       <c r="A31" s="27">
         <v>29</v>
       </c>
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="134" t="s">
         <v>702</v>
       </c>
-      <c r="C31" s="147" t="s">
+      <c r="C31" s="142" t="s">
         <v>699</v>
       </c>
-      <c r="D31" s="147" t="s">
+      <c r="D31" s="142" t="s">
         <v>646</v>
       </c>
-      <c r="E31" s="139"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="147" t="s">
+      <c r="E31" s="134"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="142" t="s">
         <v>370</v>
       </c>
-      <c r="H31" s="149" t="s">
+      <c r="H31" s="144" t="s">
         <v>653</v>
       </c>
-      <c r="I31" s="147"/>
-      <c r="J31" s="149"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="144"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
@@ -12969,25 +13059,25 @@
       <c r="A32" s="27">
         <v>30</v>
       </c>
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="134" t="s">
         <v>703</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="142" t="s">
         <v>699</v>
       </c>
-      <c r="D32" s="147" t="s">
+      <c r="D32" s="142" t="s">
         <v>646</v>
       </c>
-      <c r="E32" s="139"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="147" t="s">
+      <c r="E32" s="134"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="142" t="s">
         <v>371</v>
       </c>
-      <c r="H32" s="149" t="s">
+      <c r="H32" s="144" t="s">
         <v>653</v>
       </c>
-      <c r="I32" s="147"/>
-      <c r="J32" s="149"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="144"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
@@ -13000,25 +13090,25 @@
       <c r="A33" s="27">
         <v>31</v>
       </c>
-      <c r="B33" s="139" t="s">
+      <c r="B33" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="142" t="s">
         <v>699</v>
       </c>
-      <c r="D33" s="147" t="s">
+      <c r="D33" s="142" t="s">
         <v>646</v>
       </c>
-      <c r="E33" s="139"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="147" t="s">
+      <c r="E33" s="134"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="142" t="s">
         <v>372</v>
       </c>
-      <c r="H33" s="149" t="s">
+      <c r="H33" s="144" t="s">
         <v>653</v>
       </c>
-      <c r="I33" s="147"/>
-      <c r="J33" s="149"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="144"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -13031,25 +13121,25 @@
       <c r="A34" s="27">
         <v>32</v>
       </c>
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="134" t="s">
         <v>705</v>
       </c>
-      <c r="C34" s="147" t="s">
+      <c r="C34" s="142" t="s">
         <v>699</v>
       </c>
-      <c r="D34" s="147" t="s">
+      <c r="D34" s="142" t="s">
         <v>646</v>
       </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="147" t="s">
+      <c r="E34" s="134"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="142" t="s">
         <v>706</v>
       </c>
-      <c r="H34" s="149" t="s">
+      <c r="H34" s="144" t="s">
         <v>653</v>
       </c>
-      <c r="I34" s="147"/>
-      <c r="J34" s="149"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="144"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
@@ -13062,25 +13152,25 @@
       <c r="A35" s="27">
         <v>33</v>
       </c>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="140" t="s">
         <v>707</v>
       </c>
-      <c r="C35" s="142" t="s">
+      <c r="C35" s="137" t="s">
         <v>699</v>
       </c>
-      <c r="D35" s="142" t="s">
+      <c r="D35" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="142" t="s">
+      <c r="E35" s="140"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="137" t="s">
         <v>708</v>
       </c>
-      <c r="H35" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142" t="s">
+      <c r="H35" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137" t="s">
         <v>1044</v>
       </c>
       <c r="K35"/>
@@ -13095,25 +13185,25 @@
       <c r="A36" s="27">
         <v>34</v>
       </c>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="140" t="s">
         <v>709</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="137" t="s">
         <v>710</v>
       </c>
-      <c r="D36" s="142" t="s">
+      <c r="D36" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E36" s="145"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="142" t="s">
+      <c r="E36" s="140"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="137" t="s">
         <v>711</v>
       </c>
-      <c r="H36" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142" t="s">
+      <c r="H36" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137" t="s">
         <v>1045</v>
       </c>
       <c r="K36"/>
@@ -13128,25 +13218,25 @@
       <c r="A37" s="27">
         <v>35</v>
       </c>
-      <c r="B37" s="145" t="s">
+      <c r="B37" s="140" t="s">
         <v>712</v>
       </c>
-      <c r="C37" s="142" t="s">
+      <c r="C37" s="137" t="s">
         <v>710</v>
       </c>
-      <c r="D37" s="142" t="s">
+      <c r="D37" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E37" s="145"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="142" t="s">
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="137" t="s">
         <v>713</v>
       </c>
-      <c r="H37" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142" t="s">
+      <c r="H37" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137" t="s">
         <v>1046</v>
       </c>
       <c r="K37"/>
@@ -13161,25 +13251,25 @@
       <c r="A38" s="27">
         <v>36</v>
       </c>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="140" t="s">
         <v>714</v>
       </c>
-      <c r="C38" s="142" t="s">
+      <c r="C38" s="137" t="s">
         <v>710</v>
       </c>
-      <c r="D38" s="142" t="s">
+      <c r="D38" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E38" s="145"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="142" t="s">
+      <c r="E38" s="140"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="137" t="s">
         <v>715</v>
       </c>
-      <c r="H38" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142" t="s">
+      <c r="H38" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137" t="s">
         <v>1046</v>
       </c>
       <c r="K38"/>
@@ -13194,25 +13284,25 @@
       <c r="A39" s="27">
         <v>37</v>
       </c>
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="140" t="s">
         <v>716</v>
       </c>
-      <c r="C39" s="142" t="s">
+      <c r="C39" s="137" t="s">
         <v>710</v>
       </c>
-      <c r="D39" s="142" t="s">
+      <c r="D39" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E39" s="145"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="142" t="s">
+      <c r="E39" s="140"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="137" t="s">
         <v>717</v>
       </c>
-      <c r="H39" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142" t="s">
+      <c r="H39" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137" t="s">
         <v>1045</v>
       </c>
       <c r="K39"/>
@@ -13227,25 +13317,25 @@
       <c r="A40" s="27">
         <v>38</v>
       </c>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="140" t="s">
         <v>718</v>
       </c>
-      <c r="C40" s="142" t="s">
+      <c r="C40" s="137" t="s">
         <v>719</v>
       </c>
-      <c r="D40" s="142" t="s">
+      <c r="D40" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E40" s="145"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="142" t="s">
+      <c r="E40" s="140"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="137" t="s">
         <v>720</v>
       </c>
-      <c r="H40" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142" t="s">
+      <c r="H40" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K40"/>
@@ -13260,25 +13350,25 @@
       <c r="A41" s="27">
         <v>39</v>
       </c>
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="140" t="s">
         <v>721</v>
       </c>
-      <c r="C41" s="142" t="s">
+      <c r="C41" s="137" t="s">
         <v>719</v>
       </c>
-      <c r="D41" s="142" t="s">
+      <c r="D41" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E41" s="145"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="142" t="s">
+      <c r="E41" s="140"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="137" t="s">
         <v>722</v>
       </c>
-      <c r="H41" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142" t="s">
+      <c r="H41" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K41"/>
@@ -13293,25 +13383,25 @@
       <c r="A42" s="27">
         <v>40</v>
       </c>
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="140" t="s">
         <v>723</v>
       </c>
-      <c r="C42" s="142" t="s">
+      <c r="C42" s="137" t="s">
         <v>719</v>
       </c>
-      <c r="D42" s="142" t="s">
+      <c r="D42" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E42" s="145"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="142" t="s">
+      <c r="E42" s="140"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="137" t="s">
         <v>724</v>
       </c>
-      <c r="H42" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I42" s="142"/>
-      <c r="J42" s="142" t="s">
+      <c r="H42" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K42"/>
@@ -13326,25 +13416,25 @@
       <c r="A43" s="27">
         <v>41</v>
       </c>
-      <c r="B43" s="150" t="s">
+      <c r="B43" s="145" t="s">
         <v>725</v>
       </c>
-      <c r="C43" s="151" t="s">
+      <c r="C43" s="146" t="s">
         <v>719</v>
       </c>
-      <c r="D43" s="151" t="s">
+      <c r="D43" s="146" t="s">
         <v>646</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="151" t="s">
+      <c r="E43" s="145"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="146" t="s">
         <v>727</v>
       </c>
-      <c r="H43" s="153" t="s">
+      <c r="H43" s="148" t="s">
         <v>726</v>
       </c>
-      <c r="I43" s="151"/>
-      <c r="J43" s="153"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="148"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
@@ -13357,25 +13447,25 @@
       <c r="A44" s="27">
         <v>42</v>
       </c>
-      <c r="B44" s="145" t="s">
+      <c r="B44" s="140" t="s">
         <v>728</v>
       </c>
-      <c r="C44" s="142" t="s">
+      <c r="C44" s="137" t="s">
         <v>719</v>
       </c>
-      <c r="D44" s="142" t="s">
+      <c r="D44" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E44" s="145"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="142" t="s">
+      <c r="E44" s="140"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="137" t="s">
         <v>729</v>
       </c>
-      <c r="H44" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142" t="s">
+      <c r="H44" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K44"/>
@@ -13390,25 +13480,25 @@
       <c r="A45" s="27">
         <v>43</v>
       </c>
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="140" t="s">
         <v>730</v>
       </c>
-      <c r="C45" s="142" t="s">
+      <c r="C45" s="137" t="s">
         <v>719</v>
       </c>
-      <c r="D45" s="142" t="s">
+      <c r="D45" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E45" s="145"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="142" t="s">
+      <c r="E45" s="140"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="137" t="s">
         <v>731</v>
       </c>
-      <c r="H45" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I45" s="142"/>
-      <c r="J45" s="142" t="s">
+      <c r="H45" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K45"/>
@@ -13423,25 +13513,25 @@
       <c r="A46" s="27">
         <v>44</v>
       </c>
-      <c r="B46" s="145" t="s">
+      <c r="B46" s="140" t="s">
         <v>732</v>
       </c>
-      <c r="C46" s="142" t="s">
+      <c r="C46" s="137" t="s">
         <v>719</v>
       </c>
-      <c r="D46" s="142" t="s">
+      <c r="D46" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E46" s="145"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="142" t="s">
+      <c r="E46" s="140"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="137" t="s">
         <v>733</v>
       </c>
-      <c r="H46" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142" t="s">
+      <c r="H46" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K46"/>
@@ -13456,25 +13546,25 @@
       <c r="A47" s="27">
         <v>45</v>
       </c>
-      <c r="B47" s="145" t="s">
+      <c r="B47" s="140" t="s">
         <v>734</v>
       </c>
-      <c r="C47" s="142" t="s">
+      <c r="C47" s="137" t="s">
         <v>719</v>
       </c>
-      <c r="D47" s="142" t="s">
+      <c r="D47" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E47" s="145"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="142" t="s">
+      <c r="E47" s="140"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="137" t="s">
         <v>735</v>
       </c>
-      <c r="H47" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142" t="s">
+      <c r="H47" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K47"/>
@@ -13489,25 +13579,25 @@
       <c r="A48" s="27">
         <v>46</v>
       </c>
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="140" t="s">
         <v>736</v>
       </c>
-      <c r="C48" s="142" t="s">
+      <c r="C48" s="137" t="s">
         <v>719</v>
       </c>
-      <c r="D48" s="142" t="s">
+      <c r="D48" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E48" s="145"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="142" t="s">
+      <c r="E48" s="140"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="137" t="s">
         <v>737</v>
       </c>
-      <c r="H48" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142" t="s">
+      <c r="H48" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K48"/>
@@ -13522,25 +13612,25 @@
       <c r="A49" s="27">
         <v>47</v>
       </c>
-      <c r="B49" s="145" t="s">
+      <c r="B49" s="140" t="s">
         <v>738</v>
       </c>
-      <c r="C49" s="142" t="s">
+      <c r="C49" s="137" t="s">
         <v>739</v>
       </c>
-      <c r="D49" s="142" t="s">
+      <c r="D49" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E49" s="145"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="142" t="s">
+      <c r="E49" s="140"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="137" t="s">
         <v>740</v>
       </c>
-      <c r="H49" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142" t="s">
+      <c r="H49" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K49"/>
@@ -13555,25 +13645,25 @@
       <c r="A50" s="27">
         <v>48</v>
       </c>
-      <c r="B50" s="145" t="s">
+      <c r="B50" s="140" t="s">
         <v>741</v>
       </c>
-      <c r="C50" s="142" t="s">
+      <c r="C50" s="137" t="s">
         <v>739</v>
       </c>
-      <c r="D50" s="142" t="s">
+      <c r="D50" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E50" s="145"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="142" t="s">
+      <c r="E50" s="140"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="137" t="s">
         <v>742</v>
       </c>
-      <c r="H50" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142" t="s">
+      <c r="H50" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K50"/>
@@ -13588,25 +13678,25 @@
       <c r="A51" s="27">
         <v>49</v>
       </c>
-      <c r="B51" s="145" t="s">
+      <c r="B51" s="140" t="s">
         <v>743</v>
       </c>
-      <c r="C51" s="142" t="s">
+      <c r="C51" s="137" t="s">
         <v>739</v>
       </c>
-      <c r="D51" s="142" t="s">
+      <c r="D51" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E51" s="145"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="142" t="s">
+      <c r="E51" s="140"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="137" t="s">
         <v>744</v>
       </c>
-      <c r="H51" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142" t="s">
+      <c r="H51" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K51"/>
@@ -13621,25 +13711,25 @@
       <c r="A52" s="27">
         <v>50</v>
       </c>
-      <c r="B52" s="145" t="s">
+      <c r="B52" s="140" t="s">
         <v>745</v>
       </c>
-      <c r="C52" s="142" t="s">
+      <c r="C52" s="137" t="s">
         <v>739</v>
       </c>
-      <c r="D52" s="142" t="s">
+      <c r="D52" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E52" s="145"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="142" t="s">
+      <c r="E52" s="140"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="137" t="s">
         <v>746</v>
       </c>
-      <c r="H52" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142" t="s">
+      <c r="H52" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K52"/>
@@ -13654,25 +13744,25 @@
       <c r="A53" s="27">
         <v>51</v>
       </c>
-      <c r="B53" s="145" t="s">
+      <c r="B53" s="140" t="s">
         <v>747</v>
       </c>
-      <c r="C53" s="145" t="s">
+      <c r="C53" s="140" t="s">
         <v>739</v>
       </c>
-      <c r="D53" s="145" t="s">
+      <c r="D53" s="140" t="s">
         <v>646</v>
       </c>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="141" t="s">
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="136" t="s">
         <v>748</v>
       </c>
-      <c r="H53" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I53" s="145"/>
-      <c r="J53" s="142" t="s">
+      <c r="H53" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I53" s="140"/>
+      <c r="J53" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K53"/>
@@ -13687,25 +13777,25 @@
       <c r="A54" s="27">
         <v>52</v>
       </c>
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="140" t="s">
         <v>749</v>
       </c>
-      <c r="C54" s="145" t="s">
+      <c r="C54" s="140" t="s">
         <v>739</v>
       </c>
-      <c r="D54" s="145" t="s">
+      <c r="D54" s="140" t="s">
         <v>646</v>
       </c>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="141" t="s">
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="136" t="s">
         <v>750</v>
       </c>
-      <c r="H54" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I54" s="145"/>
-      <c r="J54" s="142" t="s">
+      <c r="H54" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I54" s="140"/>
+      <c r="J54" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K54"/>
@@ -13720,25 +13810,25 @@
       <c r="A55" s="27">
         <v>53</v>
       </c>
-      <c r="B55" s="145" t="s">
+      <c r="B55" s="140" t="s">
         <v>751</v>
       </c>
-      <c r="C55" s="142" t="s">
+      <c r="C55" s="137" t="s">
         <v>752</v>
       </c>
-      <c r="D55" s="142" t="s">
+      <c r="D55" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E55" s="145"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="142" t="s">
+      <c r="E55" s="140"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="137" t="s">
         <v>753</v>
       </c>
-      <c r="H55" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I55" s="142"/>
-      <c r="J55" s="142" t="s">
+      <c r="H55" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K55"/>
@@ -13753,25 +13843,25 @@
       <c r="A56" s="27">
         <v>54</v>
       </c>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="140" t="s">
         <v>754</v>
       </c>
-      <c r="C56" s="142" t="s">
+      <c r="C56" s="137" t="s">
         <v>755</v>
       </c>
-      <c r="D56" s="142" t="s">
+      <c r="D56" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E56" s="145"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="142" t="s">
+      <c r="E56" s="140"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="H56" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142" t="s">
+      <c r="H56" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K56"/>
@@ -13786,25 +13876,25 @@
       <c r="A57" s="27">
         <v>55</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="145" t="s">
         <v>757</v>
       </c>
-      <c r="C57" s="151" t="s">
+      <c r="C57" s="146" t="s">
         <v>755</v>
       </c>
-      <c r="D57" s="151" t="s">
+      <c r="D57" s="146" t="s">
         <v>646</v>
       </c>
-      <c r="E57" s="150"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="151" t="s">
+      <c r="E57" s="145"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="146" t="s">
         <v>758</v>
       </c>
-      <c r="H57" s="153" t="s">
+      <c r="H57" s="148" t="s">
         <v>726</v>
       </c>
-      <c r="I57" s="151"/>
-      <c r="J57" s="153"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="148"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
@@ -13817,25 +13907,25 @@
       <c r="A58" s="27">
         <v>56</v>
       </c>
-      <c r="B58" s="145" t="s">
+      <c r="B58" s="140" t="s">
         <v>759</v>
       </c>
-      <c r="C58" s="142" t="s">
+      <c r="C58" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D58" s="142" t="s">
+      <c r="D58" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E58" s="145"/>
-      <c r="F58" s="146"/>
-      <c r="G58" s="142" t="s">
+      <c r="E58" s="140"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="137" t="s">
         <v>761</v>
       </c>
-      <c r="H58" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I58" s="142"/>
-      <c r="J58" s="142" t="s">
+      <c r="H58" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K58"/>
@@ -13850,25 +13940,25 @@
       <c r="A59" s="27">
         <v>57</v>
       </c>
-      <c r="B59" s="145" t="s">
+      <c r="B59" s="140" t="s">
         <v>762</v>
       </c>
-      <c r="C59" s="142" t="s">
+      <c r="C59" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D59" s="142" t="s">
+      <c r="D59" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E59" s="145"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="142" t="s">
+      <c r="E59" s="140"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="137" t="s">
         <v>763</v>
       </c>
-      <c r="H59" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142" t="s">
+      <c r="H59" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K59"/>
@@ -13883,25 +13973,25 @@
       <c r="A60" s="27">
         <v>58</v>
       </c>
-      <c r="B60" s="145" t="s">
+      <c r="B60" s="140" t="s">
         <v>764</v>
       </c>
-      <c r="C60" s="142" t="s">
+      <c r="C60" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D60" s="142" t="s">
+      <c r="D60" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E60" s="145"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="142" t="s">
+      <c r="E60" s="140"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="137" t="s">
         <v>765</v>
       </c>
-      <c r="H60" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I60" s="142"/>
-      <c r="J60" s="142" t="s">
+      <c r="H60" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K60"/>
@@ -13916,25 +14006,25 @@
       <c r="A61" s="27">
         <v>59</v>
       </c>
-      <c r="B61" s="145" t="s">
+      <c r="B61" s="140" t="s">
         <v>766</v>
       </c>
-      <c r="C61" s="142" t="s">
+      <c r="C61" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D61" s="142" t="s">
+      <c r="D61" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E61" s="145"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="142" t="s">
+      <c r="E61" s="140"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="137" t="s">
         <v>767</v>
       </c>
-      <c r="H61" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I61" s="142"/>
-      <c r="J61" s="142" t="s">
+      <c r="H61" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K61"/>
@@ -13949,25 +14039,25 @@
       <c r="A62" s="27">
         <v>60</v>
       </c>
-      <c r="B62" s="145" t="s">
+      <c r="B62" s="140" t="s">
         <v>768</v>
       </c>
-      <c r="C62" s="142" t="s">
+      <c r="C62" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D62" s="142" t="s">
+      <c r="D62" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E62" s="145"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="142" t="s">
+      <c r="E62" s="140"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="137" t="s">
         <v>769</v>
       </c>
-      <c r="H62" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I62" s="142"/>
-      <c r="J62" s="142" t="s">
+      <c r="H62" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K62"/>
@@ -13982,25 +14072,25 @@
       <c r="A63" s="27">
         <v>61</v>
       </c>
-      <c r="B63" s="145" t="s">
+      <c r="B63" s="140" t="s">
         <v>770</v>
       </c>
-      <c r="C63" s="142" t="s">
+      <c r="C63" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D63" s="142" t="s">
+      <c r="D63" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E63" s="145"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="142" t="s">
+      <c r="E63" s="140"/>
+      <c r="F63" s="141"/>
+      <c r="G63" s="137" t="s">
         <v>771</v>
       </c>
-      <c r="H63" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I63" s="142"/>
-      <c r="J63" s="142" t="s">
+      <c r="H63" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I63" s="137"/>
+      <c r="J63" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K63"/>
@@ -14015,25 +14105,25 @@
       <c r="A64" s="27">
         <v>62</v>
       </c>
-      <c r="B64" s="145" t="s">
+      <c r="B64" s="140" t="s">
         <v>772</v>
       </c>
-      <c r="C64" s="142" t="s">
+      <c r="C64" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D64" s="142" t="s">
+      <c r="D64" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E64" s="145"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="142" t="s">
+      <c r="E64" s="140"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="137" t="s">
         <v>773</v>
       </c>
-      <c r="H64" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I64" s="142"/>
-      <c r="J64" s="142" t="s">
+      <c r="H64" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K64"/>
@@ -14048,25 +14138,25 @@
       <c r="A65" s="27">
         <v>63</v>
       </c>
-      <c r="B65" s="145" t="s">
+      <c r="B65" s="140" t="s">
         <v>774</v>
       </c>
-      <c r="C65" s="142" t="s">
+      <c r="C65" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D65" s="142" t="s">
+      <c r="D65" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E65" s="145"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="142" t="s">
+      <c r="E65" s="140"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="137" t="s">
         <v>775</v>
       </c>
-      <c r="H65" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I65" s="142"/>
-      <c r="J65" s="142" t="s">
+      <c r="H65" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I65" s="137"/>
+      <c r="J65" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K65"/>
@@ -14081,25 +14171,25 @@
       <c r="A66" s="27">
         <v>64</v>
       </c>
-      <c r="B66" s="145" t="s">
+      <c r="B66" s="140" t="s">
         <v>776</v>
       </c>
-      <c r="C66" s="142" t="s">
+      <c r="C66" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D66" s="142" t="s">
+      <c r="D66" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E66" s="145"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="142" t="s">
+      <c r="E66" s="140"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="137" t="s">
         <v>777</v>
       </c>
-      <c r="H66" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I66" s="142"/>
-      <c r="J66" s="142" t="s">
+      <c r="H66" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I66" s="137"/>
+      <c r="J66" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K66"/>
@@ -14114,25 +14204,25 @@
       <c r="A67" s="27">
         <v>65</v>
       </c>
-      <c r="B67" s="145" t="s">
+      <c r="B67" s="140" t="s">
         <v>778</v>
       </c>
-      <c r="C67" s="142" t="s">
+      <c r="C67" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D67" s="142" t="s">
+      <c r="D67" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E67" s="145"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="142" t="s">
+      <c r="E67" s="140"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="137" t="s">
         <v>779</v>
       </c>
-      <c r="H67" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I67" s="142"/>
-      <c r="J67" s="142" t="s">
+      <c r="H67" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I67" s="137"/>
+      <c r="J67" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K67"/>
@@ -14147,25 +14237,25 @@
       <c r="A68" s="27">
         <v>66</v>
       </c>
-      <c r="B68" s="145" t="s">
+      <c r="B68" s="140" t="s">
         <v>780</v>
       </c>
-      <c r="C68" s="142" t="s">
+      <c r="C68" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D68" s="142" t="s">
+      <c r="D68" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E68" s="145"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="142" t="s">
+      <c r="E68" s="140"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="137" t="s">
         <v>781</v>
       </c>
-      <c r="H68" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I68" s="142"/>
-      <c r="J68" s="142" t="s">
+      <c r="H68" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I68" s="137"/>
+      <c r="J68" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K68"/>
@@ -14180,25 +14270,25 @@
       <c r="A69" s="27">
         <v>67</v>
       </c>
-      <c r="B69" s="145" t="s">
+      <c r="B69" s="140" t="s">
         <v>782</v>
       </c>
-      <c r="C69" s="142" t="s">
+      <c r="C69" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D69" s="142" t="s">
+      <c r="D69" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E69" s="145"/>
-      <c r="F69" s="146"/>
-      <c r="G69" s="142" t="s">
+      <c r="E69" s="140"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="137" t="s">
         <v>783</v>
       </c>
-      <c r="H69" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I69" s="142"/>
-      <c r="J69" s="142" t="s">
+      <c r="H69" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I69" s="137"/>
+      <c r="J69" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K69"/>
@@ -14213,25 +14303,25 @@
       <c r="A70" s="27">
         <v>68</v>
       </c>
-      <c r="B70" s="145" t="s">
+      <c r="B70" s="140" t="s">
         <v>784</v>
       </c>
-      <c r="C70" s="142" t="s">
+      <c r="C70" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D70" s="142" t="s">
+      <c r="D70" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E70" s="145"/>
-      <c r="F70" s="146"/>
-      <c r="G70" s="142" t="s">
+      <c r="E70" s="140"/>
+      <c r="F70" s="141"/>
+      <c r="G70" s="137" t="s">
         <v>785</v>
       </c>
-      <c r="H70" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I70" s="142"/>
-      <c r="J70" s="142" t="s">
+      <c r="H70" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I70" s="137"/>
+      <c r="J70" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K70"/>
@@ -14246,25 +14336,25 @@
       <c r="A71" s="27">
         <v>69</v>
       </c>
-      <c r="B71" s="145" t="s">
+      <c r="B71" s="140" t="s">
         <v>786</v>
       </c>
-      <c r="C71" s="142" t="s">
+      <c r="C71" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D71" s="142" t="s">
+      <c r="D71" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E71" s="145"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="142" t="s">
+      <c r="E71" s="140"/>
+      <c r="F71" s="141"/>
+      <c r="G71" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="H71" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I71" s="142"/>
-      <c r="J71" s="142" t="s">
+      <c r="H71" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I71" s="137"/>
+      <c r="J71" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K71"/>
@@ -14279,25 +14369,25 @@
       <c r="A72" s="27">
         <v>70</v>
       </c>
-      <c r="B72" s="145" t="s">
+      <c r="B72" s="140" t="s">
         <v>788</v>
       </c>
-      <c r="C72" s="142" t="s">
+      <c r="C72" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="D72" s="142" t="s">
+      <c r="D72" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E72" s="145"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="142" t="s">
+      <c r="E72" s="140"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="137" t="s">
         <v>789</v>
       </c>
-      <c r="H72" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I72" s="142"/>
-      <c r="J72" s="142" t="s">
+      <c r="H72" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I72" s="137"/>
+      <c r="J72" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K72"/>
@@ -14312,25 +14402,25 @@
       <c r="A73" s="27">
         <v>71</v>
       </c>
-      <c r="B73" s="150" t="s">
+      <c r="B73" s="145" t="s">
         <v>790</v>
       </c>
-      <c r="C73" s="151" t="s">
+      <c r="C73" s="146" t="s">
         <v>791</v>
       </c>
-      <c r="D73" s="151" t="s">
+      <c r="D73" s="146" t="s">
         <v>646</v>
       </c>
-      <c r="E73" s="150"/>
-      <c r="F73" s="152"/>
-      <c r="G73" s="151" t="s">
+      <c r="E73" s="145"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="146" t="s">
         <v>792</v>
       </c>
-      <c r="H73" s="153" t="s">
+      <c r="H73" s="148" t="s">
         <v>726</v>
       </c>
-      <c r="I73" s="151"/>
-      <c r="J73" s="153"/>
+      <c r="I73" s="146"/>
+      <c r="J73" s="148"/>
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
@@ -14343,25 +14433,25 @@
       <c r="A74" s="27">
         <v>72</v>
       </c>
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="140" t="s">
         <v>793</v>
       </c>
-      <c r="C74" s="142" t="s">
+      <c r="C74" s="137" t="s">
         <v>794</v>
       </c>
-      <c r="D74" s="142" t="s">
+      <c r="D74" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E74" s="145"/>
-      <c r="F74" s="146"/>
-      <c r="G74" s="142" t="s">
+      <c r="E74" s="140"/>
+      <c r="F74" s="141"/>
+      <c r="G74" s="137" t="s">
         <v>795</v>
       </c>
-      <c r="H74" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I74" s="142"/>
-      <c r="J74" s="142" t="s">
+      <c r="H74" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I74" s="137"/>
+      <c r="J74" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K74"/>
@@ -14376,25 +14466,25 @@
       <c r="A75" s="27">
         <v>73</v>
       </c>
-      <c r="B75" s="145" t="s">
+      <c r="B75" s="140" t="s">
         <v>796</v>
       </c>
-      <c r="C75" s="142" t="s">
+      <c r="C75" s="137" t="s">
         <v>794</v>
       </c>
-      <c r="D75" s="142" t="s">
+      <c r="D75" s="137" t="s">
         <v>646</v>
       </c>
-      <c r="E75" s="145"/>
-      <c r="F75" s="146"/>
-      <c r="G75" s="142" t="s">
+      <c r="E75" s="140"/>
+      <c r="F75" s="141"/>
+      <c r="G75" s="137" t="s">
         <v>797</v>
       </c>
-      <c r="H75" s="144" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I75" s="142"/>
-      <c r="J75" s="142" t="s">
+      <c r="H75" s="139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I75" s="137"/>
+      <c r="J75" s="137" t="s">
         <v>1047</v>
       </c>
       <c r="K75"/>
@@ -14409,25 +14499,25 @@
       <c r="A76" s="27">
         <v>74</v>
       </c>
-      <c r="B76" s="145" t="s">
+      <c r="B76" s="140" t="s">
         <v>798</v>
       </c>
-      <c r="C76" s="142" t="s">
+      <c r="C76" s="137" t="s">
         <v>794</v>
       </c>
-      <c r="D76" s="142" 